--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5784" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="932">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -2459,6 +2459,18 @@
   </si>
   <si>
     <t>MASCARA DE PROTECAO -  MODELO: FACIAL; MATERIA-PRIMA: MALHA, 100% ALGODAO, GRAMATURA 150 G/M2; FILTRO: SEM FILTRO; CLASSE DO FILTRO: NAO APLICAVEL; PROTECAO: VIAS AEREAS SUPERIORES; VALVULA: NAO APLICAVEL; VISOR: NAO APLICAVEL; FIXACAO: ELASTICOS;</t>
+  </si>
+  <si>
+    <t>2121022 000035/2020</t>
+  </si>
+  <si>
+    <t>AQUISIÇÃO EMERGENCIAL DE EPIS PARA COMBATE AO COVID-19</t>
+  </si>
+  <si>
+    <t>05.194.502/0001-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALFALAGOS LTDA </t>
   </si>
   <si>
     <t>2261032 000112/2020</t>
@@ -2990,7 +3002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF367"/>
+  <dimension ref="A1:AF368"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -31871,7 +31883,7 @@
         <v>33</v>
       </c>
       <c r="C323" s="14">
-        <v>43920</v>
+        <v>44053</v>
       </c>
       <c r="D323" s="15" t="s">
         <v>817</v>
@@ -31880,16 +31892,16 @@
         <v>33</v>
       </c>
       <c r="F323" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G323" s="13" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
       <c r="H323" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I323" s="13" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J323" s="17">
         <v>0</v>
@@ -31902,11 +31914,11 @@
       <c r="P323" s="19"/>
       <c r="Q323" s="18"/>
       <c r="R323" s="15" t="s">
+        <v>818</v>
+      </c>
+      <c r="S323" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="S323" s="15" t="s">
-        <v>820</v>
-      </c>
       <c r="T323" s="13" t="s">
         <v>33</v>
       </c>
@@ -31914,42 +31926,42 @@
         <v>33</v>
       </c>
       <c r="V323" s="17">
-        <v>82414</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W323" s="15" t="s">
-        <v>821</v>
+        <v>621</v>
       </c>
       <c r="X323" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y323" s="15" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
       <c r="Z323" s="15" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="AA323" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB323" s="21">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="AC323" s="22">
-        <v>676000e-6</v>
+        <v>36.99</v>
       </c>
       <c r="AD323" s="22">
-        <v>676000e-6</v>
+        <v>36.99</v>
       </c>
       <c r="AE323" s="23">
-        <v>6760</v>
+        <v>73.98</v>
       </c>
       <c r="AF323" s="23">
-        <v>6760</v>
+        <v>73.98</v>
       </c>
     </row>
     <row r="324" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A324" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>33</v>
@@ -31958,7 +31970,7 @@
         <v>43920</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>33</v>
@@ -31967,7 +31979,7 @@
         <v>2260</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>36</v>
@@ -31986,10 +31998,10 @@
       <c r="P324" s="9"/>
       <c r="Q324" s="8"/>
       <c r="R324" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="S324" s="5" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="T324" s="3" t="s">
         <v>33</v>
@@ -31998,42 +32010,42 @@
         <v>33</v>
       </c>
       <c r="V324" s="7">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W324" s="5" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="X324" s="7">
         <v>2261</v>
       </c>
       <c r="Y324" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z324" s="5" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="AA324" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB324" s="10">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC324" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD324" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE324" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF324" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="325" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A325" s="13" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B325" s="13" t="s">
         <v>33</v>
@@ -32042,7 +32054,7 @@
         <v>43920</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E325" s="15" t="s">
         <v>33</v>
@@ -32051,7 +32063,7 @@
         <v>2260</v>
       </c>
       <c r="G325" s="13" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H325" s="13" t="s">
         <v>36</v>
@@ -32082,42 +32094,42 @@
         <v>33</v>
       </c>
       <c r="V325" s="17">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W325" s="15" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="X325" s="17">
         <v>2261</v>
       </c>
       <c r="Y325" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z325" s="15" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AA325" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB325" s="21">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC325" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD325" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE325" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF325" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="326" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A326" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>33</v>
@@ -32126,7 +32138,7 @@
         <v>43920</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>33</v>
@@ -32135,7 +32147,7 @@
         <v>2260</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>36</v>
@@ -32154,10 +32166,10 @@
       <c r="P326" s="9"/>
       <c r="Q326" s="8"/>
       <c r="R326" s="5" t="s">
-        <v>712</v>
+        <v>827</v>
       </c>
       <c r="S326" s="5" t="s">
-        <v>713</v>
+        <v>828</v>
       </c>
       <c r="T326" s="3" t="s">
         <v>33</v>
@@ -32166,16 +32178,16 @@
         <v>33</v>
       </c>
       <c r="V326" s="7">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W326" s="5" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="X326" s="7">
         <v>2261</v>
       </c>
       <c r="Y326" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z326" s="5" t="s">
         <v>379</v>
@@ -32184,24 +32196,24 @@
         <v>44</v>
       </c>
       <c r="AB326" s="10">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC326" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD326" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE326" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF326" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="327" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A327" s="13" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B327" s="13" t="s">
         <v>33</v>
@@ -32210,7 +32222,7 @@
         <v>43920</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E327" s="15" t="s">
         <v>33</v>
@@ -32219,7 +32231,7 @@
         <v>2260</v>
       </c>
       <c r="G327" s="13" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H327" s="13" t="s">
         <v>36</v>
@@ -32250,16 +32262,16 @@
         <v>33</v>
       </c>
       <c r="V327" s="17">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W327" s="15" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="X327" s="17">
         <v>2261</v>
       </c>
       <c r="Y327" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z327" s="15" t="s">
         <v>379</v>
@@ -32268,24 +32280,24 @@
         <v>44</v>
       </c>
       <c r="AB327" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC327" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD327" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE327" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF327" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="328" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A328" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>33</v>
@@ -32294,7 +32306,7 @@
         <v>43920</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>33</v>
@@ -32303,7 +32315,7 @@
         <v>2260</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>36</v>
@@ -32334,16 +32346,16 @@
         <v>33</v>
       </c>
       <c r="V328" s="7">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W328" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="X328" s="7">
         <v>2261</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z328" s="5" t="s">
         <v>379</v>
@@ -32352,24 +32364,24 @@
         <v>44</v>
       </c>
       <c r="AB328" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC328" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD328" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE328" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF328" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="329" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A329" s="13" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B329" s="13" t="s">
         <v>33</v>
@@ -32378,7 +32390,7 @@
         <v>43920</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E329" s="15" t="s">
         <v>33</v>
@@ -32387,7 +32399,7 @@
         <v>2260</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>36</v>
@@ -32406,10 +32418,10 @@
       <c r="P329" s="19"/>
       <c r="Q329" s="18"/>
       <c r="R329" s="15" t="s">
-        <v>829</v>
+        <v>712</v>
       </c>
       <c r="S329" s="15" t="s">
-        <v>830</v>
+        <v>713</v>
       </c>
       <c r="T329" s="13" t="s">
         <v>33</v>
@@ -32418,16 +32430,16 @@
         <v>33</v>
       </c>
       <c r="V329" s="17">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W329" s="15" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="X329" s="17">
         <v>2261</v>
       </c>
       <c r="Y329" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z329" s="15" t="s">
         <v>379</v>
@@ -32436,24 +32448,24 @@
         <v>44</v>
       </c>
       <c r="AB329" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC329" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD329" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE329" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF329" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="330" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>33</v>
@@ -32462,7 +32474,7 @@
         <v>43920</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>33</v>
@@ -32471,7 +32483,7 @@
         <v>2260</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>36</v>
@@ -32490,10 +32502,10 @@
       <c r="P330" s="9"/>
       <c r="Q330" s="8"/>
       <c r="R330" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="S330" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="T330" s="3" t="s">
         <v>33</v>
@@ -32502,16 +32514,16 @@
         <v>33</v>
       </c>
       <c r="V330" s="7">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W330" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="X330" s="7">
         <v>2261</v>
       </c>
       <c r="Y330" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z330" s="5" t="s">
         <v>379</v>
@@ -32520,24 +32532,24 @@
         <v>44</v>
       </c>
       <c r="AB330" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC330" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD330" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE330" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF330" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A331" s="13" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B331" s="13" t="s">
         <v>33</v>
@@ -32546,7 +32558,7 @@
         <v>43920</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E331" s="15" t="s">
         <v>33</v>
@@ -32555,7 +32567,7 @@
         <v>2260</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>36</v>
@@ -32574,10 +32586,10 @@
       <c r="P331" s="19"/>
       <c r="Q331" s="18"/>
       <c r="R331" s="15" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="S331" s="15" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="T331" s="13" t="s">
         <v>33</v>
@@ -32586,16 +32598,16 @@
         <v>33</v>
       </c>
       <c r="V331" s="17">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W331" s="15" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="X331" s="17">
         <v>2261</v>
       </c>
       <c r="Y331" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z331" s="15" t="s">
         <v>379</v>
@@ -32604,24 +32616,24 @@
         <v>44</v>
       </c>
       <c r="AB331" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC331" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD331" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE331" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF331" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="332" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>33</v>
@@ -32630,7 +32642,7 @@
         <v>43920</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>33</v>
@@ -32639,7 +32651,7 @@
         <v>2260</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>36</v>
@@ -32648,27 +32660,15 @@
         <v>37</v>
       </c>
       <c r="J332" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K332" s="5" t="s">
-        <v>838</v>
-      </c>
-      <c r="L332" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M332" s="5" t="s">
-        <v>818</v>
-      </c>
-      <c r="N332" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O332" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K332" s="5"/>
+      <c r="L332" s="7"/>
+      <c r="M332" s="5"/>
+      <c r="N332" s="8"/>
+      <c r="O332" s="8"/>
       <c r="P332" s="9"/>
-      <c r="Q332" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q332" s="8"/>
       <c r="R332" s="5" t="s">
         <v>839</v>
       </c>
@@ -32682,7 +32682,7 @@
         <v>33</v>
       </c>
       <c r="V332" s="7">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W332" s="5" t="s">
         <v>841</v>
@@ -32691,33 +32691,33 @@
         <v>2261</v>
       </c>
       <c r="Y332" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z332" s="5" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA332" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB332" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC332" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD332" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE332" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF332" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A333" s="13" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B333" s="13" t="s">
         <v>33</v>
@@ -32726,7 +32726,7 @@
         <v>43920</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E333" s="15" t="s">
         <v>33</v>
@@ -32735,7 +32735,7 @@
         <v>2260</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>36</v>
@@ -32744,7 +32744,7 @@
         <v>37</v>
       </c>
       <c r="J333" s="17">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K333" s="15" t="s">
         <v>842</v>
@@ -32753,7 +32753,7 @@
         <v>2260</v>
       </c>
       <c r="M333" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="N333" s="18">
         <v>43936</v>
@@ -32778,7 +32778,7 @@
         <v>33</v>
       </c>
       <c r="V333" s="17">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W333" s="15" t="s">
         <v>845</v>
@@ -32787,7 +32787,7 @@
         <v>2261</v>
       </c>
       <c r="Y333" s="15" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z333" s="15" t="s">
         <v>122</v>
@@ -32799,21 +32799,21 @@
         <v>30000</v>
       </c>
       <c r="AC333" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD333" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE333" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF333" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>33</v>
@@ -32822,7 +32822,7 @@
         <v>43920</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>33</v>
@@ -32831,7 +32831,7 @@
         <v>2260</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>36</v>
@@ -32843,13 +32843,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K334" s="5" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="L334" s="7">
         <v>2260</v>
       </c>
       <c r="M334" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="N334" s="8">
         <v>43936</v>
@@ -32862,10 +32862,10 @@
         <v>44115</v>
       </c>
       <c r="R334" s="5" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="S334" s="5" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="T334" s="3" t="s">
         <v>33</v>
@@ -32874,16 +32874,16 @@
         <v>33</v>
       </c>
       <c r="V334" s="7">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W334" s="5" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="X334" s="7">
         <v>2261</v>
       </c>
       <c r="Y334" s="5" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="Z334" s="5" t="s">
         <v>122</v>
@@ -32895,62 +32895,74 @@
         <v>30000</v>
       </c>
       <c r="AC334" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD334" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE334" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF334" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A335" s="13" t="s">
+        <v>820</v>
+      </c>
+      <c r="B335" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335" s="14">
+        <v>43920</v>
+      </c>
+      <c r="D335" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="E335" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F335" s="16">
+        <v>2260</v>
+      </c>
+      <c r="G335" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="H335" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I335" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J335" s="17">
+        <v>9.245763e6</v>
+      </c>
+      <c r="K335" s="15" t="s">
+        <v>846</v>
+      </c>
+      <c r="L335" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M335" s="15" t="s">
+        <v>822</v>
+      </c>
+      <c r="N335" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O335" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P335" s="19"/>
+      <c r="Q335" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R335" s="15" t="s">
         <v>847</v>
       </c>
-      <c r="B335" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C335" s="14">
-        <v>43972</v>
-      </c>
-      <c r="D335" s="15" t="s">
+      <c r="S335" s="15" t="s">
         <v>848</v>
       </c>
-      <c r="E335" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F335" s="16">
-        <v>2280</v>
-      </c>
-      <c r="G335" s="13" t="s">
-        <v>849</v>
-      </c>
-      <c r="H335" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I335" s="13" t="s">
-        <v>812</v>
-      </c>
-      <c r="J335" s="17">
-        <v>0</v>
-      </c>
-      <c r="K335" s="15"/>
-      <c r="L335" s="17"/>
-      <c r="M335" s="15"/>
-      <c r="N335" s="18"/>
-      <c r="O335" s="18"/>
-      <c r="P335" s="19"/>
-      <c r="Q335" s="18"/>
-      <c r="R335" s="15" t="s">
-        <v>813</v>
-      </c>
-      <c r="S335" s="15" t="s">
-        <v>814</v>
-      </c>
       <c r="T335" s="13" t="s">
         <v>33</v>
       </c>
@@ -32958,37 +32970,37 @@
         <v>33</v>
       </c>
       <c r="V335" s="17">
-        <v>1.756699e6</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W335" s="15" t="s">
-        <v>815</v>
+        <v>850</v>
       </c>
       <c r="X335" s="17">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y335" s="15" t="s">
-        <v>850</v>
+        <v>822</v>
       </c>
       <c r="Z335" s="15" t="s">
-        <v>373</v>
+        <v>122</v>
       </c>
       <c r="AA335" s="13" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AB335" s="21">
-        <v>127</v>
+        <v>30000</v>
       </c>
       <c r="AC335" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AD335" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AE335" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
       <c r="AF335" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -32999,7 +33011,7 @@
         <v>33</v>
       </c>
       <c r="C336" s="4">
-        <v>43921</v>
+        <v>43972</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>852</v>
@@ -33008,7 +33020,7 @@
         <v>33</v>
       </c>
       <c r="F336" s="6">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="G336" s="3" t="s">
         <v>853</v>
@@ -33017,90 +33029,76 @@
         <v>36</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>37</v>
+        <v>812</v>
       </c>
       <c r="J336" s="7">
-        <v>9.245674e6</v>
-      </c>
-      <c r="K336" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K336" s="5"/>
+      <c r="L336" s="7"/>
+      <c r="M336" s="5"/>
+      <c r="N336" s="8"/>
+      <c r="O336" s="8"/>
+      <c r="P336" s="9"/>
+      <c r="Q336" s="8"/>
+      <c r="R336" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="S336" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="T336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U336" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V336" s="7">
+        <v>1.756699e6</v>
+      </c>
+      <c r="W336" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="X336" s="7">
+        <v>2281</v>
+      </c>
+      <c r="Y336" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="L336" s="7">
-        <v>2300</v>
-      </c>
-      <c r="M336" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="N336" s="8">
-        <v>43922</v>
-      </c>
-      <c r="O336" s="8">
-        <v>43922</v>
-      </c>
-      <c r="P336" s="9">
-        <v>44105</v>
-      </c>
-      <c r="Q336" s="8">
-        <v>44131</v>
-      </c>
-      <c r="R336" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="S336" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="T336" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U336" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V336" s="7">
-        <v>1155</v>
-      </c>
-      <c r="W336" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X336" s="7">
-        <v>2301</v>
-      </c>
-      <c r="Y336" s="5" t="s">
-        <v>857</v>
-      </c>
       <c r="Z336" s="5" t="s">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="AA336" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB336" s="10">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC336" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AD336" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AE336" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
       <c r="AF336" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A337" s="13" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C337" s="14">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E337" s="15" t="s">
         <v>33</v>
@@ -33109,7 +33107,7 @@
         <v>2300</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>36</v>
@@ -33118,34 +33116,34 @@
         <v>37</v>
       </c>
       <c r="J337" s="17">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K337" s="15" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="L337" s="17">
         <v>2300</v>
       </c>
       <c r="M337" s="15" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="N337" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O337" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P337" s="19">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q337" s="18">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R337" s="15" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="S337" s="15" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="T337" s="13" t="s">
         <v>33</v>
@@ -33163,7 +33161,7 @@
         <v>2301</v>
       </c>
       <c r="Y337" s="15" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="Z337" s="15" t="s">
         <v>108</v>
@@ -33175,30 +33173,30 @@
         <v>0</v>
       </c>
       <c r="AC337" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD337" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE337" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF337" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="338" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A338" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C338" s="4">
+        <v>43935</v>
+      </c>
+      <c r="D338" s="5" t="s">
         <v>863</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C338" s="4">
-        <v>43963</v>
-      </c>
-      <c r="D338" s="5" t="s">
-        <v>864</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>33</v>
@@ -33207,7 +33205,7 @@
         <v>2300</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>36</v>
@@ -33216,34 +33214,34 @@
         <v>37</v>
       </c>
       <c r="J338" s="7">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K338" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L338" s="7">
         <v>2300</v>
       </c>
       <c r="M338" s="5" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="N338" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O338" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P338" s="9">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q338" s="8">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R338" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="S338" s="5" t="s">
         <v>866</v>
-      </c>
-      <c r="S338" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="T338" s="3" t="s">
         <v>33</v>
@@ -33261,7 +33259,7 @@
         <v>2301</v>
       </c>
       <c r="Y338" s="5" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="Z338" s="5" t="s">
         <v>108</v>
@@ -33273,39 +33271,39 @@
         <v>0</v>
       </c>
       <c r="AC338" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD338" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE338" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF338" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A339" s="13" t="s">
+        <v>867</v>
+      </c>
+      <c r="B339" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C339" s="14">
+        <v>43963</v>
+      </c>
+      <c r="D339" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="B339" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C339" s="14">
-        <v>43928</v>
-      </c>
-      <c r="D339" s="15" t="s">
-        <v>869</v>
-      </c>
       <c r="E339" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F339" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>36</v>
@@ -33314,35 +33312,35 @@
         <v>37</v>
       </c>
       <c r="J339" s="17">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K339" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="L339" s="17">
+        <v>2300</v>
+      </c>
+      <c r="M339" s="15" t="s">
+        <v>857</v>
+      </c>
+      <c r="N339" s="18">
+        <v>43963</v>
+      </c>
+      <c r="O339" s="18">
+        <v>43963</v>
+      </c>
+      <c r="P339" s="19">
+        <v>44195</v>
+      </c>
+      <c r="Q339" s="18">
+        <v>44195</v>
+      </c>
+      <c r="R339" s="15" t="s">
+        <v>870</v>
+      </c>
+      <c r="S339" s="15" t="s">
         <v>871</v>
       </c>
-      <c r="L339" s="17">
-        <v>2310</v>
-      </c>
-      <c r="M339" s="15" t="s">
-        <v>870</v>
-      </c>
-      <c r="N339" s="18">
-        <v>43943</v>
-      </c>
-      <c r="O339" s="18">
-        <v>43939</v>
-      </c>
-      <c r="P339" s="19">
-        <v>44304</v>
-      </c>
-      <c r="Q339" s="18">
-        <v>44121</v>
-      </c>
-      <c r="R339" s="15" t="s">
-        <v>750</v>
-      </c>
-      <c r="S339" s="15" t="s">
-        <v>751</v>
-      </c>
       <c r="T339" s="13" t="s">
         <v>33</v>
       </c>
@@ -33350,42 +33348,42 @@
         <v>33</v>
       </c>
       <c r="V339" s="17">
-        <v>18228</v>
-      </c>
-      <c r="W339" s="20" t="s">
-        <v>872</v>
+        <v>1155</v>
+      </c>
+      <c r="W339" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="X339" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y339" s="15" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="Z339" s="15" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="AA339" s="13" t="s">
-        <v>873</v>
+        <v>44</v>
       </c>
       <c r="AB339" s="21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC339" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD339" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE339" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF339" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A340" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>33</v>
@@ -33394,7 +33392,7 @@
         <v>43928</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>33</v>
@@ -33403,7 +33401,7 @@
         <v>2310</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H340" s="3" t="s">
         <v>36</v>
@@ -33415,13 +33413,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K340" s="5" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L340" s="7">
         <v>2310</v>
       </c>
       <c r="M340" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N340" s="8">
         <v>43943</v>
@@ -33448,42 +33446,42 @@
         <v>33</v>
       </c>
       <c r="V340" s="7">
-        <v>236268</v>
-      </c>
-      <c r="W340" s="5" t="s">
-        <v>874</v>
+        <v>18228</v>
+      </c>
+      <c r="W340" s="24" t="s">
+        <v>876</v>
       </c>
       <c r="X340" s="7">
         <v>2311</v>
       </c>
       <c r="Y340" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z340" s="5" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AA340" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB340" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC340" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD340" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE340" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF340" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A341" s="13" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B341" s="13" t="s">
         <v>33</v>
@@ -33492,7 +33490,7 @@
         <v>43928</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E341" s="15" t="s">
         <v>33</v>
@@ -33501,7 +33499,7 @@
         <v>2310</v>
       </c>
       <c r="G341" s="13" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H341" s="13" t="s">
         <v>36</v>
@@ -33513,13 +33511,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K341" s="15" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L341" s="17">
         <v>2310</v>
       </c>
       <c r="M341" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N341" s="18">
         <v>43943</v>
@@ -33546,42 +33544,42 @@
         <v>33</v>
       </c>
       <c r="V341" s="17">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W341" s="15" t="s">
-        <v>757</v>
+        <v>878</v>
       </c>
       <c r="X341" s="17">
         <v>2311</v>
       </c>
       <c r="Y341" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z341" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA341" s="13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB341" s="21">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC341" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD341" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE341" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF341" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>33</v>
@@ -33590,7 +33588,7 @@
         <v>43928</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>33</v>
@@ -33599,7 +33597,7 @@
         <v>2310</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>36</v>
@@ -33611,13 +33609,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K342" s="5" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L342" s="7">
         <v>2310</v>
       </c>
       <c r="M342" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N342" s="8">
         <v>43943</v>
@@ -33644,42 +33642,42 @@
         <v>33</v>
       </c>
       <c r="V342" s="7">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="X342" s="7">
         <v>2311</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z342" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA342" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB342" s="10">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC342" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD342" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE342" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF342" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A343" s="13" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B343" s="13" t="s">
         <v>33</v>
@@ -33688,7 +33686,7 @@
         <v>43928</v>
       </c>
       <c r="D343" s="15" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E343" s="15" t="s">
         <v>33</v>
@@ -33697,7 +33695,7 @@
         <v>2310</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>36</v>
@@ -33709,13 +33707,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K343" s="15" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L343" s="17">
         <v>2310</v>
       </c>
       <c r="M343" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N343" s="18">
         <v>43943</v>
@@ -33742,25 +33740,25 @@
         <v>33</v>
       </c>
       <c r="V343" s="17">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W343" s="15" t="s">
-        <v>875</v>
+        <v>752</v>
       </c>
       <c r="X343" s="17">
         <v>2311</v>
       </c>
       <c r="Y343" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z343" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA343" s="13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB343" s="21">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC343" s="22">
         <v>45</v>
@@ -33769,15 +33767,15 @@
         <v>45</v>
       </c>
       <c r="AE343" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF343" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>33</v>
@@ -33786,7 +33784,7 @@
         <v>43928</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>33</v>
@@ -33795,7 +33793,7 @@
         <v>2310</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>36</v>
@@ -33807,13 +33805,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K344" s="5" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L344" s="7">
         <v>2310</v>
       </c>
       <c r="M344" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N344" s="8">
         <v>43943</v>
@@ -33840,22 +33838,22 @@
         <v>33</v>
       </c>
       <c r="V344" s="7">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="X344" s="7">
         <v>2311</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z344" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA344" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB344" s="10">
         <v>30</v>
@@ -33875,7 +33873,7 @@
     </row>
     <row r="345" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A345" s="13" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>33</v>
@@ -33884,7 +33882,7 @@
         <v>43928</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="E345" s="15" t="s">
         <v>33</v>
@@ -33893,7 +33891,7 @@
         <v>2310</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>36</v>
@@ -33905,13 +33903,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K345" s="15" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="L345" s="17">
         <v>2310</v>
       </c>
       <c r="M345" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N345" s="18">
         <v>43943</v>
@@ -33938,22 +33936,22 @@
         <v>33</v>
       </c>
       <c r="V345" s="17">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W345" s="15" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="X345" s="17">
         <v>2311</v>
       </c>
       <c r="Y345" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z345" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA345" s="13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB345" s="21">
         <v>30</v>
@@ -33973,16 +33971,16 @@
     </row>
     <row r="346" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C346" s="4">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>33</v>
@@ -33991,7 +33989,7 @@
         <v>2310</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>36</v>
@@ -34000,87 +33998,87 @@
         <v>37</v>
       </c>
       <c r="J346" s="7">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K346" s="5" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="L346" s="7">
         <v>2310</v>
       </c>
       <c r="M346" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N346" s="8">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O346" s="8">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P346" s="9">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q346" s="8">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R346" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="S346" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="T346" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U346" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V346" s="7">
+        <v>1.152831e6</v>
+      </c>
+      <c r="W346" s="5" t="s">
         <v>881</v>
-      </c>
-      <c r="S346" s="5" t="s">
-        <v>882</v>
-      </c>
-      <c r="T346" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U346" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V346" s="7">
-        <v>1.755897e6</v>
-      </c>
-      <c r="W346" s="5" t="s">
-        <v>883</v>
       </c>
       <c r="X346" s="7">
         <v>2311</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z346" s="5" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AA346" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB346" s="10">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC346" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD346" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE346" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF346" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A347" s="13" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C347" s="14">
-        <v>43966</v>
+        <v>43955</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E347" s="15" t="s">
         <v>33</v>
@@ -34089,7 +34087,7 @@
         <v>2310</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>36</v>
@@ -34098,34 +34096,34 @@
         <v>37</v>
       </c>
       <c r="J347" s="17">
-        <v>9.253515e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K347" s="15" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="L347" s="17">
         <v>2310</v>
       </c>
       <c r="M347" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N347" s="18">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O347" s="18">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P347" s="19">
-        <v>44757</v>
+        <v>44557</v>
       </c>
       <c r="Q347" s="18">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R347" s="15" t="s">
-        <v>457</v>
+        <v>885</v>
       </c>
       <c r="S347" s="15" t="s">
-        <v>458</v>
+        <v>886</v>
       </c>
       <c r="T347" s="13" t="s">
         <v>33</v>
@@ -34134,7 +34132,7 @@
         <v>33</v>
       </c>
       <c r="V347" s="17">
-        <v>1.722859e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W347" s="15" t="s">
         <v>887</v>
@@ -34143,33 +34141,33 @@
         <v>2311</v>
       </c>
       <c r="Y347" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z347" s="15" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="AA347" s="13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB347" s="21">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="AC347" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD347" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE347" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
       <c r="AF347" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>33</v>
@@ -34178,7 +34176,7 @@
         <v>43966</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>33</v>
@@ -34187,7 +34185,7 @@
         <v>2310</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H348" s="3" t="s">
         <v>36</v>
@@ -34199,13 +34197,13 @@
         <v>9.253515e6</v>
       </c>
       <c r="K348" s="5" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="L348" s="7">
         <v>2310</v>
       </c>
       <c r="M348" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N348" s="8">
         <v>44027</v>
@@ -34232,42 +34230,42 @@
         <v>33</v>
       </c>
       <c r="V348" s="7">
-        <v>1.722891e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="X348" s="7">
         <v>2311</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z348" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA348" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB348" s="10">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="AC348" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AD348" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AE348" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
       <c r="AF348" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A349" s="13" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>33</v>
@@ -34276,7 +34274,7 @@
         <v>43966</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="E349" s="15" t="s">
         <v>33</v>
@@ -34285,7 +34283,7 @@
         <v>2310</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>36</v>
@@ -34294,16 +34292,16 @@
         <v>37</v>
       </c>
       <c r="J349" s="17">
-        <v>9.253532e6</v>
+        <v>9.253515e6</v>
       </c>
       <c r="K349" s="15" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="L349" s="17">
         <v>2310</v>
       </c>
       <c r="M349" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N349" s="18">
         <v>44027</v>
@@ -34318,10 +34316,10 @@
         <v>44206</v>
       </c>
       <c r="R349" s="15" t="s">
-        <v>890</v>
+        <v>457</v>
       </c>
       <c r="S349" s="15" t="s">
-        <v>891</v>
+        <v>458</v>
       </c>
       <c r="T349" s="13" t="s">
         <v>33</v>
@@ -34330,7 +34328,7 @@
         <v>33</v>
       </c>
       <c r="V349" s="17">
-        <v>1.043684e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W349" s="15" t="s">
         <v>892</v>
@@ -34339,42 +34337,42 @@
         <v>2311</v>
       </c>
       <c r="Y349" s="15" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z349" s="15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AA349" s="13" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB349" s="21">
-        <v>780</v>
+        <v>20000</v>
       </c>
       <c r="AC349" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD349" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE349" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
       <c r="AF349" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="350" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C350" s="4">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>33</v>
@@ -34383,7 +34381,7 @@
         <v>2310</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>36</v>
@@ -34392,16 +34390,16 @@
         <v>37</v>
       </c>
       <c r="J350" s="7">
-        <v>9.253504e6</v>
+        <v>9.253532e6</v>
       </c>
       <c r="K350" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L350" s="7">
         <v>2310</v>
       </c>
       <c r="M350" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="N350" s="8">
         <v>44027</v>
@@ -34410,16 +34408,16 @@
         <v>44027</v>
       </c>
       <c r="P350" s="9">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Q350" s="8">
         <v>44206</v>
       </c>
       <c r="R350" s="5" t="s">
-        <v>457</v>
+        <v>894</v>
       </c>
       <c r="S350" s="5" t="s">
-        <v>458</v>
+        <v>895</v>
       </c>
       <c r="T350" s="3" t="s">
         <v>33</v>
@@ -34428,7 +34426,7 @@
         <v>33</v>
       </c>
       <c r="V350" s="7">
-        <v>1.722905e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W350" s="5" t="s">
         <v>896</v>
@@ -34437,28 +34435,28 @@
         <v>2311</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="Z350" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA350" s="3" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="AB350" s="10">
-        <v>30000</v>
+        <v>780</v>
       </c>
       <c r="AC350" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AD350" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AE350" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
       <c r="AF350" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -34469,19 +34467,19 @@
         <v>33</v>
       </c>
       <c r="C351" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D351" s="25" t="s">
+        <v>44001</v>
+      </c>
+      <c r="D351" s="15" t="s">
         <v>898</v>
       </c>
       <c r="E351" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F351" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>899</v>
+        <v>874</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>36</v>
@@ -34490,64 +34488,78 @@
         <v>37</v>
       </c>
       <c r="J351" s="17">
-        <v>0</v>
-      </c>
-      <c r="K351" s="15"/>
-      <c r="L351" s="17"/>
-      <c r="M351" s="15"/>
-      <c r="N351" s="18"/>
-      <c r="O351" s="18"/>
-      <c r="P351" s="19"/>
-      <c r="Q351" s="18"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K351" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="L351" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M351" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="N351" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O351" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P351" s="19">
+        <v>44756</v>
+      </c>
+      <c r="Q351" s="18">
+        <v>44206</v>
+      </c>
       <c r="R351" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="S351" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="T351" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U351" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V351" s="17">
+        <v>1.722905e6</v>
+      </c>
+      <c r="W351" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="S351" s="15" t="s">
-        <v>901</v>
-      </c>
-      <c r="T351" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U351" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V351" s="17">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W351" s="15" t="s">
-        <v>476</v>
-      </c>
       <c r="X351" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y351" s="15" t="s">
-        <v>902</v>
+        <v>874</v>
       </c>
       <c r="Z351" s="15" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="AA351" s="13" t="s">
-        <v>474</v>
+        <v>877</v>
       </c>
       <c r="AB351" s="21">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="AC351" s="22">
-        <v>8.2</v>
+        <v>1.16</v>
       </c>
       <c r="AD351" s="22">
-        <v>8.2</v>
+        <v>1.16</v>
       </c>
       <c r="AE351" s="23">
-        <v>24600</v>
+        <v>34800</v>
       </c>
       <c r="AF351" s="23">
-        <v>24600</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>33</v>
@@ -34556,7 +34568,7 @@
         <v>43944</v>
       </c>
       <c r="D352" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>33</v>
@@ -34565,7 +34577,7 @@
         <v>2320</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>36</v>
@@ -34584,10 +34596,10 @@
       <c r="P352" s="9"/>
       <c r="Q352" s="8"/>
       <c r="R352" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="S352" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="T352" s="3" t="s">
         <v>33</v>
@@ -34596,42 +34608,42 @@
         <v>33</v>
       </c>
       <c r="V352" s="7">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W352" s="5" t="s">
-        <v>905</v>
+        <v>476</v>
       </c>
       <c r="X352" s="7">
         <v>2321</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z352" s="5" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="AA352" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB352" s="10">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC352" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD352" s="11">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE352" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF352" s="12">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A353" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>33</v>
@@ -34640,7 +34652,7 @@
         <v>43944</v>
       </c>
       <c r="D353" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E353" s="15" t="s">
         <v>33</v>
@@ -34649,7 +34661,7 @@
         <v>2320</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>36</v>
@@ -34668,10 +34680,10 @@
       <c r="P353" s="19"/>
       <c r="Q353" s="18"/>
       <c r="R353" s="15" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="S353" s="15" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="T353" s="13" t="s">
         <v>33</v>
@@ -34680,16 +34692,16 @@
         <v>33</v>
       </c>
       <c r="V353" s="17">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W353" s="15" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="X353" s="17">
         <v>2321</v>
       </c>
       <c r="Y353" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z353" s="15" t="s">
         <v>497</v>
@@ -34698,24 +34710,24 @@
         <v>474</v>
       </c>
       <c r="AB353" s="21">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC353" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD353" s="22">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE353" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF353" s="23">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>33</v>
@@ -34724,7 +34736,7 @@
         <v>43944</v>
       </c>
       <c r="D354" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>33</v>
@@ -34733,7 +34745,7 @@
         <v>2320</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>36</v>
@@ -34752,10 +34764,10 @@
       <c r="P354" s="9"/>
       <c r="Q354" s="8"/>
       <c r="R354" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="S354" s="5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="T354" s="3" t="s">
         <v>33</v>
@@ -34764,16 +34776,16 @@
         <v>33</v>
       </c>
       <c r="V354" s="7">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="X354" s="7">
         <v>2321</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z354" s="5" t="s">
         <v>497</v>
@@ -34782,24 +34794,24 @@
         <v>474</v>
       </c>
       <c r="AB354" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC354" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD354" s="11">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE354" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF354" s="12">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A355" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>33</v>
@@ -34808,7 +34820,7 @@
         <v>43944</v>
       </c>
       <c r="D355" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E355" s="15" t="s">
         <v>33</v>
@@ -34817,7 +34829,7 @@
         <v>2320</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>36</v>
@@ -34836,10 +34848,10 @@
       <c r="P355" s="19"/>
       <c r="Q355" s="18"/>
       <c r="R355" s="15" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S355" s="15" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T355" s="13" t="s">
         <v>33</v>
@@ -34848,16 +34860,16 @@
         <v>33</v>
       </c>
       <c r="V355" s="17">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W355" s="15" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="X355" s="17">
         <v>2321</v>
       </c>
       <c r="Y355" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z355" s="15" t="s">
         <v>497</v>
@@ -34866,24 +34878,24 @@
         <v>474</v>
       </c>
       <c r="AB355" s="21">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC355" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD355" s="22">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE355" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF355" s="23">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="356" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>33</v>
@@ -34892,7 +34904,7 @@
         <v>43944</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>33</v>
@@ -34901,7 +34913,7 @@
         <v>2320</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>36</v>
@@ -34920,10 +34932,10 @@
       <c r="P356" s="9"/>
       <c r="Q356" s="8"/>
       <c r="R356" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S356" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T356" s="3" t="s">
         <v>33</v>
@@ -34932,16 +34944,16 @@
         <v>33</v>
       </c>
       <c r="V356" s="7">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="X356" s="7">
         <v>2321</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z356" s="5" t="s">
         <v>497</v>
@@ -34950,24 +34962,24 @@
         <v>474</v>
       </c>
       <c r="AB356" s="10">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC356" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD356" s="11">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE356" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF356" s="12">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A357" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>33</v>
@@ -34976,7 +34988,7 @@
         <v>43944</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E357" s="15" t="s">
         <v>33</v>
@@ -34985,7 +34997,7 @@
         <v>2320</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>36</v>
@@ -35004,10 +35016,10 @@
       <c r="P357" s="19"/>
       <c r="Q357" s="18"/>
       <c r="R357" s="15" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S357" s="15" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T357" s="13" t="s">
         <v>33</v>
@@ -35016,42 +35028,42 @@
         <v>33</v>
       </c>
       <c r="V357" s="17">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W357" s="15" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="X357" s="17">
         <v>2321</v>
       </c>
       <c r="Y357" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z357" s="15" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
       <c r="AA357" s="13" t="s">
         <v>474</v>
       </c>
       <c r="AB357" s="21">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC357" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD357" s="22">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE357" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF357" s="23">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>33</v>
@@ -35060,7 +35072,7 @@
         <v>43944</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>33</v>
@@ -35069,7 +35081,7 @@
         <v>2320</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>36</v>
@@ -35088,10 +35100,10 @@
       <c r="P358" s="9"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S358" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T358" s="3" t="s">
         <v>33</v>
@@ -35100,42 +35112,42 @@
         <v>33</v>
       </c>
       <c r="V358" s="7">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W358" s="5" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="X358" s="7">
         <v>2321</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z358" s="5" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="AA358" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB358" s="10">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC358" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD358" s="11">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE358" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF358" s="12">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A359" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>33</v>
@@ -35144,7 +35156,7 @@
         <v>43944</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E359" s="15" t="s">
         <v>33</v>
@@ -35153,7 +35165,7 @@
         <v>2320</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>36</v>
@@ -35172,10 +35184,10 @@
       <c r="P359" s="19"/>
       <c r="Q359" s="18"/>
       <c r="R359" s="15" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S359" s="15" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T359" s="13" t="s">
         <v>33</v>
@@ -35184,16 +35196,16 @@
         <v>33</v>
       </c>
       <c r="V359" s="17">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W359" s="15" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="X359" s="17">
         <v>2321</v>
       </c>
       <c r="Y359" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z359" s="15" t="s">
         <v>497</v>
@@ -35202,24 +35214,24 @@
         <v>474</v>
       </c>
       <c r="AB359" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC359" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD359" s="22">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE359" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF359" s="23">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>33</v>
@@ -35228,7 +35240,7 @@
         <v>43944</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>33</v>
@@ -35237,7 +35249,7 @@
         <v>2320</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>36</v>
@@ -35256,10 +35268,10 @@
       <c r="P360" s="9"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S360" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T360" s="3" t="s">
         <v>33</v>
@@ -35268,16 +35280,16 @@
         <v>33</v>
       </c>
       <c r="V360" s="7">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="X360" s="7">
         <v>2321</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z360" s="5" t="s">
         <v>497</v>
@@ -35286,24 +35298,24 @@
         <v>474</v>
       </c>
       <c r="AB360" s="10">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC360" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD360" s="11">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE360" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF360" s="12">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A361" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B361" s="13" t="s">
         <v>33</v>
@@ -35312,7 +35324,7 @@
         <v>43944</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E361" s="15" t="s">
         <v>33</v>
@@ -35321,7 +35333,7 @@
         <v>2320</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>36</v>
@@ -35340,10 +35352,10 @@
       <c r="P361" s="19"/>
       <c r="Q361" s="18"/>
       <c r="R361" s="15" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S361" s="15" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T361" s="13" t="s">
         <v>33</v>
@@ -35352,16 +35364,16 @@
         <v>33</v>
       </c>
       <c r="V361" s="17">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W361" s="15" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="X361" s="17">
         <v>2321</v>
       </c>
       <c r="Y361" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z361" s="15" t="s">
         <v>497</v>
@@ -35370,24 +35382,24 @@
         <v>474</v>
       </c>
       <c r="AB361" s="21">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC361" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD361" s="22">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE361" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF361" s="23">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>33</v>
@@ -35396,7 +35408,7 @@
         <v>43944</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>33</v>
@@ -35405,7 +35417,7 @@
         <v>2320</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>36</v>
@@ -35424,10 +35436,10 @@
       <c r="P362" s="9"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S362" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T362" s="3" t="s">
         <v>33</v>
@@ -35436,16 +35448,16 @@
         <v>33</v>
       </c>
       <c r="V362" s="7">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W362" s="5" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="X362" s="7">
         <v>2321</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z362" s="5" t="s">
         <v>497</v>
@@ -35454,24 +35466,24 @@
         <v>474</v>
       </c>
       <c r="AB362" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC362" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD362" s="11">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE362" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF362" s="12">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A363" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>33</v>
@@ -35480,7 +35492,7 @@
         <v>43944</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>33</v>
@@ -35489,7 +35501,7 @@
         <v>2320</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
@@ -35508,10 +35520,10 @@
       <c r="P363" s="19"/>
       <c r="Q363" s="18"/>
       <c r="R363" s="15" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S363" s="15" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T363" s="13" t="s">
         <v>33</v>
@@ -35520,16 +35532,16 @@
         <v>33</v>
       </c>
       <c r="V363" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W363" s="20" t="s">
-        <v>920</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W363" s="15" t="s">
+        <v>923</v>
       </c>
       <c r="X363" s="17">
         <v>2321</v>
       </c>
       <c r="Y363" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z363" s="15" t="s">
         <v>497</v>
@@ -35538,24 +35550,24 @@
         <v>474</v>
       </c>
       <c r="AB363" s="21">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC363" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD363" s="22">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE363" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF363" s="23">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35564,7 +35576,7 @@
         <v>43944</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35573,7 +35585,7 @@
         <v>2320</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35592,10 +35604,10 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="5" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="S364" s="5" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="T364" s="3" t="s">
         <v>33</v>
@@ -35604,16 +35616,16 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W364" s="5" t="s">
-        <v>921</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W364" s="24" t="s">
+        <v>924</v>
       </c>
       <c r="X364" s="7">
         <v>2321</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>497</v>
@@ -35625,21 +35637,21 @@
         <v>60</v>
       </c>
       <c r="AC364" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD364" s="11">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE364" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF364" s="12">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
@@ -35648,7 +35660,7 @@
         <v>43944</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35657,7 +35669,7 @@
         <v>2320</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35676,10 +35688,10 @@
       <c r="P365" s="19"/>
       <c r="Q365" s="18"/>
       <c r="R365" s="15" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="T365" s="13" t="s">
         <v>33</v>
@@ -35688,16 +35700,16 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="X365" s="17">
         <v>2321</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z365" s="15" t="s">
         <v>497</v>
@@ -35706,33 +35718,33 @@
         <v>474</v>
       </c>
       <c r="AB365" s="21">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC365" s="22">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AD365" s="22">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AE365" s="23">
-        <v>6840</v>
+        <v>999</v>
       </c>
       <c r="AF365" s="23">
-        <v>6840</v>
+        <v>999</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>925</v>
+        <v>901</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C366" s="4">
-        <v>44012</v>
-      </c>
-      <c r="D366" s="5" t="s">
-        <v>926</v>
+        <v>43944</v>
+      </c>
+      <c r="D366" s="26" t="s">
+        <v>902</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -35741,7 +35753,7 @@
         <v>2320</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -35760,10 +35772,10 @@
       <c r="P366" s="9"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="5" t="s">
-        <v>457</v>
+        <v>926</v>
       </c>
       <c r="S366" s="5" t="s">
-        <v>458</v>
+        <v>927</v>
       </c>
       <c r="T366" s="3" t="s">
         <v>33</v>
@@ -35772,40 +35784,124 @@
         <v>33</v>
       </c>
       <c r="V366" s="7">
-        <v>1.408623e6</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W366" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="X366" s="7">
         <v>2321</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="Z366" s="5" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="AA366" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB366" s="10">
+        <v>200</v>
+      </c>
+      <c r="AC366" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AD366" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AE366" s="12">
+        <v>6840</v>
+      </c>
+      <c r="AF366" s="12">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A367" s="13" t="s">
+        <v>929</v>
+      </c>
+      <c r="B367" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C367" s="14">
+        <v>44012</v>
+      </c>
+      <c r="D367" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="E367" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F367" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G367" s="13" t="s">
+        <v>903</v>
+      </c>
+      <c r="H367" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I367" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J367" s="17">
+        <v>0</v>
+      </c>
+      <c r="K367" s="15"/>
+      <c r="L367" s="17"/>
+      <c r="M367" s="15"/>
+      <c r="N367" s="18"/>
+      <c r="O367" s="18"/>
+      <c r="P367" s="19"/>
+      <c r="Q367" s="18"/>
+      <c r="R367" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="S367" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="T367" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U367" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V367" s="17">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W367" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="X367" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y367" s="15" t="s">
+        <v>906</v>
+      </c>
+      <c r="Z367" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA367" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB367" s="21">
         <v>2000</v>
       </c>
-      <c r="AC366" s="11">
+      <c r="AC367" s="22">
         <v>18.69</v>
       </c>
-      <c r="AD366" s="11">
+      <c r="AD367" s="22">
         <v>14.95</v>
       </c>
-      <c r="AE366" s="12">
+      <c r="AE367" s="23">
         <v>37380</v>
       </c>
-      <c r="AF366" s="12">
+      <c r="AF367" s="23">
         <v>29900</v>
       </c>
     </row>
-    <row r="367" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="368" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5799" uniqueCount="932">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5859" uniqueCount="937">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -2471,6 +2471,21 @@
   </si>
   <si>
     <t xml:space="preserve">ALFALAGOS LTDA </t>
+  </si>
+  <si>
+    <t>2121022 000037/2020</t>
+  </si>
+  <si>
+    <t>17.359.233/0001-88</t>
+  </si>
+  <si>
+    <t>TECIDOS E ARMARINHOS MIGUEL BARTOLOMEU S/A</t>
+  </si>
+  <si>
+    <t>18.625.083/0001-70</t>
+  </si>
+  <si>
+    <t>SUL MINAS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
   </si>
   <si>
     <t>2261032 000112/2020</t>
@@ -3002,7 +3017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF368"/>
+  <dimension ref="A1:AF372"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -31967,25 +31982,25 @@
         <v>33</v>
       </c>
       <c r="C324" s="4">
-        <v>43920</v>
+        <v>44057</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E324" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F324" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G324" s="3" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="H324" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I324" s="3" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J324" s="7">
         <v>0</v>
@@ -31998,10 +32013,10 @@
       <c r="P324" s="9"/>
       <c r="Q324" s="8"/>
       <c r="R324" s="5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="S324" s="5" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="T324" s="3" t="s">
         <v>33</v>
@@ -32010,37 +32025,37 @@
         <v>33</v>
       </c>
       <c r="V324" s="7">
-        <v>82414</v>
+        <v>1.672584e6</v>
       </c>
       <c r="W324" s="5" t="s">
-        <v>825</v>
+        <v>620</v>
       </c>
       <c r="X324" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y324" s="5" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="Z324" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AA324" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB324" s="10">
-        <v>10000</v>
+        <v>4</v>
       </c>
       <c r="AC324" s="11">
-        <v>676000e-6</v>
+        <v>36.99</v>
       </c>
       <c r="AD324" s="11">
-        <v>676000e-6</v>
+        <v>36.99</v>
       </c>
       <c r="AE324" s="12">
-        <v>6760</v>
+        <v>147.96</v>
       </c>
       <c r="AF324" s="12">
-        <v>6760</v>
+        <v>147.96</v>
       </c>
     </row>
     <row r="325" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -32051,25 +32066,25 @@
         <v>33</v>
       </c>
       <c r="C325" s="14">
-        <v>43920</v>
+        <v>44057</v>
       </c>
       <c r="D325" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E325" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F325" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G325" s="13" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="H325" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I325" s="13" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J325" s="17">
         <v>0</v>
@@ -32082,10 +32097,10 @@
       <c r="P325" s="19"/>
       <c r="Q325" s="18"/>
       <c r="R325" s="15" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="S325" s="15" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="T325" s="13" t="s">
         <v>33</v>
@@ -32094,37 +32109,37 @@
         <v>33</v>
       </c>
       <c r="V325" s="17">
-        <v>1.670891e6</v>
+        <v>1.672592e6</v>
       </c>
       <c r="W325" s="15" t="s">
-        <v>826</v>
+        <v>621</v>
       </c>
       <c r="X325" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y325" s="15" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="Z325" s="15" t="s">
-        <v>129</v>
+        <v>373</v>
       </c>
       <c r="AA325" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB325" s="21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC325" s="22">
-        <v>34.9</v>
+        <v>36.99</v>
       </c>
       <c r="AD325" s="22">
-        <v>34.9</v>
+        <v>36.99</v>
       </c>
       <c r="AE325" s="23">
-        <v>698</v>
+        <v>369.9</v>
       </c>
       <c r="AF325" s="23">
-        <v>698</v>
+        <v>369.9</v>
       </c>
     </row>
     <row r="326" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -32135,25 +32150,25 @@
         <v>33</v>
       </c>
       <c r="C326" s="4">
-        <v>43920</v>
+        <v>44057</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E326" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F326" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G326" s="3" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="H326" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I326" s="3" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J326" s="7">
         <v>0</v>
@@ -32166,10 +32181,10 @@
       <c r="P326" s="9"/>
       <c r="Q326" s="8"/>
       <c r="R326" s="5" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="S326" s="5" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="T326" s="3" t="s">
         <v>33</v>
@@ -32178,37 +32193,37 @@
         <v>33</v>
       </c>
       <c r="V326" s="7">
-        <v>1.69773e6</v>
+        <v>125628</v>
       </c>
       <c r="W326" s="5" t="s">
-        <v>829</v>
+        <v>635</v>
       </c>
       <c r="X326" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y326" s="5" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="Z326" s="5" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AA326" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB326" s="10">
-        <v>20000</v>
+        <v>200</v>
       </c>
       <c r="AC326" s="11">
-        <v>12.43</v>
+        <v>2.7</v>
       </c>
       <c r="AD326" s="11">
-        <v>12.43</v>
+        <v>2.7</v>
       </c>
       <c r="AE326" s="12">
-        <v>248600</v>
+        <v>540</v>
       </c>
       <c r="AF326" s="12">
-        <v>248600</v>
+        <v>540</v>
       </c>
     </row>
     <row r="327" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -32219,25 +32234,25 @@
         <v>33</v>
       </c>
       <c r="C327" s="14">
-        <v>43920</v>
+        <v>44057</v>
       </c>
       <c r="D327" s="15" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E327" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F327" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G327" s="13" t="s">
-        <v>822</v>
+        <v>784</v>
       </c>
       <c r="H327" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I327" s="13" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J327" s="17">
         <v>0</v>
@@ -32250,10 +32265,10 @@
       <c r="P327" s="19"/>
       <c r="Q327" s="18"/>
       <c r="R327" s="15" t="s">
-        <v>712</v>
+        <v>823</v>
       </c>
       <c r="S327" s="15" t="s">
-        <v>713</v>
+        <v>824</v>
       </c>
       <c r="T327" s="13" t="s">
         <v>33</v>
@@ -32262,42 +32277,42 @@
         <v>33</v>
       </c>
       <c r="V327" s="17">
-        <v>394890</v>
+        <v>1.755366e6</v>
       </c>
       <c r="W327" s="15" t="s">
-        <v>830</v>
+        <v>724</v>
       </c>
       <c r="X327" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y327" s="15" t="s">
-        <v>822</v>
+        <v>786</v>
       </c>
       <c r="Z327" s="15" t="s">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="AA327" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB327" s="21">
-        <v>450</v>
+        <v>2500</v>
       </c>
       <c r="AC327" s="22">
-        <v>7.98</v>
+        <v>8.31</v>
       </c>
       <c r="AD327" s="22">
-        <v>7.98</v>
+        <v>8.31</v>
       </c>
       <c r="AE327" s="23">
-        <v>3591</v>
+        <v>20775</v>
       </c>
       <c r="AF327" s="23">
-        <v>3591</v>
+        <v>20775</v>
       </c>
     </row>
     <row r="328" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A328" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>33</v>
@@ -32306,7 +32321,7 @@
         <v>43920</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>33</v>
@@ -32315,7 +32330,7 @@
         <v>2260</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>36</v>
@@ -32334,10 +32349,10 @@
       <c r="P328" s="9"/>
       <c r="Q328" s="8"/>
       <c r="R328" s="5" t="s">
-        <v>712</v>
+        <v>828</v>
       </c>
       <c r="S328" s="5" t="s">
-        <v>713</v>
+        <v>829</v>
       </c>
       <c r="T328" s="3" t="s">
         <v>33</v>
@@ -32346,16 +32361,16 @@
         <v>33</v>
       </c>
       <c r="V328" s="7">
-        <v>1.368818e6</v>
+        <v>82414</v>
       </c>
       <c r="W328" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="X328" s="7">
         <v>2261</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z328" s="5" t="s">
         <v>379</v>
@@ -32364,24 +32379,24 @@
         <v>44</v>
       </c>
       <c r="AB328" s="10">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AC328" s="11">
-        <v>293.6</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD328" s="11">
-        <v>293.6</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE328" s="12">
-        <v>2936</v>
+        <v>6760</v>
       </c>
       <c r="AF328" s="12">
-        <v>2936</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="329" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A329" s="13" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B329" s="13" t="s">
         <v>33</v>
@@ -32390,7 +32405,7 @@
         <v>43920</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E329" s="15" t="s">
         <v>33</v>
@@ -32399,7 +32414,7 @@
         <v>2260</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>36</v>
@@ -32418,10 +32433,10 @@
       <c r="P329" s="19"/>
       <c r="Q329" s="18"/>
       <c r="R329" s="15" t="s">
-        <v>712</v>
+        <v>828</v>
       </c>
       <c r="S329" s="15" t="s">
-        <v>713</v>
+        <v>829</v>
       </c>
       <c r="T329" s="13" t="s">
         <v>33</v>
@@ -32430,42 +32445,42 @@
         <v>33</v>
       </c>
       <c r="V329" s="17">
-        <v>1.497391e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W329" s="15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="X329" s="17">
         <v>2261</v>
       </c>
       <c r="Y329" s="15" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z329" s="15" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AA329" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB329" s="21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC329" s="22">
-        <v>3420</v>
+        <v>34.9</v>
       </c>
       <c r="AD329" s="22">
-        <v>3420</v>
+        <v>34.9</v>
       </c>
       <c r="AE329" s="23">
-        <v>51300</v>
+        <v>698</v>
       </c>
       <c r="AF329" s="23">
-        <v>51300</v>
+        <v>698</v>
       </c>
     </row>
     <row r="330" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>33</v>
@@ -32474,7 +32489,7 @@
         <v>43920</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>33</v>
@@ -32483,7 +32498,7 @@
         <v>2260</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>36</v>
@@ -32502,28 +32517,28 @@
       <c r="P330" s="9"/>
       <c r="Q330" s="8"/>
       <c r="R330" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="S330" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="S330" s="5" t="s">
+      <c r="T330" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U330" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V330" s="7">
+        <v>1.69773e6</v>
+      </c>
+      <c r="W330" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="T330" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U330" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V330" s="7">
-        <v>1.669613e6</v>
-      </c>
-      <c r="W330" s="5" t="s">
-        <v>835</v>
       </c>
       <c r="X330" s="7">
         <v>2261</v>
       </c>
       <c r="Y330" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z330" s="5" t="s">
         <v>379</v>
@@ -32532,24 +32547,24 @@
         <v>44</v>
       </c>
       <c r="AB330" s="10">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="AC330" s="11">
-        <v>31.96</v>
+        <v>12.43</v>
       </c>
       <c r="AD330" s="11">
-        <v>31.96</v>
+        <v>12.43</v>
       </c>
       <c r="AE330" s="12">
-        <v>319.6</v>
+        <v>248600</v>
       </c>
       <c r="AF330" s="12">
-        <v>319.6</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A331" s="13" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B331" s="13" t="s">
         <v>33</v>
@@ -32558,7 +32573,7 @@
         <v>43920</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E331" s="15" t="s">
         <v>33</v>
@@ -32567,7 +32582,7 @@
         <v>2260</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>36</v>
@@ -32586,10 +32601,10 @@
       <c r="P331" s="19"/>
       <c r="Q331" s="18"/>
       <c r="R331" s="15" t="s">
-        <v>836</v>
+        <v>712</v>
       </c>
       <c r="S331" s="15" t="s">
-        <v>837</v>
+        <v>713</v>
       </c>
       <c r="T331" s="13" t="s">
         <v>33</v>
@@ -32598,16 +32613,16 @@
         <v>33</v>
       </c>
       <c r="V331" s="17">
-        <v>857025</v>
+        <v>394890</v>
       </c>
       <c r="W331" s="15" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="X331" s="17">
         <v>2261</v>
       </c>
       <c r="Y331" s="15" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z331" s="15" t="s">
         <v>379</v>
@@ -32616,24 +32631,24 @@
         <v>44</v>
       </c>
       <c r="AB331" s="21">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="AC331" s="22">
-        <v>16.756</v>
+        <v>7.98</v>
       </c>
       <c r="AD331" s="22">
-        <v>16.756</v>
+        <v>7.98</v>
       </c>
       <c r="AE331" s="23">
-        <v>1675.6</v>
+        <v>3591</v>
       </c>
       <c r="AF331" s="23">
-        <v>1675.6</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="332" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>33</v>
@@ -32642,7 +32657,7 @@
         <v>43920</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>33</v>
@@ -32651,7 +32666,7 @@
         <v>2260</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>36</v>
@@ -32670,10 +32685,10 @@
       <c r="P332" s="9"/>
       <c r="Q332" s="8"/>
       <c r="R332" s="5" t="s">
-        <v>839</v>
+        <v>712</v>
       </c>
       <c r="S332" s="5" t="s">
-        <v>840</v>
+        <v>713</v>
       </c>
       <c r="T332" s="3" t="s">
         <v>33</v>
@@ -32682,16 +32697,16 @@
         <v>33</v>
       </c>
       <c r="V332" s="7">
-        <v>1.151746e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W332" s="5" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="X332" s="7">
         <v>2261</v>
       </c>
       <c r="Y332" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z332" s="5" t="s">
         <v>379</v>
@@ -32700,24 +32715,24 @@
         <v>44</v>
       </c>
       <c r="AB332" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC332" s="11">
-        <v>117</v>
+        <v>293.6</v>
       </c>
       <c r="AD332" s="11">
-        <v>117</v>
+        <v>293.6</v>
       </c>
       <c r="AE332" s="12">
-        <v>2340</v>
+        <v>2936</v>
       </c>
       <c r="AF332" s="12">
-        <v>2340</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A333" s="13" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B333" s="13" t="s">
         <v>33</v>
@@ -32726,7 +32741,7 @@
         <v>43920</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E333" s="15" t="s">
         <v>33</v>
@@ -32735,7 +32750,7 @@
         <v>2260</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>36</v>
@@ -32744,32 +32759,20 @@
         <v>37</v>
       </c>
       <c r="J333" s="17">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K333" s="15" t="s">
-        <v>842</v>
-      </c>
-      <c r="L333" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M333" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="N333" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O333" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K333" s="15"/>
+      <c r="L333" s="17"/>
+      <c r="M333" s="15"/>
+      <c r="N333" s="18"/>
+      <c r="O333" s="18"/>
       <c r="P333" s="19"/>
-      <c r="Q333" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q333" s="18"/>
       <c r="R333" s="15" t="s">
-        <v>843</v>
+        <v>712</v>
       </c>
       <c r="S333" s="15" t="s">
-        <v>844</v>
+        <v>713</v>
       </c>
       <c r="T333" s="13" t="s">
         <v>33</v>
@@ -32778,42 +32781,42 @@
         <v>33</v>
       </c>
       <c r="V333" s="17">
-        <v>781673</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W333" s="15" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="X333" s="17">
         <v>2261</v>
       </c>
       <c r="Y333" s="15" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z333" s="15" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA333" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB333" s="21">
-        <v>30000</v>
+        <v>15</v>
       </c>
       <c r="AC333" s="22">
-        <v>900000e-6</v>
+        <v>3420</v>
       </c>
       <c r="AD333" s="22">
-        <v>900000e-6</v>
+        <v>3420</v>
       </c>
       <c r="AE333" s="23">
-        <v>27000</v>
+        <v>51300</v>
       </c>
       <c r="AF333" s="23">
-        <v>27000</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>33</v>
@@ -32822,7 +32825,7 @@
         <v>43920</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>33</v>
@@ -32831,7 +32834,7 @@
         <v>2260</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>36</v>
@@ -32840,32 +32843,20 @@
         <v>37</v>
       </c>
       <c r="J334" s="7">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K334" s="5" t="s">
-        <v>846</v>
-      </c>
-      <c r="L334" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M334" s="5" t="s">
-        <v>822</v>
-      </c>
-      <c r="N334" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O334" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K334" s="5"/>
+      <c r="L334" s="7"/>
+      <c r="M334" s="5"/>
+      <c r="N334" s="8"/>
+      <c r="O334" s="8"/>
       <c r="P334" s="9"/>
-      <c r="Q334" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q334" s="8"/>
       <c r="R334" s="5" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="S334" s="5" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="T334" s="3" t="s">
         <v>33</v>
@@ -32874,42 +32865,42 @@
         <v>33</v>
       </c>
       <c r="V334" s="7">
-        <v>538957</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W334" s="5" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="X334" s="7">
         <v>2261</v>
       </c>
       <c r="Y334" s="5" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z334" s="5" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA334" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB334" s="10">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="AC334" s="11">
-        <v>550000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AD334" s="11">
-        <v>550000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AE334" s="12">
-        <v>16500</v>
+        <v>319.6</v>
       </c>
       <c r="AF334" s="12">
-        <v>16500</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A335" s="13" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B335" s="13" t="s">
         <v>33</v>
@@ -32918,7 +32909,7 @@
         <v>43920</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="E335" s="15" t="s">
         <v>33</v>
@@ -32927,7 +32918,7 @@
         <v>2260</v>
       </c>
       <c r="G335" s="13" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="H335" s="13" t="s">
         <v>36</v>
@@ -32936,32 +32927,20 @@
         <v>37</v>
       </c>
       <c r="J335" s="17">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K335" s="15" t="s">
-        <v>846</v>
-      </c>
-      <c r="L335" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M335" s="15" t="s">
-        <v>822</v>
-      </c>
-      <c r="N335" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O335" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K335" s="15"/>
+      <c r="L335" s="17"/>
+      <c r="M335" s="15"/>
+      <c r="N335" s="18"/>
+      <c r="O335" s="18"/>
       <c r="P335" s="19"/>
-      <c r="Q335" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q335" s="18"/>
       <c r="R335" s="15" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="S335" s="15" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="T335" s="13" t="s">
         <v>33</v>
@@ -32970,66 +32949,66 @@
         <v>33</v>
       </c>
       <c r="V335" s="17">
-        <v>1.651595e6</v>
+        <v>857025</v>
       </c>
       <c r="W335" s="15" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="X335" s="17">
         <v>2261</v>
       </c>
       <c r="Y335" s="15" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="Z335" s="15" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA335" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB335" s="21">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AC335" s="22">
-        <v>1.08</v>
+        <v>16.756</v>
       </c>
       <c r="AD335" s="22">
-        <v>1.08</v>
+        <v>16.756</v>
       </c>
       <c r="AE335" s="23">
-        <v>32400</v>
+        <v>1675.6</v>
       </c>
       <c r="AF335" s="23">
-        <v>32400</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A336" s="3" t="s">
-        <v>851</v>
+        <v>825</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C336" s="4">
-        <v>43972</v>
+        <v>43920</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F336" s="6">
-        <v>2280</v>
+        <v>2260</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>853</v>
+        <v>827</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I336" s="3" t="s">
-        <v>812</v>
+        <v>37</v>
       </c>
       <c r="J336" s="7">
         <v>0</v>
@@ -33042,10 +33021,10 @@
       <c r="P336" s="9"/>
       <c r="Q336" s="8"/>
       <c r="R336" s="5" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="S336" s="5" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
       <c r="T336" s="3" t="s">
         <v>33</v>
@@ -33054,60 +33033,60 @@
         <v>33</v>
       </c>
       <c r="V336" s="7">
-        <v>1.756699e6</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W336" s="5" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="X336" s="7">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y336" s="5" t="s">
-        <v>854</v>
+        <v>827</v>
       </c>
       <c r="Z336" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AA336" s="3" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AB336" s="10">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AC336" s="11">
-        <v>1.89</v>
+        <v>117</v>
       </c>
       <c r="AD336" s="11">
-        <v>1.89</v>
+        <v>117</v>
       </c>
       <c r="AE336" s="12">
-        <v>240.03</v>
+        <v>2340</v>
       </c>
       <c r="AF336" s="12">
-        <v>240.03</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A337" s="13" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C337" s="14">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="E337" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F337" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>36</v>
@@ -33116,34 +33095,32 @@
         <v>37</v>
       </c>
       <c r="J337" s="17">
-        <v>9.245674e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K337" s="15" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="L337" s="17">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M337" s="15" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="N337" s="18">
-        <v>43922</v>
+        <v>43936</v>
       </c>
       <c r="O337" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P337" s="19">
-        <v>44105</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="P337" s="19"/>
       <c r="Q337" s="18">
-        <v>44131</v>
+        <v>44115</v>
       </c>
       <c r="R337" s="15" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="S337" s="15" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="T337" s="13" t="s">
         <v>33</v>
@@ -33152,60 +33129,60 @@
         <v>33</v>
       </c>
       <c r="V337" s="17">
-        <v>1155</v>
+        <v>781673</v>
       </c>
       <c r="W337" s="15" t="s">
-        <v>107</v>
+        <v>850</v>
       </c>
       <c r="X337" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y337" s="15" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="Z337" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA337" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB337" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC337" s="22">
-        <v>4.35942886e6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD337" s="22">
-        <v>4.35942886e6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE337" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
       <c r="AF337" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="338" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A338" s="3" t="s">
-        <v>862</v>
+        <v>825</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C338" s="4">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>863</v>
+        <v>826</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F338" s="6">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>36</v>
@@ -33214,16 +33191,16 @@
         <v>37</v>
       </c>
       <c r="J338" s="7">
-        <v>9.24595e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K338" s="5" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="L338" s="7">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M338" s="5" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="N338" s="8">
         <v>43936</v>
@@ -33231,17 +33208,15 @@
       <c r="O338" s="8">
         <v>43936</v>
       </c>
-      <c r="P338" s="9">
-        <v>44119</v>
-      </c>
+      <c r="P338" s="9"/>
       <c r="Q338" s="8">
-        <v>44119</v>
+        <v>44115</v>
       </c>
       <c r="R338" s="5" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="S338" s="5" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="T338" s="3" t="s">
         <v>33</v>
@@ -33250,60 +33225,60 @@
         <v>33</v>
       </c>
       <c r="V338" s="7">
-        <v>1155</v>
+        <v>538957</v>
       </c>
       <c r="W338" s="5" t="s">
-        <v>107</v>
+        <v>854</v>
       </c>
       <c r="X338" s="7">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y338" s="5" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="Z338" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA338" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB338" s="10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC338" s="11">
-        <v>1.04162557e6</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD338" s="11">
-        <v>1.04162557e6</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE338" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
       <c r="AF338" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A339" s="13" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="B339" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C339" s="14">
-        <v>43963</v>
+        <v>43920</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E339" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F339" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>36</v>
@@ -33312,34 +33287,32 @@
         <v>37</v>
       </c>
       <c r="J339" s="17">
-        <v>9.247198e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K339" s="15" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
       <c r="L339" s="17">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M339" s="15" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="N339" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O339" s="18">
-        <v>43963</v>
-      </c>
-      <c r="P339" s="19">
-        <v>44195</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="P339" s="19"/>
       <c r="Q339" s="18">
-        <v>44195</v>
+        <v>44115</v>
       </c>
       <c r="R339" s="15" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
       <c r="S339" s="15" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="T339" s="13" t="s">
         <v>33</v>
@@ -33348,96 +33321,82 @@
         <v>33</v>
       </c>
       <c r="V339" s="17">
-        <v>1155</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W339" s="15" t="s">
-        <v>107</v>
+        <v>855</v>
       </c>
       <c r="X339" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y339" s="15" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="Z339" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA339" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB339" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC339" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AD339" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AE339" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
       <c r="AF339" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A340" s="3" t="s">
-        <v>872</v>
+        <v>856</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C340" s="4">
-        <v>43928</v>
+        <v>43972</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>873</v>
+        <v>857</v>
       </c>
       <c r="E340" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F340" s="6">
-        <v>2310</v>
+        <v>2280</v>
       </c>
       <c r="G340" s="3" t="s">
-        <v>874</v>
+        <v>858</v>
       </c>
       <c r="H340" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I340" s="3" t="s">
-        <v>37</v>
+        <v>812</v>
       </c>
       <c r="J340" s="7">
-        <v>9.245982e6</v>
-      </c>
-      <c r="K340" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="L340" s="7">
-        <v>2310</v>
-      </c>
-      <c r="M340" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="N340" s="8">
-        <v>43943</v>
-      </c>
-      <c r="O340" s="8">
-        <v>43939</v>
-      </c>
-      <c r="P340" s="9">
-        <v>44304</v>
-      </c>
-      <c r="Q340" s="8">
-        <v>44121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K340" s="5"/>
+      <c r="L340" s="7"/>
+      <c r="M340" s="5"/>
+      <c r="N340" s="8"/>
+      <c r="O340" s="8"/>
+      <c r="P340" s="9"/>
+      <c r="Q340" s="8"/>
       <c r="R340" s="5" t="s">
-        <v>750</v>
+        <v>813</v>
       </c>
       <c r="S340" s="5" t="s">
-        <v>751</v>
+        <v>814</v>
       </c>
       <c r="T340" s="3" t="s">
         <v>33</v>
@@ -33446,60 +33405,60 @@
         <v>33</v>
       </c>
       <c r="V340" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W340" s="24" t="s">
-        <v>876</v>
+        <v>1.756699e6</v>
+      </c>
+      <c r="W340" s="5" t="s">
+        <v>815</v>
       </c>
       <c r="X340" s="7">
-        <v>2311</v>
+        <v>2281</v>
       </c>
       <c r="Y340" s="5" t="s">
-        <v>874</v>
+        <v>859</v>
       </c>
       <c r="Z340" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AA340" s="3" t="s">
-        <v>877</v>
+        <v>295</v>
       </c>
       <c r="AB340" s="10">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="AC340" s="11">
-        <v>36</v>
+        <v>1.89</v>
       </c>
       <c r="AD340" s="11">
-        <v>36</v>
+        <v>1.89</v>
       </c>
       <c r="AE340" s="12">
-        <v>7200</v>
+        <v>240.03</v>
       </c>
       <c r="AF340" s="12">
-        <v>7200</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A341" s="13" t="s">
-        <v>872</v>
+        <v>860</v>
       </c>
       <c r="B341" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C341" s="14">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="D341" s="15" t="s">
-        <v>873</v>
+        <v>861</v>
       </c>
       <c r="E341" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F341" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G341" s="13" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="H341" s="13" t="s">
         <v>36</v>
@@ -33508,34 +33467,34 @@
         <v>37</v>
       </c>
       <c r="J341" s="17">
-        <v>9.245982e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K341" s="15" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="L341" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M341" s="15" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="N341" s="18">
-        <v>43943</v>
+        <v>43922</v>
       </c>
       <c r="O341" s="18">
-        <v>43939</v>
+        <v>43922</v>
       </c>
       <c r="P341" s="19">
-        <v>44304</v>
+        <v>44105</v>
       </c>
       <c r="Q341" s="18">
-        <v>44121</v>
+        <v>44131</v>
       </c>
       <c r="R341" s="15" t="s">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="S341" s="15" t="s">
-        <v>751</v>
+        <v>865</v>
       </c>
       <c r="T341" s="13" t="s">
         <v>33</v>
@@ -33544,60 +33503,60 @@
         <v>33</v>
       </c>
       <c r="V341" s="17">
-        <v>236268</v>
+        <v>1155</v>
       </c>
       <c r="W341" s="15" t="s">
-        <v>878</v>
+        <v>107</v>
       </c>
       <c r="X341" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y341" s="15" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="Z341" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA341" s="13" t="s">
-        <v>877</v>
+        <v>44</v>
       </c>
       <c r="AB341" s="21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC341" s="22">
-        <v>45</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD341" s="22">
-        <v>45</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE341" s="23">
-        <v>2250</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF341" s="23">
-        <v>2250</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C342" s="4">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F342" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>36</v>
@@ -33606,34 +33565,34 @@
         <v>37</v>
       </c>
       <c r="J342" s="7">
-        <v>9.245982e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K342" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="L342" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M342" s="5" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="N342" s="8">
-        <v>43943</v>
+        <v>43936</v>
       </c>
       <c r="O342" s="8">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="P342" s="9">
-        <v>44304</v>
+        <v>44119</v>
       </c>
       <c r="Q342" s="8">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="R342" s="5" t="s">
-        <v>750</v>
+        <v>870</v>
       </c>
       <c r="S342" s="5" t="s">
-        <v>751</v>
+        <v>871</v>
       </c>
       <c r="T342" s="3" t="s">
         <v>33</v>
@@ -33642,37 +33601,37 @@
         <v>33</v>
       </c>
       <c r="V342" s="7">
-        <v>461920</v>
+        <v>1155</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>757</v>
+        <v>107</v>
       </c>
       <c r="X342" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="Z342" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA342" s="3" t="s">
-        <v>877</v>
+        <v>44</v>
       </c>
       <c r="AB342" s="10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AC342" s="11">
-        <v>8</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD342" s="11">
-        <v>8</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE342" s="12">
-        <v>4800</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF342" s="12">
-        <v>4800</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -33683,7 +33642,7 @@
         <v>33</v>
       </c>
       <c r="C343" s="14">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D343" s="15" t="s">
         <v>873</v>
@@ -33692,10 +33651,10 @@
         <v>33</v>
       </c>
       <c r="F343" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>874</v>
+        <v>862</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>36</v>
@@ -33704,34 +33663,34 @@
         <v>37</v>
       </c>
       <c r="J343" s="17">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K343" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="L343" s="17">
+        <v>2300</v>
+      </c>
+      <c r="M343" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="N343" s="18">
+        <v>43963</v>
+      </c>
+      <c r="O343" s="18">
+        <v>43963</v>
+      </c>
+      <c r="P343" s="19">
+        <v>44195</v>
+      </c>
+      <c r="Q343" s="18">
+        <v>44195</v>
+      </c>
+      <c r="R343" s="15" t="s">
         <v>875</v>
       </c>
-      <c r="L343" s="17">
-        <v>2310</v>
-      </c>
-      <c r="M343" s="15" t="s">
-        <v>874</v>
-      </c>
-      <c r="N343" s="18">
-        <v>43943</v>
-      </c>
-      <c r="O343" s="18">
-        <v>43939</v>
-      </c>
-      <c r="P343" s="19">
-        <v>44304</v>
-      </c>
-      <c r="Q343" s="18">
-        <v>44121</v>
-      </c>
-      <c r="R343" s="15" t="s">
-        <v>750</v>
-      </c>
       <c r="S343" s="15" t="s">
-        <v>751</v>
+        <v>876</v>
       </c>
       <c r="T343" s="13" t="s">
         <v>33</v>
@@ -33740,42 +33699,42 @@
         <v>33</v>
       </c>
       <c r="V343" s="17">
-        <v>804495</v>
+        <v>1155</v>
       </c>
       <c r="W343" s="15" t="s">
-        <v>752</v>
+        <v>107</v>
       </c>
       <c r="X343" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y343" s="15" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="Z343" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA343" s="13" t="s">
-        <v>877</v>
+        <v>44</v>
       </c>
       <c r="AB343" s="21">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AC343" s="22">
-        <v>45</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD343" s="22">
-        <v>45</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE343" s="23">
-        <v>7650</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF343" s="23">
-        <v>7650</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A344" s="3" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>33</v>
@@ -33784,7 +33743,7 @@
         <v>43928</v>
       </c>
       <c r="D344" s="5" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E344" s="5" t="s">
         <v>33</v>
@@ -33793,7 +33752,7 @@
         <v>2310</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>36</v>
@@ -33805,13 +33764,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K344" s="5" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L344" s="7">
         <v>2310</v>
       </c>
       <c r="M344" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N344" s="8">
         <v>43943</v>
@@ -33838,42 +33797,42 @@
         <v>33</v>
       </c>
       <c r="V344" s="7">
-        <v>1.129139e6</v>
-      </c>
-      <c r="W344" s="5" t="s">
-        <v>879</v>
+        <v>18228</v>
+      </c>
+      <c r="W344" s="24" t="s">
+        <v>881</v>
       </c>
       <c r="X344" s="7">
         <v>2311</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z344" s="5" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AA344" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB344" s="10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC344" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD344" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE344" s="12">
-        <v>1350</v>
+        <v>7200</v>
       </c>
       <c r="AF344" s="12">
-        <v>1350</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A345" s="13" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>33</v>
@@ -33882,7 +33841,7 @@
         <v>43928</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E345" s="15" t="s">
         <v>33</v>
@@ -33891,7 +33850,7 @@
         <v>2310</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>36</v>
@@ -33903,13 +33862,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K345" s="15" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L345" s="17">
         <v>2310</v>
       </c>
       <c r="M345" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N345" s="18">
         <v>43943</v>
@@ -33936,25 +33895,25 @@
         <v>33</v>
       </c>
       <c r="V345" s="17">
-        <v>1.152823e6</v>
+        <v>236268</v>
       </c>
       <c r="W345" s="15" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="X345" s="17">
         <v>2311</v>
       </c>
       <c r="Y345" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z345" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA345" s="13" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB345" s="21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC345" s="22">
         <v>45</v>
@@ -33963,15 +33922,15 @@
         <v>45</v>
       </c>
       <c r="AE345" s="23">
-        <v>1350</v>
+        <v>2250</v>
       </c>
       <c r="AF345" s="23">
-        <v>1350</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="346" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>33</v>
@@ -33980,7 +33939,7 @@
         <v>43928</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>33</v>
@@ -33989,7 +33948,7 @@
         <v>2310</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>36</v>
@@ -34001,13 +33960,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K346" s="5" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="L346" s="7">
         <v>2310</v>
       </c>
       <c r="M346" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N346" s="8">
         <v>43943</v>
@@ -34034,51 +33993,51 @@
         <v>33</v>
       </c>
       <c r="V346" s="7">
-        <v>1.152831e6</v>
+        <v>461920</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>881</v>
+        <v>757</v>
       </c>
       <c r="X346" s="7">
         <v>2311</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z346" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA346" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB346" s="10">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="AC346" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD346" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE346" s="12">
-        <v>1350</v>
+        <v>4800</v>
       </c>
       <c r="AF346" s="12">
-        <v>1350</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A347" s="13" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C347" s="14">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E347" s="15" t="s">
         <v>33</v>
@@ -34087,7 +34046,7 @@
         <v>2310</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>36</v>
@@ -34096,34 +34055,34 @@
         <v>37</v>
       </c>
       <c r="J347" s="17">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K347" s="15" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="L347" s="17">
         <v>2310</v>
       </c>
       <c r="M347" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N347" s="18">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O347" s="18">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P347" s="19">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q347" s="18">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R347" s="15" t="s">
-        <v>885</v>
+        <v>750</v>
       </c>
       <c r="S347" s="15" t="s">
-        <v>886</v>
+        <v>751</v>
       </c>
       <c r="T347" s="13" t="s">
         <v>33</v>
@@ -34132,51 +34091,51 @@
         <v>33</v>
       </c>
       <c r="V347" s="17">
-        <v>1.755897e6</v>
+        <v>804495</v>
       </c>
       <c r="W347" s="15" t="s">
-        <v>887</v>
+        <v>752</v>
       </c>
       <c r="X347" s="17">
         <v>2311</v>
       </c>
       <c r="Y347" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z347" s="15" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AA347" s="13" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB347" s="21">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AC347" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD347" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE347" s="23">
-        <v>285</v>
+        <v>7650</v>
       </c>
       <c r="AF347" s="23">
-        <v>285</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C348" s="4">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>33</v>
@@ -34185,7 +34144,7 @@
         <v>2310</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H348" s="3" t="s">
         <v>36</v>
@@ -34194,34 +34153,34 @@
         <v>37</v>
       </c>
       <c r="J348" s="7">
-        <v>9.253515e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K348" s="5" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="L348" s="7">
         <v>2310</v>
       </c>
       <c r="M348" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N348" s="8">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O348" s="8">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P348" s="9">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q348" s="8">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R348" s="5" t="s">
-        <v>457</v>
+        <v>750</v>
       </c>
       <c r="S348" s="5" t="s">
-        <v>458</v>
+        <v>751</v>
       </c>
       <c r="T348" s="3" t="s">
         <v>33</v>
@@ -34230,51 +34189,51 @@
         <v>33</v>
       </c>
       <c r="V348" s="7">
-        <v>1.722859e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="X348" s="7">
         <v>2311</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z348" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA348" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB348" s="10">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="AC348" s="11">
-        <v>2.68</v>
+        <v>45</v>
       </c>
       <c r="AD348" s="11">
-        <v>2.68</v>
+        <v>45</v>
       </c>
       <c r="AE348" s="12">
-        <v>134000</v>
+        <v>1350</v>
       </c>
       <c r="AF348" s="12">
-        <v>134000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A349" s="13" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C349" s="14">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E349" s="15" t="s">
         <v>33</v>
@@ -34283,7 +34242,7 @@
         <v>2310</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>36</v>
@@ -34292,34 +34251,34 @@
         <v>37</v>
       </c>
       <c r="J349" s="17">
-        <v>9.253515e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K349" s="15" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="L349" s="17">
         <v>2310</v>
       </c>
       <c r="M349" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N349" s="18">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O349" s="18">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P349" s="19">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q349" s="18">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R349" s="15" t="s">
-        <v>457</v>
+        <v>750</v>
       </c>
       <c r="S349" s="15" t="s">
-        <v>458</v>
+        <v>751</v>
       </c>
       <c r="T349" s="13" t="s">
         <v>33</v>
@@ -34328,51 +34287,51 @@
         <v>33</v>
       </c>
       <c r="V349" s="17">
-        <v>1.722891e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W349" s="15" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="X349" s="17">
         <v>2311</v>
       </c>
       <c r="Y349" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z349" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA349" s="13" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB349" s="21">
-        <v>20000</v>
+        <v>30</v>
       </c>
       <c r="AC349" s="22">
-        <v>440000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD349" s="22">
-        <v>440000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE349" s="23">
-        <v>8800</v>
+        <v>1350</v>
       </c>
       <c r="AF349" s="23">
-        <v>8800</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="350" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C350" s="4">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>33</v>
@@ -34381,7 +34340,7 @@
         <v>2310</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>36</v>
@@ -34390,34 +34349,34 @@
         <v>37</v>
       </c>
       <c r="J350" s="7">
-        <v>9.253532e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K350" s="5" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="L350" s="7">
         <v>2310</v>
       </c>
       <c r="M350" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N350" s="8">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O350" s="8">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P350" s="9">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q350" s="8">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R350" s="5" t="s">
-        <v>894</v>
+        <v>750</v>
       </c>
       <c r="S350" s="5" t="s">
-        <v>895</v>
+        <v>751</v>
       </c>
       <c r="T350" s="3" t="s">
         <v>33</v>
@@ -34426,51 +34385,51 @@
         <v>33</v>
       </c>
       <c r="V350" s="7">
-        <v>1.043684e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="X350" s="7">
         <v>2311</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z350" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA350" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB350" s="10">
-        <v>780</v>
+        <v>30</v>
       </c>
       <c r="AC350" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AD350" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AE350" s="12">
-        <v>19500</v>
+        <v>1350</v>
       </c>
       <c r="AF350" s="12">
-        <v>19500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A351" s="13" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C351" s="14">
-        <v>44001</v>
+        <v>43955</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="E351" s="15" t="s">
         <v>33</v>
@@ -34479,7 +34438,7 @@
         <v>2310</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>36</v>
@@ -34488,34 +34447,34 @@
         <v>37</v>
       </c>
       <c r="J351" s="17">
-        <v>9.253504e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K351" s="15" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="L351" s="17">
         <v>2310</v>
       </c>
       <c r="M351" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="N351" s="18">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O351" s="18">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P351" s="19">
-        <v>44756</v>
+        <v>44557</v>
       </c>
       <c r="Q351" s="18">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R351" s="15" t="s">
-        <v>457</v>
+        <v>890</v>
       </c>
       <c r="S351" s="15" t="s">
-        <v>458</v>
+        <v>891</v>
       </c>
       <c r="T351" s="13" t="s">
         <v>33</v>
@@ -34524,60 +34483,60 @@
         <v>33</v>
       </c>
       <c r="V351" s="17">
-        <v>1.722905e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W351" s="15" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="X351" s="17">
         <v>2311</v>
       </c>
       <c r="Y351" s="15" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="Z351" s="15" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="AA351" s="13" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="AB351" s="21">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="AC351" s="22">
-        <v>1.16</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD351" s="22">
-        <v>1.16</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE351" s="23">
-        <v>34800</v>
+        <v>285</v>
       </c>
       <c r="AF351" s="23">
-        <v>34800</v>
+        <v>285</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C352" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D352" s="26" t="s">
-        <v>902</v>
+        <v>43966</v>
+      </c>
+      <c r="D352" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F352" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>36</v>
@@ -34586,20 +34545,34 @@
         <v>37</v>
       </c>
       <c r="J352" s="7">
-        <v>0</v>
-      </c>
-      <c r="K352" s="5"/>
-      <c r="L352" s="7"/>
-      <c r="M352" s="5"/>
-      <c r="N352" s="8"/>
-      <c r="O352" s="8"/>
-      <c r="P352" s="9"/>
-      <c r="Q352" s="8"/>
+        <v>9.253515e6</v>
+      </c>
+      <c r="K352" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="L352" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M352" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="N352" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O352" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P352" s="9">
+        <v>44757</v>
+      </c>
+      <c r="Q352" s="8">
+        <v>44206</v>
+      </c>
       <c r="R352" s="5" t="s">
-        <v>904</v>
+        <v>457</v>
       </c>
       <c r="S352" s="5" t="s">
-        <v>905</v>
+        <v>458</v>
       </c>
       <c r="T352" s="3" t="s">
         <v>33</v>
@@ -34608,60 +34581,60 @@
         <v>33</v>
       </c>
       <c r="V352" s="7">
-        <v>1.692143e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W352" s="5" t="s">
-        <v>476</v>
+        <v>896</v>
       </c>
       <c r="X352" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="Z352" s="5" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="AA352" s="3" t="s">
-        <v>474</v>
+        <v>882</v>
       </c>
       <c r="AB352" s="10">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="AC352" s="11">
-        <v>8.2</v>
+        <v>2.68</v>
       </c>
       <c r="AD352" s="11">
-        <v>8.2</v>
+        <v>2.68</v>
       </c>
       <c r="AE352" s="12">
-        <v>24600</v>
+        <v>134000</v>
       </c>
       <c r="AF352" s="12">
-        <v>24600</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A353" s="13" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C353" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D353" s="25" t="s">
-        <v>902</v>
+        <v>43966</v>
+      </c>
+      <c r="D353" s="15" t="s">
+        <v>894</v>
       </c>
       <c r="E353" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F353" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>36</v>
@@ -34670,20 +34643,34 @@
         <v>37</v>
       </c>
       <c r="J353" s="17">
-        <v>0</v>
-      </c>
-      <c r="K353" s="15"/>
-      <c r="L353" s="17"/>
-      <c r="M353" s="15"/>
-      <c r="N353" s="18"/>
-      <c r="O353" s="18"/>
-      <c r="P353" s="19"/>
-      <c r="Q353" s="18"/>
+        <v>9.253515e6</v>
+      </c>
+      <c r="K353" s="15" t="s">
+        <v>895</v>
+      </c>
+      <c r="L353" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M353" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="N353" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O353" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P353" s="19">
+        <v>44757</v>
+      </c>
+      <c r="Q353" s="18">
+        <v>44206</v>
+      </c>
       <c r="R353" s="15" t="s">
-        <v>907</v>
+        <v>457</v>
       </c>
       <c r="S353" s="15" t="s">
-        <v>908</v>
+        <v>458</v>
       </c>
       <c r="T353" s="13" t="s">
         <v>33</v>
@@ -34692,60 +34679,60 @@
         <v>33</v>
       </c>
       <c r="V353" s="17">
-        <v>1.143883e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W353" s="15" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="X353" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y353" s="15" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="Z353" s="15" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="AA353" s="13" t="s">
-        <v>474</v>
+        <v>882</v>
       </c>
       <c r="AB353" s="21">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="AC353" s="22">
-        <v>600000e-6</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD353" s="22">
-        <v>600000e-6</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE353" s="23">
-        <v>120000</v>
+        <v>8800</v>
       </c>
       <c r="AF353" s="23">
-        <v>120000</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C354" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D354" s="26" t="s">
-        <v>902</v>
+        <v>43966</v>
+      </c>
+      <c r="D354" s="5" t="s">
+        <v>894</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F354" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>36</v>
@@ -34754,20 +34741,34 @@
         <v>37</v>
       </c>
       <c r="J354" s="7">
-        <v>0</v>
-      </c>
-      <c r="K354" s="5"/>
-      <c r="L354" s="7"/>
-      <c r="M354" s="5"/>
-      <c r="N354" s="8"/>
-      <c r="O354" s="8"/>
-      <c r="P354" s="9"/>
-      <c r="Q354" s="8"/>
+        <v>9.253532e6</v>
+      </c>
+      <c r="K354" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="L354" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M354" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="N354" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O354" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P354" s="9">
+        <v>44757</v>
+      </c>
+      <c r="Q354" s="8">
+        <v>44206</v>
+      </c>
       <c r="R354" s="5" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="S354" s="5" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="T354" s="3" t="s">
         <v>33</v>
@@ -34776,60 +34777,60 @@
         <v>33</v>
       </c>
       <c r="V354" s="7">
-        <v>1.244515e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="X354" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="Z354" s="5" t="s">
-        <v>497</v>
+        <v>129</v>
       </c>
       <c r="AA354" s="3" t="s">
-        <v>474</v>
+        <v>882</v>
       </c>
       <c r="AB354" s="10">
-        <v>50</v>
+        <v>780</v>
       </c>
       <c r="AC354" s="11">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="AD354" s="11">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="AE354" s="12">
-        <v>1005</v>
+        <v>19500</v>
       </c>
       <c r="AF354" s="12">
-        <v>1005</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A355" s="13" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C355" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D355" s="25" t="s">
-        <v>902</v>
+        <v>44001</v>
+      </c>
+      <c r="D355" s="15" t="s">
+        <v>903</v>
       </c>
       <c r="E355" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F355" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>903</v>
+        <v>879</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>36</v>
@@ -34838,20 +34839,34 @@
         <v>37</v>
       </c>
       <c r="J355" s="17">
-        <v>0</v>
-      </c>
-      <c r="K355" s="15"/>
-      <c r="L355" s="17"/>
-      <c r="M355" s="15"/>
-      <c r="N355" s="18"/>
-      <c r="O355" s="18"/>
-      <c r="P355" s="19"/>
-      <c r="Q355" s="18"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K355" s="15" t="s">
+        <v>904</v>
+      </c>
+      <c r="L355" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M355" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="N355" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O355" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P355" s="19">
+        <v>44756</v>
+      </c>
+      <c r="Q355" s="18">
+        <v>44206</v>
+      </c>
       <c r="R355" s="15" t="s">
-        <v>913</v>
+        <v>457</v>
       </c>
       <c r="S355" s="15" t="s">
-        <v>914</v>
+        <v>458</v>
       </c>
       <c r="T355" s="13" t="s">
         <v>33</v>
@@ -34860,42 +34875,42 @@
         <v>33</v>
       </c>
       <c r="V355" s="17">
-        <v>1.244108e6</v>
+        <v>1.722905e6</v>
       </c>
       <c r="W355" s="15" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="X355" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y355" s="15" t="s">
-        <v>906</v>
+        <v>879</v>
       </c>
       <c r="Z355" s="15" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="AA355" s="13" t="s">
-        <v>474</v>
+        <v>882</v>
       </c>
       <c r="AB355" s="21">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="AC355" s="22">
-        <v>358.24</v>
+        <v>1.16</v>
       </c>
       <c r="AD355" s="22">
-        <v>358.24</v>
+        <v>1.16</v>
       </c>
       <c r="AE355" s="23">
-        <v>32241.6</v>
+        <v>34800</v>
       </c>
       <c r="AF355" s="23">
-        <v>32241.6</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="356" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>33</v>
@@ -34904,7 +34919,7 @@
         <v>43944</v>
       </c>
       <c r="D356" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>33</v>
@@ -34913,7 +34928,7 @@
         <v>2320</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>36</v>
@@ -34932,10 +34947,10 @@
       <c r="P356" s="9"/>
       <c r="Q356" s="8"/>
       <c r="R356" s="5" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="S356" s="5" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="T356" s="3" t="s">
         <v>33</v>
@@ -34944,42 +34959,42 @@
         <v>33</v>
       </c>
       <c r="V356" s="7">
-        <v>1.244507e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>916</v>
+        <v>476</v>
       </c>
       <c r="X356" s="7">
         <v>2321</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z356" s="5" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="AA356" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB356" s="10">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="AC356" s="11">
-        <v>34.9</v>
+        <v>8.2</v>
       </c>
       <c r="AD356" s="11">
-        <v>34.9</v>
+        <v>8.2</v>
       </c>
       <c r="AE356" s="12">
-        <v>1745</v>
+        <v>24600</v>
       </c>
       <c r="AF356" s="12">
-        <v>1745</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A357" s="13" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>33</v>
@@ -34988,7 +35003,7 @@
         <v>43944</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E357" s="15" t="s">
         <v>33</v>
@@ -34997,7 +35012,7 @@
         <v>2320</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>36</v>
@@ -35016,28 +35031,28 @@
       <c r="P357" s="19"/>
       <c r="Q357" s="18"/>
       <c r="R357" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="S357" s="15" t="s">
         <v>913</v>
       </c>
-      <c r="S357" s="15" t="s">
+      <c r="T357" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U357" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V357" s="17">
+        <v>1.143883e6</v>
+      </c>
+      <c r="W357" s="15" t="s">
         <v>914</v>
-      </c>
-      <c r="T357" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U357" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V357" s="17">
-        <v>1.257587e6</v>
-      </c>
-      <c r="W357" s="15" t="s">
-        <v>917</v>
       </c>
       <c r="X357" s="17">
         <v>2321</v>
       </c>
       <c r="Y357" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z357" s="15" t="s">
         <v>497</v>
@@ -35046,24 +35061,24 @@
         <v>474</v>
       </c>
       <c r="AB357" s="21">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="AC357" s="22">
-        <v>390000e-6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD357" s="22">
-        <v>390000e-6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE357" s="23">
-        <v>31200</v>
+        <v>120000</v>
       </c>
       <c r="AF357" s="23">
-        <v>31200</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>33</v>
@@ -35072,7 +35087,7 @@
         <v>43944</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>33</v>
@@ -35081,7 +35096,7 @@
         <v>2320</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>36</v>
@@ -35100,10 +35115,10 @@
       <c r="P358" s="9"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="5" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="S358" s="5" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="T358" s="3" t="s">
         <v>33</v>
@@ -35112,42 +35127,42 @@
         <v>33</v>
       </c>
       <c r="V358" s="7">
-        <v>1.257625e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W358" s="5" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="X358" s="7">
         <v>2321</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z358" s="5" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
       <c r="AA358" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB358" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC358" s="11">
-        <v>351</v>
+        <v>20.1</v>
       </c>
       <c r="AD358" s="11">
-        <v>351</v>
+        <v>20.1</v>
       </c>
       <c r="AE358" s="12">
-        <v>31590</v>
+        <v>1005</v>
       </c>
       <c r="AF358" s="12">
-        <v>31590</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A359" s="13" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>33</v>
@@ -35156,7 +35171,7 @@
         <v>43944</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E359" s="15" t="s">
         <v>33</v>
@@ -35165,7 +35180,7 @@
         <v>2320</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>36</v>
@@ -35184,10 +35199,10 @@
       <c r="P359" s="19"/>
       <c r="Q359" s="18"/>
       <c r="R359" s="15" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S359" s="15" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T359" s="13" t="s">
         <v>33</v>
@@ -35196,16 +35211,16 @@
         <v>33</v>
       </c>
       <c r="V359" s="17">
-        <v>1.258699e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W359" s="15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="X359" s="17">
         <v>2321</v>
       </c>
       <c r="Y359" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z359" s="15" t="s">
         <v>497</v>
@@ -35214,24 +35229,24 @@
         <v>474</v>
       </c>
       <c r="AB359" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC359" s="22">
-        <v>1.39</v>
+        <v>358.24</v>
       </c>
       <c r="AD359" s="22">
-        <v>1.39</v>
+        <v>358.24</v>
       </c>
       <c r="AE359" s="23">
-        <v>2780</v>
+        <v>32241.6</v>
       </c>
       <c r="AF359" s="23">
-        <v>2780</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>33</v>
@@ -35240,7 +35255,7 @@
         <v>43944</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>33</v>
@@ -35249,7 +35264,7 @@
         <v>2320</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>36</v>
@@ -35268,10 +35283,10 @@
       <c r="P360" s="9"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S360" s="5" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T360" s="3" t="s">
         <v>33</v>
@@ -35280,16 +35295,16 @@
         <v>33</v>
       </c>
       <c r="V360" s="7">
-        <v>1.259784e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="X360" s="7">
         <v>2321</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z360" s="5" t="s">
         <v>497</v>
@@ -35298,24 +35313,24 @@
         <v>474</v>
       </c>
       <c r="AB360" s="10">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="AC360" s="11">
-        <v>600000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD360" s="11">
-        <v>600000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE360" s="12">
-        <v>1800</v>
+        <v>1745</v>
       </c>
       <c r="AF360" s="12">
-        <v>1800</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A361" s="13" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B361" s="13" t="s">
         <v>33</v>
@@ -35324,7 +35339,7 @@
         <v>43944</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E361" s="15" t="s">
         <v>33</v>
@@ -35333,7 +35348,7 @@
         <v>2320</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>36</v>
@@ -35352,10 +35367,10 @@
       <c r="P361" s="19"/>
       <c r="Q361" s="18"/>
       <c r="R361" s="15" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S361" s="15" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T361" s="13" t="s">
         <v>33</v>
@@ -35364,16 +35379,16 @@
         <v>33</v>
       </c>
       <c r="V361" s="17">
-        <v>1.259792e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W361" s="15" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="X361" s="17">
         <v>2321</v>
       </c>
       <c r="Y361" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z361" s="15" t="s">
         <v>497</v>
@@ -35382,24 +35397,24 @@
         <v>474</v>
       </c>
       <c r="AB361" s="21">
-        <v>80</v>
+        <v>80000</v>
       </c>
       <c r="AC361" s="22">
-        <v>15.35</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD361" s="22">
-        <v>15.35</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE361" s="23">
-        <v>1228</v>
+        <v>31200</v>
       </c>
       <c r="AF361" s="23">
-        <v>1228</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>33</v>
@@ -35408,7 +35423,7 @@
         <v>43944</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>33</v>
@@ -35417,7 +35432,7 @@
         <v>2320</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>36</v>
@@ -35436,10 +35451,10 @@
       <c r="P362" s="9"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S362" s="5" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T362" s="3" t="s">
         <v>33</v>
@@ -35448,42 +35463,42 @@
         <v>33</v>
       </c>
       <c r="V362" s="7">
-        <v>1.260669e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W362" s="5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="X362" s="7">
         <v>2321</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z362" s="5" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB362" s="10">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AC362" s="11">
-        <v>1.49</v>
+        <v>351</v>
       </c>
       <c r="AD362" s="11">
-        <v>1.49</v>
+        <v>351</v>
       </c>
       <c r="AE362" s="12">
-        <v>1490</v>
+        <v>31590</v>
       </c>
       <c r="AF362" s="12">
-        <v>1490</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A363" s="13" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>33</v>
@@ -35492,7 +35507,7 @@
         <v>43944</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>33</v>
@@ -35501,7 +35516,7 @@
         <v>2320</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
@@ -35520,10 +35535,10 @@
       <c r="P363" s="19"/>
       <c r="Q363" s="18"/>
       <c r="R363" s="15" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S363" s="15" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T363" s="13" t="s">
         <v>33</v>
@@ -35532,16 +35547,16 @@
         <v>33</v>
       </c>
       <c r="V363" s="17">
-        <v>1.260677e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W363" s="15" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="X363" s="17">
         <v>2321</v>
       </c>
       <c r="Y363" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z363" s="15" t="s">
         <v>497</v>
@@ -35550,24 +35565,24 @@
         <v>474</v>
       </c>
       <c r="AB363" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC363" s="22">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AD363" s="22">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AE363" s="23">
-        <v>4770</v>
+        <v>2780</v>
       </c>
       <c r="AF363" s="23">
-        <v>4770</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35576,7 +35591,7 @@
         <v>43944</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35585,7 +35600,7 @@
         <v>2320</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35604,10 +35619,10 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="5" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S364" s="5" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T364" s="3" t="s">
         <v>33</v>
@@ -35616,16 +35631,16 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W364" s="24" t="s">
-        <v>924</v>
+        <v>1.259784e6</v>
+      </c>
+      <c r="W364" s="5" t="s">
+        <v>925</v>
       </c>
       <c r="X364" s="7">
         <v>2321</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>497</v>
@@ -35634,24 +35649,24 @@
         <v>474</v>
       </c>
       <c r="AB364" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC364" s="11">
-        <v>271.97</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD364" s="11">
-        <v>271.97</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE364" s="12">
-        <v>16318.2</v>
+        <v>1800</v>
       </c>
       <c r="AF364" s="12">
-        <v>16318.2</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
@@ -35660,7 +35675,7 @@
         <v>43944</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35669,7 +35684,7 @@
         <v>2320</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35688,10 +35703,10 @@
       <c r="P365" s="19"/>
       <c r="Q365" s="18"/>
       <c r="R365" s="15" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="T365" s="13" t="s">
         <v>33</v>
@@ -35700,16 +35715,16 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.687115e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="X365" s="17">
         <v>2321</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z365" s="15" t="s">
         <v>497</v>
@@ -35718,24 +35733,24 @@
         <v>474</v>
       </c>
       <c r="AB365" s="21">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC365" s="22">
-        <v>16.65</v>
+        <v>15.35</v>
       </c>
       <c r="AD365" s="22">
-        <v>16.65</v>
+        <v>15.35</v>
       </c>
       <c r="AE365" s="23">
-        <v>999</v>
+        <v>1228</v>
       </c>
       <c r="AF365" s="23">
-        <v>999</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
@@ -35744,7 +35759,7 @@
         <v>43944</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -35753,7 +35768,7 @@
         <v>2320</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -35772,28 +35787,28 @@
       <c r="P366" s="9"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="5" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="S366" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="T366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U366" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V366" s="7">
+        <v>1.260669e6</v>
+      </c>
+      <c r="W366" s="5" t="s">
         <v>927</v>
-      </c>
-      <c r="T366" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U366" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V366" s="7">
-        <v>1.257463e6</v>
-      </c>
-      <c r="W366" s="5" t="s">
-        <v>928</v>
       </c>
       <c r="X366" s="7">
         <v>2321</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z366" s="5" t="s">
         <v>497</v>
@@ -35802,33 +35817,33 @@
         <v>474</v>
       </c>
       <c r="AB366" s="10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AC366" s="11">
-        <v>34.2</v>
+        <v>1.49</v>
       </c>
       <c r="AD366" s="11">
-        <v>34.2</v>
+        <v>1.49</v>
       </c>
       <c r="AE366" s="12">
-        <v>6840</v>
+        <v>1490</v>
       </c>
       <c r="AF366" s="12">
-        <v>6840</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A367" s="13" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C367" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D367" s="15" t="s">
-        <v>930</v>
+        <v>43944</v>
+      </c>
+      <c r="D367" s="25" t="s">
+        <v>907</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>33</v>
@@ -35837,7 +35852,7 @@
         <v>2320</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>36</v>
@@ -35856,10 +35871,10 @@
       <c r="P367" s="19"/>
       <c r="Q367" s="18"/>
       <c r="R367" s="15" t="s">
-        <v>457</v>
+        <v>918</v>
       </c>
       <c r="S367" s="15" t="s">
-        <v>458</v>
+        <v>919</v>
       </c>
       <c r="T367" s="13" t="s">
         <v>33</v>
@@ -35868,40 +35883,376 @@
         <v>33</v>
       </c>
       <c r="V367" s="17">
-        <v>1.408623e6</v>
+        <v>1.260677e6</v>
       </c>
       <c r="W367" s="15" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="X367" s="17">
         <v>2321</v>
       </c>
       <c r="Y367" s="15" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="Z367" s="15" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="AA367" s="13" t="s">
         <v>474</v>
       </c>
       <c r="AB367" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AC367" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AD367" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AE367" s="23">
+        <v>4770</v>
+      </c>
+      <c r="AF367" s="23">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="368" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A368" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C368" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D368" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="E368" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F368" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J368" s="7">
+        <v>0</v>
+      </c>
+      <c r="K368" s="5"/>
+      <c r="L368" s="7"/>
+      <c r="M368" s="5"/>
+      <c r="N368" s="8"/>
+      <c r="O368" s="8"/>
+      <c r="P368" s="9"/>
+      <c r="Q368" s="8"/>
+      <c r="R368" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="S368" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="T368" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U368" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V368" s="7">
+        <v>1.260731e6</v>
+      </c>
+      <c r="W368" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="X368" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y368" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z368" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA368" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB368" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC368" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AD368" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AE368" s="12">
+        <v>16318.2</v>
+      </c>
+      <c r="AF368" s="12">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="369" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A369" s="13" t="s">
+        <v>906</v>
+      </c>
+      <c r="B369" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C369" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D369" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="E369" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F369" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G369" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="H369" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I369" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J369" s="17">
+        <v>0</v>
+      </c>
+      <c r="K369" s="15"/>
+      <c r="L369" s="17"/>
+      <c r="M369" s="15"/>
+      <c r="N369" s="18"/>
+      <c r="O369" s="18"/>
+      <c r="P369" s="19"/>
+      <c r="Q369" s="18"/>
+      <c r="R369" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="S369" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="T369" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U369" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V369" s="17">
+        <v>1.687115e6</v>
+      </c>
+      <c r="W369" s="15" t="s">
+        <v>930</v>
+      </c>
+      <c r="X369" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y369" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z369" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA369" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB369" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC369" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD369" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE369" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF369" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="370" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A370" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C370" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D370" s="26" t="s">
+        <v>907</v>
+      </c>
+      <c r="E370" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F370" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J370" s="7">
+        <v>0</v>
+      </c>
+      <c r="K370" s="5"/>
+      <c r="L370" s="7"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="8"/>
+      <c r="O370" s="8"/>
+      <c r="P370" s="9"/>
+      <c r="Q370" s="8"/>
+      <c r="R370" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="S370" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="T370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U370" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V370" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W370" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="X370" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y370" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z370" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="AA370" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB370" s="10">
+        <v>200</v>
+      </c>
+      <c r="AC370" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AD370" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AE370" s="12">
+        <v>6840</v>
+      </c>
+      <c r="AF370" s="12">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="371" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A371" s="13" t="s">
+        <v>934</v>
+      </c>
+      <c r="B371" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C371" s="14">
+        <v>44012</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="E371" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F371" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G371" s="13" t="s">
+        <v>908</v>
+      </c>
+      <c r="H371" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I371" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J371" s="17">
+        <v>0</v>
+      </c>
+      <c r="K371" s="15"/>
+      <c r="L371" s="17"/>
+      <c r="M371" s="15"/>
+      <c r="N371" s="18"/>
+      <c r="O371" s="18"/>
+      <c r="P371" s="19"/>
+      <c r="Q371" s="18"/>
+      <c r="R371" s="15" t="s">
+        <v>457</v>
+      </c>
+      <c r="S371" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="T371" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U371" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V371" s="17">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W371" s="15" t="s">
+        <v>936</v>
+      </c>
+      <c r="X371" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y371" s="15" t="s">
+        <v>911</v>
+      </c>
+      <c r="Z371" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA371" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB371" s="21">
         <v>2000</v>
       </c>
-      <c r="AC367" s="22">
+      <c r="AC371" s="22">
         <v>18.69</v>
       </c>
-      <c r="AD367" s="22">
+      <c r="AD371" s="22">
         <v>14.95</v>
       </c>
-      <c r="AE367" s="23">
+      <c r="AE371" s="23">
         <v>37380</v>
       </c>
-      <c r="AF367" s="23">
+      <c r="AF371" s="23">
         <v>29900</v>
       </c>
     </row>
-    <row r="368" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="372" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5859" uniqueCount="937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5874" uniqueCount="941">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -2486,6 +2486,18 @@
   </si>
   <si>
     <t>SUL MINAS INDUSTRIA E COMERCIO DE CONFECCOES LTDA</t>
+  </si>
+  <si>
+    <t>2121022 000040/2020</t>
+  </si>
+  <si>
+    <t>07.084.315/0001-03</t>
+  </si>
+  <si>
+    <t>SMARTX TAGS E SOLUCOES IOT LTDA</t>
+  </si>
+  <si>
+    <t>MASCARA DE PROTECAO -  MODELO: FACIAL; MATERIA-PRIMA: ACETATO; FILTRO: NAO APLICAVEL; CLASSE DO FILTRO: NAO APLICAVEL; PROTECAO: VIAS AEREAS SUPERIORES; VALVULA: NAO APLICAVEL; VISOR: SEM VISOR; FIXACAO: AJUSTAVEL COM FIXACAO UNIVERSAL;</t>
   </si>
   <si>
     <t>2261032 000112/2020</t>
@@ -3017,7 +3029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF372"/>
+  <dimension ref="A1:AF373"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -32318,25 +32330,25 @@
         <v>33</v>
       </c>
       <c r="C328" s="4">
-        <v>43920</v>
+        <v>44062</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="E328" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F328" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G328" s="3" t="s">
-        <v>827</v>
+        <v>784</v>
       </c>
       <c r="H328" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I328" s="3" t="s">
-        <v>37</v>
+        <v>806</v>
       </c>
       <c r="J328" s="7">
         <v>0</v>
@@ -32349,54 +32361,54 @@
       <c r="P328" s="9"/>
       <c r="Q328" s="8"/>
       <c r="R328" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="S328" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="T328" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U328" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V328" s="7">
+        <v>1.75847e6</v>
+      </c>
+      <c r="W328" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="S328" s="5" t="s">
-        <v>829</v>
-      </c>
-      <c r="T328" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U328" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V328" s="7">
-        <v>82414</v>
-      </c>
-      <c r="W328" s="5" t="s">
-        <v>830</v>
-      </c>
       <c r="X328" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y328" s="5" t="s">
-        <v>827</v>
+        <v>786</v>
       </c>
       <c r="Z328" s="5" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="AA328" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB328" s="10">
-        <v>10000</v>
+        <v>50</v>
       </c>
       <c r="AC328" s="11">
-        <v>676000e-6</v>
+        <v>6.23</v>
       </c>
       <c r="AD328" s="11">
-        <v>676000e-6</v>
+        <v>6.23</v>
       </c>
       <c r="AE328" s="12">
-        <v>6760</v>
+        <v>311.5</v>
       </c>
       <c r="AF328" s="12">
-        <v>6760</v>
+        <v>311.5</v>
       </c>
     </row>
     <row r="329" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A329" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B329" s="13" t="s">
         <v>33</v>
@@ -32405,7 +32417,7 @@
         <v>43920</v>
       </c>
       <c r="D329" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E329" s="15" t="s">
         <v>33</v>
@@ -32414,7 +32426,7 @@
         <v>2260</v>
       </c>
       <c r="G329" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H329" s="13" t="s">
         <v>36</v>
@@ -32433,10 +32445,10 @@
       <c r="P329" s="19"/>
       <c r="Q329" s="18"/>
       <c r="R329" s="15" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="S329" s="15" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="T329" s="13" t="s">
         <v>33</v>
@@ -32445,42 +32457,42 @@
         <v>33</v>
       </c>
       <c r="V329" s="17">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W329" s="15" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="X329" s="17">
         <v>2261</v>
       </c>
       <c r="Y329" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z329" s="15" t="s">
-        <v>129</v>
+        <v>379</v>
       </c>
       <c r="AA329" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB329" s="21">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC329" s="22">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD329" s="22">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE329" s="23">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF329" s="23">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="330" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A330" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>33</v>
@@ -32489,7 +32501,7 @@
         <v>43920</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E330" s="5" t="s">
         <v>33</v>
@@ -32498,7 +32510,7 @@
         <v>2260</v>
       </c>
       <c r="G330" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H330" s="3" t="s">
         <v>36</v>
@@ -32529,42 +32541,42 @@
         <v>33</v>
       </c>
       <c r="V330" s="7">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W330" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="X330" s="7">
         <v>2261</v>
       </c>
       <c r="Y330" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z330" s="5" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AA330" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB330" s="10">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC330" s="11">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD330" s="11">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE330" s="12">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF330" s="12">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="331" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A331" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B331" s="13" t="s">
         <v>33</v>
@@ -32573,7 +32585,7 @@
         <v>43920</v>
       </c>
       <c r="D331" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E331" s="15" t="s">
         <v>33</v>
@@ -32582,7 +32594,7 @@
         <v>2260</v>
       </c>
       <c r="G331" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H331" s="13" t="s">
         <v>36</v>
@@ -32601,10 +32613,10 @@
       <c r="P331" s="19"/>
       <c r="Q331" s="18"/>
       <c r="R331" s="15" t="s">
-        <v>712</v>
+        <v>836</v>
       </c>
       <c r="S331" s="15" t="s">
-        <v>713</v>
+        <v>837</v>
       </c>
       <c r="T331" s="13" t="s">
         <v>33</v>
@@ -32613,16 +32625,16 @@
         <v>33</v>
       </c>
       <c r="V331" s="17">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W331" s="15" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="X331" s="17">
         <v>2261</v>
       </c>
       <c r="Y331" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z331" s="15" t="s">
         <v>379</v>
@@ -32631,24 +32643,24 @@
         <v>44</v>
       </c>
       <c r="AB331" s="21">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC331" s="22">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD331" s="22">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE331" s="23">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF331" s="23">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="332" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A332" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>33</v>
@@ -32657,7 +32669,7 @@
         <v>43920</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E332" s="5" t="s">
         <v>33</v>
@@ -32666,7 +32678,7 @@
         <v>2260</v>
       </c>
       <c r="G332" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H332" s="3" t="s">
         <v>36</v>
@@ -32697,16 +32709,16 @@
         <v>33</v>
       </c>
       <c r="V332" s="7">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W332" s="5" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="X332" s="7">
         <v>2261</v>
       </c>
       <c r="Y332" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z332" s="5" t="s">
         <v>379</v>
@@ -32715,24 +32727,24 @@
         <v>44</v>
       </c>
       <c r="AB332" s="10">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC332" s="11">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD332" s="11">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE332" s="12">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF332" s="12">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="333" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A333" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B333" s="13" t="s">
         <v>33</v>
@@ -32741,7 +32753,7 @@
         <v>43920</v>
       </c>
       <c r="D333" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E333" s="15" t="s">
         <v>33</v>
@@ -32750,7 +32762,7 @@
         <v>2260</v>
       </c>
       <c r="G333" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H333" s="13" t="s">
         <v>36</v>
@@ -32781,16 +32793,16 @@
         <v>33</v>
       </c>
       <c r="V333" s="17">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W333" s="15" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="X333" s="17">
         <v>2261</v>
       </c>
       <c r="Y333" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z333" s="15" t="s">
         <v>379</v>
@@ -32799,24 +32811,24 @@
         <v>44</v>
       </c>
       <c r="AB333" s="21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC333" s="22">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD333" s="22">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE333" s="23">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF333" s="23">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="334" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A334" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>33</v>
@@ -32825,7 +32837,7 @@
         <v>43920</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E334" s="5" t="s">
         <v>33</v>
@@ -32834,7 +32846,7 @@
         <v>2260</v>
       </c>
       <c r="G334" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H334" s="3" t="s">
         <v>36</v>
@@ -32853,10 +32865,10 @@
       <c r="P334" s="9"/>
       <c r="Q334" s="8"/>
       <c r="R334" s="5" t="s">
-        <v>838</v>
+        <v>712</v>
       </c>
       <c r="S334" s="5" t="s">
-        <v>839</v>
+        <v>713</v>
       </c>
       <c r="T334" s="3" t="s">
         <v>33</v>
@@ -32865,16 +32877,16 @@
         <v>33</v>
       </c>
       <c r="V334" s="7">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W334" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="X334" s="7">
         <v>2261</v>
       </c>
       <c r="Y334" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z334" s="5" t="s">
         <v>379</v>
@@ -32883,24 +32895,24 @@
         <v>44</v>
       </c>
       <c r="AB334" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC334" s="11">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD334" s="11">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE334" s="12">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF334" s="12">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="335" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A335" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B335" s="13" t="s">
         <v>33</v>
@@ -32909,7 +32921,7 @@
         <v>43920</v>
       </c>
       <c r="D335" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E335" s="15" t="s">
         <v>33</v>
@@ -32918,7 +32930,7 @@
         <v>2260</v>
       </c>
       <c r="G335" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H335" s="13" t="s">
         <v>36</v>
@@ -32937,10 +32949,10 @@
       <c r="P335" s="19"/>
       <c r="Q335" s="18"/>
       <c r="R335" s="15" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="S335" s="15" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="T335" s="13" t="s">
         <v>33</v>
@@ -32949,16 +32961,16 @@
         <v>33</v>
       </c>
       <c r="V335" s="17">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W335" s="15" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="X335" s="17">
         <v>2261</v>
       </c>
       <c r="Y335" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z335" s="15" t="s">
         <v>379</v>
@@ -32967,24 +32979,24 @@
         <v>44</v>
       </c>
       <c r="AB335" s="21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC335" s="22">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD335" s="22">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE335" s="23">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF335" s="23">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="336" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A336" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>33</v>
@@ -32993,7 +33005,7 @@
         <v>43920</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E336" s="5" t="s">
         <v>33</v>
@@ -33002,7 +33014,7 @@
         <v>2260</v>
       </c>
       <c r="G336" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H336" s="3" t="s">
         <v>36</v>
@@ -33021,10 +33033,10 @@
       <c r="P336" s="9"/>
       <c r="Q336" s="8"/>
       <c r="R336" s="5" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="S336" s="5" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="T336" s="3" t="s">
         <v>33</v>
@@ -33033,16 +33045,16 @@
         <v>33</v>
       </c>
       <c r="V336" s="7">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W336" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="X336" s="7">
         <v>2261</v>
       </c>
       <c r="Y336" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z336" s="5" t="s">
         <v>379</v>
@@ -33051,24 +33063,24 @@
         <v>44</v>
       </c>
       <c r="AB336" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC336" s="11">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD336" s="11">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE336" s="12">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF336" s="12">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="337" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A337" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B337" s="13" t="s">
         <v>33</v>
@@ -33077,7 +33089,7 @@
         <v>43920</v>
       </c>
       <c r="D337" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E337" s="15" t="s">
         <v>33</v>
@@ -33086,7 +33098,7 @@
         <v>2260</v>
       </c>
       <c r="G337" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H337" s="13" t="s">
         <v>36</v>
@@ -33095,27 +33107,15 @@
         <v>37</v>
       </c>
       <c r="J337" s="17">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K337" s="15" t="s">
-        <v>847</v>
-      </c>
-      <c r="L337" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M337" s="15" t="s">
-        <v>827</v>
-      </c>
-      <c r="N337" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O337" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K337" s="15"/>
+      <c r="L337" s="17"/>
+      <c r="M337" s="15"/>
+      <c r="N337" s="18"/>
+      <c r="O337" s="18"/>
       <c r="P337" s="19"/>
-      <c r="Q337" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q337" s="18"/>
       <c r="R337" s="15" t="s">
         <v>848</v>
       </c>
@@ -33129,7 +33129,7 @@
         <v>33</v>
       </c>
       <c r="V337" s="17">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W337" s="15" t="s">
         <v>850</v>
@@ -33138,33 +33138,33 @@
         <v>2261</v>
       </c>
       <c r="Y337" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z337" s="15" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA337" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB337" s="21">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC337" s="22">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD337" s="22">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE337" s="23">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF337" s="23">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="338" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A338" s="3" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>33</v>
@@ -33173,7 +33173,7 @@
         <v>43920</v>
       </c>
       <c r="D338" s="5" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E338" s="5" t="s">
         <v>33</v>
@@ -33182,7 +33182,7 @@
         <v>2260</v>
       </c>
       <c r="G338" s="3" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H338" s="3" t="s">
         <v>36</v>
@@ -33191,7 +33191,7 @@
         <v>37</v>
       </c>
       <c r="J338" s="7">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K338" s="5" t="s">
         <v>851</v>
@@ -33200,7 +33200,7 @@
         <v>2260</v>
       </c>
       <c r="M338" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="N338" s="8">
         <v>43936</v>
@@ -33225,7 +33225,7 @@
         <v>33</v>
       </c>
       <c r="V338" s="7">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W338" s="5" t="s">
         <v>854</v>
@@ -33234,7 +33234,7 @@
         <v>2261</v>
       </c>
       <c r="Y338" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z338" s="5" t="s">
         <v>122</v>
@@ -33246,21 +33246,21 @@
         <v>30000</v>
       </c>
       <c r="AC338" s="11">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD338" s="11">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE338" s="12">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF338" s="12">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="339" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A339" s="13" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="B339" s="13" t="s">
         <v>33</v>
@@ -33269,7 +33269,7 @@
         <v>43920</v>
       </c>
       <c r="D339" s="15" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="E339" s="15" t="s">
         <v>33</v>
@@ -33278,7 +33278,7 @@
         <v>2260</v>
       </c>
       <c r="G339" s="13" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="H339" s="13" t="s">
         <v>36</v>
@@ -33290,13 +33290,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K339" s="15" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="L339" s="17">
         <v>2260</v>
       </c>
       <c r="M339" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="N339" s="18">
         <v>43936</v>
@@ -33309,10 +33309,10 @@
         <v>44115</v>
       </c>
       <c r="R339" s="15" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="S339" s="15" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="T339" s="13" t="s">
         <v>33</v>
@@ -33321,16 +33321,16 @@
         <v>33</v>
       </c>
       <c r="V339" s="17">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W339" s="15" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="X339" s="17">
         <v>2261</v>
       </c>
       <c r="Y339" s="15" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="Z339" s="15" t="s">
         <v>122</v>
@@ -33342,62 +33342,74 @@
         <v>30000</v>
       </c>
       <c r="AC339" s="22">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD339" s="22">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE339" s="23">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF339" s="23">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="340" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A340" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C340" s="4">
+        <v>43920</v>
+      </c>
+      <c r="D340" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E340" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F340" s="6">
+        <v>2260</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J340" s="7">
+        <v>9.245763e6</v>
+      </c>
+      <c r="K340" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="L340" s="7">
+        <v>2260</v>
+      </c>
+      <c r="M340" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="N340" s="8">
+        <v>43936</v>
+      </c>
+      <c r="O340" s="8">
+        <v>43936</v>
+      </c>
+      <c r="P340" s="9"/>
+      <c r="Q340" s="8">
+        <v>44115</v>
+      </c>
+      <c r="R340" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="B340" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C340" s="4">
-        <v>43972</v>
-      </c>
-      <c r="D340" s="5" t="s">
+      <c r="S340" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="E340" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F340" s="6">
-        <v>2280</v>
-      </c>
-      <c r="G340" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="H340" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I340" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="J340" s="7">
-        <v>0</v>
-      </c>
-      <c r="K340" s="5"/>
-      <c r="L340" s="7"/>
-      <c r="M340" s="5"/>
-      <c r="N340" s="8"/>
-      <c r="O340" s="8"/>
-      <c r="P340" s="9"/>
-      <c r="Q340" s="8"/>
-      <c r="R340" s="5" t="s">
-        <v>813</v>
-      </c>
-      <c r="S340" s="5" t="s">
-        <v>814</v>
-      </c>
       <c r="T340" s="3" t="s">
         <v>33</v>
       </c>
@@ -33405,37 +33417,37 @@
         <v>33</v>
       </c>
       <c r="V340" s="7">
-        <v>1.756699e6</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W340" s="5" t="s">
-        <v>815</v>
+        <v>859</v>
       </c>
       <c r="X340" s="7">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y340" s="5" t="s">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="Z340" s="5" t="s">
-        <v>373</v>
+        <v>122</v>
       </c>
       <c r="AA340" s="3" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AB340" s="10">
-        <v>127</v>
+        <v>30000</v>
       </c>
       <c r="AC340" s="11">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AD340" s="11">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AE340" s="12">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
       <c r="AF340" s="12">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="341" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -33446,7 +33458,7 @@
         <v>33</v>
       </c>
       <c r="C341" s="14">
-        <v>43921</v>
+        <v>43972</v>
       </c>
       <c r="D341" s="15" t="s">
         <v>861</v>
@@ -33455,7 +33467,7 @@
         <v>33</v>
       </c>
       <c r="F341" s="16">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="G341" s="13" t="s">
         <v>862</v>
@@ -33464,90 +33476,76 @@
         <v>36</v>
       </c>
       <c r="I341" s="13" t="s">
-        <v>37</v>
+        <v>812</v>
       </c>
       <c r="J341" s="17">
-        <v>9.245674e6</v>
-      </c>
-      <c r="K341" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K341" s="15"/>
+      <c r="L341" s="17"/>
+      <c r="M341" s="15"/>
+      <c r="N341" s="18"/>
+      <c r="O341" s="18"/>
+      <c r="P341" s="19"/>
+      <c r="Q341" s="18"/>
+      <c r="R341" s="15" t="s">
+        <v>813</v>
+      </c>
+      <c r="S341" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="T341" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U341" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V341" s="17">
+        <v>1.756699e6</v>
+      </c>
+      <c r="W341" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="X341" s="17">
+        <v>2281</v>
+      </c>
+      <c r="Y341" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="L341" s="17">
-        <v>2300</v>
-      </c>
-      <c r="M341" s="15" t="s">
-        <v>862</v>
-      </c>
-      <c r="N341" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O341" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P341" s="19">
-        <v>44105</v>
-      </c>
-      <c r="Q341" s="18">
-        <v>44131</v>
-      </c>
-      <c r="R341" s="15" t="s">
-        <v>864</v>
-      </c>
-      <c r="S341" s="15" t="s">
-        <v>865</v>
-      </c>
-      <c r="T341" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U341" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V341" s="17">
-        <v>1155</v>
-      </c>
-      <c r="W341" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="X341" s="17">
-        <v>2301</v>
-      </c>
-      <c r="Y341" s="15" t="s">
-        <v>866</v>
-      </c>
       <c r="Z341" s="15" t="s">
-        <v>108</v>
+        <v>373</v>
       </c>
       <c r="AA341" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB341" s="21">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC341" s="22">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AD341" s="22">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AE341" s="23">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
       <c r="AF341" s="23">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="342" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A342" s="3" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C342" s="4">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="D342" s="5" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E342" s="5" t="s">
         <v>33</v>
@@ -33556,7 +33554,7 @@
         <v>2300</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>36</v>
@@ -33565,34 +33563,34 @@
         <v>37</v>
       </c>
       <c r="J342" s="7">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K342" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="L342" s="7">
         <v>2300</v>
       </c>
       <c r="M342" s="5" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="N342" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O342" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P342" s="9">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q342" s="8">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R342" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="S342" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="T342" s="3" t="s">
         <v>33</v>
@@ -33610,7 +33608,7 @@
         <v>2301</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="Z342" s="5" t="s">
         <v>108</v>
@@ -33622,30 +33620,30 @@
         <v>0</v>
       </c>
       <c r="AC342" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD342" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE342" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF342" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A343" s="13" t="s">
+        <v>871</v>
+      </c>
+      <c r="B343" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C343" s="14">
+        <v>43935</v>
+      </c>
+      <c r="D343" s="15" t="s">
         <v>872</v>
-      </c>
-      <c r="B343" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C343" s="14">
-        <v>43963</v>
-      </c>
-      <c r="D343" s="15" t="s">
-        <v>873</v>
       </c>
       <c r="E343" s="15" t="s">
         <v>33</v>
@@ -33654,7 +33652,7 @@
         <v>2300</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>36</v>
@@ -33663,34 +33661,34 @@
         <v>37</v>
       </c>
       <c r="J343" s="17">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K343" s="15" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L343" s="17">
         <v>2300</v>
       </c>
       <c r="M343" s="15" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="N343" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O343" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P343" s="19">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q343" s="18">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R343" s="15" t="s">
+        <v>874</v>
+      </c>
+      <c r="S343" s="15" t="s">
         <v>875</v>
-      </c>
-      <c r="S343" s="15" t="s">
-        <v>876</v>
       </c>
       <c r="T343" s="13" t="s">
         <v>33</v>
@@ -33708,7 +33706,7 @@
         <v>2301</v>
       </c>
       <c r="Y343" s="15" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="Z343" s="15" t="s">
         <v>108</v>
@@ -33720,39 +33718,39 @@
         <v>0</v>
       </c>
       <c r="AC343" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD343" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE343" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF343" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A344" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C344" s="4">
+        <v>43963</v>
+      </c>
+      <c r="D344" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B344" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C344" s="4">
-        <v>43928</v>
-      </c>
-      <c r="D344" s="5" t="s">
-        <v>878</v>
-      </c>
       <c r="E344" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F344" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>36</v>
@@ -33761,35 +33759,35 @@
         <v>37</v>
       </c>
       <c r="J344" s="7">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K344" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="L344" s="7">
+        <v>2300</v>
+      </c>
+      <c r="M344" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="N344" s="8">
+        <v>43963</v>
+      </c>
+      <c r="O344" s="8">
+        <v>43963</v>
+      </c>
+      <c r="P344" s="9">
+        <v>44195</v>
+      </c>
+      <c r="Q344" s="8">
+        <v>44195</v>
+      </c>
+      <c r="R344" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="S344" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="L344" s="7">
-        <v>2310</v>
-      </c>
-      <c r="M344" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="N344" s="8">
-        <v>43943</v>
-      </c>
-      <c r="O344" s="8">
-        <v>43939</v>
-      </c>
-      <c r="P344" s="9">
-        <v>44304</v>
-      </c>
-      <c r="Q344" s="8">
-        <v>44121</v>
-      </c>
-      <c r="R344" s="5" t="s">
-        <v>750</v>
-      </c>
-      <c r="S344" s="5" t="s">
-        <v>751</v>
-      </c>
       <c r="T344" s="3" t="s">
         <v>33</v>
       </c>
@@ -33797,42 +33795,42 @@
         <v>33</v>
       </c>
       <c r="V344" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W344" s="24" t="s">
-        <v>881</v>
+        <v>1155</v>
+      </c>
+      <c r="W344" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="X344" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="Z344" s="5" t="s">
-        <v>365</v>
+        <v>108</v>
       </c>
       <c r="AA344" s="3" t="s">
-        <v>882</v>
+        <v>44</v>
       </c>
       <c r="AB344" s="10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC344" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD344" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE344" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF344" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A345" s="13" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B345" s="13" t="s">
         <v>33</v>
@@ -33841,7 +33839,7 @@
         <v>43928</v>
       </c>
       <c r="D345" s="15" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E345" s="15" t="s">
         <v>33</v>
@@ -33850,7 +33848,7 @@
         <v>2310</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>36</v>
@@ -33862,13 +33860,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K345" s="15" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L345" s="17">
         <v>2310</v>
       </c>
       <c r="M345" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N345" s="18">
         <v>43943</v>
@@ -33895,42 +33893,42 @@
         <v>33</v>
       </c>
       <c r="V345" s="17">
-        <v>236268</v>
-      </c>
-      <c r="W345" s="15" t="s">
-        <v>883</v>
+        <v>18228</v>
+      </c>
+      <c r="W345" s="20" t="s">
+        <v>885</v>
       </c>
       <c r="X345" s="17">
         <v>2311</v>
       </c>
       <c r="Y345" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z345" s="15" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AA345" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB345" s="21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC345" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD345" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE345" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF345" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="346" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>33</v>
@@ -33939,7 +33937,7 @@
         <v>43928</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>33</v>
@@ -33948,7 +33946,7 @@
         <v>2310</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>36</v>
@@ -33960,13 +33958,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K346" s="5" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L346" s="7">
         <v>2310</v>
       </c>
       <c r="M346" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N346" s="8">
         <v>43943</v>
@@ -33993,42 +33991,42 @@
         <v>33</v>
       </c>
       <c r="V346" s="7">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>757</v>
+        <v>887</v>
       </c>
       <c r="X346" s="7">
         <v>2311</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z346" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA346" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB346" s="10">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC346" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD346" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE346" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF346" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A347" s="13" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>33</v>
@@ -34037,7 +34035,7 @@
         <v>43928</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E347" s="15" t="s">
         <v>33</v>
@@ -34046,7 +34044,7 @@
         <v>2310</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>36</v>
@@ -34058,13 +34056,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K347" s="15" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L347" s="17">
         <v>2310</v>
       </c>
       <c r="M347" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N347" s="18">
         <v>43943</v>
@@ -34091,42 +34089,42 @@
         <v>33</v>
       </c>
       <c r="V347" s="17">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W347" s="15" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="X347" s="17">
         <v>2311</v>
       </c>
       <c r="Y347" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z347" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA347" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB347" s="21">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC347" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD347" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE347" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF347" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>33</v>
@@ -34135,7 +34133,7 @@
         <v>43928</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>33</v>
@@ -34144,7 +34142,7 @@
         <v>2310</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H348" s="3" t="s">
         <v>36</v>
@@ -34156,13 +34154,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K348" s="5" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L348" s="7">
         <v>2310</v>
       </c>
       <c r="M348" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N348" s="8">
         <v>43943</v>
@@ -34189,25 +34187,25 @@
         <v>33</v>
       </c>
       <c r="V348" s="7">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>884</v>
+        <v>752</v>
       </c>
       <c r="X348" s="7">
         <v>2311</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z348" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA348" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB348" s="10">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC348" s="11">
         <v>45</v>
@@ -34216,15 +34214,15 @@
         <v>45</v>
       </c>
       <c r="AE348" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF348" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A349" s="13" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>33</v>
@@ -34233,7 +34231,7 @@
         <v>43928</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E349" s="15" t="s">
         <v>33</v>
@@ -34242,7 +34240,7 @@
         <v>2310</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>36</v>
@@ -34254,13 +34252,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K349" s="15" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L349" s="17">
         <v>2310</v>
       </c>
       <c r="M349" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N349" s="18">
         <v>43943</v>
@@ -34287,22 +34285,22 @@
         <v>33</v>
       </c>
       <c r="V349" s="17">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W349" s="15" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="X349" s="17">
         <v>2311</v>
       </c>
       <c r="Y349" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z349" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA349" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB349" s="21">
         <v>30</v>
@@ -34322,7 +34320,7 @@
     </row>
     <row r="350" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>33</v>
@@ -34331,7 +34329,7 @@
         <v>43928</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>33</v>
@@ -34340,7 +34338,7 @@
         <v>2310</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>36</v>
@@ -34352,13 +34350,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K350" s="5" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="L350" s="7">
         <v>2310</v>
       </c>
       <c r="M350" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N350" s="8">
         <v>43943</v>
@@ -34385,22 +34383,22 @@
         <v>33</v>
       </c>
       <c r="V350" s="7">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W350" s="5" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="X350" s="7">
         <v>2311</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z350" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA350" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB350" s="10">
         <v>30</v>
@@ -34420,16 +34418,16 @@
     </row>
     <row r="351" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A351" s="13" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C351" s="14">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E351" s="15" t="s">
         <v>33</v>
@@ -34438,7 +34436,7 @@
         <v>2310</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>36</v>
@@ -34447,87 +34445,87 @@
         <v>37</v>
       </c>
       <c r="J351" s="17">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K351" s="15" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="L351" s="17">
         <v>2310</v>
       </c>
       <c r="M351" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N351" s="18">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O351" s="18">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P351" s="19">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q351" s="18">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R351" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="S351" s="15" t="s">
+        <v>751</v>
+      </c>
+      <c r="T351" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U351" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V351" s="17">
+        <v>1.152831e6</v>
+      </c>
+      <c r="W351" s="15" t="s">
         <v>890</v>
-      </c>
-      <c r="S351" s="15" t="s">
-        <v>891</v>
-      </c>
-      <c r="T351" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U351" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V351" s="17">
-        <v>1.755897e6</v>
-      </c>
-      <c r="W351" s="15" t="s">
-        <v>892</v>
       </c>
       <c r="X351" s="17">
         <v>2311</v>
       </c>
       <c r="Y351" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z351" s="15" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AA351" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB351" s="21">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC351" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD351" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE351" s="23">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF351" s="23">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C352" s="4">
-        <v>43966</v>
+        <v>43955</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>33</v>
@@ -34536,7 +34534,7 @@
         <v>2310</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>36</v>
@@ -34545,34 +34543,34 @@
         <v>37</v>
       </c>
       <c r="J352" s="7">
-        <v>9.253515e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K352" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="L352" s="7">
         <v>2310</v>
       </c>
       <c r="M352" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N352" s="8">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O352" s="8">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P352" s="9">
-        <v>44757</v>
+        <v>44557</v>
       </c>
       <c r="Q352" s="8">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R352" s="5" t="s">
-        <v>457</v>
+        <v>894</v>
       </c>
       <c r="S352" s="5" t="s">
-        <v>458</v>
+        <v>895</v>
       </c>
       <c r="T352" s="3" t="s">
         <v>33</v>
@@ -34581,7 +34579,7 @@
         <v>33</v>
       </c>
       <c r="V352" s="7">
-        <v>1.722859e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W352" s="5" t="s">
         <v>896</v>
@@ -34590,33 +34588,33 @@
         <v>2311</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z352" s="5" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="AA352" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB352" s="10">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="AC352" s="11">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD352" s="11">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE352" s="12">
-        <v>134000</v>
+        <v>285</v>
       </c>
       <c r="AF352" s="12">
-        <v>134000</v>
+        <v>285</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A353" s="13" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>33</v>
@@ -34625,7 +34623,7 @@
         <v>43966</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E353" s="15" t="s">
         <v>33</v>
@@ -34634,7 +34632,7 @@
         <v>2310</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>36</v>
@@ -34646,13 +34644,13 @@
         <v>9.253515e6</v>
       </c>
       <c r="K353" s="15" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="L353" s="17">
         <v>2310</v>
       </c>
       <c r="M353" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N353" s="18">
         <v>44027</v>
@@ -34679,42 +34677,42 @@
         <v>33</v>
       </c>
       <c r="V353" s="17">
-        <v>1.722891e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W353" s="15" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="X353" s="17">
         <v>2311</v>
       </c>
       <c r="Y353" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z353" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA353" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB353" s="21">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="AC353" s="22">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AD353" s="22">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AE353" s="23">
-        <v>8800</v>
+        <v>134000</v>
       </c>
       <c r="AF353" s="23">
-        <v>8800</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>33</v>
@@ -34723,7 +34721,7 @@
         <v>43966</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>33</v>
@@ -34732,7 +34730,7 @@
         <v>2310</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>36</v>
@@ -34741,16 +34739,16 @@
         <v>37</v>
       </c>
       <c r="J354" s="7">
-        <v>9.253532e6</v>
+        <v>9.253515e6</v>
       </c>
       <c r="K354" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="L354" s="7">
         <v>2310</v>
       </c>
       <c r="M354" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N354" s="8">
         <v>44027</v>
@@ -34765,10 +34763,10 @@
         <v>44206</v>
       </c>
       <c r="R354" s="5" t="s">
-        <v>899</v>
+        <v>457</v>
       </c>
       <c r="S354" s="5" t="s">
-        <v>900</v>
+        <v>458</v>
       </c>
       <c r="T354" s="3" t="s">
         <v>33</v>
@@ -34777,7 +34775,7 @@
         <v>33</v>
       </c>
       <c r="V354" s="7">
-        <v>1.043684e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W354" s="5" t="s">
         <v>901</v>
@@ -34786,42 +34784,42 @@
         <v>2311</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z354" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AA354" s="3" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB354" s="10">
-        <v>780</v>
+        <v>20000</v>
       </c>
       <c r="AC354" s="11">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD354" s="11">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE354" s="12">
-        <v>19500</v>
+        <v>8800</v>
       </c>
       <c r="AF354" s="12">
-        <v>19500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A355" s="13" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C355" s="14">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="E355" s="15" t="s">
         <v>33</v>
@@ -34830,7 +34828,7 @@
         <v>2310</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>36</v>
@@ -34839,16 +34837,16 @@
         <v>37</v>
       </c>
       <c r="J355" s="17">
-        <v>9.253504e6</v>
+        <v>9.253532e6</v>
       </c>
       <c r="K355" s="15" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="L355" s="17">
         <v>2310</v>
       </c>
       <c r="M355" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="N355" s="18">
         <v>44027</v>
@@ -34857,16 +34855,16 @@
         <v>44027</v>
       </c>
       <c r="P355" s="19">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Q355" s="18">
         <v>44206</v>
       </c>
       <c r="R355" s="15" t="s">
-        <v>457</v>
+        <v>903</v>
       </c>
       <c r="S355" s="15" t="s">
-        <v>458</v>
+        <v>904</v>
       </c>
       <c r="T355" s="13" t="s">
         <v>33</v>
@@ -34875,7 +34873,7 @@
         <v>33</v>
       </c>
       <c r="V355" s="17">
-        <v>1.722905e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W355" s="15" t="s">
         <v>905</v>
@@ -34884,28 +34882,28 @@
         <v>2311</v>
       </c>
       <c r="Y355" s="15" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="Z355" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA355" s="13" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="AB355" s="21">
-        <v>30000</v>
+        <v>780</v>
       </c>
       <c r="AC355" s="22">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AD355" s="22">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AE355" s="23">
-        <v>34800</v>
+        <v>19500</v>
       </c>
       <c r="AF355" s="23">
-        <v>34800</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="356" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -34916,19 +34914,19 @@
         <v>33</v>
       </c>
       <c r="C356" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D356" s="26" t="s">
+        <v>44001</v>
+      </c>
+      <c r="D356" s="5" t="s">
         <v>907</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F356" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>36</v>
@@ -34937,64 +34935,78 @@
         <v>37</v>
       </c>
       <c r="J356" s="7">
-        <v>0</v>
-      </c>
-      <c r="K356" s="5"/>
-      <c r="L356" s="7"/>
-      <c r="M356" s="5"/>
-      <c r="N356" s="8"/>
-      <c r="O356" s="8"/>
-      <c r="P356" s="9"/>
-      <c r="Q356" s="8"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K356" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="L356" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M356" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="N356" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O356" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P356" s="9">
+        <v>44756</v>
+      </c>
+      <c r="Q356" s="8">
+        <v>44206</v>
+      </c>
       <c r="R356" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="S356" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="T356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U356" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V356" s="7">
+        <v>1.722905e6</v>
+      </c>
+      <c r="W356" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="S356" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="T356" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U356" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V356" s="7">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W356" s="5" t="s">
-        <v>476</v>
-      </c>
       <c r="X356" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>911</v>
+        <v>883</v>
       </c>
       <c r="Z356" s="5" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="AA356" s="3" t="s">
-        <v>474</v>
+        <v>886</v>
       </c>
       <c r="AB356" s="10">
-        <v>3000</v>
+        <v>30000</v>
       </c>
       <c r="AC356" s="11">
-        <v>8.2</v>
+        <v>1.16</v>
       </c>
       <c r="AD356" s="11">
-        <v>8.2</v>
+        <v>1.16</v>
       </c>
       <c r="AE356" s="12">
-        <v>24600</v>
+        <v>34800</v>
       </c>
       <c r="AF356" s="12">
-        <v>24600</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A357" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>33</v>
@@ -35003,7 +35015,7 @@
         <v>43944</v>
       </c>
       <c r="D357" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E357" s="15" t="s">
         <v>33</v>
@@ -35012,7 +35024,7 @@
         <v>2320</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>36</v>
@@ -35031,10 +35043,10 @@
       <c r="P357" s="19"/>
       <c r="Q357" s="18"/>
       <c r="R357" s="15" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="S357" s="15" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="T357" s="13" t="s">
         <v>33</v>
@@ -35043,42 +35055,42 @@
         <v>33</v>
       </c>
       <c r="V357" s="17">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W357" s="15" t="s">
-        <v>914</v>
+        <v>476</v>
       </c>
       <c r="X357" s="17">
         <v>2321</v>
       </c>
       <c r="Y357" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z357" s="15" t="s">
-        <v>497</v>
+        <v>307</v>
       </c>
       <c r="AA357" s="13" t="s">
         <v>474</v>
       </c>
       <c r="AB357" s="21">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC357" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD357" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE357" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF357" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>33</v>
@@ -35087,7 +35099,7 @@
         <v>43944</v>
       </c>
       <c r="D358" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>33</v>
@@ -35096,7 +35108,7 @@
         <v>2320</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>36</v>
@@ -35115,10 +35127,10 @@
       <c r="P358" s="9"/>
       <c r="Q358" s="8"/>
       <c r="R358" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="S358" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="T358" s="3" t="s">
         <v>33</v>
@@ -35127,16 +35139,16 @@
         <v>33</v>
       </c>
       <c r="V358" s="7">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W358" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="X358" s="7">
         <v>2321</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z358" s="5" t="s">
         <v>497</v>
@@ -35145,24 +35157,24 @@
         <v>474</v>
       </c>
       <c r="AB358" s="10">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC358" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD358" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE358" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF358" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A359" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>33</v>
@@ -35171,7 +35183,7 @@
         <v>43944</v>
       </c>
       <c r="D359" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E359" s="15" t="s">
         <v>33</v>
@@ -35180,7 +35192,7 @@
         <v>2320</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>36</v>
@@ -35199,10 +35211,10 @@
       <c r="P359" s="19"/>
       <c r="Q359" s="18"/>
       <c r="R359" s="15" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="S359" s="15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="T359" s="13" t="s">
         <v>33</v>
@@ -35211,16 +35223,16 @@
         <v>33</v>
       </c>
       <c r="V359" s="17">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W359" s="15" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="X359" s="17">
         <v>2321</v>
       </c>
       <c r="Y359" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z359" s="15" t="s">
         <v>497</v>
@@ -35229,24 +35241,24 @@
         <v>474</v>
       </c>
       <c r="AB359" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC359" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD359" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE359" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF359" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>33</v>
@@ -35255,7 +35267,7 @@
         <v>43944</v>
       </c>
       <c r="D360" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>33</v>
@@ -35264,7 +35276,7 @@
         <v>2320</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>36</v>
@@ -35283,10 +35295,10 @@
       <c r="P360" s="9"/>
       <c r="Q360" s="8"/>
       <c r="R360" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S360" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T360" s="3" t="s">
         <v>33</v>
@@ -35295,16 +35307,16 @@
         <v>33</v>
       </c>
       <c r="V360" s="7">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="X360" s="7">
         <v>2321</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z360" s="5" t="s">
         <v>497</v>
@@ -35313,24 +35325,24 @@
         <v>474</v>
       </c>
       <c r="AB360" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC360" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD360" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE360" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF360" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A361" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B361" s="13" t="s">
         <v>33</v>
@@ -35339,7 +35351,7 @@
         <v>43944</v>
       </c>
       <c r="D361" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E361" s="15" t="s">
         <v>33</v>
@@ -35348,7 +35360,7 @@
         <v>2320</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>36</v>
@@ -35367,10 +35379,10 @@
       <c r="P361" s="19"/>
       <c r="Q361" s="18"/>
       <c r="R361" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S361" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T361" s="13" t="s">
         <v>33</v>
@@ -35379,16 +35391,16 @@
         <v>33</v>
       </c>
       <c r="V361" s="17">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W361" s="15" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="X361" s="17">
         <v>2321</v>
       </c>
       <c r="Y361" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z361" s="15" t="s">
         <v>497</v>
@@ -35397,24 +35409,24 @@
         <v>474</v>
       </c>
       <c r="AB361" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC361" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD361" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE361" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF361" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>33</v>
@@ -35423,7 +35435,7 @@
         <v>43944</v>
       </c>
       <c r="D362" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>33</v>
@@ -35432,7 +35444,7 @@
         <v>2320</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>36</v>
@@ -35451,10 +35463,10 @@
       <c r="P362" s="9"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S362" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T362" s="3" t="s">
         <v>33</v>
@@ -35463,42 +35475,42 @@
         <v>33</v>
       </c>
       <c r="V362" s="7">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W362" s="5" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="X362" s="7">
         <v>2321</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z362" s="5" t="s">
-        <v>379</v>
+        <v>497</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>474</v>
       </c>
       <c r="AB362" s="10">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC362" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD362" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE362" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF362" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A363" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>33</v>
@@ -35507,7 +35519,7 @@
         <v>43944</v>
       </c>
       <c r="D363" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>33</v>
@@ -35516,7 +35528,7 @@
         <v>2320</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
@@ -35535,10 +35547,10 @@
       <c r="P363" s="19"/>
       <c r="Q363" s="18"/>
       <c r="R363" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S363" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T363" s="13" t="s">
         <v>33</v>
@@ -35547,42 +35559,42 @@
         <v>33</v>
       </c>
       <c r="V363" s="17">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W363" s="15" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="X363" s="17">
         <v>2321</v>
       </c>
       <c r="Y363" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z363" s="15" t="s">
-        <v>497</v>
+        <v>379</v>
       </c>
       <c r="AA363" s="13" t="s">
         <v>474</v>
       </c>
       <c r="AB363" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC363" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD363" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE363" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF363" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35591,7 +35603,7 @@
         <v>43944</v>
       </c>
       <c r="D364" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35600,7 +35612,7 @@
         <v>2320</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35619,10 +35631,10 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S364" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T364" s="3" t="s">
         <v>33</v>
@@ -35631,16 +35643,16 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="X364" s="7">
         <v>2321</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>497</v>
@@ -35649,24 +35661,24 @@
         <v>474</v>
       </c>
       <c r="AB364" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC364" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD364" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE364" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF364" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
@@ -35675,7 +35687,7 @@
         <v>43944</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35684,7 +35696,7 @@
         <v>2320</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35703,10 +35715,10 @@
       <c r="P365" s="19"/>
       <c r="Q365" s="18"/>
       <c r="R365" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T365" s="13" t="s">
         <v>33</v>
@@ -35715,16 +35727,16 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="X365" s="17">
         <v>2321</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z365" s="15" t="s">
         <v>497</v>
@@ -35733,24 +35745,24 @@
         <v>474</v>
       </c>
       <c r="AB365" s="21">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC365" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD365" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE365" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF365" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
@@ -35759,7 +35771,7 @@
         <v>43944</v>
       </c>
       <c r="D366" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -35768,7 +35780,7 @@
         <v>2320</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -35787,10 +35799,10 @@
       <c r="P366" s="9"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S366" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T366" s="3" t="s">
         <v>33</v>
@@ -35799,16 +35811,16 @@
         <v>33</v>
       </c>
       <c r="V366" s="7">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W366" s="5" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="X366" s="7">
         <v>2321</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z366" s="5" t="s">
         <v>497</v>
@@ -35817,24 +35829,24 @@
         <v>474</v>
       </c>
       <c r="AB366" s="10">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC366" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD366" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE366" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF366" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A367" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>33</v>
@@ -35843,7 +35855,7 @@
         <v>43944</v>
       </c>
       <c r="D367" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>33</v>
@@ -35852,7 +35864,7 @@
         <v>2320</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>36</v>
@@ -35871,10 +35883,10 @@
       <c r="P367" s="19"/>
       <c r="Q367" s="18"/>
       <c r="R367" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S367" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T367" s="13" t="s">
         <v>33</v>
@@ -35883,16 +35895,16 @@
         <v>33</v>
       </c>
       <c r="V367" s="17">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W367" s="15" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="X367" s="17">
         <v>2321</v>
       </c>
       <c r="Y367" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z367" s="15" t="s">
         <v>497</v>
@@ -35901,24 +35913,24 @@
         <v>474</v>
       </c>
       <c r="AB367" s="21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC367" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD367" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE367" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF367" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>33</v>
@@ -35927,7 +35939,7 @@
         <v>43944</v>
       </c>
       <c r="D368" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>33</v>
@@ -35936,7 +35948,7 @@
         <v>2320</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H368" s="3" t="s">
         <v>36</v>
@@ -35955,10 +35967,10 @@
       <c r="P368" s="9"/>
       <c r="Q368" s="8"/>
       <c r="R368" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S368" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T368" s="3" t="s">
         <v>33</v>
@@ -35967,16 +35979,16 @@
         <v>33</v>
       </c>
       <c r="V368" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W368" s="24" t="s">
-        <v>929</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W368" s="5" t="s">
+        <v>932</v>
       </c>
       <c r="X368" s="7">
         <v>2321</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z368" s="5" t="s">
         <v>497</v>
@@ -35985,24 +35997,24 @@
         <v>474</v>
       </c>
       <c r="AB368" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC368" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD368" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE368" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF368" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="369" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A369" s="13" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>33</v>
@@ -36011,7 +36023,7 @@
         <v>43944</v>
       </c>
       <c r="D369" s="25" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E369" s="15" t="s">
         <v>33</v>
@@ -36020,7 +36032,7 @@
         <v>2320</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>36</v>
@@ -36039,10 +36051,10 @@
       <c r="P369" s="19"/>
       <c r="Q369" s="18"/>
       <c r="R369" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="S369" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="T369" s="13" t="s">
         <v>33</v>
@@ -36051,16 +36063,16 @@
         <v>33</v>
       </c>
       <c r="V369" s="17">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W369" s="15" t="s">
-        <v>930</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W369" s="20" t="s">
+        <v>933</v>
       </c>
       <c r="X369" s="17">
         <v>2321</v>
       </c>
       <c r="Y369" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z369" s="15" t="s">
         <v>497</v>
@@ -36072,21 +36084,21 @@
         <v>60</v>
       </c>
       <c r="AC369" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD369" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE369" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF369" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A370" s="3" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>33</v>
@@ -36095,7 +36107,7 @@
         <v>43944</v>
       </c>
       <c r="D370" s="26" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>33</v>
@@ -36104,7 +36116,7 @@
         <v>2320</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H370" s="3" t="s">
         <v>36</v>
@@ -36123,10 +36135,10 @@
       <c r="P370" s="9"/>
       <c r="Q370" s="8"/>
       <c r="R370" s="5" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="S370" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="T370" s="3" t="s">
         <v>33</v>
@@ -36135,16 +36147,16 @@
         <v>33</v>
       </c>
       <c r="V370" s="7">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W370" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="X370" s="7">
         <v>2321</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z370" s="5" t="s">
         <v>497</v>
@@ -36153,33 +36165,33 @@
         <v>474</v>
       </c>
       <c r="AB370" s="10">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC370" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AD370" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AE370" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
       <c r="AF370" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A371" s="13" t="s">
-        <v>934</v>
+        <v>910</v>
       </c>
       <c r="B371" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C371" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D371" s="15" t="s">
-        <v>935</v>
+        <v>43944</v>
+      </c>
+      <c r="D371" s="25" t="s">
+        <v>911</v>
       </c>
       <c r="E371" s="15" t="s">
         <v>33</v>
@@ -36188,7 +36200,7 @@
         <v>2320</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>36</v>
@@ -36207,10 +36219,10 @@
       <c r="P371" s="19"/>
       <c r="Q371" s="18"/>
       <c r="R371" s="15" t="s">
-        <v>457</v>
+        <v>935</v>
       </c>
       <c r="S371" s="15" t="s">
-        <v>458</v>
+        <v>936</v>
       </c>
       <c r="T371" s="13" t="s">
         <v>33</v>
@@ -36219,40 +36231,124 @@
         <v>33</v>
       </c>
       <c r="V371" s="17">
-        <v>1.408623e6</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W371" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="X371" s="17">
         <v>2321</v>
       </c>
       <c r="Y371" s="15" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="Z371" s="15" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="AA371" s="13" t="s">
         <v>474</v>
       </c>
       <c r="AB371" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC371" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AD371" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AE371" s="23">
+        <v>6840</v>
+      </c>
+      <c r="AF371" s="23">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="372" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A372" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C372" s="4">
+        <v>44012</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E372" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F372" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J372" s="7">
+        <v>0</v>
+      </c>
+      <c r="K372" s="5"/>
+      <c r="L372" s="7"/>
+      <c r="M372" s="5"/>
+      <c r="N372" s="8"/>
+      <c r="O372" s="8"/>
+      <c r="P372" s="9"/>
+      <c r="Q372" s="8"/>
+      <c r="R372" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="S372" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="T372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U372" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V372" s="7">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W372" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="X372" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y372" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z372" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA372" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="AB372" s="10">
         <v>2000</v>
       </c>
-      <c r="AC371" s="22">
+      <c r="AC372" s="11">
         <v>18.69</v>
       </c>
-      <c r="AD371" s="22">
+      <c r="AD372" s="11">
         <v>14.95</v>
       </c>
-      <c r="AE371" s="23">
+      <c r="AE372" s="12">
         <v>37380</v>
       </c>
-      <c r="AF371" s="23">
+      <c r="AF372" s="12">
         <v>29900</v>
       </c>
     </row>
-    <row r="372" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="373" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6073" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="972">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -2580,6 +2580,30 @@
     <t>MASCARA DE PROTECAO -  MODELO: FACIAL; MATERIA-PRIMA: ACETATO; FILTRO: NAO APLICAVEL; CLASSE DO FILTRO: NAO APLICAVEL; PROTECAO: VIAS AEREAS SUPERIORES; VALVULA: NAO APLICAVEL; VISOR: SEM VISOR; FIXACAO: AJUSTAVEL COM FIXACAO UNIVERSAL;</t>
   </si>
   <si>
+    <t>2121022 000044/2020</t>
+  </si>
+  <si>
+    <t>Aquisição de materiais de limpeza para a prevenção e combate ao COVID 19.</t>
+  </si>
+  <si>
+    <t>04.654.861/0001-44</t>
+  </si>
+  <si>
+    <t>INDALABOR INDAIA LABORATORIO FARMACEUTICO LTDA</t>
+  </si>
+  <si>
+    <t>18.285.097/0001-91</t>
+  </si>
+  <si>
+    <t>BRUMADINHO PAPEL E COMERCIO LTDA - ME</t>
+  </si>
+  <si>
+    <t>24.291.891/0001-40</t>
+  </si>
+  <si>
+    <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
+  </si>
+  <si>
     <t>2261032 000112/2020</t>
   </si>
   <si>
@@ -2849,12 +2873,6 @@
   </si>
   <si>
     <t>PANO PARA LIMPEZA - MATERIA-PRIMA: NAO TECIDO; COMPOSICAO (1): 100 POR CENTO VISCOSE; COMPONENTE (2): LATEX SINTETICO; FRAGRANCIA: SEM FRAGANCIA; DIMENSOES: 30 X 29 CM;</t>
-  </si>
-  <si>
-    <t>24.291.891/0001-40</t>
-  </si>
-  <si>
-    <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
   </si>
   <si>
     <t>RODO - BASE: INJETADA EM ABS, COM BORRACHA DUPLA; DIMENSAO BASE: 45 CM; CABO: DE ALUMINIO FRISADO, DE 1,40 M;</t>
@@ -3109,7 +3127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF386"/>
+  <dimension ref="A1:AF390"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -33610,7 +33628,7 @@
         <v>33</v>
       </c>
       <c r="C342" s="4">
-        <v>43920</v>
+        <v>44070</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>855</v>
@@ -33619,16 +33637,16 @@
         <v>33</v>
       </c>
       <c r="F342" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G342" s="3" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="H342" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I342" s="3" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="J342" s="7">
         <v>0</v>
@@ -33641,11 +33659,11 @@
       <c r="P342" s="9"/>
       <c r="Q342" s="8"/>
       <c r="R342" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="S342" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="S342" s="5" t="s">
-        <v>858</v>
-      </c>
       <c r="T342" s="3" t="s">
         <v>33</v>
       </c>
@@ -33653,37 +33671,37 @@
         <v>33</v>
       </c>
       <c r="V342" s="7">
-        <v>82414</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W342" s="5" t="s">
-        <v>859</v>
+        <v>510</v>
       </c>
       <c r="X342" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y342" s="5" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="Z342" s="5" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="AA342" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB342" s="10">
-        <v>10000</v>
+        <v>10</v>
       </c>
       <c r="AC342" s="11">
-        <v>676000e-6</v>
+        <v>5.48</v>
       </c>
       <c r="AD342" s="11">
-        <v>676000e-6</v>
+        <v>5.48</v>
       </c>
       <c r="AE342" s="12">
-        <v>6760</v>
+        <v>54.8</v>
       </c>
       <c r="AF342" s="12">
-        <v>6760</v>
+        <v>54.8</v>
       </c>
     </row>
     <row r="343" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -33694,7 +33712,7 @@
         <v>33</v>
       </c>
       <c r="C343" s="14">
-        <v>43920</v>
+        <v>44070</v>
       </c>
       <c r="D343" s="15" t="s">
         <v>855</v>
@@ -33703,16 +33721,16 @@
         <v>33</v>
       </c>
       <c r="F343" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="H343" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I343" s="13" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="J343" s="17">
         <v>0</v>
@@ -33725,10 +33743,10 @@
       <c r="P343" s="19"/>
       <c r="Q343" s="18"/>
       <c r="R343" s="15" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="S343" s="15" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="T343" s="13" t="s">
         <v>33</v>
@@ -33737,37 +33755,37 @@
         <v>33</v>
       </c>
       <c r="V343" s="17">
-        <v>1.670891e6</v>
+        <v>50245</v>
       </c>
       <c r="W343" s="15" t="s">
-        <v>860</v>
+        <v>533</v>
       </c>
       <c r="X343" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y343" s="15" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="Z343" s="15" t="s">
-        <v>129</v>
+        <v>531</v>
       </c>
       <c r="AA343" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB343" s="21">
-        <v>20</v>
+        <v>950</v>
       </c>
       <c r="AC343" s="22">
-        <v>34.9</v>
+        <v>1.75</v>
       </c>
       <c r="AD343" s="22">
-        <v>34.9</v>
+        <v>1.75</v>
       </c>
       <c r="AE343" s="23">
-        <v>698</v>
+        <v>1662.5</v>
       </c>
       <c r="AF343" s="23">
-        <v>698</v>
+        <v>1662.5</v>
       </c>
     </row>
     <row r="344" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -33778,7 +33796,7 @@
         <v>33</v>
       </c>
       <c r="C344" s="4">
-        <v>43920</v>
+        <v>44070</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>855</v>
@@ -33787,16 +33805,16 @@
         <v>33</v>
       </c>
       <c r="F344" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G344" s="3" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="H344" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I344" s="3" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="J344" s="7">
         <v>0</v>
@@ -33809,10 +33827,10 @@
       <c r="P344" s="9"/>
       <c r="Q344" s="8"/>
       <c r="R344" s="5" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="S344" s="5" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="T344" s="3" t="s">
         <v>33</v>
@@ -33821,37 +33839,37 @@
         <v>33</v>
       </c>
       <c r="V344" s="7">
-        <v>1.69773e6</v>
+        <v>367451</v>
       </c>
       <c r="W344" s="5" t="s">
-        <v>863</v>
+        <v>524</v>
       </c>
       <c r="X344" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y344" s="5" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="Z344" s="5" t="s">
         <v>379</v>
       </c>
       <c r="AA344" s="3" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB344" s="10">
-        <v>20000</v>
+        <v>30</v>
       </c>
       <c r="AC344" s="11">
-        <v>12.43</v>
+        <v>8.5</v>
       </c>
       <c r="AD344" s="11">
-        <v>12.43</v>
+        <v>8.5</v>
       </c>
       <c r="AE344" s="12">
-        <v>248600</v>
+        <v>255</v>
       </c>
       <c r="AF344" s="12">
-        <v>248600</v>
+        <v>255</v>
       </c>
     </row>
     <row r="345" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -33862,7 +33880,7 @@
         <v>33</v>
       </c>
       <c r="C345" s="14">
-        <v>43920</v>
+        <v>44070</v>
       </c>
       <c r="D345" s="15" t="s">
         <v>855</v>
@@ -33871,16 +33889,16 @@
         <v>33</v>
       </c>
       <c r="F345" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G345" s="13" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="H345" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I345" s="13" t="s">
-        <v>37</v>
+        <v>441</v>
       </c>
       <c r="J345" s="17">
         <v>0</v>
@@ -33893,10 +33911,10 @@
       <c r="P345" s="19"/>
       <c r="Q345" s="18"/>
       <c r="R345" s="15" t="s">
-        <v>744</v>
+        <v>860</v>
       </c>
       <c r="S345" s="15" t="s">
-        <v>745</v>
+        <v>861</v>
       </c>
       <c r="T345" s="13" t="s">
         <v>33</v>
@@ -33905,42 +33923,42 @@
         <v>33</v>
       </c>
       <c r="V345" s="17">
-        <v>394890</v>
+        <v>1.69216e6</v>
       </c>
       <c r="W345" s="15" t="s">
-        <v>864</v>
+        <v>511</v>
       </c>
       <c r="X345" s="17">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y345" s="15" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
       <c r="Z345" s="15" t="s">
-        <v>379</v>
+        <v>307</v>
       </c>
       <c r="AA345" s="13" t="s">
-        <v>44</v>
+        <v>295</v>
       </c>
       <c r="AB345" s="21">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="AC345" s="22">
-        <v>7.98</v>
+        <v>16.9</v>
       </c>
       <c r="AD345" s="22">
-        <v>7.98</v>
+        <v>16.9</v>
       </c>
       <c r="AE345" s="23">
-        <v>3591</v>
+        <v>2535</v>
       </c>
       <c r="AF345" s="23">
-        <v>3591</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="346" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A346" s="3" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>33</v>
@@ -33949,7 +33967,7 @@
         <v>43920</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E346" s="5" t="s">
         <v>33</v>
@@ -33958,7 +33976,7 @@
         <v>2260</v>
       </c>
       <c r="G346" s="3" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H346" s="3" t="s">
         <v>36</v>
@@ -33977,10 +33995,10 @@
       <c r="P346" s="9"/>
       <c r="Q346" s="8"/>
       <c r="R346" s="5" t="s">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="S346" s="5" t="s">
-        <v>745</v>
+        <v>866</v>
       </c>
       <c r="T346" s="3" t="s">
         <v>33</v>
@@ -33989,16 +34007,16 @@
         <v>33</v>
       </c>
       <c r="V346" s="7">
-        <v>1.368818e6</v>
+        <v>82414</v>
       </c>
       <c r="W346" s="5" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="X346" s="7">
         <v>2261</v>
       </c>
       <c r="Y346" s="5" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z346" s="5" t="s">
         <v>379</v>
@@ -34007,24 +34025,24 @@
         <v>44</v>
       </c>
       <c r="AB346" s="10">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="AC346" s="11">
-        <v>293.6</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD346" s="11">
-        <v>293.6</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE346" s="12">
-        <v>2936</v>
+        <v>6760</v>
       </c>
       <c r="AF346" s="12">
-        <v>2936</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="347" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A347" s="13" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B347" s="13" t="s">
         <v>33</v>
@@ -34033,7 +34051,7 @@
         <v>43920</v>
       </c>
       <c r="D347" s="15" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E347" s="15" t="s">
         <v>33</v>
@@ -34042,7 +34060,7 @@
         <v>2260</v>
       </c>
       <c r="G347" s="13" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H347" s="13" t="s">
         <v>36</v>
@@ -34061,10 +34079,10 @@
       <c r="P347" s="19"/>
       <c r="Q347" s="18"/>
       <c r="R347" s="15" t="s">
-        <v>744</v>
+        <v>865</v>
       </c>
       <c r="S347" s="15" t="s">
-        <v>745</v>
+        <v>866</v>
       </c>
       <c r="T347" s="13" t="s">
         <v>33</v>
@@ -34073,42 +34091,42 @@
         <v>33</v>
       </c>
       <c r="V347" s="17">
-        <v>1.497391e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W347" s="15" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="X347" s="17">
         <v>2261</v>
       </c>
       <c r="Y347" s="15" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z347" s="15" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="AA347" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB347" s="21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AC347" s="22">
-        <v>3420</v>
+        <v>34.9</v>
       </c>
       <c r="AD347" s="22">
-        <v>3420</v>
+        <v>34.9</v>
       </c>
       <c r="AE347" s="23">
-        <v>51300</v>
+        <v>698</v>
       </c>
       <c r="AF347" s="23">
-        <v>51300</v>
+        <v>698</v>
       </c>
     </row>
     <row r="348" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A348" s="3" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>33</v>
@@ -34117,7 +34135,7 @@
         <v>43920</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E348" s="5" t="s">
         <v>33</v>
@@ -34126,7 +34144,7 @@
         <v>2260</v>
       </c>
       <c r="G348" s="3" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H348" s="3" t="s">
         <v>36</v>
@@ -34145,10 +34163,10 @@
       <c r="P348" s="9"/>
       <c r="Q348" s="8"/>
       <c r="R348" s="5" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="S348" s="5" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="T348" s="3" t="s">
         <v>33</v>
@@ -34157,16 +34175,16 @@
         <v>33</v>
       </c>
       <c r="V348" s="7">
-        <v>1.669613e6</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W348" s="5" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="X348" s="7">
         <v>2261</v>
       </c>
       <c r="Y348" s="5" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z348" s="5" t="s">
         <v>379</v>
@@ -34175,24 +34193,24 @@
         <v>44</v>
       </c>
       <c r="AB348" s="10">
-        <v>10</v>
+        <v>20000</v>
       </c>
       <c r="AC348" s="11">
-        <v>31.96</v>
+        <v>12.43</v>
       </c>
       <c r="AD348" s="11">
-        <v>31.96</v>
+        <v>12.43</v>
       </c>
       <c r="AE348" s="12">
-        <v>319.6</v>
+        <v>248600</v>
       </c>
       <c r="AF348" s="12">
-        <v>319.6</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="349" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A349" s="13" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B349" s="13" t="s">
         <v>33</v>
@@ -34201,7 +34219,7 @@
         <v>43920</v>
       </c>
       <c r="D349" s="15" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E349" s="15" t="s">
         <v>33</v>
@@ -34210,7 +34228,7 @@
         <v>2260</v>
       </c>
       <c r="G349" s="13" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H349" s="13" t="s">
         <v>36</v>
@@ -34229,10 +34247,10 @@
       <c r="P349" s="19"/>
       <c r="Q349" s="18"/>
       <c r="R349" s="15" t="s">
-        <v>870</v>
+        <v>744</v>
       </c>
       <c r="S349" s="15" t="s">
-        <v>871</v>
+        <v>745</v>
       </c>
       <c r="T349" s="13" t="s">
         <v>33</v>
@@ -34241,7 +34259,7 @@
         <v>33</v>
       </c>
       <c r="V349" s="17">
-        <v>857025</v>
+        <v>394890</v>
       </c>
       <c r="W349" s="15" t="s">
         <v>872</v>
@@ -34250,7 +34268,7 @@
         <v>2261</v>
       </c>
       <c r="Y349" s="15" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z349" s="15" t="s">
         <v>379</v>
@@ -34259,24 +34277,24 @@
         <v>44</v>
       </c>
       <c r="AB349" s="21">
-        <v>100</v>
+        <v>450</v>
       </c>
       <c r="AC349" s="22">
-        <v>16.756</v>
+        <v>7.98</v>
       </c>
       <c r="AD349" s="22">
-        <v>16.756</v>
+        <v>7.98</v>
       </c>
       <c r="AE349" s="23">
-        <v>1675.6</v>
+        <v>3591</v>
       </c>
       <c r="AF349" s="23">
-        <v>1675.6</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="350" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A350" s="3" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>33</v>
@@ -34285,7 +34303,7 @@
         <v>43920</v>
       </c>
       <c r="D350" s="5" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E350" s="5" t="s">
         <v>33</v>
@@ -34294,7 +34312,7 @@
         <v>2260</v>
       </c>
       <c r="G350" s="3" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H350" s="3" t="s">
         <v>36</v>
@@ -34313,28 +34331,28 @@
       <c r="P350" s="9"/>
       <c r="Q350" s="8"/>
       <c r="R350" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="S350" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="T350" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U350" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V350" s="7">
+        <v>1.368818e6</v>
+      </c>
+      <c r="W350" s="5" t="s">
         <v>873</v>
-      </c>
-      <c r="S350" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="T350" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U350" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V350" s="7">
-        <v>1.151746e6</v>
-      </c>
-      <c r="W350" s="5" t="s">
-        <v>875</v>
       </c>
       <c r="X350" s="7">
         <v>2261</v>
       </c>
       <c r="Y350" s="5" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z350" s="5" t="s">
         <v>379</v>
@@ -34343,24 +34361,24 @@
         <v>44</v>
       </c>
       <c r="AB350" s="10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AC350" s="11">
-        <v>117</v>
+        <v>293.6</v>
       </c>
       <c r="AD350" s="11">
-        <v>117</v>
+        <v>293.6</v>
       </c>
       <c r="AE350" s="12">
-        <v>2340</v>
+        <v>2936</v>
       </c>
       <c r="AF350" s="12">
-        <v>2340</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="351" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A351" s="13" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B351" s="13" t="s">
         <v>33</v>
@@ -34369,7 +34387,7 @@
         <v>43920</v>
       </c>
       <c r="D351" s="15" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E351" s="15" t="s">
         <v>33</v>
@@ -34378,7 +34396,7 @@
         <v>2260</v>
       </c>
       <c r="G351" s="13" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H351" s="13" t="s">
         <v>36</v>
@@ -34387,32 +34405,20 @@
         <v>37</v>
       </c>
       <c r="J351" s="17">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K351" s="15" t="s">
-        <v>876</v>
-      </c>
-      <c r="L351" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M351" s="15" t="s">
-        <v>856</v>
-      </c>
-      <c r="N351" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O351" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K351" s="15"/>
+      <c r="L351" s="17"/>
+      <c r="M351" s="15"/>
+      <c r="N351" s="18"/>
+      <c r="O351" s="18"/>
       <c r="P351" s="19"/>
-      <c r="Q351" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q351" s="18"/>
       <c r="R351" s="15" t="s">
-        <v>877</v>
+        <v>744</v>
       </c>
       <c r="S351" s="15" t="s">
-        <v>878</v>
+        <v>745</v>
       </c>
       <c r="T351" s="13" t="s">
         <v>33</v>
@@ -34421,42 +34427,42 @@
         <v>33</v>
       </c>
       <c r="V351" s="17">
-        <v>781673</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W351" s="15" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="X351" s="17">
         <v>2261</v>
       </c>
       <c r="Y351" s="15" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z351" s="15" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA351" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB351" s="21">
-        <v>30000</v>
+        <v>15</v>
       </c>
       <c r="AC351" s="22">
-        <v>900000e-6</v>
+        <v>3420</v>
       </c>
       <c r="AD351" s="22">
-        <v>900000e-6</v>
+        <v>3420</v>
       </c>
       <c r="AE351" s="23">
-        <v>27000</v>
+        <v>51300</v>
       </c>
       <c r="AF351" s="23">
-        <v>27000</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="352" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A352" s="3" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>33</v>
@@ -34465,7 +34471,7 @@
         <v>43920</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E352" s="5" t="s">
         <v>33</v>
@@ -34474,7 +34480,7 @@
         <v>2260</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H352" s="3" t="s">
         <v>36</v>
@@ -34483,32 +34489,20 @@
         <v>37</v>
       </c>
       <c r="J352" s="7">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K352" s="5" t="s">
-        <v>880</v>
-      </c>
-      <c r="L352" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M352" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="N352" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O352" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K352" s="5"/>
+      <c r="L352" s="7"/>
+      <c r="M352" s="5"/>
+      <c r="N352" s="8"/>
+      <c r="O352" s="8"/>
       <c r="P352" s="9"/>
-      <c r="Q352" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q352" s="8"/>
       <c r="R352" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="S352" s="5" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="T352" s="3" t="s">
         <v>33</v>
@@ -34517,42 +34511,42 @@
         <v>33</v>
       </c>
       <c r="V352" s="7">
-        <v>538957</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W352" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="X352" s="7">
         <v>2261</v>
       </c>
       <c r="Y352" s="5" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z352" s="5" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA352" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB352" s="10">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="AC352" s="11">
-        <v>550000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AD352" s="11">
-        <v>550000e-6</v>
+        <v>31.96</v>
       </c>
       <c r="AE352" s="12">
-        <v>16500</v>
+        <v>319.6</v>
       </c>
       <c r="AF352" s="12">
-        <v>16500</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="353" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A353" s="13" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="B353" s="13" t="s">
         <v>33</v>
@@ -34561,7 +34555,7 @@
         <v>43920</v>
       </c>
       <c r="D353" s="15" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="E353" s="15" t="s">
         <v>33</v>
@@ -34570,7 +34564,7 @@
         <v>2260</v>
       </c>
       <c r="G353" s="13" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="H353" s="13" t="s">
         <v>36</v>
@@ -34579,100 +34573,88 @@
         <v>37</v>
       </c>
       <c r="J353" s="17">
-        <v>9.245763e6</v>
-      </c>
-      <c r="K353" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K353" s="15"/>
+      <c r="L353" s="17"/>
+      <c r="M353" s="15"/>
+      <c r="N353" s="18"/>
+      <c r="O353" s="18"/>
+      <c r="P353" s="19"/>
+      <c r="Q353" s="18"/>
+      <c r="R353" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="S353" s="15" t="s">
+        <v>879</v>
+      </c>
+      <c r="T353" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U353" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V353" s="17">
+        <v>857025</v>
+      </c>
+      <c r="W353" s="15" t="s">
         <v>880</v>
-      </c>
-      <c r="L353" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M353" s="15" t="s">
-        <v>856</v>
-      </c>
-      <c r="N353" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O353" s="18">
-        <v>43936</v>
-      </c>
-      <c r="P353" s="19"/>
-      <c r="Q353" s="18">
-        <v>44115</v>
-      </c>
-      <c r="R353" s="15" t="s">
-        <v>881</v>
-      </c>
-      <c r="S353" s="15" t="s">
-        <v>882</v>
-      </c>
-      <c r="T353" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U353" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V353" s="17">
-        <v>1.651595e6</v>
-      </c>
-      <c r="W353" s="15" t="s">
-        <v>884</v>
       </c>
       <c r="X353" s="17">
         <v>2261</v>
       </c>
       <c r="Y353" s="15" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="Z353" s="15" t="s">
-        <v>122</v>
+        <v>379</v>
       </c>
       <c r="AA353" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB353" s="21">
-        <v>30000</v>
+        <v>100</v>
       </c>
       <c r="AC353" s="22">
-        <v>1.08</v>
+        <v>16.756</v>
       </c>
       <c r="AD353" s="22">
-        <v>1.08</v>
+        <v>16.756</v>
       </c>
       <c r="AE353" s="23">
-        <v>32400</v>
+        <v>1675.6</v>
       </c>
       <c r="AF353" s="23">
-        <v>32400</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="354" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A354" s="3" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C354" s="4">
-        <v>43972</v>
+        <v>43920</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
       <c r="E354" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F354" s="6">
-        <v>2280</v>
+        <v>2260</v>
       </c>
       <c r="G354" s="3" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
       <c r="H354" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I354" s="3" t="s">
-        <v>468</v>
+        <v>37</v>
       </c>
       <c r="J354" s="7">
         <v>0</v>
@@ -34685,10 +34667,10 @@
       <c r="P354" s="9"/>
       <c r="Q354" s="8"/>
       <c r="R354" s="5" t="s">
-        <v>469</v>
+        <v>881</v>
       </c>
       <c r="S354" s="5" t="s">
-        <v>470</v>
+        <v>882</v>
       </c>
       <c r="T354" s="3" t="s">
         <v>33</v>
@@ -34697,60 +34679,60 @@
         <v>33</v>
       </c>
       <c r="V354" s="7">
-        <v>1.756699e6</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W354" s="5" t="s">
-        <v>471</v>
+        <v>883</v>
       </c>
       <c r="X354" s="7">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y354" s="5" t="s">
-        <v>888</v>
+        <v>864</v>
       </c>
       <c r="Z354" s="5" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AA354" s="3" t="s">
-        <v>295</v>
+        <v>44</v>
       </c>
       <c r="AB354" s="10">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="AC354" s="11">
-        <v>1.89</v>
+        <v>117</v>
       </c>
       <c r="AD354" s="11">
-        <v>1.89</v>
+        <v>117</v>
       </c>
       <c r="AE354" s="12">
-        <v>240.03</v>
+        <v>2340</v>
       </c>
       <c r="AF354" s="12">
-        <v>240.03</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="355" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A355" s="13" t="s">
-        <v>889</v>
+        <v>862</v>
       </c>
       <c r="B355" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C355" s="14">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="D355" s="15" t="s">
-        <v>890</v>
+        <v>863</v>
       </c>
       <c r="E355" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F355" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G355" s="13" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="H355" s="13" t="s">
         <v>36</v>
@@ -34759,34 +34741,32 @@
         <v>37</v>
       </c>
       <c r="J355" s="17">
-        <v>9.245674e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K355" s="15" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="L355" s="17">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M355" s="15" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="N355" s="18">
-        <v>43922</v>
+        <v>43936</v>
       </c>
       <c r="O355" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P355" s="19">
-        <v>44105</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="P355" s="19"/>
       <c r="Q355" s="18">
-        <v>44131</v>
+        <v>44115</v>
       </c>
       <c r="R355" s="15" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="S355" s="15" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="T355" s="13" t="s">
         <v>33</v>
@@ -34795,60 +34775,60 @@
         <v>33</v>
       </c>
       <c r="V355" s="17">
-        <v>1155</v>
+        <v>781673</v>
       </c>
       <c r="W355" s="15" t="s">
-        <v>107</v>
+        <v>887</v>
       </c>
       <c r="X355" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y355" s="15" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="Z355" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA355" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB355" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC355" s="22">
-        <v>4.35942886e6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD355" s="22">
-        <v>4.35942886e6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE355" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
       <c r="AF355" s="23">
-        <v>4.35942886e6</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="356" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A356" s="3" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C356" s="4">
-        <v>43935</v>
+        <v>43920</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="E356" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F356" s="6">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G356" s="3" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="H356" s="3" t="s">
         <v>36</v>
@@ -34857,16 +34837,16 @@
         <v>37</v>
       </c>
       <c r="J356" s="7">
-        <v>9.24595e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K356" s="5" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="L356" s="7">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M356" s="5" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="N356" s="8">
         <v>43936</v>
@@ -34874,17 +34854,15 @@
       <c r="O356" s="8">
         <v>43936</v>
       </c>
-      <c r="P356" s="9">
-        <v>44119</v>
-      </c>
+      <c r="P356" s="9"/>
       <c r="Q356" s="8">
-        <v>44119</v>
+        <v>44115</v>
       </c>
       <c r="R356" s="5" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="S356" s="5" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="T356" s="3" t="s">
         <v>33</v>
@@ -34893,60 +34871,60 @@
         <v>33</v>
       </c>
       <c r="V356" s="7">
-        <v>1155</v>
+        <v>538957</v>
       </c>
       <c r="W356" s="5" t="s">
-        <v>107</v>
+        <v>891</v>
       </c>
       <c r="X356" s="7">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y356" s="5" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="Z356" s="5" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA356" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB356" s="10">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC356" s="11">
-        <v>1.04162557e6</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD356" s="11">
-        <v>1.04162557e6</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE356" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
       <c r="AF356" s="12">
-        <v>1.04162557e6</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="357" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A357" s="13" t="s">
-        <v>901</v>
+        <v>862</v>
       </c>
       <c r="B357" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C357" s="14">
-        <v>43963</v>
+        <v>43920</v>
       </c>
       <c r="D357" s="15" t="s">
-        <v>902</v>
+        <v>863</v>
       </c>
       <c r="E357" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F357" s="16">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="G357" s="13" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="H357" s="13" t="s">
         <v>36</v>
@@ -34955,34 +34933,32 @@
         <v>37</v>
       </c>
       <c r="J357" s="17">
-        <v>9.247198e6</v>
+        <v>9.245763e6</v>
       </c>
       <c r="K357" s="15" t="s">
-        <v>903</v>
+        <v>888</v>
       </c>
       <c r="L357" s="17">
-        <v>2300</v>
+        <v>2260</v>
       </c>
       <c r="M357" s="15" t="s">
-        <v>891</v>
+        <v>864</v>
       </c>
       <c r="N357" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O357" s="18">
-        <v>43963</v>
-      </c>
-      <c r="P357" s="19">
-        <v>44195</v>
-      </c>
+        <v>43936</v>
+      </c>
+      <c r="P357" s="19"/>
       <c r="Q357" s="18">
-        <v>44195</v>
+        <v>44115</v>
       </c>
       <c r="R357" s="15" t="s">
-        <v>904</v>
+        <v>889</v>
       </c>
       <c r="S357" s="15" t="s">
-        <v>905</v>
+        <v>890</v>
       </c>
       <c r="T357" s="13" t="s">
         <v>33</v>
@@ -34991,96 +34967,82 @@
         <v>33</v>
       </c>
       <c r="V357" s="17">
-        <v>1155</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W357" s="15" t="s">
-        <v>107</v>
+        <v>892</v>
       </c>
       <c r="X357" s="17">
-        <v>2301</v>
+        <v>2261</v>
       </c>
       <c r="Y357" s="15" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="Z357" s="15" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="AA357" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB357" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="AC357" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AD357" s="22">
-        <v>7.11634326e6</v>
+        <v>1.08</v>
       </c>
       <c r="AE357" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
       <c r="AF357" s="23">
-        <v>7.11634326e6</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="358" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A358" s="3" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C358" s="4">
-        <v>43928</v>
+        <v>43972</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="E358" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F358" s="6">
-        <v>2310</v>
+        <v>2280</v>
       </c>
       <c r="G358" s="3" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="H358" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I358" s="3" t="s">
-        <v>37</v>
+        <v>468</v>
       </c>
       <c r="J358" s="7">
-        <v>9.245982e6</v>
-      </c>
-      <c r="K358" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="L358" s="7">
-        <v>2310</v>
-      </c>
-      <c r="M358" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="N358" s="8">
-        <v>43943</v>
-      </c>
-      <c r="O358" s="8">
-        <v>43939</v>
-      </c>
-      <c r="P358" s="9">
-        <v>44304</v>
-      </c>
-      <c r="Q358" s="8">
-        <v>44121</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K358" s="5"/>
+      <c r="L358" s="7"/>
+      <c r="M358" s="5"/>
+      <c r="N358" s="8"/>
+      <c r="O358" s="8"/>
+      <c r="P358" s="9"/>
+      <c r="Q358" s="8"/>
       <c r="R358" s="5" t="s">
-        <v>782</v>
+        <v>469</v>
       </c>
       <c r="S358" s="5" t="s">
-        <v>783</v>
+        <v>470</v>
       </c>
       <c r="T358" s="3" t="s">
         <v>33</v>
@@ -35089,60 +35051,60 @@
         <v>33</v>
       </c>
       <c r="V358" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W358" s="24" t="s">
-        <v>910</v>
+        <v>1.756699e6</v>
+      </c>
+      <c r="W358" s="5" t="s">
+        <v>471</v>
       </c>
       <c r="X358" s="7">
-        <v>2311</v>
+        <v>2281</v>
       </c>
       <c r="Y358" s="5" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="Z358" s="5" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="AA358" s="3" t="s">
-        <v>911</v>
+        <v>295</v>
       </c>
       <c r="AB358" s="10">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="AC358" s="11">
-        <v>36</v>
+        <v>1.89</v>
       </c>
       <c r="AD358" s="11">
-        <v>36</v>
+        <v>1.89</v>
       </c>
       <c r="AE358" s="12">
-        <v>7200</v>
+        <v>240.03</v>
       </c>
       <c r="AF358" s="12">
-        <v>7200</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="359" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A359" s="13" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B359" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C359" s="14">
-        <v>43928</v>
+        <v>43921</v>
       </c>
       <c r="D359" s="15" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="E359" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F359" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G359" s="13" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H359" s="13" t="s">
         <v>36</v>
@@ -35151,34 +35113,34 @@
         <v>37</v>
       </c>
       <c r="J359" s="17">
-        <v>9.245982e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K359" s="15" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="L359" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M359" s="15" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="N359" s="18">
-        <v>43943</v>
+        <v>43922</v>
       </c>
       <c r="O359" s="18">
-        <v>43939</v>
+        <v>43922</v>
       </c>
       <c r="P359" s="19">
-        <v>44304</v>
+        <v>44105</v>
       </c>
       <c r="Q359" s="18">
-        <v>44121</v>
+        <v>44131</v>
       </c>
       <c r="R359" s="15" t="s">
-        <v>782</v>
+        <v>901</v>
       </c>
       <c r="S359" s="15" t="s">
-        <v>783</v>
+        <v>902</v>
       </c>
       <c r="T359" s="13" t="s">
         <v>33</v>
@@ -35187,60 +35149,60 @@
         <v>33</v>
       </c>
       <c r="V359" s="17">
-        <v>236268</v>
+        <v>1155</v>
       </c>
       <c r="W359" s="15" t="s">
-        <v>912</v>
+        <v>107</v>
       </c>
       <c r="X359" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y359" s="15" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="Z359" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA359" s="13" t="s">
-        <v>911</v>
+        <v>44</v>
       </c>
       <c r="AB359" s="21">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AC359" s="22">
-        <v>45</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD359" s="22">
-        <v>45</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE359" s="23">
-        <v>2250</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF359" s="23">
-        <v>2250</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="360" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A360" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C360" s="4">
-        <v>43928</v>
+        <v>43935</v>
       </c>
       <c r="D360" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E360" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F360" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G360" s="3" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H360" s="3" t="s">
         <v>36</v>
@@ -35249,35 +35211,35 @@
         <v>37</v>
       </c>
       <c r="J360" s="7">
-        <v>9.245982e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K360" s="5" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="L360" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M360" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="N360" s="8">
+        <v>43936</v>
+      </c>
+      <c r="O360" s="8">
+        <v>43936</v>
+      </c>
+      <c r="P360" s="9">
+        <v>44119</v>
+      </c>
+      <c r="Q360" s="8">
+        <v>44119</v>
+      </c>
+      <c r="R360" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="S360" s="5" t="s">
         <v>908</v>
       </c>
-      <c r="N360" s="8">
-        <v>43943</v>
-      </c>
-      <c r="O360" s="8">
-        <v>43939</v>
-      </c>
-      <c r="P360" s="9">
-        <v>44304</v>
-      </c>
-      <c r="Q360" s="8">
-        <v>44121</v>
-      </c>
-      <c r="R360" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="S360" s="5" t="s">
-        <v>783</v>
-      </c>
       <c r="T360" s="3" t="s">
         <v>33</v>
       </c>
@@ -35285,60 +35247,60 @@
         <v>33</v>
       </c>
       <c r="V360" s="7">
-        <v>461920</v>
+        <v>1155</v>
       </c>
       <c r="W360" s="5" t="s">
-        <v>789</v>
+        <v>107</v>
       </c>
       <c r="X360" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y360" s="5" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="Z360" s="5" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA360" s="3" t="s">
-        <v>911</v>
+        <v>44</v>
       </c>
       <c r="AB360" s="10">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AC360" s="11">
-        <v>8</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD360" s="11">
-        <v>8</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE360" s="12">
-        <v>4800</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF360" s="12">
-        <v>4800</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="361" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A361" s="13" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B361" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C361" s="14">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D361" s="15" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E361" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F361" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>36</v>
@@ -35347,34 +35309,34 @@
         <v>37</v>
       </c>
       <c r="J361" s="17">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K361" s="15" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="L361" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M361" s="15" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="N361" s="18">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O361" s="18">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P361" s="19">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q361" s="18">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R361" s="15" t="s">
-        <v>782</v>
+        <v>912</v>
       </c>
       <c r="S361" s="15" t="s">
-        <v>783</v>
+        <v>913</v>
       </c>
       <c r="T361" s="13" t="s">
         <v>33</v>
@@ -35383,42 +35345,42 @@
         <v>33</v>
       </c>
       <c r="V361" s="17">
-        <v>804495</v>
+        <v>1155</v>
       </c>
       <c r="W361" s="15" t="s">
-        <v>784</v>
+        <v>107</v>
       </c>
       <c r="X361" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y361" s="15" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="Z361" s="15" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="AA361" s="13" t="s">
-        <v>911</v>
+        <v>44</v>
       </c>
       <c r="AB361" s="21">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AC361" s="22">
-        <v>45</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD361" s="22">
-        <v>45</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE361" s="23">
-        <v>7650</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF361" s="23">
-        <v>7650</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>33</v>
@@ -35427,7 +35389,7 @@
         <v>43928</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>33</v>
@@ -35436,7 +35398,7 @@
         <v>2310</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>36</v>
@@ -35448,13 +35410,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K362" s="5" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="L362" s="7">
         <v>2310</v>
       </c>
       <c r="M362" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N362" s="8">
         <v>43943</v>
@@ -35481,42 +35443,42 @@
         <v>33</v>
       </c>
       <c r="V362" s="7">
-        <v>1.129139e6</v>
-      </c>
-      <c r="W362" s="5" t="s">
-        <v>913</v>
+        <v>18228</v>
+      </c>
+      <c r="W362" s="24" t="s">
+        <v>918</v>
       </c>
       <c r="X362" s="7">
         <v>2311</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z362" s="5" t="s">
-        <v>129</v>
+        <v>365</v>
       </c>
       <c r="AA362" s="3" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB362" s="10">
-        <v>30</v>
+        <v>200</v>
       </c>
       <c r="AC362" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD362" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE362" s="12">
-        <v>1350</v>
+        <v>7200</v>
       </c>
       <c r="AF362" s="12">
-        <v>1350</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A363" s="13" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>33</v>
@@ -35525,7 +35487,7 @@
         <v>43928</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>33</v>
@@ -35534,7 +35496,7 @@
         <v>2310</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
@@ -35546,13 +35508,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K363" s="15" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="L363" s="17">
         <v>2310</v>
       </c>
       <c r="M363" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N363" s="18">
         <v>43943</v>
@@ -35579,25 +35541,25 @@
         <v>33</v>
       </c>
       <c r="V363" s="17">
-        <v>1.152823e6</v>
+        <v>236268</v>
       </c>
       <c r="W363" s="15" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="X363" s="17">
         <v>2311</v>
       </c>
       <c r="Y363" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z363" s="15" t="s">
         <v>129</v>
       </c>
       <c r="AA363" s="13" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB363" s="21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AC363" s="22">
         <v>45</v>
@@ -35606,15 +35568,15 @@
         <v>45</v>
       </c>
       <c r="AE363" s="23">
-        <v>1350</v>
+        <v>2250</v>
       </c>
       <c r="AF363" s="23">
-        <v>1350</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35623,7 +35585,7 @@
         <v>43928</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35632,7 +35594,7 @@
         <v>2310</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35644,13 +35606,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K364" s="5" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="L364" s="7">
         <v>2310</v>
       </c>
       <c r="M364" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N364" s="8">
         <v>43943</v>
@@ -35677,51 +35639,51 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>1.152831e6</v>
+        <v>461920</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>915</v>
+        <v>789</v>
       </c>
       <c r="X364" s="7">
         <v>2311</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA364" s="3" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB364" s="10">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="AC364" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD364" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE364" s="12">
-        <v>1350</v>
+        <v>4800</v>
       </c>
       <c r="AF364" s="12">
-        <v>1350</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C365" s="14">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35730,7 +35692,7 @@
         <v>2310</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35739,34 +35701,34 @@
         <v>37</v>
       </c>
       <c r="J365" s="17">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K365" s="15" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L365" s="17">
         <v>2310</v>
       </c>
       <c r="M365" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N365" s="18">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O365" s="18">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P365" s="19">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q365" s="18">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R365" s="15" t="s">
-        <v>919</v>
+        <v>782</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>920</v>
+        <v>783</v>
       </c>
       <c r="T365" s="13" t="s">
         <v>33</v>
@@ -35775,51 +35737,51 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.755897e6</v>
+        <v>804495</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>921</v>
+        <v>784</v>
       </c>
       <c r="X365" s="17">
         <v>2311</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z365" s="15" t="s">
-        <v>301</v>
+        <v>129</v>
       </c>
       <c r="AA365" s="13" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB365" s="21">
-        <v>300</v>
+        <v>170</v>
       </c>
       <c r="AC365" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD365" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE365" s="23">
-        <v>285</v>
+        <v>7650</v>
       </c>
       <c r="AF365" s="23">
-        <v>285</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C366" s="4">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -35828,7 +35790,7 @@
         <v>2310</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -35837,34 +35799,34 @@
         <v>37</v>
       </c>
       <c r="J366" s="7">
-        <v>9.253515e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K366" s="5" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="L366" s="7">
         <v>2310</v>
       </c>
       <c r="M366" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N366" s="8">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O366" s="8">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P366" s="9">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q366" s="8">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R366" s="5" t="s">
-        <v>491</v>
+        <v>782</v>
       </c>
       <c r="S366" s="5" t="s">
-        <v>492</v>
+        <v>783</v>
       </c>
       <c r="T366" s="3" t="s">
         <v>33</v>
@@ -35873,51 +35835,51 @@
         <v>33</v>
       </c>
       <c r="V366" s="7">
-        <v>1.722859e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W366" s="5" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="X366" s="7">
         <v>2311</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z366" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA366" s="3" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB366" s="10">
-        <v>50000</v>
+        <v>30</v>
       </c>
       <c r="AC366" s="11">
-        <v>2.68</v>
+        <v>45</v>
       </c>
       <c r="AD366" s="11">
-        <v>2.68</v>
+        <v>45</v>
       </c>
       <c r="AE366" s="12">
-        <v>134000</v>
+        <v>1350</v>
       </c>
       <c r="AF366" s="12">
-        <v>134000</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A367" s="13" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C367" s="14">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>33</v>
@@ -35926,7 +35888,7 @@
         <v>2310</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>36</v>
@@ -35935,34 +35897,34 @@
         <v>37</v>
       </c>
       <c r="J367" s="17">
-        <v>9.253515e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K367" s="15" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="L367" s="17">
         <v>2310</v>
       </c>
       <c r="M367" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N367" s="18">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O367" s="18">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P367" s="19">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q367" s="18">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R367" s="15" t="s">
-        <v>491</v>
+        <v>782</v>
       </c>
       <c r="S367" s="15" t="s">
-        <v>492</v>
+        <v>783</v>
       </c>
       <c r="T367" s="13" t="s">
         <v>33</v>
@@ -35971,51 +35933,51 @@
         <v>33</v>
       </c>
       <c r="V367" s="17">
-        <v>1.722891e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W367" s="15" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="X367" s="17">
         <v>2311</v>
       </c>
       <c r="Y367" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z367" s="15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AA367" s="13" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB367" s="21">
-        <v>20000</v>
+        <v>30</v>
       </c>
       <c r="AC367" s="22">
-        <v>440000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD367" s="22">
-        <v>440000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE367" s="23">
-        <v>8800</v>
+        <v>1350</v>
       </c>
       <c r="AF367" s="23">
-        <v>8800</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C368" s="4">
-        <v>43966</v>
+        <v>43928</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>33</v>
@@ -36024,7 +35986,7 @@
         <v>2310</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H368" s="3" t="s">
         <v>36</v>
@@ -36033,34 +35995,34 @@
         <v>37</v>
       </c>
       <c r="J368" s="7">
-        <v>9.253532e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K368" s="5" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="L368" s="7">
         <v>2310</v>
       </c>
       <c r="M368" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N368" s="8">
-        <v>44027</v>
+        <v>43943</v>
       </c>
       <c r="O368" s="8">
-        <v>44027</v>
+        <v>43939</v>
       </c>
       <c r="P368" s="9">
-        <v>44757</v>
+        <v>44304</v>
       </c>
       <c r="Q368" s="8">
-        <v>44206</v>
+        <v>44121</v>
       </c>
       <c r="R368" s="5" t="s">
-        <v>928</v>
+        <v>782</v>
       </c>
       <c r="S368" s="5" t="s">
-        <v>929</v>
+        <v>783</v>
       </c>
       <c r="T368" s="3" t="s">
         <v>33</v>
@@ -36069,51 +36031,51 @@
         <v>33</v>
       </c>
       <c r="V368" s="7">
-        <v>1.043684e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W368" s="5" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="X368" s="7">
         <v>2311</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z368" s="5" t="s">
         <v>129</v>
       </c>
       <c r="AA368" s="3" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB368" s="10">
-        <v>780</v>
+        <v>30</v>
       </c>
       <c r="AC368" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AD368" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="AE368" s="12">
-        <v>19500</v>
+        <v>1350</v>
       </c>
       <c r="AF368" s="12">
-        <v>19500</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="369" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A369" s="13" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C369" s="14">
-        <v>44001</v>
+        <v>43955</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="E369" s="15" t="s">
         <v>33</v>
@@ -36122,7 +36084,7 @@
         <v>2310</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>36</v>
@@ -36131,34 +36093,34 @@
         <v>37</v>
       </c>
       <c r="J369" s="17">
-        <v>9.253504e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K369" s="15" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="L369" s="17">
         <v>2310</v>
       </c>
       <c r="M369" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="N369" s="18">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O369" s="18">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P369" s="19">
-        <v>44756</v>
+        <v>44557</v>
       </c>
       <c r="Q369" s="18">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R369" s="15" t="s">
-        <v>491</v>
+        <v>927</v>
       </c>
       <c r="S369" s="15" t="s">
-        <v>492</v>
+        <v>928</v>
       </c>
       <c r="T369" s="13" t="s">
         <v>33</v>
@@ -36167,60 +36129,60 @@
         <v>33</v>
       </c>
       <c r="V369" s="17">
-        <v>1.722905e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W369" s="15" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="X369" s="17">
         <v>2311</v>
       </c>
       <c r="Y369" s="15" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="Z369" s="15" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="AA369" s="13" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="AB369" s="21">
-        <v>30000</v>
+        <v>300</v>
       </c>
       <c r="AC369" s="22">
-        <v>1.16</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD369" s="22">
-        <v>1.16</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE369" s="23">
-        <v>34800</v>
+        <v>285</v>
       </c>
       <c r="AF369" s="23">
-        <v>34800</v>
+        <v>285</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A370" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C370" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D370" s="26" t="s">
-        <v>936</v>
+        <v>43966</v>
+      </c>
+      <c r="D370" s="5" t="s">
+        <v>931</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F370" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="H370" s="3" t="s">
         <v>36</v>
@@ -36229,20 +36191,34 @@
         <v>37</v>
       </c>
       <c r="J370" s="7">
-        <v>0</v>
-      </c>
-      <c r="K370" s="5"/>
-      <c r="L370" s="7"/>
-      <c r="M370" s="5"/>
-      <c r="N370" s="8"/>
-      <c r="O370" s="8"/>
-      <c r="P370" s="9"/>
-      <c r="Q370" s="8"/>
+        <v>9.253515e6</v>
+      </c>
+      <c r="K370" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="L370" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M370" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="N370" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O370" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P370" s="9">
+        <v>44757</v>
+      </c>
+      <c r="Q370" s="8">
+        <v>44206</v>
+      </c>
       <c r="R370" s="5" t="s">
-        <v>938</v>
+        <v>491</v>
       </c>
       <c r="S370" s="5" t="s">
-        <v>939</v>
+        <v>492</v>
       </c>
       <c r="T370" s="3" t="s">
         <v>33</v>
@@ -36251,60 +36227,60 @@
         <v>33</v>
       </c>
       <c r="V370" s="7">
-        <v>1.692143e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W370" s="5" t="s">
-        <v>510</v>
+        <v>933</v>
       </c>
       <c r="X370" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="Z370" s="5" t="s">
-        <v>307</v>
+        <v>122</v>
       </c>
       <c r="AA370" s="3" t="s">
-        <v>508</v>
+        <v>919</v>
       </c>
       <c r="AB370" s="10">
-        <v>3000</v>
+        <v>50000</v>
       </c>
       <c r="AC370" s="11">
-        <v>8.2</v>
+        <v>2.68</v>
       </c>
       <c r="AD370" s="11">
-        <v>8.2</v>
+        <v>2.68</v>
       </c>
       <c r="AE370" s="12">
-        <v>24600</v>
+        <v>134000</v>
       </c>
       <c r="AF370" s="12">
-        <v>24600</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A371" s="13" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B371" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C371" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D371" s="25" t="s">
-        <v>936</v>
+        <v>43966</v>
+      </c>
+      <c r="D371" s="15" t="s">
+        <v>931</v>
       </c>
       <c r="E371" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F371" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>36</v>
@@ -36313,20 +36289,34 @@
         <v>37</v>
       </c>
       <c r="J371" s="17">
-        <v>0</v>
-      </c>
-      <c r="K371" s="15"/>
-      <c r="L371" s="17"/>
-      <c r="M371" s="15"/>
-      <c r="N371" s="18"/>
-      <c r="O371" s="18"/>
-      <c r="P371" s="19"/>
-      <c r="Q371" s="18"/>
+        <v>9.253515e6</v>
+      </c>
+      <c r="K371" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="L371" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M371" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="N371" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O371" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P371" s="19">
+        <v>44757</v>
+      </c>
+      <c r="Q371" s="18">
+        <v>44206</v>
+      </c>
       <c r="R371" s="15" t="s">
-        <v>941</v>
+        <v>491</v>
       </c>
       <c r="S371" s="15" t="s">
-        <v>942</v>
+        <v>492</v>
       </c>
       <c r="T371" s="13" t="s">
         <v>33</v>
@@ -36335,60 +36325,60 @@
         <v>33</v>
       </c>
       <c r="V371" s="17">
-        <v>1.143883e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W371" s="15" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="X371" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y371" s="15" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="Z371" s="15" t="s">
-        <v>531</v>
+        <v>122</v>
       </c>
       <c r="AA371" s="13" t="s">
-        <v>508</v>
+        <v>919</v>
       </c>
       <c r="AB371" s="21">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="AC371" s="22">
-        <v>600000e-6</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD371" s="22">
-        <v>600000e-6</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE371" s="23">
-        <v>120000</v>
+        <v>8800</v>
       </c>
       <c r="AF371" s="23">
-        <v>120000</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C372" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D372" s="26" t="s">
-        <v>936</v>
+        <v>43966</v>
+      </c>
+      <c r="D372" s="5" t="s">
+        <v>931</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F372" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="H372" s="3" t="s">
         <v>36</v>
@@ -36397,20 +36387,34 @@
         <v>37</v>
       </c>
       <c r="J372" s="7">
-        <v>0</v>
-      </c>
-      <c r="K372" s="5"/>
-      <c r="L372" s="7"/>
-      <c r="M372" s="5"/>
-      <c r="N372" s="8"/>
-      <c r="O372" s="8"/>
-      <c r="P372" s="9"/>
-      <c r="Q372" s="8"/>
+        <v>9.253532e6</v>
+      </c>
+      <c r="K372" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="L372" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M372" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="N372" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O372" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P372" s="9">
+        <v>44757</v>
+      </c>
+      <c r="Q372" s="8">
+        <v>44206</v>
+      </c>
       <c r="R372" s="5" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="S372" s="5" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="T372" s="3" t="s">
         <v>33</v>
@@ -36419,60 +36423,60 @@
         <v>33</v>
       </c>
       <c r="V372" s="7">
-        <v>1.244515e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W372" s="5" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="X372" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y372" s="5" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="Z372" s="5" t="s">
-        <v>531</v>
+        <v>129</v>
       </c>
       <c r="AA372" s="3" t="s">
-        <v>508</v>
+        <v>919</v>
       </c>
       <c r="AB372" s="10">
-        <v>50</v>
+        <v>780</v>
       </c>
       <c r="AC372" s="11">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="AD372" s="11">
-        <v>20.1</v>
+        <v>25</v>
       </c>
       <c r="AE372" s="12">
-        <v>1005</v>
+        <v>19500</v>
       </c>
       <c r="AF372" s="12">
-        <v>1005</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A373" s="13" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B373" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C373" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D373" s="25" t="s">
-        <v>936</v>
+        <v>44001</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>940</v>
       </c>
       <c r="E373" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F373" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G373" s="13" t="s">
-        <v>937</v>
+        <v>916</v>
       </c>
       <c r="H373" s="13" t="s">
         <v>36</v>
@@ -36481,20 +36485,34 @@
         <v>37</v>
       </c>
       <c r="J373" s="17">
-        <v>0</v>
-      </c>
-      <c r="K373" s="15"/>
-      <c r="L373" s="17"/>
-      <c r="M373" s="15"/>
-      <c r="N373" s="18"/>
-      <c r="O373" s="18"/>
-      <c r="P373" s="19"/>
-      <c r="Q373" s="18"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K373" s="15" t="s">
+        <v>941</v>
+      </c>
+      <c r="L373" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M373" s="15" t="s">
+        <v>916</v>
+      </c>
+      <c r="N373" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O373" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P373" s="19">
+        <v>44756</v>
+      </c>
+      <c r="Q373" s="18">
+        <v>44206</v>
+      </c>
       <c r="R373" s="15" t="s">
-        <v>947</v>
+        <v>491</v>
       </c>
       <c r="S373" s="15" t="s">
-        <v>948</v>
+        <v>492</v>
       </c>
       <c r="T373" s="13" t="s">
         <v>33</v>
@@ -36503,42 +36521,42 @@
         <v>33</v>
       </c>
       <c r="V373" s="17">
-        <v>1.244108e6</v>
+        <v>1.722905e6</v>
       </c>
       <c r="W373" s="15" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="X373" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y373" s="15" t="s">
-        <v>940</v>
+        <v>916</v>
       </c>
       <c r="Z373" s="15" t="s">
-        <v>531</v>
+        <v>122</v>
       </c>
       <c r="AA373" s="13" t="s">
-        <v>508</v>
+        <v>919</v>
       </c>
       <c r="AB373" s="21">
-        <v>90</v>
+        <v>30000</v>
       </c>
       <c r="AC373" s="22">
-        <v>358.24</v>
+        <v>1.16</v>
       </c>
       <c r="AD373" s="22">
-        <v>358.24</v>
+        <v>1.16</v>
       </c>
       <c r="AE373" s="23">
-        <v>32241.6</v>
+        <v>34800</v>
       </c>
       <c r="AF373" s="23">
-        <v>32241.6</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>33</v>
@@ -36547,7 +36565,7 @@
         <v>43944</v>
       </c>
       <c r="D374" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>33</v>
@@ -36556,7 +36574,7 @@
         <v>2320</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H374" s="3" t="s">
         <v>36</v>
@@ -36575,11 +36593,11 @@
       <c r="P374" s="9"/>
       <c r="Q374" s="8"/>
       <c r="R374" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="S374" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="S374" s="5" t="s">
-        <v>948</v>
-      </c>
       <c r="T374" s="3" t="s">
         <v>33</v>
       </c>
@@ -36587,42 +36605,42 @@
         <v>33</v>
       </c>
       <c r="V374" s="7">
-        <v>1.244507e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W374" s="5" t="s">
-        <v>950</v>
+        <v>510</v>
       </c>
       <c r="X374" s="7">
         <v>2321</v>
       </c>
       <c r="Y374" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z374" s="5" t="s">
-        <v>531</v>
+        <v>307</v>
       </c>
       <c r="AA374" s="3" t="s">
         <v>508</v>
       </c>
       <c r="AB374" s="10">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="AC374" s="11">
-        <v>34.9</v>
+        <v>8.2</v>
       </c>
       <c r="AD374" s="11">
-        <v>34.9</v>
+        <v>8.2</v>
       </c>
       <c r="AE374" s="12">
-        <v>1745</v>
+        <v>24600</v>
       </c>
       <c r="AF374" s="12">
-        <v>1745</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A375" s="13" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B375" s="13" t="s">
         <v>33</v>
@@ -36631,7 +36649,7 @@
         <v>43944</v>
       </c>
       <c r="D375" s="25" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E375" s="15" t="s">
         <v>33</v>
@@ -36640,7 +36658,7 @@
         <v>2320</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>36</v>
@@ -36659,10 +36677,10 @@
       <c r="P375" s="19"/>
       <c r="Q375" s="18"/>
       <c r="R375" s="15" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="S375" s="15" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="T375" s="13" t="s">
         <v>33</v>
@@ -36671,7 +36689,7 @@
         <v>33</v>
       </c>
       <c r="V375" s="17">
-        <v>1.257587e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W375" s="15" t="s">
         <v>951</v>
@@ -36680,7 +36698,7 @@
         <v>2321</v>
       </c>
       <c r="Y375" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z375" s="15" t="s">
         <v>531</v>
@@ -36689,24 +36707,24 @@
         <v>508</v>
       </c>
       <c r="AB375" s="21">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="AC375" s="22">
-        <v>390000e-6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD375" s="22">
-        <v>390000e-6</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE375" s="23">
-        <v>31200</v>
+        <v>120000</v>
       </c>
       <c r="AF375" s="23">
-        <v>31200</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>33</v>
@@ -36715,7 +36733,7 @@
         <v>43944</v>
       </c>
       <c r="D376" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>33</v>
@@ -36724,7 +36742,7 @@
         <v>2320</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>36</v>
@@ -36743,10 +36761,10 @@
       <c r="P376" s="9"/>
       <c r="Q376" s="8"/>
       <c r="R376" s="5" t="s">
-        <v>947</v>
+        <v>860</v>
       </c>
       <c r="S376" s="5" t="s">
-        <v>948</v>
+        <v>861</v>
       </c>
       <c r="T376" s="3" t="s">
         <v>33</v>
@@ -36755,7 +36773,7 @@
         <v>33</v>
       </c>
       <c r="V376" s="7">
-        <v>1.257625e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W376" s="5" t="s">
         <v>952</v>
@@ -36764,33 +36782,33 @@
         <v>2321</v>
       </c>
       <c r="Y376" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z376" s="5" t="s">
-        <v>379</v>
+        <v>531</v>
       </c>
       <c r="AA376" s="3" t="s">
         <v>508</v>
       </c>
       <c r="AB376" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC376" s="11">
-        <v>351</v>
+        <v>20.1</v>
       </c>
       <c r="AD376" s="11">
-        <v>351</v>
+        <v>20.1</v>
       </c>
       <c r="AE376" s="12">
-        <v>31590</v>
+        <v>1005</v>
       </c>
       <c r="AF376" s="12">
-        <v>31590</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="377" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A377" s="13" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B377" s="13" t="s">
         <v>33</v>
@@ -36799,7 +36817,7 @@
         <v>43944</v>
       </c>
       <c r="D377" s="25" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E377" s="15" t="s">
         <v>33</v>
@@ -36808,7 +36826,7 @@
         <v>2320</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>36</v>
@@ -36827,10 +36845,10 @@
       <c r="P377" s="19"/>
       <c r="Q377" s="18"/>
       <c r="R377" s="15" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S377" s="15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T377" s="13" t="s">
         <v>33</v>
@@ -36839,16 +36857,16 @@
         <v>33</v>
       </c>
       <c r="V377" s="17">
-        <v>1.258699e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W377" s="15" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="X377" s="17">
         <v>2321</v>
       </c>
       <c r="Y377" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z377" s="15" t="s">
         <v>531</v>
@@ -36857,24 +36875,24 @@
         <v>508</v>
       </c>
       <c r="AB377" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC377" s="22">
-        <v>1.39</v>
+        <v>358.24</v>
       </c>
       <c r="AD377" s="22">
-        <v>1.39</v>
+        <v>358.24</v>
       </c>
       <c r="AE377" s="23">
-        <v>2780</v>
+        <v>32241.6</v>
       </c>
       <c r="AF377" s="23">
-        <v>2780</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A378" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>33</v>
@@ -36883,7 +36901,7 @@
         <v>43944</v>
       </c>
       <c r="D378" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>33</v>
@@ -36892,7 +36910,7 @@
         <v>2320</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>36</v>
@@ -36911,10 +36929,10 @@
       <c r="P378" s="9"/>
       <c r="Q378" s="8"/>
       <c r="R378" s="5" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S378" s="5" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T378" s="3" t="s">
         <v>33</v>
@@ -36923,16 +36941,16 @@
         <v>33</v>
       </c>
       <c r="V378" s="7">
-        <v>1.259784e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="X378" s="7">
         <v>2321</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z378" s="5" t="s">
         <v>531</v>
@@ -36941,24 +36959,24 @@
         <v>508</v>
       </c>
       <c r="AB378" s="10">
-        <v>3000</v>
+        <v>50</v>
       </c>
       <c r="AC378" s="11">
-        <v>600000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD378" s="11">
-        <v>600000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE378" s="12">
-        <v>1800</v>
+        <v>1745</v>
       </c>
       <c r="AF378" s="12">
-        <v>1800</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A379" s="13" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B379" s="13" t="s">
         <v>33</v>
@@ -36967,7 +36985,7 @@
         <v>43944</v>
       </c>
       <c r="D379" s="25" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E379" s="15" t="s">
         <v>33</v>
@@ -36976,7 +36994,7 @@
         <v>2320</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>36</v>
@@ -36995,10 +37013,10 @@
       <c r="P379" s="19"/>
       <c r="Q379" s="18"/>
       <c r="R379" s="15" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S379" s="15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T379" s="13" t="s">
         <v>33</v>
@@ -37007,16 +37025,16 @@
         <v>33</v>
       </c>
       <c r="V379" s="17">
-        <v>1.259792e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W379" s="15" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="X379" s="17">
         <v>2321</v>
       </c>
       <c r="Y379" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z379" s="15" t="s">
         <v>531</v>
@@ -37025,24 +37043,24 @@
         <v>508</v>
       </c>
       <c r="AB379" s="21">
-        <v>80</v>
+        <v>80000</v>
       </c>
       <c r="AC379" s="22">
-        <v>15.35</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD379" s="22">
-        <v>15.35</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE379" s="23">
-        <v>1228</v>
+        <v>31200</v>
       </c>
       <c r="AF379" s="23">
-        <v>1228</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>33</v>
@@ -37051,7 +37069,7 @@
         <v>43944</v>
       </c>
       <c r="D380" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>33</v>
@@ -37060,7 +37078,7 @@
         <v>2320</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>36</v>
@@ -37079,10 +37097,10 @@
       <c r="P380" s="9"/>
       <c r="Q380" s="8"/>
       <c r="R380" s="5" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S380" s="5" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T380" s="3" t="s">
         <v>33</v>
@@ -37091,42 +37109,42 @@
         <v>33</v>
       </c>
       <c r="V380" s="7">
-        <v>1.260669e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="X380" s="7">
         <v>2321</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z380" s="5" t="s">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="AA380" s="3" t="s">
         <v>508</v>
       </c>
       <c r="AB380" s="10">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AC380" s="11">
-        <v>1.49</v>
+        <v>351</v>
       </c>
       <c r="AD380" s="11">
-        <v>1.49</v>
+        <v>351</v>
       </c>
       <c r="AE380" s="12">
-        <v>1490</v>
+        <v>31590</v>
       </c>
       <c r="AF380" s="12">
-        <v>1490</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="381" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A381" s="13" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B381" s="13" t="s">
         <v>33</v>
@@ -37135,7 +37153,7 @@
         <v>43944</v>
       </c>
       <c r="D381" s="25" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E381" s="15" t="s">
         <v>33</v>
@@ -37144,7 +37162,7 @@
         <v>2320</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>36</v>
@@ -37163,10 +37181,10 @@
       <c r="P381" s="19"/>
       <c r="Q381" s="18"/>
       <c r="R381" s="15" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S381" s="15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T381" s="13" t="s">
         <v>33</v>
@@ -37175,16 +37193,16 @@
         <v>33</v>
       </c>
       <c r="V381" s="17">
-        <v>1.260677e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W381" s="15" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="X381" s="17">
         <v>2321</v>
       </c>
       <c r="Y381" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z381" s="15" t="s">
         <v>531</v>
@@ -37193,24 +37211,24 @@
         <v>508</v>
       </c>
       <c r="AB381" s="21">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC381" s="22">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AD381" s="22">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AE381" s="23">
-        <v>4770</v>
+        <v>2780</v>
       </c>
       <c r="AF381" s="23">
-        <v>4770</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>33</v>
@@ -37219,7 +37237,7 @@
         <v>43944</v>
       </c>
       <c r="D382" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>33</v>
@@ -37228,7 +37246,7 @@
         <v>2320</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H382" s="3" t="s">
         <v>36</v>
@@ -37247,10 +37265,10 @@
       <c r="P382" s="9"/>
       <c r="Q382" s="8"/>
       <c r="R382" s="5" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S382" s="5" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T382" s="3" t="s">
         <v>33</v>
@@ -37259,16 +37277,16 @@
         <v>33</v>
       </c>
       <c r="V382" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W382" s="24" t="s">
-        <v>958</v>
+        <v>1.259784e6</v>
+      </c>
+      <c r="W382" s="5" t="s">
+        <v>960</v>
       </c>
       <c r="X382" s="7">
         <v>2321</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z382" s="5" t="s">
         <v>531</v>
@@ -37277,24 +37295,24 @@
         <v>508</v>
       </c>
       <c r="AB382" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC382" s="11">
-        <v>271.97</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD382" s="11">
-        <v>271.97</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE382" s="12">
-        <v>16318.2</v>
+        <v>1800</v>
       </c>
       <c r="AF382" s="12">
-        <v>16318.2</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A383" s="13" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>33</v>
@@ -37303,7 +37321,7 @@
         <v>43944</v>
       </c>
       <c r="D383" s="25" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E383" s="15" t="s">
         <v>33</v>
@@ -37312,7 +37330,7 @@
         <v>2320</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>36</v>
@@ -37331,10 +37349,10 @@
       <c r="P383" s="19"/>
       <c r="Q383" s="18"/>
       <c r="R383" s="15" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="S383" s="15" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="T383" s="13" t="s">
         <v>33</v>
@@ -37343,16 +37361,16 @@
         <v>33</v>
       </c>
       <c r="V383" s="17">
-        <v>1.687115e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W383" s="15" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="X383" s="17">
         <v>2321</v>
       </c>
       <c r="Y383" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z383" s="15" t="s">
         <v>531</v>
@@ -37361,24 +37379,24 @@
         <v>508</v>
       </c>
       <c r="AB383" s="21">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC383" s="22">
-        <v>16.65</v>
+        <v>15.35</v>
       </c>
       <c r="AD383" s="22">
-        <v>16.65</v>
+        <v>15.35</v>
       </c>
       <c r="AE383" s="23">
-        <v>999</v>
+        <v>1228</v>
       </c>
       <c r="AF383" s="23">
-        <v>999</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>33</v>
@@ -37387,7 +37405,7 @@
         <v>43944</v>
       </c>
       <c r="D384" s="26" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>33</v>
@@ -37396,7 +37414,7 @@
         <v>2320</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>36</v>
@@ -37415,10 +37433,10 @@
       <c r="P384" s="9"/>
       <c r="Q384" s="8"/>
       <c r="R384" s="5" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="S384" s="5" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="T384" s="3" t="s">
         <v>33</v>
@@ -37427,7 +37445,7 @@
         <v>33</v>
       </c>
       <c r="V384" s="7">
-        <v>1.257463e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W384" s="5" t="s">
         <v>962</v>
@@ -37436,7 +37454,7 @@
         <v>2321</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z384" s="5" t="s">
         <v>531</v>
@@ -37445,33 +37463,33 @@
         <v>508</v>
       </c>
       <c r="AB384" s="10">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AC384" s="11">
-        <v>34.2</v>
+        <v>1.49</v>
       </c>
       <c r="AD384" s="11">
-        <v>34.2</v>
+        <v>1.49</v>
       </c>
       <c r="AE384" s="12">
-        <v>6840</v>
+        <v>1490</v>
       </c>
       <c r="AF384" s="12">
-        <v>6840</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A385" s="13" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C385" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D385" s="15" t="s">
-        <v>964</v>
+        <v>43944</v>
+      </c>
+      <c r="D385" s="25" t="s">
+        <v>944</v>
       </c>
       <c r="E385" s="15" t="s">
         <v>33</v>
@@ -37480,7 +37498,7 @@
         <v>2320</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>36</v>
@@ -37499,10 +37517,10 @@
       <c r="P385" s="19"/>
       <c r="Q385" s="18"/>
       <c r="R385" s="15" t="s">
-        <v>491</v>
+        <v>953</v>
       </c>
       <c r="S385" s="15" t="s">
-        <v>492</v>
+        <v>954</v>
       </c>
       <c r="T385" s="13" t="s">
         <v>33</v>
@@ -37511,40 +37529,376 @@
         <v>33</v>
       </c>
       <c r="V385" s="17">
-        <v>1.408623e6</v>
+        <v>1.260677e6</v>
       </c>
       <c r="W385" s="15" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="X385" s="17">
         <v>2321</v>
       </c>
       <c r="Y385" s="15" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
       <c r="Z385" s="15" t="s">
-        <v>373</v>
+        <v>531</v>
       </c>
       <c r="AA385" s="13" t="s">
         <v>508</v>
       </c>
       <c r="AB385" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AC385" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AD385" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AE385" s="23">
+        <v>4770</v>
+      </c>
+      <c r="AF385" s="23">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="386" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A386" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D386" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F386" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J386" s="7">
+        <v>0</v>
+      </c>
+      <c r="K386" s="5"/>
+      <c r="L386" s="7"/>
+      <c r="M386" s="5"/>
+      <c r="N386" s="8"/>
+      <c r="O386" s="8"/>
+      <c r="P386" s="9"/>
+      <c r="Q386" s="8"/>
+      <c r="R386" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="S386" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="T386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V386" s="7">
+        <v>1.260731e6</v>
+      </c>
+      <c r="W386" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="X386" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y386" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="Z386" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA386" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB386" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC386" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AD386" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AE386" s="12">
+        <v>16318.2</v>
+      </c>
+      <c r="AF386" s="12">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="387" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A387" s="13" t="s">
+        <v>943</v>
+      </c>
+      <c r="B387" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C387" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D387" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="E387" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F387" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G387" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="H387" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I387" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J387" s="17">
+        <v>0</v>
+      </c>
+      <c r="K387" s="15"/>
+      <c r="L387" s="17"/>
+      <c r="M387" s="15"/>
+      <c r="N387" s="18"/>
+      <c r="O387" s="18"/>
+      <c r="P387" s="19"/>
+      <c r="Q387" s="18"/>
+      <c r="R387" s="15" t="s">
+        <v>953</v>
+      </c>
+      <c r="S387" s="15" t="s">
+        <v>954</v>
+      </c>
+      <c r="T387" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U387" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V387" s="17">
+        <v>1.687115e6</v>
+      </c>
+      <c r="W387" s="15" t="s">
+        <v>965</v>
+      </c>
+      <c r="X387" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y387" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="Z387" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA387" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB387" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC387" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD387" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE387" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF387" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="388" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A388" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C388" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D388" s="26" t="s">
+        <v>944</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F388" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J388" s="7">
+        <v>0</v>
+      </c>
+      <c r="K388" s="5"/>
+      <c r="L388" s="7"/>
+      <c r="M388" s="5"/>
+      <c r="N388" s="8"/>
+      <c r="O388" s="8"/>
+      <c r="P388" s="9"/>
+      <c r="Q388" s="8"/>
+      <c r="R388" s="5" t="s">
+        <v>966</v>
+      </c>
+      <c r="S388" s="5" t="s">
+        <v>967</v>
+      </c>
+      <c r="T388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U388" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V388" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W388" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="X388" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y388" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="Z388" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA388" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB388" s="10">
+        <v>200</v>
+      </c>
+      <c r="AC388" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AD388" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AE388" s="12">
+        <v>6840</v>
+      </c>
+      <c r="AF388" s="12">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="389" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A389" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="B389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C389" s="14">
+        <v>44012</v>
+      </c>
+      <c r="D389" s="15" t="s">
+        <v>970</v>
+      </c>
+      <c r="E389" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F389" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G389" s="13" t="s">
+        <v>945</v>
+      </c>
+      <c r="H389" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I389" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J389" s="17">
+        <v>0</v>
+      </c>
+      <c r="K389" s="15"/>
+      <c r="L389" s="17"/>
+      <c r="M389" s="15"/>
+      <c r="N389" s="18"/>
+      <c r="O389" s="18"/>
+      <c r="P389" s="19"/>
+      <c r="Q389" s="18"/>
+      <c r="R389" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="S389" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="T389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V389" s="17">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W389" s="15" t="s">
+        <v>971</v>
+      </c>
+      <c r="X389" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y389" s="15" t="s">
+        <v>948</v>
+      </c>
+      <c r="Z389" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA389" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="AB389" s="21">
         <v>2000</v>
       </c>
-      <c r="AC385" s="22">
+      <c r="AC389" s="22">
         <v>18.69</v>
       </c>
-      <c r="AD385" s="22">
+      <c r="AD389" s="22">
         <v>14.95</v>
       </c>
-      <c r="AE385" s="23">
+      <c r="AE389" s="23">
         <v>37380</v>
       </c>
-      <c r="AF385" s="23">
+      <c r="AF389" s="23">
         <v>29900</v>
       </c>
     </row>
-    <row r="386" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="390" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6389" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="1066">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -3004,6 +3004,118 @@
   </si>
   <si>
     <t>EMBALAGEM DESCARTAVEL PARA ESTERILIZACAO -  MATERIA-PRIMA: SMS 100% POLIPROPILENO 45 G/M2; MATERIA-PRIMA 2: .; DIMENSOES (L X C ): 75 CM X 75 CM; TIPO ESTERILIZACAO: COMPATIVEL COM A MATERIA-PRIMA; INDICADOR: NAO POSSUI; APRESENTACAO: FOLHA 75 CM;</t>
+  </si>
+  <si>
+    <t>2311076 000512/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEDICAMENTOS
+COVID-19</t>
+  </si>
+  <si>
+    <t>08.778.201/0001-26</t>
+  </si>
+  <si>
+    <t>DROGAFONTE LTDA</t>
+  </si>
+  <si>
+    <t>ANLODIPINO, BESILATO - PRINCIPIO ATIVO: ANLODIPINO, BESILATO; CONCENTRACAO/DOSAGEM: 5 MG; FORMA FARMACEUTICA: COMPRIMIDO; APRESENTACAO: .; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>AZITROMICINA - PRINCIPIO ATIVO: AZITROMICINA; CONCENTRACAO/DOSAGEM: 500 MG; FORMA FARMACEUTICA: COMPRIMIDO; APRESENTACAO: .; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>DOBUTAMINA, CLORIDRATO - PRINCIPIO ATIVO: DOBUTAMINA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 12,5 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 20 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>SALBUTAMOL, SULFATO - PRINCIPIO ATIVO: SALBUTAMOL, SULFATO; CONCENTRACAO/DOSAGEM: 100 MCG/DOSE; FORMA FARMACEUTICA: AEROSSOL; APRESENTACAO: FRASCO TUBO 200 DOSES; COMPONENTE: APLICADOR;</t>
+  </si>
+  <si>
+    <t>INSULINA - PRINCIPIO ATIVO: INSULINA HUMANA NPH RECOMBINANTE; CONCENTRACAO/DOSAGEM: 100 UI/ML; FORMA FARMACEUTICA: SUSPENSAO INJETAVEL; APRESENTACAO: FRASCO 10 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>ENOXAPARINA SODICA PRINCIPIO ATIVO: ENOXAPARINA SODICA; CONCENTRACAO/DOSAGEM: 40 MG; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: SERINGA PREENCHIDA 0,4 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>LIDOCAINA SEM VASOCONSTRITOR PRINCIPIO ATIVO: LIDOCAINA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 2%; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 5 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA - PRINCIPIO ATIVO: DEXAMETASONA, FOSFATO DISSODICO; CONCENTRACAO/DOSAGEM: 4 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA 2,5 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA - PRINCIPIO ATIVO: DEXAMETASONA, FOSFATO DISSODICO; CONCENTRACAO/DOSAGEM: 2 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>INSULINA - PRINCIPIO ATIVO: INSULINA HUMANA REGULAR; CONCENTRACAO/DOSAGEM: 100 UI/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA 10 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>49.324.221/0020-77</t>
+  </si>
+  <si>
+    <t>FRESENIUS KABI BRASIL LTDA.</t>
+  </si>
+  <si>
+    <t>SUCCINATO SODICO DE METILPREDNISOLONA - PRINCIPIO ATIVO: SUCCINATO SODICO DE METILPREDNISOLONA; CONCENTRACAO/DOSAGEM: 500 MG; FORMA FARMACEUTICA: PO LIOFILIZADO; APRESENTACAO: FRASCO-AMPOLA; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>58.635.830/0001-75</t>
+  </si>
+  <si>
+    <t>FARMARIN INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA HEMODIALISE - IDENTIFICACAO: FRACAO ACIDA; PRINCIPIO ATIVO: CLORETO DE SODIO+CLORETO DE POTASSIO+ASSOCIACAO; FORMA FARMACEUTICA: SOLUCAO PARA HEMODIALISE; APRESENTACAO: EMBALAGEM 5L;</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA HEMODIALISE - IDENTIFICACAO: FRACAO BASICA; PRINCIPIO ATIVO: BICARBONATO DE SODIO; FORMA FARMACEUTICA: SOLUCAO PARA HEMODIALISE; APRESENTACAO: EMBALAGEM 5L;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=164493</t>
+  </si>
+  <si>
+    <t>HEPARINA SODICA - PRINCIPIO ATIVO: HEPARINA SODICA; CONCENTRACAO/DOSAGEM: 5000 UI/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL INTRAVENOSA; APRESENTACAO: FRASCO-AMPOLA 5ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>BROMETO DE PANCURONIO - PRINCIPIO ATIVO: BROMETO DE PANCURONIO; CONCENTRACAO/DOSAGEM: 2 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 2 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>BESILATO DE ATRACURIO - PRINCIPIO ATIVO: BESILATO DE ATRACURIO; CONCENTRACAO/DOSAGEM: 10 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 2,5 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=164495</t>
+  </si>
+  <si>
+    <t>EPINEFRINA - PRINCIPIO ATIVO: EPINEFRINA; CONCENTRACAO/DOSAGEM: 1 MG/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=164497</t>
+  </si>
+  <si>
+    <t>05.439.635/0004-56</t>
+  </si>
+  <si>
+    <t>Antibióticos do Brasil Ltda</t>
+  </si>
+  <si>
+    <t>MEROPENEM - PRINCIPIO ATIVO: MEROPENEM, TRI-HIDRATADO; CONCENTRACAO/DOSAGEM: 500 MG; FORMA FARMACEUTICA: PO PARA SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>CEFEPIMA - PRINCIPIO ATIVO: CEFEPIMA; CONCENTRACAO/DOSAGEM: 1 G; FORMA FARMACEUTICA: PO LIOFILIZADO PARA SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>VANCOMICINA - PRINCIPIO ATIVO: VANCOMICINA, CLORIDRATO; CONCENTRACAO/DOSAGEM: 500 MG; FORMA FARMACEUTICA: PO PARA SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=164510</t>
+  </si>
+  <si>
+    <t>81.706.251/0001-98</t>
+  </si>
+  <si>
+    <t>Promefarma Representações Comercias LTDA</t>
+  </si>
+  <si>
+    <t>ARGIPRESSINA - PRINCIPIO ATIVO: ARGIPRESSINA; CONCENTRACAO/DOSAGEM: 20 U/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML; COMPONENTE: .;</t>
   </si>
   <si>
     <t>2320310 000127/2020</t>
@@ -3299,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF406"/>
+  <dimension ref="A1:AF433"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -38088,7 +38200,7 @@
         <v>33</v>
       </c>
       <c r="C389" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D389" s="25" t="s">
         <v>997</v>
@@ -38097,10 +38209,10 @@
         <v>33</v>
       </c>
       <c r="F389" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>36</v>
@@ -38119,49 +38231,49 @@
       <c r="P389" s="19"/>
       <c r="Q389" s="18"/>
       <c r="R389" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="S389" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="S389" s="15" t="s">
+      <c r="T389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V389" s="17">
+        <v>1.489186e6</v>
+      </c>
+      <c r="W389" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="T389" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U389" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V389" s="17">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W389" s="15" t="s">
-        <v>559</v>
-      </c>
       <c r="X389" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y389" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z389" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AA389" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB389" s="21">
-        <v>3000</v>
+        <v>1170</v>
       </c>
       <c r="AC389" s="22">
-        <v>8.2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AD389" s="22">
-        <v>8.2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AE389" s="23">
-        <v>24600</v>
+        <v>85.41</v>
       </c>
       <c r="AF389" s="23">
-        <v>24600</v>
+        <v>85.41</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38172,7 +38284,7 @@
         <v>33</v>
       </c>
       <c r="C390" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D390" s="26" t="s">
         <v>997</v>
@@ -38181,10 +38293,10 @@
         <v>33</v>
       </c>
       <c r="F390" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>36</v>
@@ -38203,10 +38315,10 @@
       <c r="P390" s="9"/>
       <c r="Q390" s="8"/>
       <c r="R390" s="5" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="S390" s="5" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="T390" s="3" t="s">
         <v>33</v>
@@ -38215,37 +38327,37 @@
         <v>33</v>
       </c>
       <c r="V390" s="7">
-        <v>1.143883e6</v>
+        <v>1.489259e6</v>
       </c>
       <c r="W390" s="5" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="X390" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z390" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA390" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB390" s="10">
-        <v>200000</v>
+        <v>1500</v>
       </c>
       <c r="AC390" s="11">
-        <v>600000e-6</v>
+        <v>2</v>
       </c>
       <c r="AD390" s="11">
-        <v>600000e-6</v>
+        <v>2</v>
       </c>
       <c r="AE390" s="12">
-        <v>120000</v>
+        <v>3000</v>
       </c>
       <c r="AF390" s="12">
-        <v>120000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38256,7 +38368,7 @@
         <v>33</v>
       </c>
       <c r="C391" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D391" s="25" t="s">
         <v>997</v>
@@ -38265,10 +38377,10 @@
         <v>33</v>
       </c>
       <c r="F391" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>36</v>
@@ -38287,10 +38399,10 @@
       <c r="P391" s="19"/>
       <c r="Q391" s="18"/>
       <c r="R391" s="15" t="s">
-        <v>915</v>
+        <v>998</v>
       </c>
       <c r="S391" s="15" t="s">
-        <v>916</v>
+        <v>999</v>
       </c>
       <c r="T391" s="13" t="s">
         <v>33</v>
@@ -38299,37 +38411,37 @@
         <v>33</v>
       </c>
       <c r="V391" s="17">
-        <v>1.244515e6</v>
+        <v>1.489755e6</v>
       </c>
       <c r="W391" s="15" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="X391" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y391" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z391" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA391" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB391" s="21">
-        <v>50</v>
+        <v>1500</v>
       </c>
       <c r="AC391" s="22">
-        <v>20.1</v>
+        <v>9.43</v>
       </c>
       <c r="AD391" s="22">
-        <v>20.1</v>
+        <v>9.43</v>
       </c>
       <c r="AE391" s="23">
-        <v>1005</v>
+        <v>14145</v>
       </c>
       <c r="AF391" s="23">
-        <v>1005</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38340,7 +38452,7 @@
         <v>33</v>
       </c>
       <c r="C392" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D392" s="26" t="s">
         <v>997</v>
@@ -38349,10 +38461,10 @@
         <v>33</v>
       </c>
       <c r="F392" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H392" s="3" t="s">
         <v>36</v>
@@ -38371,10 +38483,10 @@
       <c r="P392" s="9"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="5" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S392" s="5" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T392" s="3" t="s">
         <v>33</v>
@@ -38383,37 +38495,37 @@
         <v>33</v>
       </c>
       <c r="V392" s="7">
-        <v>1.244108e6</v>
+        <v>1.490869e6</v>
       </c>
       <c r="W392" s="5" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="X392" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z392" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA392" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB392" s="10">
-        <v>90</v>
+        <v>2000</v>
       </c>
       <c r="AC392" s="11">
-        <v>358.24</v>
+        <v>7.9</v>
       </c>
       <c r="AD392" s="11">
-        <v>358.24</v>
+        <v>7.9</v>
       </c>
       <c r="AE392" s="12">
-        <v>32241.6</v>
+        <v>15800</v>
       </c>
       <c r="AF392" s="12">
-        <v>32241.6</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38424,7 +38536,7 @@
         <v>33</v>
       </c>
       <c r="C393" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D393" s="25" t="s">
         <v>997</v>
@@ -38433,10 +38545,10 @@
         <v>33</v>
       </c>
       <c r="F393" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>36</v>
@@ -38455,10 +38567,10 @@
       <c r="P393" s="19"/>
       <c r="Q393" s="18"/>
       <c r="R393" s="15" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S393" s="15" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T393" s="13" t="s">
         <v>33</v>
@@ -38467,37 +38579,37 @@
         <v>33</v>
       </c>
       <c r="V393" s="17">
-        <v>1.244507e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W393" s="15" t="s">
-        <v>1009</v>
+        <v>468</v>
       </c>
       <c r="X393" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y393" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z393" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA393" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB393" s="21">
-        <v>50</v>
+        <v>12650</v>
       </c>
       <c r="AC393" s="22">
-        <v>34.9</v>
+        <v>10.3</v>
       </c>
       <c r="AD393" s="22">
-        <v>34.9</v>
+        <v>10.3</v>
       </c>
       <c r="AE393" s="23">
-        <v>1745</v>
+        <v>130295</v>
       </c>
       <c r="AF393" s="23">
-        <v>1745</v>
+        <v>130295</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38508,7 +38620,7 @@
         <v>33</v>
       </c>
       <c r="C394" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D394" s="26" t="s">
         <v>997</v>
@@ -38517,10 +38629,10 @@
         <v>33</v>
       </c>
       <c r="F394" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H394" s="3" t="s">
         <v>36</v>
@@ -38539,10 +38651,10 @@
       <c r="P394" s="9"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="5" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S394" s="5" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T394" s="3" t="s">
         <v>33</v>
@@ -38551,37 +38663,37 @@
         <v>33</v>
       </c>
       <c r="V394" s="7">
-        <v>1.257587e6</v>
+        <v>1.514385e6</v>
       </c>
       <c r="W394" s="5" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="X394" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z394" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA394" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB394" s="10">
-        <v>80000</v>
+        <v>120</v>
       </c>
       <c r="AC394" s="11">
-        <v>390000e-6</v>
+        <v>17.4</v>
       </c>
       <c r="AD394" s="11">
-        <v>390000e-6</v>
+        <v>17.4</v>
       </c>
       <c r="AE394" s="12">
-        <v>31200</v>
+        <v>2088</v>
       </c>
       <c r="AF394" s="12">
-        <v>31200</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="395" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38592,7 +38704,7 @@
         <v>33</v>
       </c>
       <c r="C395" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D395" s="25" t="s">
         <v>997</v>
@@ -38601,10 +38713,10 @@
         <v>33</v>
       </c>
       <c r="F395" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>36</v>
@@ -38623,10 +38735,10 @@
       <c r="P395" s="19"/>
       <c r="Q395" s="18"/>
       <c r="R395" s="15" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S395" s="15" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T395" s="13" t="s">
         <v>33</v>
@@ -38635,37 +38747,37 @@
         <v>33</v>
       </c>
       <c r="V395" s="17">
-        <v>1.257625e6</v>
+        <v>1.517287e6</v>
       </c>
       <c r="W395" s="15" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="X395" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y395" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z395" s="15" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="AA395" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB395" s="21">
-        <v>90</v>
+        <v>1130</v>
       </c>
       <c r="AC395" s="22">
-        <v>351</v>
+        <v>21.3</v>
       </c>
       <c r="AD395" s="22">
-        <v>351</v>
+        <v>21.3</v>
       </c>
       <c r="AE395" s="23">
-        <v>31590</v>
+        <v>24069</v>
       </c>
       <c r="AF395" s="23">
-        <v>31590</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38676,7 +38788,7 @@
         <v>33</v>
       </c>
       <c r="C396" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D396" s="26" t="s">
         <v>997</v>
@@ -38685,10 +38797,10 @@
         <v>33</v>
       </c>
       <c r="F396" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>36</v>
@@ -38707,49 +38819,49 @@
       <c r="P396" s="9"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="S396" s="5" t="s">
+        <v>999</v>
+      </c>
+      <c r="T396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U396" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V396" s="7">
+        <v>1.527703e6</v>
+      </c>
+      <c r="W396" s="5" t="s">
         <v>1006</v>
       </c>
-      <c r="S396" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="T396" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U396" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V396" s="7">
-        <v>1.258699e6</v>
-      </c>
-      <c r="W396" s="5" t="s">
-        <v>1012</v>
-      </c>
       <c r="X396" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z396" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA396" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB396" s="10">
-        <v>2000</v>
+        <v>3400</v>
       </c>
       <c r="AC396" s="11">
-        <v>1.39</v>
+        <v>850000e-6</v>
       </c>
       <c r="AD396" s="11">
-        <v>1.39</v>
+        <v>850000e-6</v>
       </c>
       <c r="AE396" s="12">
-        <v>2780</v>
+        <v>2890</v>
       </c>
       <c r="AF396" s="12">
-        <v>2780</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38760,7 +38872,7 @@
         <v>33</v>
       </c>
       <c r="C397" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D397" s="25" t="s">
         <v>997</v>
@@ -38769,10 +38881,10 @@
         <v>33</v>
       </c>
       <c r="F397" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>36</v>
@@ -38791,49 +38903,49 @@
       <c r="P397" s="19"/>
       <c r="Q397" s="18"/>
       <c r="R397" s="15" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S397" s="15" t="s">
+        <v>999</v>
+      </c>
+      <c r="T397" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U397" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V397" s="17">
+        <v>1.568515e6</v>
+      </c>
+      <c r="W397" s="15" t="s">
         <v>1007</v>
       </c>
-      <c r="T397" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U397" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V397" s="17">
-        <v>1.259784e6</v>
-      </c>
-      <c r="W397" s="15" t="s">
-        <v>1013</v>
-      </c>
       <c r="X397" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y397" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z397" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA397" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB397" s="21">
-        <v>3000</v>
+        <v>9000</v>
       </c>
       <c r="AC397" s="22">
-        <v>600000e-6</v>
+        <v>880000e-6</v>
       </c>
       <c r="AD397" s="22">
-        <v>600000e-6</v>
+        <v>880000e-6</v>
       </c>
       <c r="AE397" s="23">
-        <v>1800</v>
+        <v>7920</v>
       </c>
       <c r="AF397" s="23">
-        <v>1800</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="398" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38844,7 +38956,7 @@
         <v>33</v>
       </c>
       <c r="C398" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D398" s="26" t="s">
         <v>997</v>
@@ -38853,10 +38965,10 @@
         <v>33</v>
       </c>
       <c r="F398" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>36</v>
@@ -38875,10 +38987,10 @@
       <c r="P398" s="9"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="5" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S398" s="5" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T398" s="3" t="s">
         <v>33</v>
@@ -38887,37 +38999,37 @@
         <v>33</v>
       </c>
       <c r="V398" s="7">
-        <v>1.259792e6</v>
+        <v>1.573985e6</v>
       </c>
       <c r="W398" s="5" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="X398" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z398" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA398" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB398" s="10">
-        <v>80</v>
+        <v>4500</v>
       </c>
       <c r="AC398" s="11">
-        <v>15.35</v>
+        <v>1.25</v>
       </c>
       <c r="AD398" s="11">
-        <v>15.35</v>
+        <v>1.25</v>
       </c>
       <c r="AE398" s="12">
-        <v>1228</v>
+        <v>5625</v>
       </c>
       <c r="AF398" s="12">
-        <v>1228</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38928,7 +39040,7 @@
         <v>33</v>
       </c>
       <c r="C399" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D399" s="25" t="s">
         <v>997</v>
@@ -38937,10 +39049,10 @@
         <v>33</v>
       </c>
       <c r="F399" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>36</v>
@@ -38959,10 +39071,10 @@
       <c r="P399" s="19"/>
       <c r="Q399" s="18"/>
       <c r="R399" s="15" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="S399" s="15" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="T399" s="13" t="s">
         <v>33</v>
@@ -38971,37 +39083,37 @@
         <v>33</v>
       </c>
       <c r="V399" s="17">
-        <v>1.260669e6</v>
+        <v>1.582194e6</v>
       </c>
       <c r="W399" s="15" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="X399" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y399" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z399" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA399" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB399" s="21">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC399" s="22">
-        <v>1.49</v>
+        <v>17.4</v>
       </c>
       <c r="AD399" s="22">
-        <v>1.49</v>
+        <v>17.4</v>
       </c>
       <c r="AE399" s="23">
-        <v>1490</v>
+        <v>835.2</v>
       </c>
       <c r="AF399" s="23">
-        <v>1490</v>
+        <v>835.2</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -39012,7 +39124,7 @@
         <v>33</v>
       </c>
       <c r="C400" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D400" s="26" t="s">
         <v>997</v>
@@ -39021,10 +39133,10 @@
         <v>33</v>
       </c>
       <c r="F400" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>36</v>
@@ -39043,10 +39155,10 @@
       <c r="P400" s="9"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="5" t="s">
-        <v>1006</v>
+        <v>1010</v>
       </c>
       <c r="S400" s="5" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="T400" s="3" t="s">
         <v>33</v>
@@ -39055,37 +39167,37 @@
         <v>33</v>
       </c>
       <c r="V400" s="7">
-        <v>1.260677e6</v>
+        <v>1.527525e6</v>
       </c>
       <c r="W400" s="5" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="X400" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z400" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA400" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB400" s="10">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC400" s="11">
-        <v>1.59</v>
+        <v>14.3</v>
       </c>
       <c r="AD400" s="11">
-        <v>1.59</v>
+        <v>14.3</v>
       </c>
       <c r="AE400" s="12">
-        <v>4770</v>
+        <v>14300</v>
       </c>
       <c r="AF400" s="12">
-        <v>4770</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="401" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -39096,7 +39208,7 @@
         <v>33</v>
       </c>
       <c r="C401" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D401" s="25" t="s">
         <v>997</v>
@@ -39105,10 +39217,10 @@
         <v>33</v>
       </c>
       <c r="F401" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>36</v>
@@ -39127,10 +39239,10 @@
       <c r="P401" s="19"/>
       <c r="Q401" s="18"/>
       <c r="R401" s="15" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="S401" s="15" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="T401" s="13" t="s">
         <v>33</v>
@@ -39139,37 +39251,37 @@
         <v>33</v>
       </c>
       <c r="V401" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W401" s="20" t="s">
-        <v>1017</v>
+        <v>1.513559e6</v>
+      </c>
+      <c r="W401" s="15" t="s">
+        <v>1015</v>
       </c>
       <c r="X401" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y401" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z401" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA401" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB401" s="21">
-        <v>60</v>
+        <v>502</v>
       </c>
       <c r="AC401" s="22">
-        <v>271.97</v>
+        <v>13.9</v>
       </c>
       <c r="AD401" s="22">
-        <v>271.97</v>
+        <v>13.9</v>
       </c>
       <c r="AE401" s="23">
-        <v>16318.2</v>
+        <v>6977.8</v>
       </c>
       <c r="AF401" s="23">
-        <v>16318.2</v>
+        <v>6977.8</v>
       </c>
     </row>
     <row r="402" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -39180,7 +39292,7 @@
         <v>33</v>
       </c>
       <c r="C402" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D402" s="26" t="s">
         <v>997</v>
@@ -39189,10 +39301,10 @@
         <v>33</v>
       </c>
       <c r="F402" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H402" s="3" t="s">
         <v>36</v>
@@ -39211,10 +39323,10 @@
       <c r="P402" s="9"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="5" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="S402" s="5" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="T402" s="3" t="s">
         <v>33</v>
@@ -39223,37 +39335,37 @@
         <v>33</v>
       </c>
       <c r="V402" s="7">
-        <v>1.687115e6</v>
+        <v>1.51421e6</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="X402" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z402" s="5" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA402" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB402" s="10">
-        <v>60</v>
+        <v>502</v>
       </c>
       <c r="AC402" s="11">
-        <v>16.65</v>
+        <v>8.55</v>
       </c>
       <c r="AD402" s="11">
-        <v>16.65</v>
+        <v>8.55</v>
       </c>
       <c r="AE402" s="12">
-        <v>999</v>
+        <v>4292.1</v>
       </c>
       <c r="AF402" s="12">
-        <v>999</v>
+        <v>4292.1</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -39264,7 +39376,7 @@
         <v>33</v>
       </c>
       <c r="C403" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D403" s="25" t="s">
         <v>997</v>
@@ -39273,10 +39385,10 @@
         <v>33</v>
       </c>
       <c r="F403" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>36</v>
@@ -39285,20 +39397,34 @@
         <v>37</v>
       </c>
       <c r="J403" s="17">
-        <v>0</v>
-      </c>
-      <c r="K403" s="15"/>
-      <c r="L403" s="17"/>
-      <c r="M403" s="15"/>
-      <c r="N403" s="18"/>
-      <c r="O403" s="18"/>
-      <c r="P403" s="19"/>
-      <c r="Q403" s="18"/>
+        <v>9.261504e6</v>
+      </c>
+      <c r="K403" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L403" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M403" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N403" s="18">
+        <v>44084</v>
+      </c>
+      <c r="O403" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P403" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q403" s="18">
+        <v>44264</v>
+      </c>
       <c r="R403" s="15" t="s">
-        <v>1019</v>
+        <v>496</v>
       </c>
       <c r="S403" s="15" t="s">
-        <v>1020</v>
+        <v>497</v>
       </c>
       <c r="T403" s="13" t="s">
         <v>33</v>
@@ -39307,60 +39433,60 @@
         <v>33</v>
       </c>
       <c r="V403" s="17">
-        <v>1.257463e6</v>
+        <v>1.487779e6</v>
       </c>
       <c r="W403" s="15" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="X403" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y403" s="15" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z403" s="15" t="s">
-        <v>580</v>
+        <v>339</v>
       </c>
       <c r="AA403" s="13" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB403" s="21">
-        <v>200</v>
+        <v>1130</v>
       </c>
       <c r="AC403" s="22">
-        <v>34.2</v>
+        <v>22.27</v>
       </c>
       <c r="AD403" s="22">
-        <v>34.2</v>
+        <v>22.27</v>
       </c>
       <c r="AE403" s="23">
-        <v>6840</v>
+        <v>25165.1</v>
       </c>
       <c r="AF403" s="23">
-        <v>6840</v>
+        <v>25165.1</v>
       </c>
     </row>
     <row r="404" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A404" s="3" t="s">
-        <v>1022</v>
+        <v>996</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C404" s="4">
-        <v>44012</v>
-      </c>
-      <c r="D404" s="5" t="s">
-        <v>1023</v>
+        <v>44063</v>
+      </c>
+      <c r="D404" s="26" t="s">
+        <v>997</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F404" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="H404" s="3" t="s">
         <v>36</v>
@@ -39369,20 +39495,34 @@
         <v>37</v>
       </c>
       <c r="J404" s="7">
-        <v>0</v>
-      </c>
-      <c r="K404" s="5"/>
-      <c r="L404" s="7"/>
-      <c r="M404" s="5"/>
-      <c r="N404" s="8"/>
-      <c r="O404" s="8"/>
-      <c r="P404" s="9"/>
-      <c r="Q404" s="8"/>
+        <v>9.261504e6</v>
+      </c>
+      <c r="K404" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L404" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M404" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N404" s="8">
+        <v>44084</v>
+      </c>
+      <c r="O404" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P404" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q404" s="8">
+        <v>44264</v>
+      </c>
       <c r="R404" s="5" t="s">
-        <v>540</v>
+        <v>496</v>
       </c>
       <c r="S404" s="5" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="T404" s="3" t="s">
         <v>33</v>
@@ -39391,138 +39531,2560 @@
         <v>33</v>
       </c>
       <c r="V404" s="7">
-        <v>1.408623e6</v>
+        <v>1.512285e6</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1024</v>
+        <v>499</v>
       </c>
       <c r="X404" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="Z404" s="5" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="AA404" s="3" t="s">
-        <v>557</v>
+        <v>972</v>
       </c>
       <c r="AB404" s="10">
-        <v>2000</v>
+        <v>250</v>
       </c>
       <c r="AC404" s="11">
-        <v>18.69</v>
+        <v>69.9</v>
       </c>
       <c r="AD404" s="11">
-        <v>14.95</v>
+        <v>69.9</v>
       </c>
       <c r="AE404" s="12">
-        <v>37380</v>
+        <v>17475</v>
       </c>
       <c r="AF404" s="12">
-        <v>29900</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A405" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B405" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C405" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D405" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E405" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F405" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G405" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H405" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I405" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J405" s="17">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K405" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L405" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M405" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N405" s="18">
+        <v>44084</v>
+      </c>
+      <c r="O405" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P405" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q405" s="18">
+        <v>44264</v>
+      </c>
+      <c r="R405" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="S405" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="T405" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U405" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V405" s="17">
+        <v>1.512293e6</v>
+      </c>
+      <c r="W405" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="X405" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y405" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z405" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA405" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB405" s="21">
+        <v>900</v>
+      </c>
+      <c r="AC405" s="22">
+        <v>13.76</v>
+      </c>
+      <c r="AD405" s="22">
+        <v>13.76</v>
+      </c>
+      <c r="AE405" s="23">
+        <v>12384</v>
+      </c>
+      <c r="AF405" s="23">
+        <v>12384</v>
+      </c>
+    </row>
+    <row r="406" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A406" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C406" s="4">
+        <v>44063</v>
+      </c>
+      <c r="D406" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E406" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F406" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J406" s="7">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K406" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L406" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M406" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N406" s="8">
+        <v>44084</v>
+      </c>
+      <c r="O406" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P406" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q406" s="8">
+        <v>44264</v>
+      </c>
+      <c r="R406" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="S406" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="T406" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U406" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V406" s="7">
+        <v>1.512552e6</v>
+      </c>
+      <c r="W406" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="X406" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y406" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z406" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA406" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB406" s="10">
+        <v>4000</v>
+      </c>
+      <c r="AC406" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="AD406" s="11">
+        <v>6.9</v>
+      </c>
+      <c r="AE406" s="12">
+        <v>27600</v>
+      </c>
+      <c r="AF406" s="12">
+        <v>27600</v>
+      </c>
+    </row>
+    <row r="407" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A407" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B407" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C407" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D407" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E407" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F407" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G407" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H407" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I407" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J407" s="17">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K407" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L407" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M407" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N407" s="18">
+        <v>44084</v>
+      </c>
+      <c r="O407" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P407" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q407" s="18">
+        <v>44264</v>
+      </c>
+      <c r="R407" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="S407" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="T407" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U407" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V407" s="17">
+        <v>1.512897e6</v>
+      </c>
+      <c r="W407" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="X407" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y407" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z407" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA407" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB407" s="21">
+        <v>2000</v>
+      </c>
+      <c r="AC407" s="22">
+        <v>13.54</v>
+      </c>
+      <c r="AD407" s="22">
+        <v>13.54</v>
+      </c>
+      <c r="AE407" s="23">
+        <v>27080</v>
+      </c>
+      <c r="AF407" s="23">
+        <v>27080</v>
+      </c>
+    </row>
+    <row r="408" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A408" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C408" s="4">
+        <v>44063</v>
+      </c>
+      <c r="D408" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E408" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F408" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J408" s="7">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K408" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L408" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M408" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N408" s="8">
+        <v>44084</v>
+      </c>
+      <c r="O408" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P408" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q408" s="8">
+        <v>44264</v>
+      </c>
+      <c r="R408" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="S408" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="T408" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U408" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V408" s="7">
+        <v>1.525662e6</v>
+      </c>
+      <c r="W408" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="X408" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y408" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z408" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA408" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB408" s="10">
+        <v>250</v>
+      </c>
+      <c r="AC408" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="AD408" s="11">
+        <v>20.5</v>
+      </c>
+      <c r="AE408" s="12">
+        <v>5125</v>
+      </c>
+      <c r="AF408" s="12">
+        <v>5125</v>
+      </c>
+    </row>
+    <row r="409" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A409" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B409" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C409" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D409" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E409" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F409" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G409" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H409" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I409" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J409" s="17">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K409" s="15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L409" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M409" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N409" s="18">
+        <v>44084</v>
+      </c>
+      <c r="O409" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P409" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q409" s="18">
+        <v>44264</v>
+      </c>
+      <c r="R409" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="S409" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="T409" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U409" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V409" s="17">
+        <v>1.525689e6</v>
+      </c>
+      <c r="W409" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="X409" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y409" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z409" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA409" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB409" s="21">
+        <v>1300</v>
+      </c>
+      <c r="AC409" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="AD409" s="22">
+        <v>7.5</v>
+      </c>
+      <c r="AE409" s="23">
+        <v>9750</v>
+      </c>
+      <c r="AF409" s="23">
+        <v>9750</v>
+      </c>
+    </row>
+    <row r="410" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A410" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C410" s="4">
+        <v>44063</v>
+      </c>
+      <c r="D410" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F410" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J410" s="7">
+        <v>9.261504e6</v>
+      </c>
+      <c r="K410" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="L410" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M410" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N410" s="8">
+        <v>44084</v>
+      </c>
+      <c r="O410" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P410" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q410" s="8">
+        <v>44264</v>
+      </c>
+      <c r="R410" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="S410" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="T410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U410" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V410" s="7">
+        <v>1.525727e6</v>
+      </c>
+      <c r="W410" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X410" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y410" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z410" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA410" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB410" s="10">
+        <v>3700</v>
+      </c>
+      <c r="AC410" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="AD410" s="11">
+        <v>14.1</v>
+      </c>
+      <c r="AE410" s="12">
+        <v>52170</v>
+      </c>
+      <c r="AF410" s="12">
+        <v>52170</v>
+      </c>
+    </row>
+    <row r="411" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A411" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B411" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C411" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D411" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E411" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F411" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G411" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H411" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I411" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J411" s="17">
+        <v>9.261506e6</v>
+      </c>
+      <c r="K411" s="15" t="s">
+        <v>1021</v>
+      </c>
+      <c r="L411" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M411" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N411" s="18">
+        <v>44085</v>
+      </c>
+      <c r="O411" s="18">
+        <v>44085</v>
+      </c>
+      <c r="P411" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q411" s="18">
+        <v>44265</v>
+      </c>
+      <c r="R411" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="S411" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="T411" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U411" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V411" s="17">
+        <v>1.487264e6</v>
+      </c>
+      <c r="W411" s="15" t="s">
+        <v>1022</v>
+      </c>
+      <c r="X411" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y411" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z411" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA411" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB411" s="21">
+        <v>5600</v>
+      </c>
+      <c r="AC411" s="22">
+        <v>1.899</v>
+      </c>
+      <c r="AD411" s="22">
+        <v>1.899</v>
+      </c>
+      <c r="AE411" s="23">
+        <v>10634.4</v>
+      </c>
+      <c r="AF411" s="23">
+        <v>10634.4</v>
+      </c>
+    </row>
+    <row r="412" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A412" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C412" s="4">
+        <v>44063</v>
+      </c>
+      <c r="D412" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F412" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J412" s="7">
+        <v>9.261509e6</v>
+      </c>
+      <c r="K412" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L412" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M412" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N412" s="8">
+        <v>44085</v>
+      </c>
+      <c r="O412" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P412" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q412" s="8">
+        <v>44264</v>
+      </c>
+      <c r="R412" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S412" s="5" t="s">
         <v>1025</v>
       </c>
-      <c r="B405" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C405" s="14">
+      <c r="T412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U412" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V412" s="7">
+        <v>1.523619e6</v>
+      </c>
+      <c r="W412" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="X412" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y412" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z412" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA412" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB412" s="10">
+        <v>4300</v>
+      </c>
+      <c r="AC412" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="AD412" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="AE412" s="12">
+        <v>54610</v>
+      </c>
+      <c r="AF412" s="12">
+        <v>54610</v>
+      </c>
+    </row>
+    <row r="413" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A413" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B413" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C413" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D413" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E413" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F413" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G413" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H413" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I413" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J413" s="17">
+        <v>9.261509e6</v>
+      </c>
+      <c r="K413" s="15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L413" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M413" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N413" s="18">
+        <v>44085</v>
+      </c>
+      <c r="O413" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P413" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q413" s="18">
+        <v>44264</v>
+      </c>
+      <c r="R413" s="15" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S413" s="15" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T413" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U413" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V413" s="17">
+        <v>1.523775e6</v>
+      </c>
+      <c r="W413" s="15" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X413" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y413" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z413" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA413" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB413" s="21">
+        <v>1900</v>
+      </c>
+      <c r="AC413" s="22">
+        <v>35</v>
+      </c>
+      <c r="AD413" s="22">
+        <v>35</v>
+      </c>
+      <c r="AE413" s="23">
+        <v>66500</v>
+      </c>
+      <c r="AF413" s="23">
+        <v>66500</v>
+      </c>
+    </row>
+    <row r="414" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A414" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C414" s="4">
+        <v>44063</v>
+      </c>
+      <c r="D414" s="26" t="s">
+        <v>997</v>
+      </c>
+      <c r="E414" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F414" s="6">
+        <v>2310</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J414" s="7">
+        <v>9.261509e6</v>
+      </c>
+      <c r="K414" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L414" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M414" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N414" s="8">
+        <v>44085</v>
+      </c>
+      <c r="O414" s="8">
+        <v>44084</v>
+      </c>
+      <c r="P414" s="9">
+        <v>44449</v>
+      </c>
+      <c r="Q414" s="8">
+        <v>44264</v>
+      </c>
+      <c r="R414" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S414" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V414" s="7">
+        <v>1.5245e6</v>
+      </c>
+      <c r="W414" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="X414" s="7">
+        <v>2311</v>
+      </c>
+      <c r="Y414" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z414" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA414" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB414" s="10">
+        <v>2400</v>
+      </c>
+      <c r="AC414" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AD414" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AE414" s="12">
+        <v>10800</v>
+      </c>
+      <c r="AF414" s="12">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="415" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A415" s="13" t="s">
+        <v>996</v>
+      </c>
+      <c r="B415" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C415" s="14">
+        <v>44063</v>
+      </c>
+      <c r="D415" s="25" t="s">
+        <v>997</v>
+      </c>
+      <c r="E415" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F415" s="16">
+        <v>2310</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>969</v>
+      </c>
+      <c r="H415" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I415" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J415" s="17">
+        <v>9.261535e6</v>
+      </c>
+      <c r="K415" s="15" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L415" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M415" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="N415" s="18">
+        <v>44088</v>
+      </c>
+      <c r="O415" s="18">
+        <v>44088</v>
+      </c>
+      <c r="P415" s="19">
+        <v>44450</v>
+      </c>
+      <c r="Q415" s="18">
+        <v>44268</v>
+      </c>
+      <c r="R415" s="15" t="s">
+        <v>1030</v>
+      </c>
+      <c r="S415" s="15" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T415" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U415" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V415" s="17">
+        <v>1.527878e6</v>
+      </c>
+      <c r="W415" s="15" t="s">
+        <v>1032</v>
+      </c>
+      <c r="X415" s="17">
+        <v>2311</v>
+      </c>
+      <c r="Y415" s="15" t="s">
+        <v>969</v>
+      </c>
+      <c r="Z415" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA415" s="13" t="s">
+        <v>972</v>
+      </c>
+      <c r="AB415" s="21">
+        <v>500</v>
+      </c>
+      <c r="AC415" s="22">
+        <v>22.95</v>
+      </c>
+      <c r="AD415" s="22">
+        <v>22.95</v>
+      </c>
+      <c r="AE415" s="23">
+        <v>11475</v>
+      </c>
+      <c r="AF415" s="23">
+        <v>11475</v>
+      </c>
+    </row>
+    <row r="416" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A416" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C416" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D416" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E416" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F416" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J416" s="7">
+        <v>0</v>
+      </c>
+      <c r="K416" s="5"/>
+      <c r="L416" s="7"/>
+      <c r="M416" s="5"/>
+      <c r="N416" s="8"/>
+      <c r="O416" s="8"/>
+      <c r="P416" s="9"/>
+      <c r="Q416" s="8"/>
+      <c r="R416" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="S416" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="T416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V416" s="7">
+        <v>1.692143e6</v>
+      </c>
+      <c r="W416" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="X416" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y416" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z416" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="AA416" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB416" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AC416" s="11">
+        <v>8.2</v>
+      </c>
+      <c r="AD416" s="11">
+        <v>8.2</v>
+      </c>
+      <c r="AE416" s="12">
+        <v>24600</v>
+      </c>
+      <c r="AF416" s="12">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="417" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A417" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B417" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C417" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D417" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E417" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F417" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G417" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H417" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I417" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J417" s="17">
+        <v>0</v>
+      </c>
+      <c r="K417" s="15"/>
+      <c r="L417" s="17"/>
+      <c r="M417" s="15"/>
+      <c r="N417" s="18"/>
+      <c r="O417" s="18"/>
+      <c r="P417" s="19"/>
+      <c r="Q417" s="18"/>
+      <c r="R417" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="S417" s="15" t="s">
+        <v>1040</v>
+      </c>
+      <c r="T417" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U417" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V417" s="17">
+        <v>1.143883e6</v>
+      </c>
+      <c r="W417" s="15" t="s">
+        <v>1041</v>
+      </c>
+      <c r="X417" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y417" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z417" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA417" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB417" s="21">
+        <v>200000</v>
+      </c>
+      <c r="AC417" s="22">
+        <v>600000e-6</v>
+      </c>
+      <c r="AD417" s="22">
+        <v>600000e-6</v>
+      </c>
+      <c r="AE417" s="23">
+        <v>120000</v>
+      </c>
+      <c r="AF417" s="23">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="418" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A418" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C418" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D418" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E418" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F418" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J418" s="7">
+        <v>0</v>
+      </c>
+      <c r="K418" s="5"/>
+      <c r="L418" s="7"/>
+      <c r="M418" s="5"/>
+      <c r="N418" s="8"/>
+      <c r="O418" s="8"/>
+      <c r="P418" s="9"/>
+      <c r="Q418" s="8"/>
+      <c r="R418" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="S418" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="T418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U418" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V418" s="7">
+        <v>1.244515e6</v>
+      </c>
+      <c r="W418" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="X418" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y418" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z418" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA418" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB418" s="10">
+        <v>50</v>
+      </c>
+      <c r="AC418" s="11">
+        <v>20.1</v>
+      </c>
+      <c r="AD418" s="11">
+        <v>20.1</v>
+      </c>
+      <c r="AE418" s="12">
+        <v>1005</v>
+      </c>
+      <c r="AF418" s="12">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="419" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A419" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B419" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C419" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D419" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E419" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F419" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G419" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H419" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I419" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J419" s="17">
+        <v>0</v>
+      </c>
+      <c r="K419" s="15"/>
+      <c r="L419" s="17"/>
+      <c r="M419" s="15"/>
+      <c r="N419" s="18"/>
+      <c r="O419" s="18"/>
+      <c r="P419" s="19"/>
+      <c r="Q419" s="18"/>
+      <c r="R419" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S419" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T419" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U419" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V419" s="17">
+        <v>1.244108e6</v>
+      </c>
+      <c r="W419" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="X419" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y419" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z419" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA419" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB419" s="21">
+        <v>90</v>
+      </c>
+      <c r="AC419" s="22">
+        <v>358.24</v>
+      </c>
+      <c r="AD419" s="22">
+        <v>358.24</v>
+      </c>
+      <c r="AE419" s="23">
+        <v>32241.6</v>
+      </c>
+      <c r="AF419" s="23">
+        <v>32241.6</v>
+      </c>
+    </row>
+    <row r="420" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A420" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C420" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D420" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F420" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J420" s="7">
+        <v>0</v>
+      </c>
+      <c r="K420" s="5"/>
+      <c r="L420" s="7"/>
+      <c r="M420" s="5"/>
+      <c r="N420" s="8"/>
+      <c r="O420" s="8"/>
+      <c r="P420" s="9"/>
+      <c r="Q420" s="8"/>
+      <c r="R420" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S420" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T420" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U420" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V420" s="7">
+        <v>1.244507e6</v>
+      </c>
+      <c r="W420" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="X420" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y420" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z420" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA420" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB420" s="10">
+        <v>50</v>
+      </c>
+      <c r="AC420" s="11">
+        <v>34.9</v>
+      </c>
+      <c r="AD420" s="11">
+        <v>34.9</v>
+      </c>
+      <c r="AE420" s="12">
+        <v>1745</v>
+      </c>
+      <c r="AF420" s="12">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="421" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A421" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B421" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C421" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D421" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E421" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F421" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G421" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H421" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I421" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J421" s="17">
+        <v>0</v>
+      </c>
+      <c r="K421" s="15"/>
+      <c r="L421" s="17"/>
+      <c r="M421" s="15"/>
+      <c r="N421" s="18"/>
+      <c r="O421" s="18"/>
+      <c r="P421" s="19"/>
+      <c r="Q421" s="18"/>
+      <c r="R421" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S421" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T421" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U421" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V421" s="17">
+        <v>1.257587e6</v>
+      </c>
+      <c r="W421" s="15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="X421" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y421" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z421" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA421" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB421" s="21">
+        <v>80000</v>
+      </c>
+      <c r="AC421" s="22">
+        <v>390000e-6</v>
+      </c>
+      <c r="AD421" s="22">
+        <v>390000e-6</v>
+      </c>
+      <c r="AE421" s="23">
+        <v>31200</v>
+      </c>
+      <c r="AF421" s="23">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="422" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A422" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C422" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D422" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F422" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J422" s="7">
+        <v>0</v>
+      </c>
+      <c r="K422" s="5"/>
+      <c r="L422" s="7"/>
+      <c r="M422" s="5"/>
+      <c r="N422" s="8"/>
+      <c r="O422" s="8"/>
+      <c r="P422" s="9"/>
+      <c r="Q422" s="8"/>
+      <c r="R422" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S422" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U422" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V422" s="7">
+        <v>1.257625e6</v>
+      </c>
+      <c r="W422" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="X422" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y422" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z422" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="AA422" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB422" s="10">
+        <v>90</v>
+      </c>
+      <c r="AC422" s="11">
+        <v>351</v>
+      </c>
+      <c r="AD422" s="11">
+        <v>351</v>
+      </c>
+      <c r="AE422" s="12">
+        <v>31590</v>
+      </c>
+      <c r="AF422" s="12">
+        <v>31590</v>
+      </c>
+    </row>
+    <row r="423" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A423" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B423" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C423" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D423" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E423" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F423" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G423" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H423" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I423" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J423" s="17">
+        <v>0</v>
+      </c>
+      <c r="K423" s="15"/>
+      <c r="L423" s="17"/>
+      <c r="M423" s="15"/>
+      <c r="N423" s="18"/>
+      <c r="O423" s="18"/>
+      <c r="P423" s="19"/>
+      <c r="Q423" s="18"/>
+      <c r="R423" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S423" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T423" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U423" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V423" s="17">
+        <v>1.258699e6</v>
+      </c>
+      <c r="W423" s="15" t="s">
+        <v>1049</v>
+      </c>
+      <c r="X423" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y423" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z423" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA423" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB423" s="21">
+        <v>2000</v>
+      </c>
+      <c r="AC423" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="AD423" s="22">
+        <v>1.39</v>
+      </c>
+      <c r="AE423" s="23">
+        <v>2780</v>
+      </c>
+      <c r="AF423" s="23">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="424" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A424" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C424" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D424" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E424" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F424" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J424" s="7">
+        <v>0</v>
+      </c>
+      <c r="K424" s="5"/>
+      <c r="L424" s="7"/>
+      <c r="M424" s="5"/>
+      <c r="N424" s="8"/>
+      <c r="O424" s="8"/>
+      <c r="P424" s="9"/>
+      <c r="Q424" s="8"/>
+      <c r="R424" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S424" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U424" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V424" s="7">
+        <v>1.259784e6</v>
+      </c>
+      <c r="W424" s="5" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X424" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y424" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z424" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA424" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB424" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AC424" s="11">
+        <v>600000e-6</v>
+      </c>
+      <c r="AD424" s="11">
+        <v>600000e-6</v>
+      </c>
+      <c r="AE424" s="12">
+        <v>1800</v>
+      </c>
+      <c r="AF424" s="12">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="425" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A425" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B425" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C425" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D425" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E425" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F425" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H425" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I425" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J425" s="17">
+        <v>0</v>
+      </c>
+      <c r="K425" s="15"/>
+      <c r="L425" s="17"/>
+      <c r="M425" s="15"/>
+      <c r="N425" s="18"/>
+      <c r="O425" s="18"/>
+      <c r="P425" s="19"/>
+      <c r="Q425" s="18"/>
+      <c r="R425" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S425" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T425" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U425" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V425" s="17">
+        <v>1.259792e6</v>
+      </c>
+      <c r="W425" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="X425" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y425" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z425" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA425" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB425" s="21">
+        <v>80</v>
+      </c>
+      <c r="AC425" s="22">
+        <v>15.35</v>
+      </c>
+      <c r="AD425" s="22">
+        <v>15.35</v>
+      </c>
+      <c r="AE425" s="23">
+        <v>1228</v>
+      </c>
+      <c r="AF425" s="23">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="426" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A426" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C426" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D426" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E426" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F426" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J426" s="7">
+        <v>0</v>
+      </c>
+      <c r="K426" s="5"/>
+      <c r="L426" s="7"/>
+      <c r="M426" s="5"/>
+      <c r="N426" s="8"/>
+      <c r="O426" s="8"/>
+      <c r="P426" s="9"/>
+      <c r="Q426" s="8"/>
+      <c r="R426" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S426" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T426" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U426" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V426" s="7">
+        <v>1.260669e6</v>
+      </c>
+      <c r="W426" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="X426" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y426" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z426" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA426" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB426" s="10">
+        <v>1000</v>
+      </c>
+      <c r="AC426" s="11">
+        <v>1.49</v>
+      </c>
+      <c r="AD426" s="11">
+        <v>1.49</v>
+      </c>
+      <c r="AE426" s="12">
+        <v>1490</v>
+      </c>
+      <c r="AF426" s="12">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="427" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A427" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B427" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C427" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D427" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E427" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F427" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G427" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H427" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I427" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J427" s="17">
+        <v>0</v>
+      </c>
+      <c r="K427" s="15"/>
+      <c r="L427" s="17"/>
+      <c r="M427" s="15"/>
+      <c r="N427" s="18"/>
+      <c r="O427" s="18"/>
+      <c r="P427" s="19"/>
+      <c r="Q427" s="18"/>
+      <c r="R427" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S427" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T427" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U427" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V427" s="17">
+        <v>1.260677e6</v>
+      </c>
+      <c r="W427" s="15" t="s">
+        <v>1053</v>
+      </c>
+      <c r="X427" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y427" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z427" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA427" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB427" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AC427" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AD427" s="22">
+        <v>1.59</v>
+      </c>
+      <c r="AE427" s="23">
+        <v>4770</v>
+      </c>
+      <c r="AF427" s="23">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="428" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A428" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C428" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D428" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E428" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F428" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J428" s="7">
+        <v>0</v>
+      </c>
+      <c r="K428" s="5"/>
+      <c r="L428" s="7"/>
+      <c r="M428" s="5"/>
+      <c r="N428" s="8"/>
+      <c r="O428" s="8"/>
+      <c r="P428" s="9"/>
+      <c r="Q428" s="8"/>
+      <c r="R428" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S428" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T428" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U428" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V428" s="7">
+        <v>1.260731e6</v>
+      </c>
+      <c r="W428" s="24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="X428" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y428" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z428" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA428" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB428" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC428" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AD428" s="11">
+        <v>271.97</v>
+      </c>
+      <c r="AE428" s="12">
+        <v>16318.2</v>
+      </c>
+      <c r="AF428" s="12">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="429" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A429" s="13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B429" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C429" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D429" s="25" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E429" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F429" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G429" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H429" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I429" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J429" s="17">
+        <v>0</v>
+      </c>
+      <c r="K429" s="15"/>
+      <c r="L429" s="17"/>
+      <c r="M429" s="15"/>
+      <c r="N429" s="18"/>
+      <c r="O429" s="18"/>
+      <c r="P429" s="19"/>
+      <c r="Q429" s="18"/>
+      <c r="R429" s="15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="S429" s="15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="T429" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U429" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V429" s="17">
+        <v>1.687115e6</v>
+      </c>
+      <c r="W429" s="15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="X429" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y429" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z429" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA429" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB429" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC429" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD429" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE429" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF429" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="430" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A430" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C430" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D430" s="26" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F430" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J430" s="7">
+        <v>0</v>
+      </c>
+      <c r="K430" s="5"/>
+      <c r="L430" s="7"/>
+      <c r="M430" s="5"/>
+      <c r="N430" s="8"/>
+      <c r="O430" s="8"/>
+      <c r="P430" s="9"/>
+      <c r="Q430" s="8"/>
+      <c r="R430" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="S430" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="T430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U430" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V430" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W430" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="X430" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y430" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z430" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA430" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB430" s="10">
+        <v>200</v>
+      </c>
+      <c r="AC430" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AD430" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AE430" s="12">
+        <v>6840</v>
+      </c>
+      <c r="AF430" s="12">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="431" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A431" s="13" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B431" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C431" s="14">
+        <v>44012</v>
+      </c>
+      <c r="D431" s="15" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E431" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F431" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G431" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H431" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I431" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J431" s="17">
+        <v>0</v>
+      </c>
+      <c r="K431" s="15"/>
+      <c r="L431" s="17"/>
+      <c r="M431" s="15"/>
+      <c r="N431" s="18"/>
+      <c r="O431" s="18"/>
+      <c r="P431" s="19"/>
+      <c r="Q431" s="18"/>
+      <c r="R431" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="S431" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="T431" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U431" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V431" s="17">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W431" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="X431" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y431" s="15" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z431" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA431" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB431" s="21">
+        <v>2000</v>
+      </c>
+      <c r="AC431" s="22">
+        <v>18.69</v>
+      </c>
+      <c r="AD431" s="22">
+        <v>14.95</v>
+      </c>
+      <c r="AE431" s="23">
+        <v>37380</v>
+      </c>
+      <c r="AF431" s="23">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="432" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A432" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C432" s="4">
         <v>44034</v>
       </c>
-      <c r="D405" s="25" t="s">
-        <v>1026</v>
-      </c>
-      <c r="E405" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F405" s="16">
+      <c r="D432" s="26" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E432" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F432" s="6">
         <v>2320</v>
       </c>
-      <c r="G405" s="13" t="s">
-        <v>998</v>
-      </c>
-      <c r="H405" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I405" s="13" t="s">
-        <v>1027</v>
-      </c>
-      <c r="J405" s="17">
+      <c r="G432" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J432" s="7">
         <v>9.260962e6</v>
       </c>
-      <c r="K405" s="15" t="s">
-        <v>1028</v>
-      </c>
-      <c r="L405" s="17">
+      <c r="K432" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="L432" s="7">
         <v>2320</v>
       </c>
-      <c r="M405" s="15" t="s">
-        <v>998</v>
-      </c>
-      <c r="N405" s="18">
+      <c r="M432" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="N432" s="8">
         <v>44056</v>
       </c>
-      <c r="O405" s="18">
+      <c r="O432" s="8">
         <v>44056</v>
       </c>
-      <c r="P405" s="19">
+      <c r="P432" s="9">
         <v>44240</v>
       </c>
-      <c r="Q405" s="18">
+      <c r="Q432" s="8">
         <v>44240</v>
       </c>
-      <c r="R405" s="15" t="s">
+      <c r="R432" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="S405" s="15" t="s">
+      <c r="S432" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="T405" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U405" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V405" s="17">
+      <c r="T432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V432" s="7">
         <v>1.758276e6</v>
       </c>
-      <c r="W405" s="15" t="s">
+      <c r="W432" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="X405" s="17">
+      <c r="X432" s="7">
         <v>2321</v>
       </c>
-      <c r="Y405" s="15" t="s">
-        <v>1001</v>
-      </c>
-      <c r="Z405" s="15" t="s">
+      <c r="Y432" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="Z432" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="AA405" s="13" t="s">
+      <c r="AA432" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB405" s="21">
+      <c r="AB432" s="10">
         <v>7000</v>
       </c>
-      <c r="AC405" s="22">
+      <c r="AC432" s="11">
         <v>34.54</v>
       </c>
-      <c r="AD405" s="22">
+      <c r="AD432" s="11">
         <v>34.536</v>
       </c>
-      <c r="AE405" s="23">
+      <c r="AE432" s="12">
         <v>241780</v>
       </c>
-      <c r="AF405" s="23">
+      <c r="AF432" s="12">
         <v>241752</v>
       </c>
     </row>
-    <row r="406" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="433" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6820" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6835" uniqueCount="1070">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -370,7 +370,7 @@
     <t>52.202.744/0001-92</t>
   </si>
   <si>
-    <t>Nacional Comercial Hospitalar S.A</t>
+    <t>NACIONAL COMERCIAL HOSPITALAR S/A</t>
   </si>
   <si>
     <t>TIRAS REAGENTES - TIPO: REAGENTES; FINALIDADE: PESQUISA DE GLICEMIA;</t>
@@ -2694,7 +2694,7 @@
     <t>59.717.553/0006-17</t>
   </si>
   <si>
-    <t>MULTILASER INDUSTRIAL S/A</t>
+    <t>MULTILASER INDUSTRIAL S.A.</t>
   </si>
   <si>
     <t>TERMOMETRO USO CLINICO - MATERIA-PRIMA: PLASTICO; TIPO: AURICULAR OU POR APROXIMACAO A TESTA; GRADUACAO: ENTRE 32 A 33ºC (MINIMO); ENTRE 42 A 44ºC (MAXIMO);</t>
@@ -2767,6 +2767,18 @@
   </si>
   <si>
     <t>DISTRIBUIR COMERCIO EIRELI - EPP</t>
+  </si>
+  <si>
+    <t>2121022 000045/2020</t>
+  </si>
+  <si>
+    <t>Aquisição de tapetes sanitizantes para a prevenção da COVID-19 para os funcionários que realizam atividades essenciais.</t>
+  </si>
+  <si>
+    <t>TAPETE - MATERIA-PRIMA: VINIL SINTETICO - PVC; ESPESSURA: MINIMA DE 10 MM; COR: PRETA;</t>
+  </si>
+  <si>
+    <t>TAPETES, CORTINAS, TOLDOS, PERSIANAS E COMPONENTES</t>
   </si>
   <si>
     <t>2261032 000112/2020</t>
@@ -3411,7 +3423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF433"/>
+  <dimension ref="A1:AF434"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -35602,7 +35614,7 @@
         <v>33</v>
       </c>
       <c r="C361" s="14">
-        <v>43920</v>
+        <v>44078</v>
       </c>
       <c r="D361" s="15" t="s">
         <v>918</v>
@@ -35611,16 +35623,16 @@
         <v>33</v>
       </c>
       <c r="F361" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G361" s="13" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="H361" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I361" s="13" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="J361" s="17">
         <v>0</v>
@@ -35633,54 +35645,54 @@
       <c r="P361" s="19"/>
       <c r="Q361" s="18"/>
       <c r="R361" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="S361" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="T361" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U361" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V361" s="17">
+        <v>1.773003e6</v>
+      </c>
+      <c r="W361" s="15" t="s">
+        <v>919</v>
+      </c>
+      <c r="X361" s="17">
+        <v>2121</v>
+      </c>
+      <c r="Y361" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="Z361" s="15" t="s">
         <v>920</v>
-      </c>
-      <c r="S361" s="15" t="s">
-        <v>921</v>
-      </c>
-      <c r="T361" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U361" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V361" s="17">
-        <v>82414</v>
-      </c>
-      <c r="W361" s="15" t="s">
-        <v>922</v>
-      </c>
-      <c r="X361" s="17">
-        <v>2261</v>
-      </c>
-      <c r="Y361" s="15" t="s">
-        <v>919</v>
-      </c>
-      <c r="Z361" s="15" t="s">
-        <v>428</v>
       </c>
       <c r="AA361" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB361" s="21">
-        <v>10000</v>
+        <v>6</v>
       </c>
       <c r="AC361" s="22">
-        <v>676000e-6</v>
+        <v>294</v>
       </c>
       <c r="AD361" s="22">
-        <v>676000e-6</v>
+        <v>279.8</v>
       </c>
       <c r="AE361" s="23">
-        <v>6760</v>
+        <v>1764</v>
       </c>
       <c r="AF361" s="23">
-        <v>6760</v>
+        <v>1678.8</v>
       </c>
     </row>
     <row r="362" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A362" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>33</v>
@@ -35689,7 +35701,7 @@
         <v>43920</v>
       </c>
       <c r="D362" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E362" s="5" t="s">
         <v>33</v>
@@ -35698,7 +35710,7 @@
         <v>2260</v>
       </c>
       <c r="G362" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H362" s="3" t="s">
         <v>36</v>
@@ -35717,10 +35729,10 @@
       <c r="P362" s="9"/>
       <c r="Q362" s="8"/>
       <c r="R362" s="5" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="S362" s="5" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="T362" s="3" t="s">
         <v>33</v>
@@ -35729,42 +35741,42 @@
         <v>33</v>
       </c>
       <c r="V362" s="7">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W362" s="5" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="X362" s="7">
         <v>2261</v>
       </c>
       <c r="Y362" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z362" s="5" t="s">
-        <v>142</v>
+        <v>428</v>
       </c>
       <c r="AA362" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB362" s="10">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC362" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD362" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE362" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF362" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="363" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A363" s="13" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B363" s="13" t="s">
         <v>33</v>
@@ -35773,7 +35785,7 @@
         <v>43920</v>
       </c>
       <c r="D363" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E363" s="15" t="s">
         <v>33</v>
@@ -35782,7 +35794,7 @@
         <v>2260</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
@@ -35813,42 +35825,42 @@
         <v>33</v>
       </c>
       <c r="V363" s="17">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W363" s="15" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="X363" s="17">
         <v>2261</v>
       </c>
       <c r="Y363" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z363" s="15" t="s">
-        <v>428</v>
+        <v>142</v>
       </c>
       <c r="AA363" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB363" s="21">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC363" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD363" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE363" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF363" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35857,7 +35869,7 @@
         <v>43920</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35866,7 +35878,7 @@
         <v>2260</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35885,10 +35897,10 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="5" t="s">
-        <v>792</v>
+        <v>928</v>
       </c>
       <c r="S364" s="5" t="s">
-        <v>793</v>
+        <v>929</v>
       </c>
       <c r="T364" s="3" t="s">
         <v>33</v>
@@ -35897,16 +35909,16 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="X364" s="7">
         <v>2261</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z364" s="5" t="s">
         <v>428</v>
@@ -35915,24 +35927,24 @@
         <v>44</v>
       </c>
       <c r="AB364" s="10">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC364" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD364" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE364" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF364" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
@@ -35941,7 +35953,7 @@
         <v>43920</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35950,7 +35962,7 @@
         <v>2260</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35981,16 +35993,16 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="X365" s="17">
         <v>2261</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z365" s="15" t="s">
         <v>428</v>
@@ -35999,24 +36011,24 @@
         <v>44</v>
       </c>
       <c r="AB365" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC365" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD365" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE365" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF365" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
@@ -36025,7 +36037,7 @@
         <v>43920</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -36034,7 +36046,7 @@
         <v>2260</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -36065,16 +36077,16 @@
         <v>33</v>
       </c>
       <c r="V366" s="7">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W366" s="5" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="X366" s="7">
         <v>2261</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z366" s="5" t="s">
         <v>428</v>
@@ -36083,24 +36095,24 @@
         <v>44</v>
       </c>
       <c r="AB366" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC366" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD366" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE366" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF366" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A367" s="13" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>33</v>
@@ -36109,7 +36121,7 @@
         <v>43920</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>33</v>
@@ -36118,7 +36130,7 @@
         <v>2260</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>36</v>
@@ -36137,10 +36149,10 @@
       <c r="P367" s="19"/>
       <c r="Q367" s="18"/>
       <c r="R367" s="15" t="s">
-        <v>930</v>
+        <v>792</v>
       </c>
       <c r="S367" s="15" t="s">
-        <v>931</v>
+        <v>793</v>
       </c>
       <c r="T367" s="13" t="s">
         <v>33</v>
@@ -36149,16 +36161,16 @@
         <v>33</v>
       </c>
       <c r="V367" s="17">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W367" s="15" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="X367" s="17">
         <v>2261</v>
       </c>
       <c r="Y367" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z367" s="15" t="s">
         <v>428</v>
@@ -36167,24 +36179,24 @@
         <v>44</v>
       </c>
       <c r="AB367" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC367" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD367" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE367" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF367" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>33</v>
@@ -36193,7 +36205,7 @@
         <v>43920</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>33</v>
@@ -36202,7 +36214,7 @@
         <v>2260</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H368" s="3" t="s">
         <v>36</v>
@@ -36221,10 +36233,10 @@
       <c r="P368" s="9"/>
       <c r="Q368" s="8"/>
       <c r="R368" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="S368" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T368" s="3" t="s">
         <v>33</v>
@@ -36233,16 +36245,16 @@
         <v>33</v>
       </c>
       <c r="V368" s="7">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W368" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="X368" s="7">
         <v>2261</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z368" s="5" t="s">
         <v>428</v>
@@ -36251,24 +36263,24 @@
         <v>44</v>
       </c>
       <c r="AB368" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC368" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD368" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE368" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF368" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="369" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A369" s="13" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>33</v>
@@ -36277,7 +36289,7 @@
         <v>43920</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E369" s="15" t="s">
         <v>33</v>
@@ -36286,7 +36298,7 @@
         <v>2260</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>36</v>
@@ -36305,10 +36317,10 @@
       <c r="P369" s="19"/>
       <c r="Q369" s="18"/>
       <c r="R369" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="S369" s="15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T369" s="13" t="s">
         <v>33</v>
@@ -36317,16 +36329,16 @@
         <v>33</v>
       </c>
       <c r="V369" s="17">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W369" s="15" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="X369" s="17">
         <v>2261</v>
       </c>
       <c r="Y369" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z369" s="15" t="s">
         <v>428</v>
@@ -36335,24 +36347,24 @@
         <v>44</v>
       </c>
       <c r="AB369" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC369" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD369" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE369" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF369" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A370" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>33</v>
@@ -36361,7 +36373,7 @@
         <v>43920</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>33</v>
@@ -36370,7 +36382,7 @@
         <v>2260</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H370" s="3" t="s">
         <v>36</v>
@@ -36379,27 +36391,15 @@
         <v>37</v>
       </c>
       <c r="J370" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K370" s="5" t="s">
-        <v>939</v>
-      </c>
-      <c r="L370" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M370" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="N370" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O370" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K370" s="5"/>
+      <c r="L370" s="7"/>
+      <c r="M370" s="5"/>
+      <c r="N370" s="8"/>
+      <c r="O370" s="8"/>
       <c r="P370" s="9"/>
-      <c r="Q370" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q370" s="8"/>
       <c r="R370" s="5" t="s">
         <v>940</v>
       </c>
@@ -36413,7 +36413,7 @@
         <v>33</v>
       </c>
       <c r="V370" s="7">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W370" s="5" t="s">
         <v>942</v>
@@ -36422,33 +36422,33 @@
         <v>2261</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z370" s="5" t="s">
-        <v>122</v>
+        <v>428</v>
       </c>
       <c r="AA370" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB370" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC370" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD370" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE370" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF370" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A371" s="13" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B371" s="13" t="s">
         <v>33</v>
@@ -36457,7 +36457,7 @@
         <v>43920</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E371" s="15" t="s">
         <v>33</v>
@@ -36466,7 +36466,7 @@
         <v>2260</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>36</v>
@@ -36475,7 +36475,7 @@
         <v>37</v>
       </c>
       <c r="J371" s="17">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K371" s="15" t="s">
         <v>943</v>
@@ -36484,7 +36484,7 @@
         <v>2260</v>
       </c>
       <c r="M371" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="N371" s="18">
         <v>43936</v>
@@ -36509,7 +36509,7 @@
         <v>33</v>
       </c>
       <c r="V371" s="17">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W371" s="15" t="s">
         <v>946</v>
@@ -36518,7 +36518,7 @@
         <v>2261</v>
       </c>
       <c r="Y371" s="15" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z371" s="15" t="s">
         <v>122</v>
@@ -36530,21 +36530,21 @@
         <v>30000</v>
       </c>
       <c r="AC371" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD371" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE371" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF371" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>33</v>
@@ -36553,7 +36553,7 @@
         <v>43920</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>33</v>
@@ -36562,7 +36562,7 @@
         <v>2260</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H372" s="3" t="s">
         <v>36</v>
@@ -36574,13 +36574,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K372" s="5" t="s">
-        <v>943</v>
+        <v>947</v>
       </c>
       <c r="L372" s="7">
         <v>2260</v>
       </c>
       <c r="M372" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="N372" s="8">
         <v>43936</v>
@@ -36593,10 +36593,10 @@
         <v>44115</v>
       </c>
       <c r="R372" s="5" t="s">
-        <v>944</v>
+        <v>948</v>
       </c>
       <c r="S372" s="5" t="s">
-        <v>945</v>
+        <v>949</v>
       </c>
       <c r="T372" s="3" t="s">
         <v>33</v>
@@ -36605,16 +36605,16 @@
         <v>33</v>
       </c>
       <c r="V372" s="7">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W372" s="5" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="X372" s="7">
         <v>2261</v>
       </c>
       <c r="Y372" s="5" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="Z372" s="5" t="s">
         <v>122</v>
@@ -36626,62 +36626,74 @@
         <v>30000</v>
       </c>
       <c r="AC372" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD372" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE372" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF372" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A373" s="13" t="s">
+        <v>921</v>
+      </c>
+      <c r="B373" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C373" s="14">
+        <v>43920</v>
+      </c>
+      <c r="D373" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="E373" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F373" s="16">
+        <v>2260</v>
+      </c>
+      <c r="G373" s="13" t="s">
+        <v>923</v>
+      </c>
+      <c r="H373" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I373" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J373" s="17">
+        <v>9.245763e6</v>
+      </c>
+      <c r="K373" s="15" t="s">
+        <v>947</v>
+      </c>
+      <c r="L373" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M373" s="15" t="s">
+        <v>923</v>
+      </c>
+      <c r="N373" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O373" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P373" s="19"/>
+      <c r="Q373" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R373" s="15" t="s">
         <v>948</v>
       </c>
-      <c r="B373" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C373" s="14">
-        <v>43972</v>
-      </c>
-      <c r="D373" s="15" t="s">
+      <c r="S373" s="15" t="s">
         <v>949</v>
       </c>
-      <c r="E373" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F373" s="16">
-        <v>2280</v>
-      </c>
-      <c r="G373" s="13" t="s">
-        <v>950</v>
-      </c>
-      <c r="H373" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I373" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="J373" s="17">
-        <v>0</v>
-      </c>
-      <c r="K373" s="15"/>
-      <c r="L373" s="17"/>
-      <c r="M373" s="15"/>
-      <c r="N373" s="18"/>
-      <c r="O373" s="18"/>
-      <c r="P373" s="19"/>
-      <c r="Q373" s="18"/>
-      <c r="R373" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="S373" s="15" t="s">
-        <v>519</v>
-      </c>
       <c r="T373" s="13" t="s">
         <v>33</v>
       </c>
@@ -36689,37 +36701,37 @@
         <v>33</v>
       </c>
       <c r="V373" s="17">
-        <v>1.756699e6</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W373" s="15" t="s">
-        <v>520</v>
+        <v>951</v>
       </c>
       <c r="X373" s="17">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y373" s="15" t="s">
-        <v>951</v>
+        <v>923</v>
       </c>
       <c r="Z373" s="15" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="AA373" s="13" t="s">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AB373" s="21">
-        <v>127</v>
+        <v>30000</v>
       </c>
       <c r="AC373" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AD373" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AE373" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
       <c r="AF373" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -36730,7 +36742,7 @@
         <v>33</v>
       </c>
       <c r="C374" s="4">
-        <v>43921</v>
+        <v>43972</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>953</v>
@@ -36739,7 +36751,7 @@
         <v>33</v>
       </c>
       <c r="F374" s="6">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="G374" s="3" t="s">
         <v>954</v>
@@ -36748,90 +36760,76 @@
         <v>36</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>37</v>
+        <v>517</v>
       </c>
       <c r="J374" s="7">
-        <v>9.245674e6</v>
-      </c>
-      <c r="K374" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K374" s="5"/>
+      <c r="L374" s="7"/>
+      <c r="M374" s="5"/>
+      <c r="N374" s="8"/>
+      <c r="O374" s="8"/>
+      <c r="P374" s="9"/>
+      <c r="Q374" s="8"/>
+      <c r="R374" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="S374" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="T374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V374" s="7">
+        <v>1.756699e6</v>
+      </c>
+      <c r="W374" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="X374" s="7">
+        <v>2281</v>
+      </c>
+      <c r="Y374" s="5" t="s">
         <v>955</v>
       </c>
-      <c r="L374" s="7">
-        <v>2300</v>
-      </c>
-      <c r="M374" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="N374" s="8">
-        <v>43922</v>
-      </c>
-      <c r="O374" s="8">
-        <v>43922</v>
-      </c>
-      <c r="P374" s="9">
-        <v>44105</v>
-      </c>
-      <c r="Q374" s="8">
-        <v>44131</v>
-      </c>
-      <c r="R374" s="5" t="s">
-        <v>956</v>
-      </c>
-      <c r="S374" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="T374" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U374" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V374" s="7">
-        <v>1155</v>
-      </c>
-      <c r="W374" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X374" s="7">
-        <v>2301</v>
-      </c>
-      <c r="Y374" s="5" t="s">
-        <v>958</v>
-      </c>
       <c r="Z374" s="5" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="AA374" s="3" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AB374" s="10">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC374" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AD374" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AE374" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
       <c r="AF374" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A375" s="13" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="B375" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C375" s="14">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="E375" s="15" t="s">
         <v>33</v>
@@ -36840,7 +36838,7 @@
         <v>2300</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>36</v>
@@ -36849,34 +36847,34 @@
         <v>37</v>
       </c>
       <c r="J375" s="17">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K375" s="15" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="L375" s="17">
         <v>2300</v>
       </c>
       <c r="M375" s="15" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="N375" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O375" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P375" s="19">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q375" s="18">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R375" s="15" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="S375" s="15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="T375" s="13" t="s">
         <v>33</v>
@@ -36894,7 +36892,7 @@
         <v>2301</v>
       </c>
       <c r="Y375" s="15" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="Z375" s="15" t="s">
         <v>108</v>
@@ -36906,30 +36904,30 @@
         <v>0</v>
       </c>
       <c r="AC375" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD375" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE375" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF375" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A376" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C376" s="4">
+        <v>43935</v>
+      </c>
+      <c r="D376" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="B376" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C376" s="4">
-        <v>43963</v>
-      </c>
-      <c r="D376" s="5" t="s">
-        <v>965</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>33</v>
@@ -36938,7 +36936,7 @@
         <v>2300</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>36</v>
@@ -36947,34 +36945,34 @@
         <v>37</v>
       </c>
       <c r="J376" s="7">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K376" s="5" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="L376" s="7">
         <v>2300</v>
       </c>
       <c r="M376" s="5" t="s">
-        <v>954</v>
+        <v>958</v>
       </c>
       <c r="N376" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O376" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P376" s="9">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q376" s="8">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R376" s="5" t="s">
-        <v>365</v>
+        <v>966</v>
       </c>
       <c r="S376" s="5" t="s">
-        <v>366</v>
+        <v>967</v>
       </c>
       <c r="T376" s="3" t="s">
         <v>33</v>
@@ -36992,7 +36990,7 @@
         <v>2301</v>
       </c>
       <c r="Y376" s="5" t="s">
-        <v>958</v>
+        <v>962</v>
       </c>
       <c r="Z376" s="5" t="s">
         <v>108</v>
@@ -37004,39 +37002,39 @@
         <v>0</v>
       </c>
       <c r="AC376" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD376" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE376" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF376" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="377" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A377" s="13" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B377" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C377" s="14">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E377" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F377" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>36</v>
@@ -37045,34 +37043,34 @@
         <v>37</v>
       </c>
       <c r="J377" s="17">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K377" s="15" t="s">
         <v>970</v>
       </c>
       <c r="L377" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M377" s="15" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="N377" s="18">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O377" s="18">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P377" s="19">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q377" s="18">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R377" s="15" t="s">
-        <v>830</v>
+        <v>365</v>
       </c>
       <c r="S377" s="15" t="s">
-        <v>831</v>
+        <v>366</v>
       </c>
       <c r="T377" s="13" t="s">
         <v>33</v>
@@ -37081,42 +37079,42 @@
         <v>33</v>
       </c>
       <c r="V377" s="17">
-        <v>18228</v>
-      </c>
-      <c r="W377" s="20" t="s">
-        <v>971</v>
+        <v>1155</v>
+      </c>
+      <c r="W377" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="X377" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y377" s="15" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="Z377" s="15" t="s">
-        <v>414</v>
+        <v>108</v>
       </c>
       <c r="AA377" s="13" t="s">
-        <v>972</v>
+        <v>44</v>
       </c>
       <c r="AB377" s="21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC377" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD377" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE377" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF377" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A378" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>33</v>
@@ -37125,7 +37123,7 @@
         <v>43928</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>33</v>
@@ -37134,7 +37132,7 @@
         <v>2310</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>36</v>
@@ -37146,13 +37144,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K378" s="5" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L378" s="7">
         <v>2310</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N378" s="8">
         <v>43943</v>
@@ -37179,42 +37177,42 @@
         <v>33</v>
       </c>
       <c r="V378" s="7">
-        <v>236268</v>
-      </c>
-      <c r="W378" s="5" t="s">
-        <v>973</v>
+        <v>18228</v>
+      </c>
+      <c r="W378" s="24" t="s">
+        <v>975</v>
       </c>
       <c r="X378" s="7">
         <v>2311</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z378" s="5" t="s">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="AA378" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB378" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC378" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD378" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE378" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF378" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A379" s="13" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B379" s="13" t="s">
         <v>33</v>
@@ -37223,7 +37221,7 @@
         <v>43928</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E379" s="15" t="s">
         <v>33</v>
@@ -37232,7 +37230,7 @@
         <v>2310</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>36</v>
@@ -37244,13 +37242,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K379" s="15" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L379" s="17">
         <v>2310</v>
       </c>
       <c r="M379" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N379" s="18">
         <v>43943</v>
@@ -37277,42 +37275,42 @@
         <v>33</v>
       </c>
       <c r="V379" s="17">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W379" s="15" t="s">
-        <v>837</v>
+        <v>977</v>
       </c>
       <c r="X379" s="17">
         <v>2311</v>
       </c>
       <c r="Y379" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z379" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA379" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB379" s="21">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC379" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD379" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE379" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF379" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>33</v>
@@ -37321,7 +37319,7 @@
         <v>43928</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>33</v>
@@ -37330,7 +37328,7 @@
         <v>2310</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>36</v>
@@ -37342,13 +37340,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K380" s="5" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L380" s="7">
         <v>2310</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N380" s="8">
         <v>43943</v>
@@ -37375,42 +37373,42 @@
         <v>33</v>
       </c>
       <c r="V380" s="7">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="X380" s="7">
         <v>2311</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z380" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA380" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB380" s="10">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC380" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD380" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE380" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF380" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="381" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A381" s="13" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B381" s="13" t="s">
         <v>33</v>
@@ -37419,7 +37417,7 @@
         <v>43928</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E381" s="15" t="s">
         <v>33</v>
@@ -37428,7 +37426,7 @@
         <v>2310</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>36</v>
@@ -37440,13 +37438,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K381" s="15" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L381" s="17">
         <v>2310</v>
       </c>
       <c r="M381" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N381" s="18">
         <v>43943</v>
@@ -37473,25 +37471,25 @@
         <v>33</v>
       </c>
       <c r="V381" s="17">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W381" s="15" t="s">
-        <v>974</v>
+        <v>832</v>
       </c>
       <c r="X381" s="17">
         <v>2311</v>
       </c>
       <c r="Y381" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z381" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA381" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB381" s="21">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC381" s="22">
         <v>45</v>
@@ -37500,15 +37498,15 @@
         <v>45</v>
       </c>
       <c r="AE381" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF381" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>33</v>
@@ -37517,7 +37515,7 @@
         <v>43928</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>33</v>
@@ -37526,7 +37524,7 @@
         <v>2310</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H382" s="3" t="s">
         <v>36</v>
@@ -37538,13 +37536,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K382" s="5" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L382" s="7">
         <v>2310</v>
       </c>
       <c r="M382" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N382" s="8">
         <v>43943</v>
@@ -37571,22 +37569,22 @@
         <v>33</v>
       </c>
       <c r="V382" s="7">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="X382" s="7">
         <v>2311</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z382" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA382" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB382" s="10">
         <v>30</v>
@@ -37606,7 +37604,7 @@
     </row>
     <row r="383" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A383" s="13" t="s">
-        <v>967</v>
+        <v>971</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>33</v>
@@ -37615,7 +37613,7 @@
         <v>43928</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="E383" s="15" t="s">
         <v>33</v>
@@ -37624,7 +37622,7 @@
         <v>2310</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>36</v>
@@ -37636,13 +37634,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K383" s="15" t="s">
-        <v>970</v>
+        <v>974</v>
       </c>
       <c r="L383" s="17">
         <v>2310</v>
       </c>
       <c r="M383" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N383" s="18">
         <v>43943</v>
@@ -37669,22 +37667,22 @@
         <v>33</v>
       </c>
       <c r="V383" s="17">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W383" s="15" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="X383" s="17">
         <v>2311</v>
       </c>
       <c r="Y383" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z383" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA383" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB383" s="21">
         <v>30</v>
@@ -37704,16 +37702,16 @@
     </row>
     <row r="384" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C384" s="4">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>33</v>
@@ -37722,7 +37720,7 @@
         <v>2310</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>36</v>
@@ -37731,87 +37729,87 @@
         <v>37</v>
       </c>
       <c r="J384" s="7">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K384" s="5" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="L384" s="7">
         <v>2310</v>
       </c>
       <c r="M384" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N384" s="8">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O384" s="8">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P384" s="9">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q384" s="8">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R384" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="S384" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="T384" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U384" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V384" s="7">
+        <v>1.152831e6</v>
+      </c>
+      <c r="W384" s="5" t="s">
         <v>980</v>
-      </c>
-      <c r="S384" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="T384" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U384" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V384" s="7">
-        <v>1.755897e6</v>
-      </c>
-      <c r="W384" s="5" t="s">
-        <v>982</v>
       </c>
       <c r="X384" s="7">
         <v>2311</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z384" s="5" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="AA384" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB384" s="10">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC384" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD384" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE384" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF384" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A385" s="13" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C385" s="14">
-        <v>43966</v>
+        <v>43955</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E385" s="15" t="s">
         <v>33</v>
@@ -37820,7 +37818,7 @@
         <v>2310</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>36</v>
@@ -37829,34 +37827,34 @@
         <v>37</v>
       </c>
       <c r="J385" s="17">
-        <v>9.253515e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K385" s="15" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="L385" s="17">
         <v>2310</v>
       </c>
       <c r="M385" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N385" s="18">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O385" s="18">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P385" s="19">
-        <v>44757</v>
+        <v>44557</v>
       </c>
       <c r="Q385" s="18">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R385" s="15" t="s">
-        <v>540</v>
+        <v>984</v>
       </c>
       <c r="S385" s="15" t="s">
-        <v>541</v>
+        <v>985</v>
       </c>
       <c r="T385" s="13" t="s">
         <v>33</v>
@@ -37865,7 +37863,7 @@
         <v>33</v>
       </c>
       <c r="V385" s="17">
-        <v>1.722859e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W385" s="15" t="s">
         <v>986</v>
@@ -37874,33 +37872,33 @@
         <v>2311</v>
       </c>
       <c r="Y385" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z385" s="15" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="AA385" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB385" s="21">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="AC385" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD385" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE385" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
       <c r="AF385" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>33</v>
@@ -37909,7 +37907,7 @@
         <v>43966</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>33</v>
@@ -37918,7 +37916,7 @@
         <v>2310</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H386" s="3" t="s">
         <v>36</v>
@@ -37930,13 +37928,13 @@
         <v>9.253515e6</v>
       </c>
       <c r="K386" s="5" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="L386" s="7">
         <v>2310</v>
       </c>
       <c r="M386" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N386" s="8">
         <v>44027</v>
@@ -37963,42 +37961,42 @@
         <v>33</v>
       </c>
       <c r="V386" s="7">
-        <v>1.722891e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W386" s="5" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="X386" s="7">
         <v>2311</v>
       </c>
       <c r="Y386" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z386" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA386" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB386" s="10">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="AC386" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AD386" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AE386" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
       <c r="AF386" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A387" s="13" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B387" s="13" t="s">
         <v>33</v>
@@ -38007,7 +38005,7 @@
         <v>43966</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>984</v>
+        <v>988</v>
       </c>
       <c r="E387" s="15" t="s">
         <v>33</v>
@@ -38016,7 +38014,7 @@
         <v>2310</v>
       </c>
       <c r="G387" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>36</v>
@@ -38025,16 +38023,16 @@
         <v>37</v>
       </c>
       <c r="J387" s="17">
-        <v>9.253532e6</v>
+        <v>9.253515e6</v>
       </c>
       <c r="K387" s="15" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L387" s="17">
         <v>2310</v>
       </c>
       <c r="M387" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N387" s="18">
         <v>44027</v>
@@ -38049,10 +38047,10 @@
         <v>44206</v>
       </c>
       <c r="R387" s="15" t="s">
-        <v>989</v>
+        <v>540</v>
       </c>
       <c r="S387" s="15" t="s">
-        <v>990</v>
+        <v>541</v>
       </c>
       <c r="T387" s="13" t="s">
         <v>33</v>
@@ -38061,7 +38059,7 @@
         <v>33</v>
       </c>
       <c r="V387" s="17">
-        <v>1.043684e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W387" s="15" t="s">
         <v>991</v>
@@ -38070,42 +38068,42 @@
         <v>2311</v>
       </c>
       <c r="Y387" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z387" s="15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="AA387" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB387" s="21">
-        <v>780</v>
+        <v>20000</v>
       </c>
       <c r="AC387" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD387" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE387" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
       <c r="AF387" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A388" s="3" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C388" s="4">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>33</v>
@@ -38114,7 +38112,7 @@
         <v>2310</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>36</v>
@@ -38123,16 +38121,16 @@
         <v>37</v>
       </c>
       <c r="J388" s="7">
-        <v>9.253504e6</v>
+        <v>9.253532e6</v>
       </c>
       <c r="K388" s="5" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="L388" s="7">
         <v>2310</v>
       </c>
       <c r="M388" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N388" s="8">
         <v>44027</v>
@@ -38141,16 +38139,16 @@
         <v>44027</v>
       </c>
       <c r="P388" s="9">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Q388" s="8">
         <v>44206</v>
       </c>
       <c r="R388" s="5" t="s">
-        <v>540</v>
+        <v>993</v>
       </c>
       <c r="S388" s="5" t="s">
-        <v>541</v>
+        <v>994</v>
       </c>
       <c r="T388" s="3" t="s">
         <v>33</v>
@@ -38159,7 +38157,7 @@
         <v>33</v>
       </c>
       <c r="V388" s="7">
-        <v>1.722905e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W388" s="5" t="s">
         <v>995</v>
@@ -38168,28 +38166,28 @@
         <v>2311</v>
       </c>
       <c r="Y388" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z388" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA388" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB388" s="10">
-        <v>30000</v>
+        <v>780</v>
       </c>
       <c r="AC388" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AD388" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AE388" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
       <c r="AF388" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38200,9 +38198,9 @@
         <v>33</v>
       </c>
       <c r="C389" s="14">
-        <v>44063</v>
-      </c>
-      <c r="D389" s="25" t="s">
+        <v>44001</v>
+      </c>
+      <c r="D389" s="15" t="s">
         <v>997</v>
       </c>
       <c r="E389" s="15" t="s">
@@ -38212,7 +38210,7 @@
         <v>2310</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>36</v>
@@ -38221,64 +38219,78 @@
         <v>37</v>
       </c>
       <c r="J389" s="17">
-        <v>0</v>
-      </c>
-      <c r="K389" s="15"/>
-      <c r="L389" s="17"/>
-      <c r="M389" s="15"/>
-      <c r="N389" s="18"/>
-      <c r="O389" s="18"/>
-      <c r="P389" s="19"/>
-      <c r="Q389" s="18"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K389" s="15" t="s">
+        <v>998</v>
+      </c>
+      <c r="L389" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M389" s="15" t="s">
+        <v>973</v>
+      </c>
+      <c r="N389" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O389" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P389" s="19">
+        <v>44756</v>
+      </c>
+      <c r="Q389" s="18">
+        <v>44206</v>
+      </c>
       <c r="R389" s="15" t="s">
-        <v>998</v>
+        <v>540</v>
       </c>
       <c r="S389" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="T389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U389" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V389" s="17">
+        <v>1.722905e6</v>
+      </c>
+      <c r="W389" s="15" t="s">
         <v>999</v>
-      </c>
-      <c r="T389" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U389" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V389" s="17">
-        <v>1.489186e6</v>
-      </c>
-      <c r="W389" s="15" t="s">
-        <v>1000</v>
       </c>
       <c r="X389" s="17">
         <v>2311</v>
       </c>
       <c r="Y389" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z389" s="15" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="AA389" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB389" s="21">
-        <v>1170</v>
+        <v>30000</v>
       </c>
       <c r="AC389" s="22">
-        <v>73000e-6</v>
+        <v>1.16</v>
       </c>
       <c r="AD389" s="22">
-        <v>73000e-6</v>
+        <v>1.16</v>
       </c>
       <c r="AE389" s="23">
-        <v>85.41</v>
+        <v>34800</v>
       </c>
       <c r="AF389" s="23">
-        <v>85.41</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>33</v>
@@ -38287,7 +38299,7 @@
         <v>44063</v>
       </c>
       <c r="D390" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>33</v>
@@ -38296,7 +38308,7 @@
         <v>2310</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>36</v>
@@ -38315,10 +38327,10 @@
       <c r="P390" s="9"/>
       <c r="Q390" s="8"/>
       <c r="R390" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S390" s="5" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T390" s="3" t="s">
         <v>33</v>
@@ -38327,42 +38339,42 @@
         <v>33</v>
       </c>
       <c r="V390" s="7">
-        <v>1.489259e6</v>
+        <v>1.489186e6</v>
       </c>
       <c r="W390" s="5" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="X390" s="7">
         <v>2311</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z390" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA390" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB390" s="10">
-        <v>1500</v>
+        <v>1170</v>
       </c>
       <c r="AC390" s="11">
-        <v>2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AD390" s="11">
-        <v>2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AE390" s="12">
-        <v>3000</v>
+        <v>85.41</v>
       </c>
       <c r="AF390" s="12">
-        <v>3000</v>
+        <v>85.41</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A391" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B391" s="13" t="s">
         <v>33</v>
@@ -38371,7 +38383,7 @@
         <v>44063</v>
       </c>
       <c r="D391" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E391" s="15" t="s">
         <v>33</v>
@@ -38380,7 +38392,7 @@
         <v>2310</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>36</v>
@@ -38399,10 +38411,10 @@
       <c r="P391" s="19"/>
       <c r="Q391" s="18"/>
       <c r="R391" s="15" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S391" s="15" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T391" s="13" t="s">
         <v>33</v>
@@ -38411,42 +38423,42 @@
         <v>33</v>
       </c>
       <c r="V391" s="17">
-        <v>1.489755e6</v>
+        <v>1.489259e6</v>
       </c>
       <c r="W391" s="15" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="X391" s="17">
         <v>2311</v>
       </c>
       <c r="Y391" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z391" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA391" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB391" s="21">
         <v>1500</v>
       </c>
       <c r="AC391" s="22">
-        <v>9.43</v>
+        <v>2</v>
       </c>
       <c r="AD391" s="22">
-        <v>9.43</v>
+        <v>2</v>
       </c>
       <c r="AE391" s="23">
-        <v>14145</v>
+        <v>3000</v>
       </c>
       <c r="AF391" s="23">
-        <v>14145</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>33</v>
@@ -38455,7 +38467,7 @@
         <v>44063</v>
       </c>
       <c r="D392" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>33</v>
@@ -38464,7 +38476,7 @@
         <v>2310</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H392" s="3" t="s">
         <v>36</v>
@@ -38483,10 +38495,10 @@
       <c r="P392" s="9"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S392" s="5" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T392" s="3" t="s">
         <v>33</v>
@@ -38495,42 +38507,42 @@
         <v>33</v>
       </c>
       <c r="V392" s="7">
-        <v>1.490869e6</v>
+        <v>1.489755e6</v>
       </c>
       <c r="W392" s="5" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="X392" s="7">
         <v>2311</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z392" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA392" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB392" s="10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AC392" s="11">
-        <v>7.9</v>
+        <v>9.43</v>
       </c>
       <c r="AD392" s="11">
-        <v>7.9</v>
+        <v>9.43</v>
       </c>
       <c r="AE392" s="12">
-        <v>15800</v>
+        <v>14145</v>
       </c>
       <c r="AF392" s="12">
-        <v>15800</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A393" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>33</v>
@@ -38539,7 +38551,7 @@
         <v>44063</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E393" s="15" t="s">
         <v>33</v>
@@ -38548,7 +38560,7 @@
         <v>2310</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>36</v>
@@ -38567,10 +38579,10 @@
       <c r="P393" s="19"/>
       <c r="Q393" s="18"/>
       <c r="R393" s="15" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S393" s="15" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T393" s="13" t="s">
         <v>33</v>
@@ -38579,42 +38591,42 @@
         <v>33</v>
       </c>
       <c r="V393" s="17">
-        <v>1.512552e6</v>
+        <v>1.490869e6</v>
       </c>
       <c r="W393" s="15" t="s">
-        <v>468</v>
+        <v>1007</v>
       </c>
       <c r="X393" s="17">
         <v>2311</v>
       </c>
       <c r="Y393" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z393" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA393" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB393" s="21">
-        <v>12650</v>
+        <v>2000</v>
       </c>
       <c r="AC393" s="22">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD393" s="22">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="AE393" s="23">
-        <v>130295</v>
+        <v>15800</v>
       </c>
       <c r="AF393" s="23">
-        <v>130295</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A394" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>33</v>
@@ -38623,7 +38635,7 @@
         <v>44063</v>
       </c>
       <c r="D394" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>33</v>
@@ -38632,7 +38644,7 @@
         <v>2310</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H394" s="3" t="s">
         <v>36</v>
@@ -38651,10 +38663,10 @@
       <c r="P394" s="9"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S394" s="5" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T394" s="3" t="s">
         <v>33</v>
@@ -38663,42 +38675,42 @@
         <v>33</v>
       </c>
       <c r="V394" s="7">
-        <v>1.514385e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W394" s="5" t="s">
-        <v>1004</v>
+        <v>468</v>
       </c>
       <c r="X394" s="7">
         <v>2311</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z394" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA394" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB394" s="10">
-        <v>120</v>
+        <v>12650</v>
       </c>
       <c r="AC394" s="11">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD394" s="11">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="AE394" s="12">
-        <v>2088</v>
+        <v>130295</v>
       </c>
       <c r="AF394" s="12">
-        <v>2088</v>
+        <v>130295</v>
       </c>
     </row>
     <row r="395" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A395" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>33</v>
@@ -38707,7 +38719,7 @@
         <v>44063</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E395" s="15" t="s">
         <v>33</v>
@@ -38716,7 +38728,7 @@
         <v>2310</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>36</v>
@@ -38735,10 +38747,10 @@
       <c r="P395" s="19"/>
       <c r="Q395" s="18"/>
       <c r="R395" s="15" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S395" s="15" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T395" s="13" t="s">
         <v>33</v>
@@ -38747,42 +38759,42 @@
         <v>33</v>
       </c>
       <c r="V395" s="17">
-        <v>1.517287e6</v>
+        <v>1.514385e6</v>
       </c>
       <c r="W395" s="15" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="X395" s="17">
         <v>2311</v>
       </c>
       <c r="Y395" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z395" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA395" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB395" s="21">
-        <v>1130</v>
+        <v>120</v>
       </c>
       <c r="AC395" s="22">
-        <v>21.3</v>
+        <v>17.4</v>
       </c>
       <c r="AD395" s="22">
-        <v>21.3</v>
+        <v>17.4</v>
       </c>
       <c r="AE395" s="23">
-        <v>24069</v>
+        <v>2088</v>
       </c>
       <c r="AF395" s="23">
-        <v>24069</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>33</v>
@@ -38791,7 +38803,7 @@
         <v>44063</v>
       </c>
       <c r="D396" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>33</v>
@@ -38800,7 +38812,7 @@
         <v>2310</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>36</v>
@@ -38819,10 +38831,10 @@
       <c r="P396" s="9"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S396" s="5" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T396" s="3" t="s">
         <v>33</v>
@@ -38831,42 +38843,42 @@
         <v>33</v>
       </c>
       <c r="V396" s="7">
-        <v>1.527703e6</v>
+        <v>1.517287e6</v>
       </c>
       <c r="W396" s="5" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="X396" s="7">
         <v>2311</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z396" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA396" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB396" s="10">
-        <v>3400</v>
+        <v>1130</v>
       </c>
       <c r="AC396" s="11">
-        <v>850000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AD396" s="11">
-        <v>850000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AE396" s="12">
-        <v>2890</v>
+        <v>24069</v>
       </c>
       <c r="AF396" s="12">
-        <v>2890</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A397" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B397" s="13" t="s">
         <v>33</v>
@@ -38875,7 +38887,7 @@
         <v>44063</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E397" s="15" t="s">
         <v>33</v>
@@ -38884,7 +38896,7 @@
         <v>2310</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>36</v>
@@ -38903,10 +38915,10 @@
       <c r="P397" s="19"/>
       <c r="Q397" s="18"/>
       <c r="R397" s="15" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S397" s="15" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T397" s="13" t="s">
         <v>33</v>
@@ -38915,42 +38927,42 @@
         <v>33</v>
       </c>
       <c r="V397" s="17">
-        <v>1.568515e6</v>
+        <v>1.527703e6</v>
       </c>
       <c r="W397" s="15" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="X397" s="17">
         <v>2311</v>
       </c>
       <c r="Y397" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z397" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA397" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB397" s="21">
-        <v>9000</v>
+        <v>3400</v>
       </c>
       <c r="AC397" s="22">
-        <v>880000e-6</v>
+        <v>850000e-6</v>
       </c>
       <c r="AD397" s="22">
-        <v>880000e-6</v>
+        <v>850000e-6</v>
       </c>
       <c r="AE397" s="23">
-        <v>7920</v>
+        <v>2890</v>
       </c>
       <c r="AF397" s="23">
-        <v>7920</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="398" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A398" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>33</v>
@@ -38959,7 +38971,7 @@
         <v>44063</v>
       </c>
       <c r="D398" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>33</v>
@@ -38968,7 +38980,7 @@
         <v>2310</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>36</v>
@@ -38987,10 +38999,10 @@
       <c r="P398" s="9"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="5" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S398" s="5" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T398" s="3" t="s">
         <v>33</v>
@@ -38999,42 +39011,42 @@
         <v>33</v>
       </c>
       <c r="V398" s="7">
-        <v>1.573985e6</v>
+        <v>1.568515e6</v>
       </c>
       <c r="W398" s="5" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="X398" s="7">
         <v>2311</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z398" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA398" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB398" s="10">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="AC398" s="11">
-        <v>1.25</v>
+        <v>880000e-6</v>
       </c>
       <c r="AD398" s="11">
-        <v>1.25</v>
+        <v>880000e-6</v>
       </c>
       <c r="AE398" s="12">
-        <v>5625</v>
+        <v>7920</v>
       </c>
       <c r="AF398" s="12">
-        <v>5625</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A399" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B399" s="13" t="s">
         <v>33</v>
@@ -39043,7 +39055,7 @@
         <v>44063</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E399" s="15" t="s">
         <v>33</v>
@@ -39052,7 +39064,7 @@
         <v>2310</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>36</v>
@@ -39071,10 +39083,10 @@
       <c r="P399" s="19"/>
       <c r="Q399" s="18"/>
       <c r="R399" s="15" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="S399" s="15" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
       <c r="T399" s="13" t="s">
         <v>33</v>
@@ -39083,42 +39095,42 @@
         <v>33</v>
       </c>
       <c r="V399" s="17">
-        <v>1.582194e6</v>
+        <v>1.573985e6</v>
       </c>
       <c r="W399" s="15" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="X399" s="17">
         <v>2311</v>
       </c>
       <c r="Y399" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z399" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA399" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB399" s="21">
-        <v>48</v>
+        <v>4500</v>
       </c>
       <c r="AC399" s="22">
-        <v>17.4</v>
+        <v>1.25</v>
       </c>
       <c r="AD399" s="22">
-        <v>17.4</v>
+        <v>1.25</v>
       </c>
       <c r="AE399" s="23">
-        <v>835.2</v>
+        <v>5625</v>
       </c>
       <c r="AF399" s="23">
-        <v>835.2</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A400" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>33</v>
@@ -39127,7 +39139,7 @@
         <v>44063</v>
       </c>
       <c r="D400" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>33</v>
@@ -39136,7 +39148,7 @@
         <v>2310</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>36</v>
@@ -39155,10 +39167,10 @@
       <c r="P400" s="9"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="5" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="S400" s="5" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="T400" s="3" t="s">
         <v>33</v>
@@ -39167,42 +39179,42 @@
         <v>33</v>
       </c>
       <c r="V400" s="7">
-        <v>1.527525e6</v>
+        <v>1.582194e6</v>
       </c>
       <c r="W400" s="5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="X400" s="7">
         <v>2311</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z400" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA400" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB400" s="10">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC400" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AD400" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AE400" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
       <c r="AF400" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
     </row>
     <row r="401" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A401" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B401" s="13" t="s">
         <v>33</v>
@@ -39211,7 +39223,7 @@
         <v>44063</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E401" s="15" t="s">
         <v>33</v>
@@ -39220,7 +39232,7 @@
         <v>2310</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>36</v>
@@ -39239,10 +39251,10 @@
       <c r="P401" s="19"/>
       <c r="Q401" s="18"/>
       <c r="R401" s="15" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="S401" s="15" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="T401" s="13" t="s">
         <v>33</v>
@@ -39251,42 +39263,42 @@
         <v>33</v>
       </c>
       <c r="V401" s="17">
-        <v>1.513559e6</v>
+        <v>1.527525e6</v>
       </c>
       <c r="W401" s="15" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="X401" s="17">
         <v>2311</v>
       </c>
       <c r="Y401" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z401" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA401" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB401" s="21">
-        <v>502</v>
+        <v>1000</v>
       </c>
       <c r="AC401" s="22">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="AD401" s="22">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="AE401" s="23">
-        <v>6977.8</v>
+        <v>14300</v>
       </c>
       <c r="AF401" s="23">
-        <v>6977.8</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="402" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A402" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>33</v>
@@ -39295,7 +39307,7 @@
         <v>44063</v>
       </c>
       <c r="D402" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>33</v>
@@ -39304,7 +39316,7 @@
         <v>2310</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H402" s="3" t="s">
         <v>36</v>
@@ -39323,10 +39335,10 @@
       <c r="P402" s="9"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="5" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="S402" s="5" t="s">
-        <v>1014</v>
+        <v>1018</v>
       </c>
       <c r="T402" s="3" t="s">
         <v>33</v>
@@ -39335,42 +39347,42 @@
         <v>33</v>
       </c>
       <c r="V402" s="7">
-        <v>1.51421e6</v>
+        <v>1.513559e6</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="X402" s="7">
         <v>2311</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z402" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA402" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB402" s="10">
         <v>502</v>
       </c>
       <c r="AC402" s="11">
-        <v>8.55</v>
+        <v>13.9</v>
       </c>
       <c r="AD402" s="11">
-        <v>8.55</v>
+        <v>13.9</v>
       </c>
       <c r="AE402" s="12">
-        <v>4292.1</v>
+        <v>6977.8</v>
       </c>
       <c r="AF402" s="12">
-        <v>4292.1</v>
+        <v>6977.8</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A403" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B403" s="13" t="s">
         <v>33</v>
@@ -39379,7 +39391,7 @@
         <v>44063</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E403" s="15" t="s">
         <v>33</v>
@@ -39388,7 +39400,7 @@
         <v>2310</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>36</v>
@@ -39397,34 +39409,20 @@
         <v>37</v>
       </c>
       <c r="J403" s="17">
-        <v>9.261504e6</v>
-      </c>
-      <c r="K403" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K403" s="15"/>
+      <c r="L403" s="17"/>
+      <c r="M403" s="15"/>
+      <c r="N403" s="18"/>
+      <c r="O403" s="18"/>
+      <c r="P403" s="19"/>
+      <c r="Q403" s="18"/>
+      <c r="R403" s="15" t="s">
         <v>1017</v>
       </c>
-      <c r="L403" s="17">
-        <v>2310</v>
-      </c>
-      <c r="M403" s="15" t="s">
-        <v>969</v>
-      </c>
-      <c r="N403" s="18">
-        <v>44084</v>
-      </c>
-      <c r="O403" s="18">
-        <v>44084</v>
-      </c>
-      <c r="P403" s="19">
-        <v>44449</v>
-      </c>
-      <c r="Q403" s="18">
-        <v>44264</v>
-      </c>
-      <c r="R403" s="15" t="s">
-        <v>496</v>
-      </c>
       <c r="S403" s="15" t="s">
-        <v>497</v>
+        <v>1018</v>
       </c>
       <c r="T403" s="13" t="s">
         <v>33</v>
@@ -39433,42 +39431,42 @@
         <v>33</v>
       </c>
       <c r="V403" s="17">
-        <v>1.487779e6</v>
+        <v>1.51421e6</v>
       </c>
       <c r="W403" s="15" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="X403" s="17">
         <v>2311</v>
       </c>
       <c r="Y403" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z403" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA403" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB403" s="21">
-        <v>1130</v>
+        <v>502</v>
       </c>
       <c r="AC403" s="22">
-        <v>22.27</v>
+        <v>8.55</v>
       </c>
       <c r="AD403" s="22">
-        <v>22.27</v>
+        <v>8.55</v>
       </c>
       <c r="AE403" s="23">
-        <v>25165.1</v>
+        <v>4292.1</v>
       </c>
       <c r="AF403" s="23">
-        <v>25165.1</v>
+        <v>4292.1</v>
       </c>
     </row>
     <row r="404" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A404" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>33</v>
@@ -39477,7 +39475,7 @@
         <v>44063</v>
       </c>
       <c r="D404" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>33</v>
@@ -39486,7 +39484,7 @@
         <v>2310</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H404" s="3" t="s">
         <v>36</v>
@@ -39498,13 +39496,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K404" s="5" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L404" s="7">
         <v>2310</v>
       </c>
       <c r="M404" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N404" s="8">
         <v>44084</v>
@@ -39531,42 +39529,42 @@
         <v>33</v>
       </c>
       <c r="V404" s="7">
-        <v>1.512285e6</v>
+        <v>1.487779e6</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>499</v>
+        <v>1022</v>
       </c>
       <c r="X404" s="7">
         <v>2311</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z404" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA404" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB404" s="10">
-        <v>250</v>
+        <v>1130</v>
       </c>
       <c r="AC404" s="11">
-        <v>69.9</v>
+        <v>22.27</v>
       </c>
       <c r="AD404" s="11">
-        <v>69.9</v>
+        <v>22.27</v>
       </c>
       <c r="AE404" s="12">
-        <v>17475</v>
+        <v>25165.1</v>
       </c>
       <c r="AF404" s="12">
-        <v>17475</v>
+        <v>25165.1</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A405" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>33</v>
@@ -39575,7 +39573,7 @@
         <v>44063</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E405" s="15" t="s">
         <v>33</v>
@@ -39584,7 +39582,7 @@
         <v>2310</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>36</v>
@@ -39596,13 +39594,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K405" s="15" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L405" s="17">
         <v>2310</v>
       </c>
       <c r="M405" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N405" s="18">
         <v>44084</v>
@@ -39629,42 +39627,42 @@
         <v>33</v>
       </c>
       <c r="V405" s="17">
-        <v>1.512293e6</v>
+        <v>1.512285e6</v>
       </c>
       <c r="W405" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="X405" s="17">
         <v>2311</v>
       </c>
       <c r="Y405" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z405" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA405" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB405" s="21">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AC405" s="22">
-        <v>13.76</v>
+        <v>69.9</v>
       </c>
       <c r="AD405" s="22">
-        <v>13.76</v>
+        <v>69.9</v>
       </c>
       <c r="AE405" s="23">
-        <v>12384</v>
+        <v>17475</v>
       </c>
       <c r="AF405" s="23">
-        <v>12384</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A406" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>33</v>
@@ -39673,7 +39671,7 @@
         <v>44063</v>
       </c>
       <c r="D406" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>33</v>
@@ -39682,7 +39680,7 @@
         <v>2310</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H406" s="3" t="s">
         <v>36</v>
@@ -39694,13 +39692,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K406" s="5" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L406" s="7">
         <v>2310</v>
       </c>
       <c r="M406" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N406" s="8">
         <v>44084</v>
@@ -39727,42 +39725,42 @@
         <v>33</v>
       </c>
       <c r="V406" s="7">
-        <v>1.512552e6</v>
+        <v>1.512293e6</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="X406" s="7">
         <v>2311</v>
       </c>
       <c r="Y406" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z406" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA406" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB406" s="10">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="AC406" s="11">
-        <v>6.9</v>
+        <v>13.76</v>
       </c>
       <c r="AD406" s="11">
-        <v>6.9</v>
+        <v>13.76</v>
       </c>
       <c r="AE406" s="12">
-        <v>27600</v>
+        <v>12384</v>
       </c>
       <c r="AF406" s="12">
-        <v>27600</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A407" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B407" s="13" t="s">
         <v>33</v>
@@ -39771,7 +39769,7 @@
         <v>44063</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E407" s="15" t="s">
         <v>33</v>
@@ -39780,7 +39778,7 @@
         <v>2310</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>36</v>
@@ -39792,13 +39790,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K407" s="15" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L407" s="17">
         <v>2310</v>
       </c>
       <c r="M407" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N407" s="18">
         <v>44084</v>
@@ -39825,42 +39823,42 @@
         <v>33</v>
       </c>
       <c r="V407" s="17">
-        <v>1.512897e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W407" s="15" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="X407" s="17">
         <v>2311</v>
       </c>
       <c r="Y407" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z407" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA407" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB407" s="21">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AC407" s="22">
-        <v>13.54</v>
+        <v>6.9</v>
       </c>
       <c r="AD407" s="22">
-        <v>13.54</v>
+        <v>6.9</v>
       </c>
       <c r="AE407" s="23">
-        <v>27080</v>
+        <v>27600</v>
       </c>
       <c r="AF407" s="23">
-        <v>27080</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A408" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>33</v>
@@ -39869,7 +39867,7 @@
         <v>44063</v>
       </c>
       <c r="D408" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>33</v>
@@ -39878,7 +39876,7 @@
         <v>2310</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H408" s="3" t="s">
         <v>36</v>
@@ -39890,13 +39888,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K408" s="5" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L408" s="7">
         <v>2310</v>
       </c>
       <c r="M408" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N408" s="8">
         <v>44084</v>
@@ -39923,42 +39921,42 @@
         <v>33</v>
       </c>
       <c r="V408" s="7">
-        <v>1.525662e6</v>
+        <v>1.512897e6</v>
       </c>
       <c r="W408" s="5" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="X408" s="7">
         <v>2311</v>
       </c>
       <c r="Y408" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z408" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA408" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB408" s="10">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="AC408" s="11">
-        <v>20.5</v>
+        <v>13.54</v>
       </c>
       <c r="AD408" s="11">
-        <v>20.5</v>
+        <v>13.54</v>
       </c>
       <c r="AE408" s="12">
-        <v>5125</v>
+        <v>27080</v>
       </c>
       <c r="AF408" s="12">
-        <v>5125</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A409" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B409" s="13" t="s">
         <v>33</v>
@@ -39967,7 +39965,7 @@
         <v>44063</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E409" s="15" t="s">
         <v>33</v>
@@ -39976,7 +39974,7 @@
         <v>2310</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>36</v>
@@ -39988,13 +39986,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K409" s="15" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L409" s="17">
         <v>2310</v>
       </c>
       <c r="M409" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N409" s="18">
         <v>44084</v>
@@ -40021,42 +40019,42 @@
         <v>33</v>
       </c>
       <c r="V409" s="17">
-        <v>1.525689e6</v>
+        <v>1.525662e6</v>
       </c>
       <c r="W409" s="15" t="s">
-        <v>1019</v>
+        <v>495</v>
       </c>
       <c r="X409" s="17">
         <v>2311</v>
       </c>
       <c r="Y409" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z409" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA409" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB409" s="21">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="AC409" s="22">
-        <v>7.5</v>
+        <v>20.5</v>
       </c>
       <c r="AD409" s="22">
-        <v>7.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE409" s="23">
-        <v>9750</v>
+        <v>5125</v>
       </c>
       <c r="AF409" s="23">
-        <v>9750</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A410" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>33</v>
@@ -40065,7 +40063,7 @@
         <v>44063</v>
       </c>
       <c r="D410" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>33</v>
@@ -40074,7 +40072,7 @@
         <v>2310</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>36</v>
@@ -40086,13 +40084,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K410" s="5" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="L410" s="7">
         <v>2310</v>
       </c>
       <c r="M410" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N410" s="8">
         <v>44084</v>
@@ -40119,42 +40117,42 @@
         <v>33</v>
       </c>
       <c r="V410" s="7">
-        <v>1.525727e6</v>
+        <v>1.525689e6</v>
       </c>
       <c r="W410" s="5" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="X410" s="7">
         <v>2311</v>
       </c>
       <c r="Y410" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z410" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA410" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB410" s="10">
-        <v>3700</v>
+        <v>1300</v>
       </c>
       <c r="AC410" s="11">
-        <v>14.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD410" s="11">
-        <v>14.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE410" s="12">
-        <v>52170</v>
+        <v>9750</v>
       </c>
       <c r="AF410" s="12">
-        <v>52170</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A411" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B411" s="13" t="s">
         <v>33</v>
@@ -40163,7 +40161,7 @@
         <v>44063</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E411" s="15" t="s">
         <v>33</v>
@@ -40172,7 +40170,7 @@
         <v>2310</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>36</v>
@@ -40181,7 +40179,7 @@
         <v>37</v>
       </c>
       <c r="J411" s="17">
-        <v>9.261506e6</v>
+        <v>9.261504e6</v>
       </c>
       <c r="K411" s="15" t="s">
         <v>1021</v>
@@ -40190,25 +40188,25 @@
         <v>2310</v>
       </c>
       <c r="M411" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N411" s="18">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="O411" s="18">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="P411" s="19">
         <v>44449</v>
       </c>
       <c r="Q411" s="18">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="R411" s="15" t="s">
-        <v>466</v>
+        <v>496</v>
       </c>
       <c r="S411" s="15" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="T411" s="13" t="s">
         <v>33</v>
@@ -40217,42 +40215,42 @@
         <v>33</v>
       </c>
       <c r="V411" s="17">
-        <v>1.487264e6</v>
+        <v>1.525727e6</v>
       </c>
       <c r="W411" s="15" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="X411" s="17">
         <v>2311</v>
       </c>
       <c r="Y411" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z411" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA411" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB411" s="21">
-        <v>5600</v>
+        <v>3700</v>
       </c>
       <c r="AC411" s="22">
-        <v>1.899</v>
+        <v>14.1</v>
       </c>
       <c r="AD411" s="22">
-        <v>1.899</v>
+        <v>14.1</v>
       </c>
       <c r="AE411" s="23">
-        <v>10634.4</v>
+        <v>52170</v>
       </c>
       <c r="AF411" s="23">
-        <v>10634.4</v>
+        <v>52170</v>
       </c>
     </row>
     <row r="412" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A412" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>33</v>
@@ -40261,7 +40259,7 @@
         <v>44063</v>
       </c>
       <c r="D412" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>33</v>
@@ -40270,7 +40268,7 @@
         <v>2310</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>36</v>
@@ -40279,34 +40277,34 @@
         <v>37</v>
       </c>
       <c r="J412" s="7">
-        <v>9.261509e6</v>
+        <v>9.261506e6</v>
       </c>
       <c r="K412" s="5" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="L412" s="7">
         <v>2310</v>
       </c>
       <c r="M412" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N412" s="8">
         <v>44085</v>
       </c>
       <c r="O412" s="8">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="P412" s="9">
         <v>44449</v>
       </c>
       <c r="Q412" s="8">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="R412" s="5" t="s">
-        <v>1024</v>
+        <v>466</v>
       </c>
       <c r="S412" s="5" t="s">
-        <v>1025</v>
+        <v>467</v>
       </c>
       <c r="T412" s="3" t="s">
         <v>33</v>
@@ -40315,7 +40313,7 @@
         <v>33</v>
       </c>
       <c r="V412" s="7">
-        <v>1.523619e6</v>
+        <v>1.487264e6</v>
       </c>
       <c r="W412" s="5" t="s">
         <v>1026</v>
@@ -40324,33 +40322,33 @@
         <v>2311</v>
       </c>
       <c r="Y412" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z412" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA412" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB412" s="10">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="AC412" s="11">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AD412" s="11">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AE412" s="12">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
       <c r="AF412" s="12">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A413" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B413" s="13" t="s">
         <v>33</v>
@@ -40359,7 +40357,7 @@
         <v>44063</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E413" s="15" t="s">
         <v>33</v>
@@ -40368,7 +40366,7 @@
         <v>2310</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>36</v>
@@ -40380,13 +40378,13 @@
         <v>9.261509e6</v>
       </c>
       <c r="K413" s="15" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="L413" s="17">
         <v>2310</v>
       </c>
       <c r="M413" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N413" s="18">
         <v>44085</v>
@@ -40401,10 +40399,10 @@
         <v>44264</v>
       </c>
       <c r="R413" s="15" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="S413" s="15" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="T413" s="13" t="s">
         <v>33</v>
@@ -40413,42 +40411,42 @@
         <v>33</v>
       </c>
       <c r="V413" s="17">
-        <v>1.523775e6</v>
+        <v>1.523619e6</v>
       </c>
       <c r="W413" s="15" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="X413" s="17">
         <v>2311</v>
       </c>
       <c r="Y413" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z413" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA413" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB413" s="21">
-        <v>1900</v>
+        <v>4300</v>
       </c>
       <c r="AC413" s="22">
-        <v>35</v>
+        <v>12.7</v>
       </c>
       <c r="AD413" s="22">
-        <v>35</v>
+        <v>12.7</v>
       </c>
       <c r="AE413" s="23">
-        <v>66500</v>
+        <v>54610</v>
       </c>
       <c r="AF413" s="23">
-        <v>66500</v>
+        <v>54610</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A414" s="3" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>33</v>
@@ -40457,7 +40455,7 @@
         <v>44063</v>
       </c>
       <c r="D414" s="26" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>33</v>
@@ -40466,7 +40464,7 @@
         <v>2310</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>36</v>
@@ -40478,13 +40476,13 @@
         <v>9.261509e6</v>
       </c>
       <c r="K414" s="5" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
       <c r="L414" s="7">
         <v>2310</v>
       </c>
       <c r="M414" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N414" s="8">
         <v>44085</v>
@@ -40499,10 +40497,10 @@
         <v>44264</v>
       </c>
       <c r="R414" s="5" t="s">
-        <v>1024</v>
+        <v>1028</v>
       </c>
       <c r="S414" s="5" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="T414" s="3" t="s">
         <v>33</v>
@@ -40511,42 +40509,42 @@
         <v>33</v>
       </c>
       <c r="V414" s="7">
-        <v>1.5245e6</v>
+        <v>1.523775e6</v>
       </c>
       <c r="W414" s="5" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="X414" s="7">
         <v>2311</v>
       </c>
       <c r="Y414" s="5" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z414" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA414" s="3" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB414" s="10">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="AC414" s="11">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="AD414" s="11">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="AE414" s="12">
-        <v>10800</v>
+        <v>66500</v>
       </c>
       <c r="AF414" s="12">
-        <v>10800</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A415" s="13" t="s">
-        <v>996</v>
+        <v>1000</v>
       </c>
       <c r="B415" s="13" t="s">
         <v>33</v>
@@ -40555,7 +40553,7 @@
         <v>44063</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="E415" s="15" t="s">
         <v>33</v>
@@ -40564,7 +40562,7 @@
         <v>2310</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>36</v>
@@ -40573,34 +40571,34 @@
         <v>37</v>
       </c>
       <c r="J415" s="17">
-        <v>9.261535e6</v>
+        <v>9.261509e6</v>
       </c>
       <c r="K415" s="15" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="L415" s="17">
         <v>2310</v>
       </c>
       <c r="M415" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="N415" s="18">
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="O415" s="18">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="P415" s="19">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="Q415" s="18">
-        <v>44268</v>
+        <v>44264</v>
       </c>
       <c r="R415" s="15" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="S415" s="15" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="T415" s="13" t="s">
         <v>33</v>
@@ -40609,7 +40607,7 @@
         <v>33</v>
       </c>
       <c r="V415" s="17">
-        <v>1.527878e6</v>
+        <v>1.5245e6</v>
       </c>
       <c r="W415" s="15" t="s">
         <v>1032</v>
@@ -40618,51 +40616,51 @@
         <v>2311</v>
       </c>
       <c r="Y415" s="15" t="s">
-        <v>969</v>
+        <v>973</v>
       </c>
       <c r="Z415" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA415" s="13" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="AB415" s="21">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="AC415" s="22">
-        <v>22.95</v>
+        <v>4.5</v>
       </c>
       <c r="AD415" s="22">
-        <v>22.95</v>
+        <v>4.5</v>
       </c>
       <c r="AE415" s="23">
-        <v>11475</v>
+        <v>10800</v>
       </c>
       <c r="AF415" s="23">
-        <v>11475</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A416" s="3" t="s">
-        <v>1033</v>
+        <v>1000</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C416" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D416" s="26" t="s">
-        <v>1034</v>
+        <v>1001</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F416" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1035</v>
+        <v>973</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>36</v>
@@ -40671,64 +40669,78 @@
         <v>37</v>
       </c>
       <c r="J416" s="7">
-        <v>0</v>
-      </c>
-      <c r="K416" s="5"/>
-      <c r="L416" s="7"/>
-      <c r="M416" s="5"/>
-      <c r="N416" s="8"/>
-      <c r="O416" s="8"/>
-      <c r="P416" s="9"/>
-      <c r="Q416" s="8"/>
+        <v>9.261535e6</v>
+      </c>
+      <c r="K416" s="5" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L416" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M416" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="N416" s="8">
+        <v>44088</v>
+      </c>
+      <c r="O416" s="8">
+        <v>44088</v>
+      </c>
+      <c r="P416" s="9">
+        <v>44450</v>
+      </c>
+      <c r="Q416" s="8">
+        <v>44268</v>
+      </c>
       <c r="R416" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="S416" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="T416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U416" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V416" s="7">
+        <v>1.527878e6</v>
+      </c>
+      <c r="W416" s="5" t="s">
         <v>1036</v>
       </c>
-      <c r="S416" s="5" t="s">
-        <v>1037</v>
-      </c>
-      <c r="T416" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U416" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V416" s="7">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W416" s="5" t="s">
-        <v>559</v>
-      </c>
       <c r="X416" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y416" s="5" t="s">
-        <v>1038</v>
+        <v>973</v>
       </c>
       <c r="Z416" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AA416" s="3" t="s">
-        <v>557</v>
+        <v>976</v>
       </c>
       <c r="AB416" s="10">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="AC416" s="11">
-        <v>8.2</v>
+        <v>22.95</v>
       </c>
       <c r="AD416" s="11">
-        <v>8.2</v>
+        <v>22.95</v>
       </c>
       <c r="AE416" s="12">
-        <v>24600</v>
+        <v>11475</v>
       </c>
       <c r="AF416" s="12">
-        <v>24600</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A417" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>33</v>
@@ -40737,7 +40749,7 @@
         <v>43944</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E417" s="15" t="s">
         <v>33</v>
@@ -40746,7 +40758,7 @@
         <v>2320</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>36</v>
@@ -40765,10 +40777,10 @@
       <c r="P417" s="19"/>
       <c r="Q417" s="18"/>
       <c r="R417" s="15" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="S417" s="15" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="T417" s="13" t="s">
         <v>33</v>
@@ -40777,42 +40789,42 @@
         <v>33</v>
       </c>
       <c r="V417" s="17">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W417" s="15" t="s">
-        <v>1041</v>
+        <v>559</v>
       </c>
       <c r="X417" s="17">
         <v>2321</v>
       </c>
       <c r="Y417" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z417" s="15" t="s">
-        <v>580</v>
+        <v>345</v>
       </c>
       <c r="AA417" s="13" t="s">
         <v>557</v>
       </c>
       <c r="AB417" s="21">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC417" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD417" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE417" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF417" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A418" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>33</v>
@@ -40821,7 +40833,7 @@
         <v>43944</v>
       </c>
       <c r="D418" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>33</v>
@@ -40830,7 +40842,7 @@
         <v>2320</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>36</v>
@@ -40849,10 +40861,10 @@
       <c r="P418" s="9"/>
       <c r="Q418" s="8"/>
       <c r="R418" s="5" t="s">
-        <v>915</v>
+        <v>1043</v>
       </c>
       <c r="S418" s="5" t="s">
-        <v>916</v>
+        <v>1044</v>
       </c>
       <c r="T418" s="3" t="s">
         <v>33</v>
@@ -40861,16 +40873,16 @@
         <v>33</v>
       </c>
       <c r="V418" s="7">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W418" s="5" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="X418" s="7">
         <v>2321</v>
       </c>
       <c r="Y418" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z418" s="5" t="s">
         <v>580</v>
@@ -40879,24 +40891,24 @@
         <v>557</v>
       </c>
       <c r="AB418" s="10">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC418" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD418" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE418" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF418" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="419" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A419" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B419" s="13" t="s">
         <v>33</v>
@@ -40905,7 +40917,7 @@
         <v>43944</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E419" s="15" t="s">
         <v>33</v>
@@ -40914,7 +40926,7 @@
         <v>2320</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>36</v>
@@ -40933,10 +40945,10 @@
       <c r="P419" s="19"/>
       <c r="Q419" s="18"/>
       <c r="R419" s="15" t="s">
-        <v>1043</v>
+        <v>915</v>
       </c>
       <c r="S419" s="15" t="s">
-        <v>1044</v>
+        <v>916</v>
       </c>
       <c r="T419" s="13" t="s">
         <v>33</v>
@@ -40945,16 +40957,16 @@
         <v>33</v>
       </c>
       <c r="V419" s="17">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W419" s="15" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="X419" s="17">
         <v>2321</v>
       </c>
       <c r="Y419" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z419" s="15" t="s">
         <v>580</v>
@@ -40963,24 +40975,24 @@
         <v>557</v>
       </c>
       <c r="AB419" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC419" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD419" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE419" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF419" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A420" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>33</v>
@@ -40989,7 +41001,7 @@
         <v>43944</v>
       </c>
       <c r="D420" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>33</v>
@@ -40998,7 +41010,7 @@
         <v>2320</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>36</v>
@@ -41017,10 +41029,10 @@
       <c r="P420" s="9"/>
       <c r="Q420" s="8"/>
       <c r="R420" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S420" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T420" s="3" t="s">
         <v>33</v>
@@ -41029,16 +41041,16 @@
         <v>33</v>
       </c>
       <c r="V420" s="7">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W420" s="5" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="X420" s="7">
         <v>2321</v>
       </c>
       <c r="Y420" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z420" s="5" t="s">
         <v>580</v>
@@ -41047,24 +41059,24 @@
         <v>557</v>
       </c>
       <c r="AB420" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC420" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD420" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE420" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF420" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="421" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A421" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B421" s="13" t="s">
         <v>33</v>
@@ -41073,7 +41085,7 @@
         <v>43944</v>
       </c>
       <c r="D421" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E421" s="15" t="s">
         <v>33</v>
@@ -41082,7 +41094,7 @@
         <v>2320</v>
       </c>
       <c r="G421" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>36</v>
@@ -41101,10 +41113,10 @@
       <c r="P421" s="19"/>
       <c r="Q421" s="18"/>
       <c r="R421" s="15" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S421" s="15" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T421" s="13" t="s">
         <v>33</v>
@@ -41113,16 +41125,16 @@
         <v>33</v>
       </c>
       <c r="V421" s="17">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W421" s="15" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="X421" s="17">
         <v>2321</v>
       </c>
       <c r="Y421" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z421" s="15" t="s">
         <v>580</v>
@@ -41131,24 +41143,24 @@
         <v>557</v>
       </c>
       <c r="AB421" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC421" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD421" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE421" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF421" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A422" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>33</v>
@@ -41157,7 +41169,7 @@
         <v>43944</v>
       </c>
       <c r="D422" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>33</v>
@@ -41166,7 +41178,7 @@
         <v>2320</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>36</v>
@@ -41185,10 +41197,10 @@
       <c r="P422" s="9"/>
       <c r="Q422" s="8"/>
       <c r="R422" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S422" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T422" s="3" t="s">
         <v>33</v>
@@ -41197,42 +41209,42 @@
         <v>33</v>
       </c>
       <c r="V422" s="7">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W422" s="5" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="X422" s="7">
         <v>2321</v>
       </c>
       <c r="Y422" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z422" s="5" t="s">
-        <v>428</v>
+        <v>580</v>
       </c>
       <c r="AA422" s="3" t="s">
         <v>557</v>
       </c>
       <c r="AB422" s="10">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC422" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD422" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE422" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF422" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A423" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B423" s="13" t="s">
         <v>33</v>
@@ -41241,7 +41253,7 @@
         <v>43944</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E423" s="15" t="s">
         <v>33</v>
@@ -41250,7 +41262,7 @@
         <v>2320</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>36</v>
@@ -41269,10 +41281,10 @@
       <c r="P423" s="19"/>
       <c r="Q423" s="18"/>
       <c r="R423" s="15" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S423" s="15" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T423" s="13" t="s">
         <v>33</v>
@@ -41281,42 +41293,42 @@
         <v>33</v>
       </c>
       <c r="V423" s="17">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W423" s="15" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="X423" s="17">
         <v>2321</v>
       </c>
       <c r="Y423" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z423" s="15" t="s">
-        <v>580</v>
+        <v>428</v>
       </c>
       <c r="AA423" s="13" t="s">
         <v>557</v>
       </c>
       <c r="AB423" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC423" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD423" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE423" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF423" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="424" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A424" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>33</v>
@@ -41325,7 +41337,7 @@
         <v>43944</v>
       </c>
       <c r="D424" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>33</v>
@@ -41334,7 +41346,7 @@
         <v>2320</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>36</v>
@@ -41353,10 +41365,10 @@
       <c r="P424" s="9"/>
       <c r="Q424" s="8"/>
       <c r="R424" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S424" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T424" s="3" t="s">
         <v>33</v>
@@ -41365,16 +41377,16 @@
         <v>33</v>
       </c>
       <c r="V424" s="7">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W424" s="5" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="X424" s="7">
         <v>2321</v>
       </c>
       <c r="Y424" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z424" s="5" t="s">
         <v>580</v>
@@ -41383,24 +41395,24 @@
         <v>557</v>
       </c>
       <c r="AB424" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC424" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD424" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE424" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF424" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="425" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A425" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B425" s="13" t="s">
         <v>33</v>
@@ -41409,7 +41421,7 @@
         <v>43944</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E425" s="15" t="s">
         <v>33</v>
@@ -41418,7 +41430,7 @@
         <v>2320</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>36</v>
@@ -41437,10 +41449,10 @@
       <c r="P425" s="19"/>
       <c r="Q425" s="18"/>
       <c r="R425" s="15" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S425" s="15" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T425" s="13" t="s">
         <v>33</v>
@@ -41449,16 +41461,16 @@
         <v>33</v>
       </c>
       <c r="V425" s="17">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W425" s="15" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="X425" s="17">
         <v>2321</v>
       </c>
       <c r="Y425" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z425" s="15" t="s">
         <v>580</v>
@@ -41467,24 +41479,24 @@
         <v>557</v>
       </c>
       <c r="AB425" s="21">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC425" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD425" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE425" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF425" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="426" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A426" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>33</v>
@@ -41493,7 +41505,7 @@
         <v>43944</v>
       </c>
       <c r="D426" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>33</v>
@@ -41502,7 +41514,7 @@
         <v>2320</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H426" s="3" t="s">
         <v>36</v>
@@ -41521,10 +41533,10 @@
       <c r="P426" s="9"/>
       <c r="Q426" s="8"/>
       <c r="R426" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S426" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T426" s="3" t="s">
         <v>33</v>
@@ -41533,16 +41545,16 @@
         <v>33</v>
       </c>
       <c r="V426" s="7">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W426" s="5" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="X426" s="7">
         <v>2321</v>
       </c>
       <c r="Y426" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z426" s="5" t="s">
         <v>580</v>
@@ -41551,24 +41563,24 @@
         <v>557</v>
       </c>
       <c r="AB426" s="10">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC426" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD426" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE426" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF426" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="427" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A427" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>33</v>
@@ -41577,7 +41589,7 @@
         <v>43944</v>
       </c>
       <c r="D427" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E427" s="15" t="s">
         <v>33</v>
@@ -41586,7 +41598,7 @@
         <v>2320</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>36</v>
@@ -41605,10 +41617,10 @@
       <c r="P427" s="19"/>
       <c r="Q427" s="18"/>
       <c r="R427" s="15" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S427" s="15" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T427" s="13" t="s">
         <v>33</v>
@@ -41617,16 +41629,16 @@
         <v>33</v>
       </c>
       <c r="V427" s="17">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W427" s="15" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="X427" s="17">
         <v>2321</v>
       </c>
       <c r="Y427" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z427" s="15" t="s">
         <v>580</v>
@@ -41635,24 +41647,24 @@
         <v>557</v>
       </c>
       <c r="AB427" s="21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC427" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD427" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE427" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF427" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="428" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A428" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>33</v>
@@ -41661,7 +41673,7 @@
         <v>43944</v>
       </c>
       <c r="D428" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>33</v>
@@ -41670,7 +41682,7 @@
         <v>2320</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H428" s="3" t="s">
         <v>36</v>
@@ -41689,10 +41701,10 @@
       <c r="P428" s="9"/>
       <c r="Q428" s="8"/>
       <c r="R428" s="5" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S428" s="5" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T428" s="3" t="s">
         <v>33</v>
@@ -41701,16 +41713,16 @@
         <v>33</v>
       </c>
       <c r="V428" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W428" s="24" t="s">
-        <v>1054</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W428" s="5" t="s">
+        <v>1057</v>
       </c>
       <c r="X428" s="7">
         <v>2321</v>
       </c>
       <c r="Y428" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z428" s="5" t="s">
         <v>580</v>
@@ -41719,24 +41731,24 @@
         <v>557</v>
       </c>
       <c r="AB428" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC428" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD428" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE428" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF428" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="429" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A429" s="13" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B429" s="13" t="s">
         <v>33</v>
@@ -41745,7 +41757,7 @@
         <v>43944</v>
       </c>
       <c r="D429" s="25" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E429" s="15" t="s">
         <v>33</v>
@@ -41754,7 +41766,7 @@
         <v>2320</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>36</v>
@@ -41773,10 +41785,10 @@
       <c r="P429" s="19"/>
       <c r="Q429" s="18"/>
       <c r="R429" s="15" t="s">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="S429" s="15" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="T429" s="13" t="s">
         <v>33</v>
@@ -41785,16 +41797,16 @@
         <v>33</v>
       </c>
       <c r="V429" s="17">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W429" s="15" t="s">
-        <v>1055</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W429" s="20" t="s">
+        <v>1058</v>
       </c>
       <c r="X429" s="17">
         <v>2321</v>
       </c>
       <c r="Y429" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z429" s="15" t="s">
         <v>580</v>
@@ -41806,21 +41818,21 @@
         <v>60</v>
       </c>
       <c r="AC429" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD429" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE429" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF429" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="430" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A430" s="3" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>33</v>
@@ -41829,7 +41841,7 @@
         <v>43944</v>
       </c>
       <c r="D430" s="26" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>33</v>
@@ -41838,7 +41850,7 @@
         <v>2320</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H430" s="3" t="s">
         <v>36</v>
@@ -41857,10 +41869,10 @@
       <c r="P430" s="9"/>
       <c r="Q430" s="8"/>
       <c r="R430" s="5" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="S430" s="5" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="T430" s="3" t="s">
         <v>33</v>
@@ -41869,16 +41881,16 @@
         <v>33</v>
       </c>
       <c r="V430" s="7">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W430" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="X430" s="7">
         <v>2321</v>
       </c>
       <c r="Y430" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z430" s="5" t="s">
         <v>580</v>
@@ -41887,33 +41899,33 @@
         <v>557</v>
       </c>
       <c r="AB430" s="10">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC430" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AD430" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AE430" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
       <c r="AF430" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A431" s="13" t="s">
-        <v>1059</v>
+        <v>1037</v>
       </c>
       <c r="B431" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C431" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D431" s="15" t="s">
-        <v>1060</v>
+        <v>43944</v>
+      </c>
+      <c r="D431" s="25" t="s">
+        <v>1038</v>
       </c>
       <c r="E431" s="15" t="s">
         <v>33</v>
@@ -41922,7 +41934,7 @@
         <v>2320</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>36</v>
@@ -41941,10 +41953,10 @@
       <c r="P431" s="19"/>
       <c r="Q431" s="18"/>
       <c r="R431" s="15" t="s">
-        <v>540</v>
+        <v>1060</v>
       </c>
       <c r="S431" s="15" t="s">
-        <v>541</v>
+        <v>1061</v>
       </c>
       <c r="T431" s="13" t="s">
         <v>33</v>
@@ -41953,51 +41965,51 @@
         <v>33</v>
       </c>
       <c r="V431" s="17">
-        <v>1.408623e6</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W431" s="15" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="X431" s="17">
         <v>2321</v>
       </c>
       <c r="Y431" s="15" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z431" s="15" t="s">
-        <v>422</v>
+        <v>580</v>
       </c>
       <c r="AA431" s="13" t="s">
         <v>557</v>
       </c>
       <c r="AB431" s="21">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AC431" s="22">
-        <v>18.69</v>
+        <v>34.2</v>
       </c>
       <c r="AD431" s="22">
-        <v>14.95</v>
+        <v>34.2</v>
       </c>
       <c r="AE431" s="23">
-        <v>37380</v>
+        <v>6840</v>
       </c>
       <c r="AF431" s="23">
-        <v>29900</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A432" s="3" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C432" s="4">
-        <v>44034</v>
-      </c>
-      <c r="D432" s="26" t="s">
-        <v>1063</v>
+        <v>44012</v>
+      </c>
+      <c r="D432" s="5" t="s">
+        <v>1064</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>33</v>
@@ -42006,85 +42018,169 @@
         <v>2320</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="H432" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I432" s="3" t="s">
-        <v>1064</v>
+        <v>37</v>
       </c>
       <c r="J432" s="7">
-        <v>9.260962e6</v>
-      </c>
-      <c r="K432" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K432" s="5"/>
+      <c r="L432" s="7"/>
+      <c r="M432" s="5"/>
+      <c r="N432" s="8"/>
+      <c r="O432" s="8"/>
+      <c r="P432" s="9"/>
+      <c r="Q432" s="8"/>
+      <c r="R432" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="S432" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="T432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U432" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V432" s="7">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W432" s="5" t="s">
         <v>1065</v>
-      </c>
-      <c r="L432" s="7">
-        <v>2320</v>
-      </c>
-      <c r="M432" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N432" s="8">
-        <v>44056</v>
-      </c>
-      <c r="O432" s="8">
-        <v>44056</v>
-      </c>
-      <c r="P432" s="9">
-        <v>44240</v>
-      </c>
-      <c r="Q432" s="8">
-        <v>44240</v>
-      </c>
-      <c r="R432" s="5" t="s">
-        <v>841</v>
-      </c>
-      <c r="S432" s="5" t="s">
-        <v>842</v>
-      </c>
-      <c r="T432" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U432" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V432" s="7">
-        <v>1.758276e6</v>
-      </c>
-      <c r="W432" s="5" t="s">
-        <v>843</v>
       </c>
       <c r="X432" s="7">
         <v>2321</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="Z432" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA432" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB432" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AC432" s="11">
+        <v>18.69</v>
+      </c>
+      <c r="AD432" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="AE432" s="12">
+        <v>37380</v>
+      </c>
+      <c r="AF432" s="12">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="433" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A433" s="13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B433" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C433" s="14">
+        <v>44034</v>
+      </c>
+      <c r="D433" s="25" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E433" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F433" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G433" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H433" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I433" s="13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J433" s="17">
+        <v>9.260962e6</v>
+      </c>
+      <c r="K433" s="15" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L433" s="17">
+        <v>2320</v>
+      </c>
+      <c r="M433" s="15" t="s">
+        <v>1039</v>
+      </c>
+      <c r="N433" s="18">
+        <v>44056</v>
+      </c>
+      <c r="O433" s="18">
+        <v>44056</v>
+      </c>
+      <c r="P433" s="19">
+        <v>44240</v>
+      </c>
+      <c r="Q433" s="18">
+        <v>44240</v>
+      </c>
+      <c r="R433" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="S433" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="T433" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U433" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V433" s="17">
+        <v>1.758276e6</v>
+      </c>
+      <c r="W433" s="15" t="s">
+        <v>843</v>
+      </c>
+      <c r="X433" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y433" s="15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="Z433" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="AA432" s="3" t="s">
+      <c r="AA433" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB432" s="10">
+      <c r="AB433" s="21">
         <v>7000</v>
       </c>
-      <c r="AC432" s="11">
+      <c r="AC433" s="22">
         <v>34.54</v>
       </c>
-      <c r="AD432" s="11">
+      <c r="AD433" s="22">
         <v>34.536</v>
       </c>
-      <c r="AE432" s="12">
+      <c r="AE433" s="23">
         <v>241780</v>
       </c>
-      <c r="AF432" s="12">
+      <c r="AF433" s="23">
         <v>241752</v>
       </c>
     </row>
-    <row r="433" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="434" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6850" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6865" uniqueCount="1082">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -2797,6 +2797,24 @@
   </si>
   <si>
     <t>TAPETES, CORTINAS, TOLDOS, PERSIANAS E COMPONENTES</t>
+  </si>
+  <si>
+    <t>2121022 000046/2020</t>
+  </si>
+  <si>
+    <t>Contratação de empresa especializada em instalação de acrílicos nos guichês de atendimento e mesas como forma de prevenção ao COVID-19.</t>
+  </si>
+  <si>
+    <t>17.501.123/0001-09</t>
+  </si>
+  <si>
+    <t>ACRILADES PLACAS LTDA -ME</t>
+  </si>
+  <si>
+    <t>SERVICOS DE CONFECCAO DE PECAS E ACESSORIOS DE ACRILICO EM GERAL.</t>
+  </si>
+  <si>
+    <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
   </si>
   <si>
     <t>2261032 000112/2020</t>
@@ -3441,7 +3459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF435"/>
+  <dimension ref="A1:AF436"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -26238,7 +26256,7 @@
         <v>44211</v>
       </c>
       <c r="Q257" s="18">
-        <v>44211</v>
+        <v>44232</v>
       </c>
       <c r="R257" s="15" t="s">
         <v>669</v>
@@ -35800,7 +35818,7 @@
         <v>33</v>
       </c>
       <c r="C363" s="14">
-        <v>43920</v>
+        <v>44090</v>
       </c>
       <c r="D363" s="15" t="s">
         <v>928</v>
@@ -35809,16 +35827,16 @@
         <v>33</v>
       </c>
       <c r="F363" s="16">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>929</v>
+        <v>875</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I363" s="13" t="s">
-        <v>37</v>
+        <v>300</v>
       </c>
       <c r="J363" s="17">
         <v>0</v>
@@ -35831,54 +35849,54 @@
       <c r="P363" s="19"/>
       <c r="Q363" s="18"/>
       <c r="R363" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="S363" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="S363" s="15" t="s">
+      <c r="T363" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U363" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V363" s="17">
+        <v>6297</v>
+      </c>
+      <c r="W363" s="15" t="s">
         <v>931</v>
       </c>
-      <c r="T363" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U363" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V363" s="17">
-        <v>82414</v>
-      </c>
-      <c r="W363" s="15" t="s">
+      <c r="X363" s="17">
+        <v>2121</v>
+      </c>
+      <c r="Y363" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="Z363" s="15" t="s">
         <v>932</v>
-      </c>
-      <c r="X363" s="17">
-        <v>2261</v>
-      </c>
-      <c r="Y363" s="15" t="s">
-        <v>929</v>
-      </c>
-      <c r="Z363" s="15" t="s">
-        <v>428</v>
       </c>
       <c r="AA363" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB363" s="21">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="AC363" s="22">
-        <v>676000e-6</v>
+        <v>3570</v>
       </c>
       <c r="AD363" s="22">
-        <v>676000e-6</v>
+        <v>2890</v>
       </c>
       <c r="AE363" s="23">
-        <v>6760</v>
+        <v>3570</v>
       </c>
       <c r="AF363" s="23">
-        <v>6760</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="364" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A364" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>33</v>
@@ -35887,7 +35905,7 @@
         <v>43920</v>
       </c>
       <c r="D364" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E364" s="5" t="s">
         <v>33</v>
@@ -35896,7 +35914,7 @@
         <v>2260</v>
       </c>
       <c r="G364" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H364" s="3" t="s">
         <v>36</v>
@@ -35915,10 +35933,10 @@
       <c r="P364" s="9"/>
       <c r="Q364" s="8"/>
       <c r="R364" s="5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="S364" s="5" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="T364" s="3" t="s">
         <v>33</v>
@@ -35927,42 +35945,42 @@
         <v>33</v>
       </c>
       <c r="V364" s="7">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W364" s="5" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="X364" s="7">
         <v>2261</v>
       </c>
       <c r="Y364" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z364" s="5" t="s">
-        <v>142</v>
+        <v>428</v>
       </c>
       <c r="AA364" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB364" s="10">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC364" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD364" s="11">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE364" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF364" s="12">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="365" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A365" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B365" s="13" t="s">
         <v>33</v>
@@ -35971,7 +35989,7 @@
         <v>43920</v>
       </c>
       <c r="D365" s="15" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E365" s="15" t="s">
         <v>33</v>
@@ -35980,7 +35998,7 @@
         <v>2260</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>36</v>
@@ -35999,10 +36017,10 @@
       <c r="P365" s="19"/>
       <c r="Q365" s="18"/>
       <c r="R365" s="15" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="S365" s="15" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="T365" s="13" t="s">
         <v>33</v>
@@ -36011,42 +36029,42 @@
         <v>33</v>
       </c>
       <c r="V365" s="17">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W365" s="15" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="X365" s="17">
         <v>2261</v>
       </c>
       <c r="Y365" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z365" s="15" t="s">
-        <v>428</v>
+        <v>142</v>
       </c>
       <c r="AA365" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB365" s="21">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC365" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD365" s="22">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE365" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF365" s="23">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="366" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A366" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>33</v>
@@ -36055,7 +36073,7 @@
         <v>43920</v>
       </c>
       <c r="D366" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E366" s="5" t="s">
         <v>33</v>
@@ -36064,7 +36082,7 @@
         <v>2260</v>
       </c>
       <c r="G366" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H366" s="3" t="s">
         <v>36</v>
@@ -36083,10 +36101,10 @@
       <c r="P366" s="9"/>
       <c r="Q366" s="8"/>
       <c r="R366" s="5" t="s">
-        <v>798</v>
+        <v>940</v>
       </c>
       <c r="S366" s="5" t="s">
-        <v>799</v>
+        <v>941</v>
       </c>
       <c r="T366" s="3" t="s">
         <v>33</v>
@@ -36095,16 +36113,16 @@
         <v>33</v>
       </c>
       <c r="V366" s="7">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W366" s="5" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="X366" s="7">
         <v>2261</v>
       </c>
       <c r="Y366" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z366" s="5" t="s">
         <v>428</v>
@@ -36113,24 +36131,24 @@
         <v>44</v>
       </c>
       <c r="AB366" s="10">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC366" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD366" s="11">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE366" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF366" s="12">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="367" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A367" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B367" s="13" t="s">
         <v>33</v>
@@ -36139,7 +36157,7 @@
         <v>43920</v>
       </c>
       <c r="D367" s="15" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E367" s="15" t="s">
         <v>33</v>
@@ -36148,7 +36166,7 @@
         <v>2260</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H367" s="13" t="s">
         <v>36</v>
@@ -36179,16 +36197,16 @@
         <v>33</v>
       </c>
       <c r="V367" s="17">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W367" s="15" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="X367" s="17">
         <v>2261</v>
       </c>
       <c r="Y367" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z367" s="15" t="s">
         <v>428</v>
@@ -36197,24 +36215,24 @@
         <v>44</v>
       </c>
       <c r="AB367" s="21">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC367" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD367" s="22">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE367" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF367" s="23">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="368" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A368" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>33</v>
@@ -36223,7 +36241,7 @@
         <v>43920</v>
       </c>
       <c r="D368" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E368" s="5" t="s">
         <v>33</v>
@@ -36232,7 +36250,7 @@
         <v>2260</v>
       </c>
       <c r="G368" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H368" s="3" t="s">
         <v>36</v>
@@ -36263,16 +36281,16 @@
         <v>33</v>
       </c>
       <c r="V368" s="7">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W368" s="5" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="X368" s="7">
         <v>2261</v>
       </c>
       <c r="Y368" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z368" s="5" t="s">
         <v>428</v>
@@ -36281,24 +36299,24 @@
         <v>44</v>
       </c>
       <c r="AB368" s="10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC368" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD368" s="11">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE368" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF368" s="12">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="369" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A369" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B369" s="13" t="s">
         <v>33</v>
@@ -36307,7 +36325,7 @@
         <v>43920</v>
       </c>
       <c r="D369" s="15" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E369" s="15" t="s">
         <v>33</v>
@@ -36316,7 +36334,7 @@
         <v>2260</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H369" s="13" t="s">
         <v>36</v>
@@ -36335,10 +36353,10 @@
       <c r="P369" s="19"/>
       <c r="Q369" s="18"/>
       <c r="R369" s="15" t="s">
-        <v>940</v>
+        <v>798</v>
       </c>
       <c r="S369" s="15" t="s">
-        <v>941</v>
+        <v>799</v>
       </c>
       <c r="T369" s="13" t="s">
         <v>33</v>
@@ -36347,16 +36365,16 @@
         <v>33</v>
       </c>
       <c r="V369" s="17">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W369" s="15" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="X369" s="17">
         <v>2261</v>
       </c>
       <c r="Y369" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z369" s="15" t="s">
         <v>428</v>
@@ -36365,24 +36383,24 @@
         <v>44</v>
       </c>
       <c r="AB369" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC369" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD369" s="22">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE369" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF369" s="23">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="370" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A370" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>33</v>
@@ -36391,7 +36409,7 @@
         <v>43920</v>
       </c>
       <c r="D370" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E370" s="5" t="s">
         <v>33</v>
@@ -36400,7 +36418,7 @@
         <v>2260</v>
       </c>
       <c r="G370" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H370" s="3" t="s">
         <v>36</v>
@@ -36419,10 +36437,10 @@
       <c r="P370" s="9"/>
       <c r="Q370" s="8"/>
       <c r="R370" s="5" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="S370" s="5" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="T370" s="3" t="s">
         <v>33</v>
@@ -36431,16 +36449,16 @@
         <v>33</v>
       </c>
       <c r="V370" s="7">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W370" s="5" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="X370" s="7">
         <v>2261</v>
       </c>
       <c r="Y370" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z370" s="5" t="s">
         <v>428</v>
@@ -36449,24 +36467,24 @@
         <v>44</v>
       </c>
       <c r="AB370" s="10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC370" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD370" s="11">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE370" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF370" s="12">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="371" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A371" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B371" s="13" t="s">
         <v>33</v>
@@ -36475,7 +36493,7 @@
         <v>43920</v>
       </c>
       <c r="D371" s="15" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E371" s="15" t="s">
         <v>33</v>
@@ -36484,7 +36502,7 @@
         <v>2260</v>
       </c>
       <c r="G371" s="13" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H371" s="13" t="s">
         <v>36</v>
@@ -36503,10 +36521,10 @@
       <c r="P371" s="19"/>
       <c r="Q371" s="18"/>
       <c r="R371" s="15" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="S371" s="15" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="T371" s="13" t="s">
         <v>33</v>
@@ -36515,16 +36533,16 @@
         <v>33</v>
       </c>
       <c r="V371" s="17">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W371" s="15" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="X371" s="17">
         <v>2261</v>
       </c>
       <c r="Y371" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z371" s="15" t="s">
         <v>428</v>
@@ -36533,24 +36551,24 @@
         <v>44</v>
       </c>
       <c r="AB371" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC371" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD371" s="22">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE371" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF371" s="23">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="372" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A372" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>33</v>
@@ -36559,7 +36577,7 @@
         <v>43920</v>
       </c>
       <c r="D372" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E372" s="5" t="s">
         <v>33</v>
@@ -36568,7 +36586,7 @@
         <v>2260</v>
       </c>
       <c r="G372" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H372" s="3" t="s">
         <v>36</v>
@@ -36577,32 +36595,20 @@
         <v>37</v>
       </c>
       <c r="J372" s="7">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K372" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="L372" s="7">
-        <v>2260</v>
-      </c>
-      <c r="M372" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="N372" s="8">
-        <v>43936</v>
-      </c>
-      <c r="O372" s="8">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K372" s="5"/>
+      <c r="L372" s="7"/>
+      <c r="M372" s="5"/>
+      <c r="N372" s="8"/>
+      <c r="O372" s="8"/>
       <c r="P372" s="9"/>
-      <c r="Q372" s="8">
-        <v>44115</v>
-      </c>
+      <c r="Q372" s="8"/>
       <c r="R372" s="5" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="S372" s="5" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="T372" s="3" t="s">
         <v>33</v>
@@ -36611,42 +36617,42 @@
         <v>33</v>
       </c>
       <c r="V372" s="7">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W372" s="5" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="X372" s="7">
         <v>2261</v>
       </c>
       <c r="Y372" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z372" s="5" t="s">
-        <v>122</v>
+        <v>428</v>
       </c>
       <c r="AA372" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB372" s="10">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC372" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD372" s="11">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE372" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF372" s="12">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="373" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A373" s="13" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B373" s="13" t="s">
         <v>33</v>
@@ -36655,7 +36661,7 @@
         <v>43920</v>
       </c>
       <c r="D373" s="15" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E373" s="15" t="s">
         <v>33</v>
@@ -36664,7 +36670,7 @@
         <v>2260</v>
       </c>
       <c r="G373" s="13" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H373" s="13" t="s">
         <v>36</v>
@@ -36673,16 +36679,16 @@
         <v>37</v>
       </c>
       <c r="J373" s="17">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K373" s="15" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="L373" s="17">
         <v>2260</v>
       </c>
       <c r="M373" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="N373" s="18">
         <v>43936</v>
@@ -36695,10 +36701,10 @@
         <v>44115</v>
       </c>
       <c r="R373" s="15" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="S373" s="15" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="T373" s="13" t="s">
         <v>33</v>
@@ -36707,16 +36713,16 @@
         <v>33</v>
       </c>
       <c r="V373" s="17">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W373" s="15" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="X373" s="17">
         <v>2261</v>
       </c>
       <c r="Y373" s="15" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z373" s="15" t="s">
         <v>122</v>
@@ -36728,21 +36734,21 @@
         <v>30000</v>
       </c>
       <c r="AC373" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD373" s="22">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE373" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF373" s="23">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="374" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A374" s="3" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>33</v>
@@ -36751,7 +36757,7 @@
         <v>43920</v>
       </c>
       <c r="D374" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="E374" s="5" t="s">
         <v>33</v>
@@ -36760,7 +36766,7 @@
         <v>2260</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="H374" s="3" t="s">
         <v>36</v>
@@ -36772,13 +36778,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K374" s="5" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="L374" s="7">
         <v>2260</v>
       </c>
       <c r="M374" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="N374" s="8">
         <v>43936</v>
@@ -36791,10 +36797,10 @@
         <v>44115</v>
       </c>
       <c r="R374" s="5" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="S374" s="5" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="T374" s="3" t="s">
         <v>33</v>
@@ -36803,16 +36809,16 @@
         <v>33</v>
       </c>
       <c r="V374" s="7">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W374" s="5" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="X374" s="7">
         <v>2261</v>
       </c>
       <c r="Y374" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="Z374" s="5" t="s">
         <v>122</v>
@@ -36824,61 +36830,73 @@
         <v>30000</v>
       </c>
       <c r="AC374" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD374" s="11">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE374" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF374" s="12">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A375" s="13" t="s">
-        <v>958</v>
+        <v>933</v>
       </c>
       <c r="B375" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C375" s="14">
-        <v>43972</v>
+        <v>43920</v>
       </c>
       <c r="D375" s="15" t="s">
+        <v>934</v>
+      </c>
+      <c r="E375" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F375" s="16">
+        <v>2260</v>
+      </c>
+      <c r="G375" s="13" t="s">
+        <v>935</v>
+      </c>
+      <c r="H375" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I375" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J375" s="17">
+        <v>9.245763e6</v>
+      </c>
+      <c r="K375" s="15" t="s">
         <v>959</v>
       </c>
-      <c r="E375" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F375" s="16">
-        <v>2280</v>
-      </c>
-      <c r="G375" s="13" t="s">
+      <c r="L375" s="17">
+        <v>2260</v>
+      </c>
+      <c r="M375" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="N375" s="18">
+        <v>43936</v>
+      </c>
+      <c r="O375" s="18">
+        <v>43936</v>
+      </c>
+      <c r="P375" s="19"/>
+      <c r="Q375" s="18">
+        <v>44115</v>
+      </c>
+      <c r="R375" s="15" t="s">
         <v>960</v>
       </c>
-      <c r="H375" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I375" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="J375" s="17">
-        <v>0</v>
-      </c>
-      <c r="K375" s="15"/>
-      <c r="L375" s="17"/>
-      <c r="M375" s="15"/>
-      <c r="N375" s="18"/>
-      <c r="O375" s="18"/>
-      <c r="P375" s="19"/>
-      <c r="Q375" s="18"/>
-      <c r="R375" s="15" t="s">
-        <v>525</v>
-      </c>
       <c r="S375" s="15" t="s">
-        <v>526</v>
+        <v>961</v>
       </c>
       <c r="T375" s="13" t="s">
         <v>33</v>
@@ -36887,149 +36905,135 @@
         <v>33</v>
       </c>
       <c r="V375" s="17">
-        <v>1.756699e6</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W375" s="15" t="s">
-        <v>492</v>
+        <v>963</v>
       </c>
       <c r="X375" s="17">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y375" s="15" t="s">
-        <v>961</v>
+        <v>935</v>
       </c>
       <c r="Z375" s="15" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="AA375" s="13" t="s">
-        <v>333</v>
+        <v>44</v>
       </c>
       <c r="AB375" s="21">
-        <v>127</v>
+        <v>30000</v>
       </c>
       <c r="AC375" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AD375" s="22">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AE375" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
       <c r="AF375" s="23">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C376" s="4">
-        <v>43921</v>
+        <v>43972</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F376" s="6">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I376" s="3" t="s">
-        <v>37</v>
+        <v>524</v>
       </c>
       <c r="J376" s="7">
-        <v>9.245674e6</v>
-      </c>
-      <c r="K376" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="L376" s="7">
-        <v>2300</v>
-      </c>
-      <c r="M376" s="5" t="s">
-        <v>964</v>
-      </c>
-      <c r="N376" s="8">
-        <v>43922</v>
-      </c>
-      <c r="O376" s="8">
-        <v>43922</v>
-      </c>
-      <c r="P376" s="9">
-        <v>44105</v>
-      </c>
-      <c r="Q376" s="8">
-        <v>44131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K376" s="5"/>
+      <c r="L376" s="7"/>
+      <c r="M376" s="5"/>
+      <c r="N376" s="8"/>
+      <c r="O376" s="8"/>
+      <c r="P376" s="9"/>
+      <c r="Q376" s="8"/>
       <c r="R376" s="5" t="s">
-        <v>966</v>
+        <v>525</v>
       </c>
       <c r="S376" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="T376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U376" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V376" s="7">
+        <v>1.756699e6</v>
+      </c>
+      <c r="W376" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="X376" s="7">
+        <v>2281</v>
+      </c>
+      <c r="Y376" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="T376" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U376" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V376" s="7">
-        <v>1155</v>
-      </c>
-      <c r="W376" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="X376" s="7">
-        <v>2301</v>
-      </c>
-      <c r="Y376" s="5" t="s">
-        <v>968</v>
-      </c>
       <c r="Z376" s="5" t="s">
-        <v>108</v>
+        <v>422</v>
       </c>
       <c r="AA376" s="3" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="AB376" s="10">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC376" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AD376" s="11">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AE376" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
       <c r="AF376" s="12">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="377" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A377" s="13" t="s">
+        <v>968</v>
+      </c>
+      <c r="B377" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C377" s="14">
+        <v>43921</v>
+      </c>
+      <c r="D377" s="15" t="s">
         <v>969</v>
-      </c>
-      <c r="B377" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C377" s="14">
-        <v>43935</v>
-      </c>
-      <c r="D377" s="15" t="s">
-        <v>970</v>
       </c>
       <c r="E377" s="15" t="s">
         <v>33</v>
@@ -37038,7 +37042,7 @@
         <v>2300</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>36</v>
@@ -37047,7 +37051,7 @@
         <v>37</v>
       </c>
       <c r="J377" s="17">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K377" s="15" t="s">
         <v>971</v>
@@ -37056,19 +37060,19 @@
         <v>2300</v>
       </c>
       <c r="M377" s="15" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="N377" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O377" s="18">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P377" s="19">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q377" s="18">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R377" s="15" t="s">
         <v>972</v>
@@ -37092,7 +37096,7 @@
         <v>2301</v>
       </c>
       <c r="Y377" s="15" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="Z377" s="15" t="s">
         <v>108</v>
@@ -37104,30 +37108,30 @@
         <v>0</v>
       </c>
       <c r="AC377" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD377" s="22">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE377" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF377" s="23">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A378" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C378" s="4">
-        <v>43963</v>
+        <v>43935</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>33</v>
@@ -37136,7 +37140,7 @@
         <v>2300</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>36</v>
@@ -37145,34 +37149,34 @@
         <v>37</v>
       </c>
       <c r="J378" s="7">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K378" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="L378" s="7">
         <v>2300</v>
       </c>
       <c r="M378" s="5" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="N378" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O378" s="8">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P378" s="9">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q378" s="8">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R378" s="5" t="s">
-        <v>365</v>
+        <v>978</v>
       </c>
       <c r="S378" s="5" t="s">
-        <v>366</v>
+        <v>979</v>
       </c>
       <c r="T378" s="3" t="s">
         <v>33</v>
@@ -37190,7 +37194,7 @@
         <v>2301</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="Z378" s="5" t="s">
         <v>108</v>
@@ -37202,39 +37206,39 @@
         <v>0</v>
       </c>
       <c r="AC378" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD378" s="11">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE378" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF378" s="12">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A379" s="13" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="B379" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C379" s="14">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="E379" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F379" s="16">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>36</v>
@@ -37243,34 +37247,34 @@
         <v>37</v>
       </c>
       <c r="J379" s="17">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K379" s="15" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="L379" s="17">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M379" s="15" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="N379" s="18">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O379" s="18">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P379" s="19">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q379" s="18">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R379" s="15" t="s">
-        <v>836</v>
+        <v>365</v>
       </c>
       <c r="S379" s="15" t="s">
-        <v>837</v>
+        <v>366</v>
       </c>
       <c r="T379" s="13" t="s">
         <v>33</v>
@@ -37279,42 +37283,42 @@
         <v>33</v>
       </c>
       <c r="V379" s="17">
-        <v>18228</v>
-      </c>
-      <c r="W379" s="20" t="s">
-        <v>981</v>
+        <v>1155</v>
+      </c>
+      <c r="W379" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="X379" s="17">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y379" s="15" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="Z379" s="15" t="s">
-        <v>414</v>
+        <v>108</v>
       </c>
       <c r="AA379" s="13" t="s">
-        <v>982</v>
+        <v>44</v>
       </c>
       <c r="AB379" s="21">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC379" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD379" s="22">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE379" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF379" s="23">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>33</v>
@@ -37323,7 +37327,7 @@
         <v>43928</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>33</v>
@@ -37332,7 +37336,7 @@
         <v>2310</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>36</v>
@@ -37344,13 +37348,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K380" s="5" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L380" s="7">
         <v>2310</v>
       </c>
       <c r="M380" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N380" s="8">
         <v>43943</v>
@@ -37377,42 +37381,42 @@
         <v>33</v>
       </c>
       <c r="V380" s="7">
-        <v>236268</v>
-      </c>
-      <c r="W380" s="5" t="s">
-        <v>983</v>
+        <v>18228</v>
+      </c>
+      <c r="W380" s="24" t="s">
+        <v>987</v>
       </c>
       <c r="X380" s="7">
         <v>2311</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z380" s="5" t="s">
-        <v>142</v>
+        <v>414</v>
       </c>
       <c r="AA380" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB380" s="10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC380" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD380" s="11">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE380" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF380" s="12">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="381" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A381" s="13" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B381" s="13" t="s">
         <v>33</v>
@@ -37421,7 +37425,7 @@
         <v>43928</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E381" s="15" t="s">
         <v>33</v>
@@ -37430,7 +37434,7 @@
         <v>2310</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>36</v>
@@ -37442,13 +37446,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K381" s="15" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L381" s="17">
         <v>2310</v>
       </c>
       <c r="M381" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N381" s="18">
         <v>43943</v>
@@ -37475,42 +37479,42 @@
         <v>33</v>
       </c>
       <c r="V381" s="17">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W381" s="15" t="s">
-        <v>843</v>
+        <v>989</v>
       </c>
       <c r="X381" s="17">
         <v>2311</v>
       </c>
       <c r="Y381" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z381" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA381" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB381" s="21">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC381" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD381" s="22">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE381" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF381" s="23">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>33</v>
@@ -37519,7 +37523,7 @@
         <v>43928</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>33</v>
@@ -37528,7 +37532,7 @@
         <v>2310</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H382" s="3" t="s">
         <v>36</v>
@@ -37540,13 +37544,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K382" s="5" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L382" s="7">
         <v>2310</v>
       </c>
       <c r="M382" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N382" s="8">
         <v>43943</v>
@@ -37573,42 +37577,42 @@
         <v>33</v>
       </c>
       <c r="V382" s="7">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="X382" s="7">
         <v>2311</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z382" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA382" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB382" s="10">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC382" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD382" s="11">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE382" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF382" s="12">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A383" s="13" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>33</v>
@@ -37617,7 +37621,7 @@
         <v>43928</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E383" s="15" t="s">
         <v>33</v>
@@ -37626,7 +37630,7 @@
         <v>2310</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>36</v>
@@ -37638,13 +37642,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K383" s="15" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L383" s="17">
         <v>2310</v>
       </c>
       <c r="M383" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N383" s="18">
         <v>43943</v>
@@ -37671,25 +37675,25 @@
         <v>33</v>
       </c>
       <c r="V383" s="17">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W383" s="15" t="s">
-        <v>984</v>
+        <v>838</v>
       </c>
       <c r="X383" s="17">
         <v>2311</v>
       </c>
       <c r="Y383" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z383" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA383" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB383" s="21">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC383" s="22">
         <v>45</v>
@@ -37698,15 +37702,15 @@
         <v>45</v>
       </c>
       <c r="AE383" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF383" s="23">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>33</v>
@@ -37715,7 +37719,7 @@
         <v>43928</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>33</v>
@@ -37724,7 +37728,7 @@
         <v>2310</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>36</v>
@@ -37736,13 +37740,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K384" s="5" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L384" s="7">
         <v>2310</v>
       </c>
       <c r="M384" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N384" s="8">
         <v>43943</v>
@@ -37769,22 +37773,22 @@
         <v>33</v>
       </c>
       <c r="V384" s="7">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W384" s="5" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="X384" s="7">
         <v>2311</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z384" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA384" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB384" s="10">
         <v>30</v>
@@ -37804,7 +37808,7 @@
     </row>
     <row r="385" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A385" s="13" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>33</v>
@@ -37813,7 +37817,7 @@
         <v>43928</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="E385" s="15" t="s">
         <v>33</v>
@@ -37822,7 +37826,7 @@
         <v>2310</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>36</v>
@@ -37834,13 +37838,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K385" s="15" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="L385" s="17">
         <v>2310</v>
       </c>
       <c r="M385" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N385" s="18">
         <v>43943</v>
@@ -37867,22 +37871,22 @@
         <v>33</v>
       </c>
       <c r="V385" s="17">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W385" s="15" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="X385" s="17">
         <v>2311</v>
       </c>
       <c r="Y385" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z385" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA385" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB385" s="21">
         <v>30</v>
@@ -37902,16 +37906,16 @@
     </row>
     <row r="386" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A386" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C386" s="4">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D386" s="5" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E386" s="5" t="s">
         <v>33</v>
@@ -37920,7 +37924,7 @@
         <v>2310</v>
       </c>
       <c r="G386" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H386" s="3" t="s">
         <v>36</v>
@@ -37929,34 +37933,34 @@
         <v>37</v>
       </c>
       <c r="J386" s="7">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K386" s="5" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="L386" s="7">
         <v>2310</v>
       </c>
       <c r="M386" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N386" s="8">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O386" s="8">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P386" s="9">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q386" s="8">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R386" s="5" t="s">
-        <v>990</v>
+        <v>836</v>
       </c>
       <c r="S386" s="5" t="s">
-        <v>991</v>
+        <v>837</v>
       </c>
       <c r="T386" s="3" t="s">
         <v>33</v>
@@ -37965,7 +37969,7 @@
         <v>33</v>
       </c>
       <c r="V386" s="7">
-        <v>1.755897e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W386" s="5" t="s">
         <v>992</v>
@@ -37974,28 +37978,28 @@
         <v>2311</v>
       </c>
       <c r="Y386" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z386" s="5" t="s">
-        <v>339</v>
+        <v>142</v>
       </c>
       <c r="AA386" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB386" s="10">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC386" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD386" s="11">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE386" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF386" s="12">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38006,7 +38010,7 @@
         <v>33</v>
       </c>
       <c r="C387" s="14">
-        <v>43966</v>
+        <v>43955</v>
       </c>
       <c r="D387" s="15" t="s">
         <v>994</v>
@@ -38018,7 +38022,7 @@
         <v>2310</v>
       </c>
       <c r="G387" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>36</v>
@@ -38027,7 +38031,7 @@
         <v>37</v>
       </c>
       <c r="J387" s="17">
-        <v>9.253515e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K387" s="15" t="s">
         <v>995</v>
@@ -38036,25 +38040,25 @@
         <v>2310</v>
       </c>
       <c r="M387" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N387" s="18">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O387" s="18">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P387" s="19">
-        <v>44757</v>
+        <v>44557</v>
       </c>
       <c r="Q387" s="18">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R387" s="15" t="s">
-        <v>546</v>
+        <v>996</v>
       </c>
       <c r="S387" s="15" t="s">
-        <v>547</v>
+        <v>997</v>
       </c>
       <c r="T387" s="13" t="s">
         <v>33</v>
@@ -38063,42 +38067,42 @@
         <v>33</v>
       </c>
       <c r="V387" s="17">
-        <v>1.722859e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W387" s="15" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="X387" s="17">
         <v>2311</v>
       </c>
       <c r="Y387" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z387" s="15" t="s">
-        <v>122</v>
+        <v>339</v>
       </c>
       <c r="AA387" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB387" s="21">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="AC387" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD387" s="22">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE387" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
       <c r="AF387" s="23">
-        <v>134000</v>
+        <v>285</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A388" s="3" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>33</v>
@@ -38107,7 +38111,7 @@
         <v>43966</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>33</v>
@@ -38116,7 +38120,7 @@
         <v>2310</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>36</v>
@@ -38128,13 +38132,13 @@
         <v>9.253515e6</v>
       </c>
       <c r="K388" s="5" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="L388" s="7">
         <v>2310</v>
       </c>
       <c r="M388" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N388" s="8">
         <v>44027</v>
@@ -38161,42 +38165,42 @@
         <v>33</v>
       </c>
       <c r="V388" s="7">
-        <v>1.722891e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W388" s="5" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="X388" s="7">
         <v>2311</v>
       </c>
       <c r="Y388" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z388" s="5" t="s">
         <v>122</v>
       </c>
       <c r="AA388" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB388" s="10">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="AC388" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AD388" s="11">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AE388" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
       <c r="AF388" s="12">
-        <v>8800</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A389" s="13" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B389" s="13" t="s">
         <v>33</v>
@@ -38205,7 +38209,7 @@
         <v>43966</v>
       </c>
       <c r="D389" s="15" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="E389" s="15" t="s">
         <v>33</v>
@@ -38214,7 +38218,7 @@
         <v>2310</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>36</v>
@@ -38223,16 +38227,16 @@
         <v>37</v>
       </c>
       <c r="J389" s="17">
-        <v>9.253532e6</v>
+        <v>9.253515e6</v>
       </c>
       <c r="K389" s="15" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="L389" s="17">
         <v>2310</v>
       </c>
       <c r="M389" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N389" s="18">
         <v>44027</v>
@@ -38247,10 +38251,10 @@
         <v>44206</v>
       </c>
       <c r="R389" s="15" t="s">
-        <v>999</v>
+        <v>546</v>
       </c>
       <c r="S389" s="15" t="s">
-        <v>1000</v>
+        <v>547</v>
       </c>
       <c r="T389" s="13" t="s">
         <v>33</v>
@@ -38259,51 +38263,51 @@
         <v>33</v>
       </c>
       <c r="V389" s="17">
-        <v>1.043684e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W389" s="15" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="X389" s="17">
         <v>2311</v>
       </c>
       <c r="Y389" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z389" s="15" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="AA389" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB389" s="21">
-        <v>780</v>
+        <v>20000</v>
       </c>
       <c r="AC389" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD389" s="22">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE389" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
       <c r="AF389" s="23">
-        <v>19500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C390" s="4">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>33</v>
@@ -38312,7 +38316,7 @@
         <v>2310</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>36</v>
@@ -38321,7 +38325,7 @@
         <v>37</v>
       </c>
       <c r="J390" s="7">
-        <v>9.253504e6</v>
+        <v>9.253532e6</v>
       </c>
       <c r="K390" s="5" t="s">
         <v>1004</v>
@@ -38330,7 +38334,7 @@
         <v>2310</v>
       </c>
       <c r="M390" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N390" s="8">
         <v>44027</v>
@@ -38339,16 +38343,16 @@
         <v>44027</v>
       </c>
       <c r="P390" s="9">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Q390" s="8">
         <v>44206</v>
       </c>
       <c r="R390" s="5" t="s">
-        <v>546</v>
+        <v>1005</v>
       </c>
       <c r="S390" s="5" t="s">
-        <v>547</v>
+        <v>1006</v>
       </c>
       <c r="T390" s="3" t="s">
         <v>33</v>
@@ -38357,51 +38361,51 @@
         <v>33</v>
       </c>
       <c r="V390" s="7">
-        <v>1.722905e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W390" s="5" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="X390" s="7">
         <v>2311</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z390" s="5" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA390" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB390" s="10">
-        <v>30000</v>
+        <v>780</v>
       </c>
       <c r="AC390" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AD390" s="11">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AE390" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
       <c r="AF390" s="12">
-        <v>34800</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A391" s="13" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B391" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C391" s="14">
-        <v>44063</v>
-      </c>
-      <c r="D391" s="25" t="s">
-        <v>1007</v>
+        <v>44001</v>
+      </c>
+      <c r="D391" s="15" t="s">
+        <v>1009</v>
       </c>
       <c r="E391" s="15" t="s">
         <v>33</v>
@@ -38410,7 +38414,7 @@
         <v>2310</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>36</v>
@@ -38419,20 +38423,34 @@
         <v>37</v>
       </c>
       <c r="J391" s="17">
-        <v>0</v>
-      </c>
-      <c r="K391" s="15"/>
-      <c r="L391" s="17"/>
-      <c r="M391" s="15"/>
-      <c r="N391" s="18"/>
-      <c r="O391" s="18"/>
-      <c r="P391" s="19"/>
-      <c r="Q391" s="18"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K391" s="15" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L391" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M391" s="15" t="s">
+        <v>985</v>
+      </c>
+      <c r="N391" s="18">
+        <v>44027</v>
+      </c>
+      <c r="O391" s="18">
+        <v>44027</v>
+      </c>
+      <c r="P391" s="19">
+        <v>44756</v>
+      </c>
+      <c r="Q391" s="18">
+        <v>44206</v>
+      </c>
       <c r="R391" s="15" t="s">
-        <v>1008</v>
+        <v>546</v>
       </c>
       <c r="S391" s="15" t="s">
-        <v>1009</v>
+        <v>547</v>
       </c>
       <c r="T391" s="13" t="s">
         <v>33</v>
@@ -38441,42 +38459,42 @@
         <v>33</v>
       </c>
       <c r="V391" s="17">
-        <v>1.489186e6</v>
+        <v>1.722905e6</v>
       </c>
       <c r="W391" s="15" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="X391" s="17">
         <v>2311</v>
       </c>
       <c r="Y391" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z391" s="15" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
       <c r="AA391" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB391" s="21">
-        <v>1170</v>
+        <v>30000</v>
       </c>
       <c r="AC391" s="22">
-        <v>73000e-6</v>
+        <v>1.16</v>
       </c>
       <c r="AD391" s="22">
-        <v>73000e-6</v>
+        <v>1.16</v>
       </c>
       <c r="AE391" s="23">
-        <v>85.41</v>
+        <v>34800</v>
       </c>
       <c r="AF391" s="23">
-        <v>85.41</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>33</v>
@@ -38485,7 +38503,7 @@
         <v>44063</v>
       </c>
       <c r="D392" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>33</v>
@@ -38494,7 +38512,7 @@
         <v>2310</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H392" s="3" t="s">
         <v>36</v>
@@ -38513,10 +38531,10 @@
       <c r="P392" s="9"/>
       <c r="Q392" s="8"/>
       <c r="R392" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S392" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T392" s="3" t="s">
         <v>33</v>
@@ -38525,42 +38543,42 @@
         <v>33</v>
       </c>
       <c r="V392" s="7">
-        <v>1.489259e6</v>
+        <v>1.489186e6</v>
       </c>
       <c r="W392" s="5" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="X392" s="7">
         <v>2311</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z392" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA392" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB392" s="10">
-        <v>1500</v>
+        <v>1170</v>
       </c>
       <c r="AC392" s="11">
-        <v>2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AD392" s="11">
-        <v>2</v>
+        <v>73000e-6</v>
       </c>
       <c r="AE392" s="12">
-        <v>3000</v>
+        <v>85.41</v>
       </c>
       <c r="AF392" s="12">
-        <v>3000</v>
+        <v>85.41</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A393" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>33</v>
@@ -38569,7 +38587,7 @@
         <v>44063</v>
       </c>
       <c r="D393" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E393" s="15" t="s">
         <v>33</v>
@@ -38578,7 +38596,7 @@
         <v>2310</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>36</v>
@@ -38597,10 +38615,10 @@
       <c r="P393" s="19"/>
       <c r="Q393" s="18"/>
       <c r="R393" s="15" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S393" s="15" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T393" s="13" t="s">
         <v>33</v>
@@ -38609,42 +38627,42 @@
         <v>33</v>
       </c>
       <c r="V393" s="17">
-        <v>1.489755e6</v>
+        <v>1.489259e6</v>
       </c>
       <c r="W393" s="15" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="X393" s="17">
         <v>2311</v>
       </c>
       <c r="Y393" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z393" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA393" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB393" s="21">
         <v>1500</v>
       </c>
       <c r="AC393" s="22">
-        <v>9.43</v>
+        <v>2</v>
       </c>
       <c r="AD393" s="22">
-        <v>9.43</v>
+        <v>2</v>
       </c>
       <c r="AE393" s="23">
-        <v>14145</v>
+        <v>3000</v>
       </c>
       <c r="AF393" s="23">
-        <v>14145</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A394" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>33</v>
@@ -38653,7 +38671,7 @@
         <v>44063</v>
       </c>
       <c r="D394" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>33</v>
@@ -38662,7 +38680,7 @@
         <v>2310</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H394" s="3" t="s">
         <v>36</v>
@@ -38681,10 +38699,10 @@
       <c r="P394" s="9"/>
       <c r="Q394" s="8"/>
       <c r="R394" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S394" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T394" s="3" t="s">
         <v>33</v>
@@ -38693,42 +38711,42 @@
         <v>33</v>
       </c>
       <c r="V394" s="7">
-        <v>1.490869e6</v>
+        <v>1.489755e6</v>
       </c>
       <c r="W394" s="5" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="X394" s="7">
         <v>2311</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z394" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA394" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB394" s="10">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AC394" s="11">
-        <v>7.9</v>
+        <v>9.43</v>
       </c>
       <c r="AD394" s="11">
-        <v>7.9</v>
+        <v>9.43</v>
       </c>
       <c r="AE394" s="12">
-        <v>15800</v>
+        <v>14145</v>
       </c>
       <c r="AF394" s="12">
-        <v>15800</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="395" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A395" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>33</v>
@@ -38737,7 +38755,7 @@
         <v>44063</v>
       </c>
       <c r="D395" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E395" s="15" t="s">
         <v>33</v>
@@ -38746,7 +38764,7 @@
         <v>2310</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>36</v>
@@ -38765,10 +38783,10 @@
       <c r="P395" s="19"/>
       <c r="Q395" s="18"/>
       <c r="R395" s="15" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S395" s="15" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T395" s="13" t="s">
         <v>33</v>
@@ -38777,42 +38795,42 @@
         <v>33</v>
       </c>
       <c r="V395" s="17">
-        <v>1.512552e6</v>
+        <v>1.490869e6</v>
       </c>
       <c r="W395" s="15" t="s">
-        <v>468</v>
+        <v>1019</v>
       </c>
       <c r="X395" s="17">
         <v>2311</v>
       </c>
       <c r="Y395" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z395" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA395" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB395" s="21">
-        <v>12650</v>
+        <v>2000</v>
       </c>
       <c r="AC395" s="22">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="AD395" s="22">
-        <v>10.3</v>
+        <v>7.9</v>
       </c>
       <c r="AE395" s="23">
-        <v>130295</v>
+        <v>15800</v>
       </c>
       <c r="AF395" s="23">
-        <v>130295</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="396" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>33</v>
@@ -38821,7 +38839,7 @@
         <v>44063</v>
       </c>
       <c r="D396" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>33</v>
@@ -38830,7 +38848,7 @@
         <v>2310</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>36</v>
@@ -38849,10 +38867,10 @@
       <c r="P396" s="9"/>
       <c r="Q396" s="8"/>
       <c r="R396" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S396" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T396" s="3" t="s">
         <v>33</v>
@@ -38861,42 +38879,42 @@
         <v>33</v>
       </c>
       <c r="V396" s="7">
-        <v>1.514385e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W396" s="5" t="s">
-        <v>1014</v>
+        <v>468</v>
       </c>
       <c r="X396" s="7">
         <v>2311</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z396" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA396" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB396" s="10">
-        <v>120</v>
+        <v>12650</v>
       </c>
       <c r="AC396" s="11">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD396" s="11">
-        <v>17.4</v>
+        <v>10.3</v>
       </c>
       <c r="AE396" s="12">
-        <v>2088</v>
+        <v>130295</v>
       </c>
       <c r="AF396" s="12">
-        <v>2088</v>
+        <v>130295</v>
       </c>
     </row>
     <row r="397" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A397" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B397" s="13" t="s">
         <v>33</v>
@@ -38905,7 +38923,7 @@
         <v>44063</v>
       </c>
       <c r="D397" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E397" s="15" t="s">
         <v>33</v>
@@ -38914,7 +38932,7 @@
         <v>2310</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>36</v>
@@ -38933,10 +38951,10 @@
       <c r="P397" s="19"/>
       <c r="Q397" s="18"/>
       <c r="R397" s="15" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S397" s="15" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T397" s="13" t="s">
         <v>33</v>
@@ -38945,42 +38963,42 @@
         <v>33</v>
       </c>
       <c r="V397" s="17">
-        <v>1.517287e6</v>
+        <v>1.514385e6</v>
       </c>
       <c r="W397" s="15" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="X397" s="17">
         <v>2311</v>
       </c>
       <c r="Y397" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z397" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA397" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB397" s="21">
-        <v>1130</v>
+        <v>120</v>
       </c>
       <c r="AC397" s="22">
-        <v>21.3</v>
+        <v>17.4</v>
       </c>
       <c r="AD397" s="22">
-        <v>21.3</v>
+        <v>17.4</v>
       </c>
       <c r="AE397" s="23">
-        <v>24069</v>
+        <v>2088</v>
       </c>
       <c r="AF397" s="23">
-        <v>24069</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="398" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A398" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B398" s="3" t="s">
         <v>33</v>
@@ -38989,7 +39007,7 @@
         <v>44063</v>
       </c>
       <c r="D398" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>33</v>
@@ -38998,7 +39016,7 @@
         <v>2310</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>36</v>
@@ -39017,10 +39035,10 @@
       <c r="P398" s="9"/>
       <c r="Q398" s="8"/>
       <c r="R398" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S398" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T398" s="3" t="s">
         <v>33</v>
@@ -39029,42 +39047,42 @@
         <v>33</v>
       </c>
       <c r="V398" s="7">
-        <v>1.527703e6</v>
+        <v>1.517287e6</v>
       </c>
       <c r="W398" s="5" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="X398" s="7">
         <v>2311</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z398" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA398" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB398" s="10">
-        <v>3400</v>
+        <v>1130</v>
       </c>
       <c r="AC398" s="11">
-        <v>850000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AD398" s="11">
-        <v>850000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AE398" s="12">
-        <v>2890</v>
+        <v>24069</v>
       </c>
       <c r="AF398" s="12">
-        <v>2890</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A399" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B399" s="13" t="s">
         <v>33</v>
@@ -39073,7 +39091,7 @@
         <v>44063</v>
       </c>
       <c r="D399" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E399" s="15" t="s">
         <v>33</v>
@@ -39082,7 +39100,7 @@
         <v>2310</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>36</v>
@@ -39101,10 +39119,10 @@
       <c r="P399" s="19"/>
       <c r="Q399" s="18"/>
       <c r="R399" s="15" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S399" s="15" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T399" s="13" t="s">
         <v>33</v>
@@ -39113,42 +39131,42 @@
         <v>33</v>
       </c>
       <c r="V399" s="17">
-        <v>1.568515e6</v>
+        <v>1.527703e6</v>
       </c>
       <c r="W399" s="15" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="X399" s="17">
         <v>2311</v>
       </c>
       <c r="Y399" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z399" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA399" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB399" s="21">
-        <v>9000</v>
+        <v>3400</v>
       </c>
       <c r="AC399" s="22">
-        <v>880000e-6</v>
+        <v>850000e-6</v>
       </c>
       <c r="AD399" s="22">
-        <v>880000e-6</v>
+        <v>850000e-6</v>
       </c>
       <c r="AE399" s="23">
-        <v>7920</v>
+        <v>2890</v>
       </c>
       <c r="AF399" s="23">
-        <v>7920</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A400" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>33</v>
@@ -39157,7 +39175,7 @@
         <v>44063</v>
       </c>
       <c r="D400" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>33</v>
@@ -39166,7 +39184,7 @@
         <v>2310</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>36</v>
@@ -39185,10 +39203,10 @@
       <c r="P400" s="9"/>
       <c r="Q400" s="8"/>
       <c r="R400" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S400" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T400" s="3" t="s">
         <v>33</v>
@@ -39197,42 +39215,42 @@
         <v>33</v>
       </c>
       <c r="V400" s="7">
-        <v>1.573985e6</v>
+        <v>1.568515e6</v>
       </c>
       <c r="W400" s="5" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="X400" s="7">
         <v>2311</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z400" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA400" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB400" s="10">
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="AC400" s="11">
-        <v>1.25</v>
+        <v>880000e-6</v>
       </c>
       <c r="AD400" s="11">
-        <v>1.25</v>
+        <v>880000e-6</v>
       </c>
       <c r="AE400" s="12">
-        <v>5625</v>
+        <v>7920</v>
       </c>
       <c r="AF400" s="12">
-        <v>5625</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="401" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A401" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B401" s="13" t="s">
         <v>33</v>
@@ -39241,7 +39259,7 @@
         <v>44063</v>
       </c>
       <c r="D401" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E401" s="15" t="s">
         <v>33</v>
@@ -39250,7 +39268,7 @@
         <v>2310</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>36</v>
@@ -39269,10 +39287,10 @@
       <c r="P401" s="19"/>
       <c r="Q401" s="18"/>
       <c r="R401" s="15" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="S401" s="15" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="T401" s="13" t="s">
         <v>33</v>
@@ -39281,42 +39299,42 @@
         <v>33</v>
       </c>
       <c r="V401" s="17">
-        <v>1.582194e6</v>
+        <v>1.573985e6</v>
       </c>
       <c r="W401" s="15" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="X401" s="17">
         <v>2311</v>
       </c>
       <c r="Y401" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z401" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA401" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB401" s="21">
-        <v>48</v>
+        <v>4500</v>
       </c>
       <c r="AC401" s="22">
-        <v>17.4</v>
+        <v>1.25</v>
       </c>
       <c r="AD401" s="22">
-        <v>17.4</v>
+        <v>1.25</v>
       </c>
       <c r="AE401" s="23">
-        <v>835.2</v>
+        <v>5625</v>
       </c>
       <c r="AF401" s="23">
-        <v>835.2</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="402" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A402" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>33</v>
@@ -39325,7 +39343,7 @@
         <v>44063</v>
       </c>
       <c r="D402" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>33</v>
@@ -39334,7 +39352,7 @@
         <v>2310</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H402" s="3" t="s">
         <v>36</v>
@@ -39353,10 +39371,10 @@
       <c r="P402" s="9"/>
       <c r="Q402" s="8"/>
       <c r="R402" s="5" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="S402" s="5" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="T402" s="3" t="s">
         <v>33</v>
@@ -39365,42 +39383,42 @@
         <v>33</v>
       </c>
       <c r="V402" s="7">
-        <v>1.527525e6</v>
+        <v>1.582194e6</v>
       </c>
       <c r="W402" s="5" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="X402" s="7">
         <v>2311</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z402" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA402" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB402" s="10">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC402" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AD402" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AE402" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
       <c r="AF402" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A403" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B403" s="13" t="s">
         <v>33</v>
@@ -39409,7 +39427,7 @@
         <v>44063</v>
       </c>
       <c r="D403" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E403" s="15" t="s">
         <v>33</v>
@@ -39418,7 +39436,7 @@
         <v>2310</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>36</v>
@@ -39437,10 +39455,10 @@
       <c r="P403" s="19"/>
       <c r="Q403" s="18"/>
       <c r="R403" s="15" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="S403" s="15" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="T403" s="13" t="s">
         <v>33</v>
@@ -39449,42 +39467,42 @@
         <v>33</v>
       </c>
       <c r="V403" s="17">
-        <v>1.513559e6</v>
+        <v>1.527525e6</v>
       </c>
       <c r="W403" s="15" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="X403" s="17">
         <v>2311</v>
       </c>
       <c r="Y403" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z403" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA403" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB403" s="21">
-        <v>502</v>
+        <v>1000</v>
       </c>
       <c r="AC403" s="22">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="AD403" s="22">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="AE403" s="23">
-        <v>6977.8</v>
+        <v>14300</v>
       </c>
       <c r="AF403" s="23">
-        <v>6977.8</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="404" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A404" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>33</v>
@@ -39493,7 +39511,7 @@
         <v>44063</v>
       </c>
       <c r="D404" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>33</v>
@@ -39502,7 +39520,7 @@
         <v>2310</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H404" s="3" t="s">
         <v>36</v>
@@ -39521,10 +39539,10 @@
       <c r="P404" s="9"/>
       <c r="Q404" s="8"/>
       <c r="R404" s="5" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="S404" s="5" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="T404" s="3" t="s">
         <v>33</v>
@@ -39533,42 +39551,42 @@
         <v>33</v>
       </c>
       <c r="V404" s="7">
-        <v>1.51421e6</v>
+        <v>1.513559e6</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="X404" s="7">
         <v>2311</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z404" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA404" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB404" s="10">
         <v>502</v>
       </c>
       <c r="AC404" s="11">
-        <v>8.55</v>
+        <v>13.9</v>
       </c>
       <c r="AD404" s="11">
-        <v>8.55</v>
+        <v>13.9</v>
       </c>
       <c r="AE404" s="12">
-        <v>4292.1</v>
+        <v>6977.8</v>
       </c>
       <c r="AF404" s="12">
-        <v>4292.1</v>
+        <v>6977.8</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A405" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>33</v>
@@ -39577,7 +39595,7 @@
         <v>44063</v>
       </c>
       <c r="D405" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E405" s="15" t="s">
         <v>33</v>
@@ -39586,7 +39604,7 @@
         <v>2310</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>36</v>
@@ -39595,34 +39613,20 @@
         <v>37</v>
       </c>
       <c r="J405" s="17">
-        <v>9.261504e6</v>
-      </c>
-      <c r="K405" s="15" t="s">
-        <v>1027</v>
-      </c>
-      <c r="L405" s="17">
-        <v>2310</v>
-      </c>
-      <c r="M405" s="15" t="s">
-        <v>979</v>
-      </c>
-      <c r="N405" s="18">
-        <v>44084</v>
-      </c>
-      <c r="O405" s="18">
-        <v>44084</v>
-      </c>
-      <c r="P405" s="19">
-        <v>44449</v>
-      </c>
-      <c r="Q405" s="18">
-        <v>44264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K405" s="15"/>
+      <c r="L405" s="17"/>
+      <c r="M405" s="15"/>
+      <c r="N405" s="18"/>
+      <c r="O405" s="18"/>
+      <c r="P405" s="19"/>
+      <c r="Q405" s="18"/>
       <c r="R405" s="15" t="s">
-        <v>503</v>
+        <v>1029</v>
       </c>
       <c r="S405" s="15" t="s">
-        <v>504</v>
+        <v>1030</v>
       </c>
       <c r="T405" s="13" t="s">
         <v>33</v>
@@ -39631,42 +39635,42 @@
         <v>33</v>
       </c>
       <c r="V405" s="17">
-        <v>1.487779e6</v>
+        <v>1.51421e6</v>
       </c>
       <c r="W405" s="15" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="X405" s="17">
         <v>2311</v>
       </c>
       <c r="Y405" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z405" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA405" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB405" s="21">
-        <v>1130</v>
+        <v>502</v>
       </c>
       <c r="AC405" s="22">
-        <v>22.27</v>
+        <v>8.55</v>
       </c>
       <c r="AD405" s="22">
-        <v>22.27</v>
+        <v>8.55</v>
       </c>
       <c r="AE405" s="23">
-        <v>25165.1</v>
+        <v>4292.1</v>
       </c>
       <c r="AF405" s="23">
-        <v>25165.1</v>
+        <v>4292.1</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A406" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>33</v>
@@ -39675,7 +39679,7 @@
         <v>44063</v>
       </c>
       <c r="D406" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>33</v>
@@ -39684,7 +39688,7 @@
         <v>2310</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H406" s="3" t="s">
         <v>36</v>
@@ -39696,13 +39700,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K406" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L406" s="7">
         <v>2310</v>
       </c>
       <c r="M406" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N406" s="8">
         <v>44084</v>
@@ -39729,42 +39733,42 @@
         <v>33</v>
       </c>
       <c r="V406" s="7">
-        <v>1.512285e6</v>
+        <v>1.487779e6</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>506</v>
+        <v>1034</v>
       </c>
       <c r="X406" s="7">
         <v>2311</v>
       </c>
       <c r="Y406" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z406" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA406" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB406" s="10">
-        <v>250</v>
+        <v>1130</v>
       </c>
       <c r="AC406" s="11">
-        <v>69.9</v>
+        <v>22.27</v>
       </c>
       <c r="AD406" s="11">
-        <v>69.9</v>
+        <v>22.27</v>
       </c>
       <c r="AE406" s="12">
-        <v>17475</v>
+        <v>25165.1</v>
       </c>
       <c r="AF406" s="12">
-        <v>17475</v>
+        <v>25165.1</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A407" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B407" s="13" t="s">
         <v>33</v>
@@ -39773,7 +39777,7 @@
         <v>44063</v>
       </c>
       <c r="D407" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E407" s="15" t="s">
         <v>33</v>
@@ -39782,7 +39786,7 @@
         <v>2310</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>36</v>
@@ -39794,13 +39798,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K407" s="15" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L407" s="17">
         <v>2310</v>
       </c>
       <c r="M407" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N407" s="18">
         <v>44084</v>
@@ -39827,42 +39831,42 @@
         <v>33</v>
       </c>
       <c r="V407" s="17">
-        <v>1.512293e6</v>
+        <v>1.512285e6</v>
       </c>
       <c r="W407" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="X407" s="17">
         <v>2311</v>
       </c>
       <c r="Y407" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z407" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA407" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB407" s="21">
-        <v>900</v>
+        <v>250</v>
       </c>
       <c r="AC407" s="22">
-        <v>13.76</v>
+        <v>69.9</v>
       </c>
       <c r="AD407" s="22">
-        <v>13.76</v>
+        <v>69.9</v>
       </c>
       <c r="AE407" s="23">
-        <v>12384</v>
+        <v>17475</v>
       </c>
       <c r="AF407" s="23">
-        <v>12384</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A408" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>33</v>
@@ -39871,7 +39875,7 @@
         <v>44063</v>
       </c>
       <c r="D408" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>33</v>
@@ -39880,7 +39884,7 @@
         <v>2310</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H408" s="3" t="s">
         <v>36</v>
@@ -39892,13 +39896,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K408" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L408" s="7">
         <v>2310</v>
       </c>
       <c r="M408" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N408" s="8">
         <v>44084</v>
@@ -39925,42 +39929,42 @@
         <v>33</v>
       </c>
       <c r="V408" s="7">
-        <v>1.512552e6</v>
+        <v>1.512293e6</v>
       </c>
       <c r="W408" s="5" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
       <c r="X408" s="7">
         <v>2311</v>
       </c>
       <c r="Y408" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z408" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA408" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB408" s="10">
-        <v>4000</v>
+        <v>900</v>
       </c>
       <c r="AC408" s="11">
-        <v>6.9</v>
+        <v>13.76</v>
       </c>
       <c r="AD408" s="11">
-        <v>6.9</v>
+        <v>13.76</v>
       </c>
       <c r="AE408" s="12">
-        <v>27600</v>
+        <v>12384</v>
       </c>
       <c r="AF408" s="12">
-        <v>27600</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A409" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B409" s="13" t="s">
         <v>33</v>
@@ -39969,7 +39973,7 @@
         <v>44063</v>
       </c>
       <c r="D409" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E409" s="15" t="s">
         <v>33</v>
@@ -39978,7 +39982,7 @@
         <v>2310</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>36</v>
@@ -39990,13 +39994,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K409" s="15" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L409" s="17">
         <v>2310</v>
       </c>
       <c r="M409" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N409" s="18">
         <v>44084</v>
@@ -40023,42 +40027,42 @@
         <v>33</v>
       </c>
       <c r="V409" s="17">
-        <v>1.512897e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W409" s="15" t="s">
-        <v>514</v>
+        <v>468</v>
       </c>
       <c r="X409" s="17">
         <v>2311</v>
       </c>
       <c r="Y409" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z409" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA409" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB409" s="21">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="AC409" s="22">
-        <v>13.54</v>
+        <v>6.9</v>
       </c>
       <c r="AD409" s="22">
-        <v>13.54</v>
+        <v>6.9</v>
       </c>
       <c r="AE409" s="23">
-        <v>27080</v>
+        <v>27600</v>
       </c>
       <c r="AF409" s="23">
-        <v>27080</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A410" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>33</v>
@@ -40067,7 +40071,7 @@
         <v>44063</v>
       </c>
       <c r="D410" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>33</v>
@@ -40076,7 +40080,7 @@
         <v>2310</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>36</v>
@@ -40088,13 +40092,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K410" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L410" s="7">
         <v>2310</v>
       </c>
       <c r="M410" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N410" s="8">
         <v>44084</v>
@@ -40121,42 +40125,42 @@
         <v>33</v>
       </c>
       <c r="V410" s="7">
-        <v>1.525662e6</v>
+        <v>1.512897e6</v>
       </c>
       <c r="W410" s="5" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="X410" s="7">
         <v>2311</v>
       </c>
       <c r="Y410" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z410" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA410" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB410" s="10">
-        <v>250</v>
+        <v>2000</v>
       </c>
       <c r="AC410" s="11">
-        <v>20.5</v>
+        <v>13.54</v>
       </c>
       <c r="AD410" s="11">
-        <v>20.5</v>
+        <v>13.54</v>
       </c>
       <c r="AE410" s="12">
-        <v>5125</v>
+        <v>27080</v>
       </c>
       <c r="AF410" s="12">
-        <v>5125</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A411" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B411" s="13" t="s">
         <v>33</v>
@@ -40165,7 +40169,7 @@
         <v>44063</v>
       </c>
       <c r="D411" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E411" s="15" t="s">
         <v>33</v>
@@ -40174,7 +40178,7 @@
         <v>2310</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>36</v>
@@ -40186,13 +40190,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K411" s="15" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L411" s="17">
         <v>2310</v>
       </c>
       <c r="M411" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N411" s="18">
         <v>44084</v>
@@ -40219,42 +40223,42 @@
         <v>33</v>
       </c>
       <c r="V411" s="17">
-        <v>1.525689e6</v>
+        <v>1.525662e6</v>
       </c>
       <c r="W411" s="15" t="s">
-        <v>1029</v>
+        <v>502</v>
       </c>
       <c r="X411" s="17">
         <v>2311</v>
       </c>
       <c r="Y411" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z411" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA411" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB411" s="21">
-        <v>1300</v>
+        <v>250</v>
       </c>
       <c r="AC411" s="22">
-        <v>7.5</v>
+        <v>20.5</v>
       </c>
       <c r="AD411" s="22">
-        <v>7.5</v>
+        <v>20.5</v>
       </c>
       <c r="AE411" s="23">
-        <v>9750</v>
+        <v>5125</v>
       </c>
       <c r="AF411" s="23">
-        <v>9750</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="412" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A412" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>33</v>
@@ -40263,7 +40267,7 @@
         <v>44063</v>
       </c>
       <c r="D412" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>33</v>
@@ -40272,7 +40276,7 @@
         <v>2310</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>36</v>
@@ -40284,13 +40288,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K412" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="L412" s="7">
         <v>2310</v>
       </c>
       <c r="M412" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N412" s="8">
         <v>44084</v>
@@ -40317,42 +40321,42 @@
         <v>33</v>
       </c>
       <c r="V412" s="7">
-        <v>1.525727e6</v>
+        <v>1.525689e6</v>
       </c>
       <c r="W412" s="5" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="X412" s="7">
         <v>2311</v>
       </c>
       <c r="Y412" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z412" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA412" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB412" s="10">
-        <v>3700</v>
+        <v>1300</v>
       </c>
       <c r="AC412" s="11">
-        <v>14.1</v>
+        <v>7.5</v>
       </c>
       <c r="AD412" s="11">
-        <v>14.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE412" s="12">
-        <v>52170</v>
+        <v>9750</v>
       </c>
       <c r="AF412" s="12">
-        <v>52170</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A413" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B413" s="13" t="s">
         <v>33</v>
@@ -40361,7 +40365,7 @@
         <v>44063</v>
       </c>
       <c r="D413" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E413" s="15" t="s">
         <v>33</v>
@@ -40370,7 +40374,7 @@
         <v>2310</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>36</v>
@@ -40379,34 +40383,34 @@
         <v>37</v>
       </c>
       <c r="J413" s="17">
-        <v>9.261506e6</v>
+        <v>9.261504e6</v>
       </c>
       <c r="K413" s="15" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="L413" s="17">
         <v>2310</v>
       </c>
       <c r="M413" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N413" s="18">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="O413" s="18">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="P413" s="19">
         <v>44449</v>
       </c>
       <c r="Q413" s="18">
-        <v>44265</v>
+        <v>44264</v>
       </c>
       <c r="R413" s="15" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="S413" s="15" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="T413" s="13" t="s">
         <v>33</v>
@@ -40415,42 +40419,42 @@
         <v>33</v>
       </c>
       <c r="V413" s="17">
-        <v>1.487264e6</v>
+        <v>1.525727e6</v>
       </c>
       <c r="W413" s="15" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="X413" s="17">
         <v>2311</v>
       </c>
       <c r="Y413" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z413" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA413" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB413" s="21">
-        <v>5600</v>
+        <v>3700</v>
       </c>
       <c r="AC413" s="22">
-        <v>1.899</v>
+        <v>14.1</v>
       </c>
       <c r="AD413" s="22">
-        <v>1.899</v>
+        <v>14.1</v>
       </c>
       <c r="AE413" s="23">
-        <v>10634.4</v>
+        <v>52170</v>
       </c>
       <c r="AF413" s="23">
-        <v>10634.4</v>
+        <v>52170</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A414" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>33</v>
@@ -40459,7 +40463,7 @@
         <v>44063</v>
       </c>
       <c r="D414" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>33</v>
@@ -40468,7 +40472,7 @@
         <v>2310</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>36</v>
@@ -40477,34 +40481,34 @@
         <v>37</v>
       </c>
       <c r="J414" s="7">
-        <v>9.261509e6</v>
+        <v>9.261506e6</v>
       </c>
       <c r="K414" s="5" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="L414" s="7">
         <v>2310</v>
       </c>
       <c r="M414" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N414" s="8">
         <v>44085</v>
       </c>
       <c r="O414" s="8">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="P414" s="9">
         <v>44449</v>
       </c>
       <c r="Q414" s="8">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="R414" s="5" t="s">
-        <v>1034</v>
+        <v>466</v>
       </c>
       <c r="S414" s="5" t="s">
-        <v>1035</v>
+        <v>467</v>
       </c>
       <c r="T414" s="3" t="s">
         <v>33</v>
@@ -40513,42 +40517,42 @@
         <v>33</v>
       </c>
       <c r="V414" s="7">
-        <v>1.523619e6</v>
+        <v>1.487264e6</v>
       </c>
       <c r="W414" s="5" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="X414" s="7">
         <v>2311</v>
       </c>
       <c r="Y414" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z414" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA414" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB414" s="10">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="AC414" s="11">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AD414" s="11">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AE414" s="12">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
       <c r="AF414" s="12">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A415" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B415" s="13" t="s">
         <v>33</v>
@@ -40557,7 +40561,7 @@
         <v>44063</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E415" s="15" t="s">
         <v>33</v>
@@ -40566,7 +40570,7 @@
         <v>2310</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>36</v>
@@ -40578,13 +40582,13 @@
         <v>9.261509e6</v>
       </c>
       <c r="K415" s="15" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="L415" s="17">
         <v>2310</v>
       </c>
       <c r="M415" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N415" s="18">
         <v>44085</v>
@@ -40599,10 +40603,10 @@
         <v>44264</v>
       </c>
       <c r="R415" s="15" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="S415" s="15" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="T415" s="13" t="s">
         <v>33</v>
@@ -40611,42 +40615,42 @@
         <v>33</v>
       </c>
       <c r="V415" s="17">
-        <v>1.523775e6</v>
+        <v>1.523619e6</v>
       </c>
       <c r="W415" s="15" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="X415" s="17">
         <v>2311</v>
       </c>
       <c r="Y415" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z415" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA415" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB415" s="21">
-        <v>1900</v>
+        <v>4300</v>
       </c>
       <c r="AC415" s="22">
-        <v>35</v>
+        <v>12.7</v>
       </c>
       <c r="AD415" s="22">
-        <v>35</v>
+        <v>12.7</v>
       </c>
       <c r="AE415" s="23">
-        <v>66500</v>
+        <v>54610</v>
       </c>
       <c r="AF415" s="23">
-        <v>66500</v>
+        <v>54610</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A416" s="3" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>33</v>
@@ -40655,7 +40659,7 @@
         <v>44063</v>
       </c>
       <c r="D416" s="26" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>33</v>
@@ -40664,7 +40668,7 @@
         <v>2310</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>36</v>
@@ -40676,13 +40680,13 @@
         <v>9.261509e6</v>
       </c>
       <c r="K416" s="5" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="L416" s="7">
         <v>2310</v>
       </c>
       <c r="M416" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N416" s="8">
         <v>44085</v>
@@ -40697,10 +40701,10 @@
         <v>44264</v>
       </c>
       <c r="R416" s="5" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="S416" s="5" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="T416" s="3" t="s">
         <v>33</v>
@@ -40709,42 +40713,42 @@
         <v>33</v>
       </c>
       <c r="V416" s="7">
-        <v>1.5245e6</v>
+        <v>1.523775e6</v>
       </c>
       <c r="W416" s="5" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="X416" s="7">
         <v>2311</v>
       </c>
       <c r="Y416" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z416" s="5" t="s">
         <v>339</v>
       </c>
       <c r="AA416" s="3" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB416" s="10">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="AC416" s="11">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="AD416" s="11">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="AE416" s="12">
-        <v>10800</v>
+        <v>66500</v>
       </c>
       <c r="AF416" s="12">
-        <v>10800</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A417" s="13" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>33</v>
@@ -40753,7 +40757,7 @@
         <v>44063</v>
       </c>
       <c r="D417" s="25" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="E417" s="15" t="s">
         <v>33</v>
@@ -40762,7 +40766,7 @@
         <v>2310</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>36</v>
@@ -40771,7 +40775,7 @@
         <v>37</v>
       </c>
       <c r="J417" s="17">
-        <v>9.261535e6</v>
+        <v>9.261509e6</v>
       </c>
       <c r="K417" s="15" t="s">
         <v>1039</v>
@@ -40780,19 +40784,19 @@
         <v>2310</v>
       </c>
       <c r="M417" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="N417" s="18">
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="O417" s="18">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="P417" s="19">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="Q417" s="18">
-        <v>44268</v>
+        <v>44264</v>
       </c>
       <c r="R417" s="15" t="s">
         <v>1040</v>
@@ -40807,60 +40811,60 @@
         <v>33</v>
       </c>
       <c r="V417" s="17">
-        <v>1.527878e6</v>
+        <v>1.5245e6</v>
       </c>
       <c r="W417" s="15" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="X417" s="17">
         <v>2311</v>
       </c>
       <c r="Y417" s="15" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Z417" s="15" t="s">
         <v>339</v>
       </c>
       <c r="AA417" s="13" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="AB417" s="21">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="AC417" s="22">
-        <v>22.95</v>
+        <v>4.5</v>
       </c>
       <c r="AD417" s="22">
-        <v>22.95</v>
+        <v>4.5</v>
       </c>
       <c r="AE417" s="23">
-        <v>11475</v>
+        <v>10800</v>
       </c>
       <c r="AF417" s="23">
-        <v>11475</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A418" s="3" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C418" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D418" s="26" t="s">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F418" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1045</v>
+        <v>985</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>36</v>
@@ -40869,15 +40873,29 @@
         <v>37</v>
       </c>
       <c r="J418" s="7">
-        <v>0</v>
-      </c>
-      <c r="K418" s="5"/>
-      <c r="L418" s="7"/>
-      <c r="M418" s="5"/>
-      <c r="N418" s="8"/>
-      <c r="O418" s="8"/>
-      <c r="P418" s="9"/>
-      <c r="Q418" s="8"/>
+        <v>9.261535e6</v>
+      </c>
+      <c r="K418" s="5" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L418" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M418" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="N418" s="8">
+        <v>44088</v>
+      </c>
+      <c r="O418" s="8">
+        <v>44088</v>
+      </c>
+      <c r="P418" s="9">
+        <v>44450</v>
+      </c>
+      <c r="Q418" s="8">
+        <v>44268</v>
+      </c>
       <c r="R418" s="5" t="s">
         <v>1046</v>
       </c>
@@ -40891,42 +40909,42 @@
         <v>33</v>
       </c>
       <c r="V418" s="7">
-        <v>1.692143e6</v>
+        <v>1.527878e6</v>
       </c>
       <c r="W418" s="5" t="s">
-        <v>565</v>
+        <v>1048</v>
       </c>
       <c r="X418" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y418" s="5" t="s">
-        <v>1048</v>
+        <v>985</v>
       </c>
       <c r="Z418" s="5" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="AA418" s="3" t="s">
-        <v>563</v>
+        <v>988</v>
       </c>
       <c r="AB418" s="10">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="AC418" s="11">
-        <v>8.2</v>
+        <v>22.95</v>
       </c>
       <c r="AD418" s="11">
-        <v>8.2</v>
+        <v>22.95</v>
       </c>
       <c r="AE418" s="12">
-        <v>24600</v>
+        <v>11475</v>
       </c>
       <c r="AF418" s="12">
-        <v>24600</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="419" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A419" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B419" s="13" t="s">
         <v>33</v>
@@ -40935,7 +40953,7 @@
         <v>43944</v>
       </c>
       <c r="D419" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E419" s="15" t="s">
         <v>33</v>
@@ -40944,7 +40962,7 @@
         <v>2320</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>36</v>
@@ -40963,10 +40981,10 @@
       <c r="P419" s="19"/>
       <c r="Q419" s="18"/>
       <c r="R419" s="15" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="S419" s="15" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="T419" s="13" t="s">
         <v>33</v>
@@ -40975,42 +40993,42 @@
         <v>33</v>
       </c>
       <c r="V419" s="17">
-        <v>1.143883e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W419" s="15" t="s">
-        <v>1051</v>
+        <v>565</v>
       </c>
       <c r="X419" s="17">
         <v>2321</v>
       </c>
       <c r="Y419" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z419" s="15" t="s">
-        <v>586</v>
+        <v>345</v>
       </c>
       <c r="AA419" s="13" t="s">
         <v>563</v>
       </c>
       <c r="AB419" s="21">
-        <v>200000</v>
+        <v>3000</v>
       </c>
       <c r="AC419" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AD419" s="22">
-        <v>600000e-6</v>
+        <v>8.2</v>
       </c>
       <c r="AE419" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
       <c r="AF419" s="23">
-        <v>120000</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A420" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>33</v>
@@ -41019,7 +41037,7 @@
         <v>43944</v>
       </c>
       <c r="D420" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>33</v>
@@ -41028,7 +41046,7 @@
         <v>2320</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>36</v>
@@ -41047,10 +41065,10 @@
       <c r="P420" s="9"/>
       <c r="Q420" s="8"/>
       <c r="R420" s="5" t="s">
-        <v>921</v>
+        <v>1055</v>
       </c>
       <c r="S420" s="5" t="s">
-        <v>922</v>
+        <v>1056</v>
       </c>
       <c r="T420" s="3" t="s">
         <v>33</v>
@@ -41059,16 +41077,16 @@
         <v>33</v>
       </c>
       <c r="V420" s="7">
-        <v>1.244515e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W420" s="5" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="X420" s="7">
         <v>2321</v>
       </c>
       <c r="Y420" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z420" s="5" t="s">
         <v>586</v>
@@ -41077,24 +41095,24 @@
         <v>563</v>
       </c>
       <c r="AB420" s="10">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC420" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD420" s="11">
-        <v>20.1</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE420" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
       <c r="AF420" s="12">
-        <v>1005</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="421" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A421" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B421" s="13" t="s">
         <v>33</v>
@@ -41103,7 +41121,7 @@
         <v>43944</v>
       </c>
       <c r="D421" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E421" s="15" t="s">
         <v>33</v>
@@ -41112,7 +41130,7 @@
         <v>2320</v>
       </c>
       <c r="G421" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>36</v>
@@ -41131,10 +41149,10 @@
       <c r="P421" s="19"/>
       <c r="Q421" s="18"/>
       <c r="R421" s="15" t="s">
-        <v>1053</v>
+        <v>921</v>
       </c>
       <c r="S421" s="15" t="s">
-        <v>1054</v>
+        <v>922</v>
       </c>
       <c r="T421" s="13" t="s">
         <v>33</v>
@@ -41143,16 +41161,16 @@
         <v>33</v>
       </c>
       <c r="V421" s="17">
-        <v>1.244108e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W421" s="15" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="X421" s="17">
         <v>2321</v>
       </c>
       <c r="Y421" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z421" s="15" t="s">
         <v>586</v>
@@ -41161,24 +41179,24 @@
         <v>563</v>
       </c>
       <c r="AB421" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC421" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AD421" s="22">
-        <v>358.24</v>
+        <v>20.1</v>
       </c>
       <c r="AE421" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
       <c r="AF421" s="23">
-        <v>32241.6</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A422" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>33</v>
@@ -41187,7 +41205,7 @@
         <v>43944</v>
       </c>
       <c r="D422" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>33</v>
@@ -41196,7 +41214,7 @@
         <v>2320</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>36</v>
@@ -41215,10 +41233,10 @@
       <c r="P422" s="9"/>
       <c r="Q422" s="8"/>
       <c r="R422" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S422" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T422" s="3" t="s">
         <v>33</v>
@@ -41227,16 +41245,16 @@
         <v>33</v>
       </c>
       <c r="V422" s="7">
-        <v>1.244507e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W422" s="5" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="X422" s="7">
         <v>2321</v>
       </c>
       <c r="Y422" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z422" s="5" t="s">
         <v>586</v>
@@ -41245,24 +41263,24 @@
         <v>563</v>
       </c>
       <c r="AB422" s="10">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC422" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AD422" s="11">
-        <v>34.9</v>
+        <v>358.24</v>
       </c>
       <c r="AE422" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
       <c r="AF422" s="12">
-        <v>1745</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A423" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B423" s="13" t="s">
         <v>33</v>
@@ -41271,7 +41289,7 @@
         <v>43944</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E423" s="15" t="s">
         <v>33</v>
@@ -41280,7 +41298,7 @@
         <v>2320</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>36</v>
@@ -41299,10 +41317,10 @@
       <c r="P423" s="19"/>
       <c r="Q423" s="18"/>
       <c r="R423" s="15" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S423" s="15" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T423" s="13" t="s">
         <v>33</v>
@@ -41311,16 +41329,16 @@
         <v>33</v>
       </c>
       <c r="V423" s="17">
-        <v>1.257587e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W423" s="15" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="X423" s="17">
         <v>2321</v>
       </c>
       <c r="Y423" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z423" s="15" t="s">
         <v>586</v>
@@ -41329,24 +41347,24 @@
         <v>563</v>
       </c>
       <c r="AB423" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC423" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AD423" s="22">
-        <v>390000e-6</v>
+        <v>34.9</v>
       </c>
       <c r="AE423" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
       <c r="AF423" s="23">
-        <v>31200</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="424" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A424" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>33</v>
@@ -41355,7 +41373,7 @@
         <v>43944</v>
       </c>
       <c r="D424" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>33</v>
@@ -41364,7 +41382,7 @@
         <v>2320</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>36</v>
@@ -41383,10 +41401,10 @@
       <c r="P424" s="9"/>
       <c r="Q424" s="8"/>
       <c r="R424" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S424" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T424" s="3" t="s">
         <v>33</v>
@@ -41395,42 +41413,42 @@
         <v>33</v>
       </c>
       <c r="V424" s="7">
-        <v>1.257625e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W424" s="5" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="X424" s="7">
         <v>2321</v>
       </c>
       <c r="Y424" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z424" s="5" t="s">
-        <v>428</v>
+        <v>586</v>
       </c>
       <c r="AA424" s="3" t="s">
         <v>563</v>
       </c>
       <c r="AB424" s="10">
-        <v>90</v>
+        <v>80000</v>
       </c>
       <c r="AC424" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD424" s="11">
-        <v>351</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE424" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
       <c r="AF424" s="12">
-        <v>31590</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="425" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A425" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B425" s="13" t="s">
         <v>33</v>
@@ -41439,7 +41457,7 @@
         <v>43944</v>
       </c>
       <c r="D425" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E425" s="15" t="s">
         <v>33</v>
@@ -41448,7 +41466,7 @@
         <v>2320</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>36</v>
@@ -41467,10 +41485,10 @@
       <c r="P425" s="19"/>
       <c r="Q425" s="18"/>
       <c r="R425" s="15" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S425" s="15" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T425" s="13" t="s">
         <v>33</v>
@@ -41479,42 +41497,42 @@
         <v>33</v>
       </c>
       <c r="V425" s="17">
-        <v>1.258699e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W425" s="15" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="X425" s="17">
         <v>2321</v>
       </c>
       <c r="Y425" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z425" s="15" t="s">
-        <v>586</v>
+        <v>428</v>
       </c>
       <c r="AA425" s="13" t="s">
         <v>563</v>
       </c>
       <c r="AB425" s="21">
-        <v>2000</v>
+        <v>90</v>
       </c>
       <c r="AC425" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AD425" s="22">
-        <v>1.39</v>
+        <v>351</v>
       </c>
       <c r="AE425" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
       <c r="AF425" s="23">
-        <v>2780</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="426" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A426" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>33</v>
@@ -41523,7 +41541,7 @@
         <v>43944</v>
       </c>
       <c r="D426" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>33</v>
@@ -41532,7 +41550,7 @@
         <v>2320</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H426" s="3" t="s">
         <v>36</v>
@@ -41551,10 +41569,10 @@
       <c r="P426" s="9"/>
       <c r="Q426" s="8"/>
       <c r="R426" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S426" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T426" s="3" t="s">
         <v>33</v>
@@ -41563,16 +41581,16 @@
         <v>33</v>
       </c>
       <c r="V426" s="7">
-        <v>1.259784e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W426" s="5" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="X426" s="7">
         <v>2321</v>
       </c>
       <c r="Y426" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z426" s="5" t="s">
         <v>586</v>
@@ -41581,24 +41599,24 @@
         <v>563</v>
       </c>
       <c r="AB426" s="10">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="AC426" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AD426" s="11">
-        <v>600000e-6</v>
+        <v>1.39</v>
       </c>
       <c r="AE426" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
       <c r="AF426" s="12">
-        <v>1800</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="427" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A427" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>33</v>
@@ -41607,7 +41625,7 @@
         <v>43944</v>
       </c>
       <c r="D427" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E427" s="15" t="s">
         <v>33</v>
@@ -41616,7 +41634,7 @@
         <v>2320</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>36</v>
@@ -41635,10 +41653,10 @@
       <c r="P427" s="19"/>
       <c r="Q427" s="18"/>
       <c r="R427" s="15" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S427" s="15" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T427" s="13" t="s">
         <v>33</v>
@@ -41647,16 +41665,16 @@
         <v>33</v>
       </c>
       <c r="V427" s="17">
-        <v>1.259792e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W427" s="15" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="X427" s="17">
         <v>2321</v>
       </c>
       <c r="Y427" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z427" s="15" t="s">
         <v>586</v>
@@ -41665,24 +41683,24 @@
         <v>563</v>
       </c>
       <c r="AB427" s="21">
-        <v>80</v>
+        <v>3000</v>
       </c>
       <c r="AC427" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD427" s="22">
-        <v>15.35</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE427" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
       <c r="AF427" s="23">
-        <v>1228</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="428" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A428" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>33</v>
@@ -41691,7 +41709,7 @@
         <v>43944</v>
       </c>
       <c r="D428" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>33</v>
@@ -41700,7 +41718,7 @@
         <v>2320</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H428" s="3" t="s">
         <v>36</v>
@@ -41719,10 +41737,10 @@
       <c r="P428" s="9"/>
       <c r="Q428" s="8"/>
       <c r="R428" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S428" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T428" s="3" t="s">
         <v>33</v>
@@ -41731,16 +41749,16 @@
         <v>33</v>
       </c>
       <c r="V428" s="7">
-        <v>1.260669e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W428" s="5" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="X428" s="7">
         <v>2321</v>
       </c>
       <c r="Y428" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z428" s="5" t="s">
         <v>586</v>
@@ -41749,24 +41767,24 @@
         <v>563</v>
       </c>
       <c r="AB428" s="10">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AC428" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AD428" s="11">
-        <v>1.49</v>
+        <v>15.35</v>
       </c>
       <c r="AE428" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
       <c r="AF428" s="12">
-        <v>1490</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="429" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A429" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B429" s="13" t="s">
         <v>33</v>
@@ -41775,7 +41793,7 @@
         <v>43944</v>
       </c>
       <c r="D429" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E429" s="15" t="s">
         <v>33</v>
@@ -41784,7 +41802,7 @@
         <v>2320</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>36</v>
@@ -41803,10 +41821,10 @@
       <c r="P429" s="19"/>
       <c r="Q429" s="18"/>
       <c r="R429" s="15" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S429" s="15" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T429" s="13" t="s">
         <v>33</v>
@@ -41815,16 +41833,16 @@
         <v>33</v>
       </c>
       <c r="V429" s="17">
-        <v>1.260677e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W429" s="15" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="X429" s="17">
         <v>2321</v>
       </c>
       <c r="Y429" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z429" s="15" t="s">
         <v>586</v>
@@ -41833,24 +41851,24 @@
         <v>563</v>
       </c>
       <c r="AB429" s="21">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="AC429" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AD429" s="22">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="AE429" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
       <c r="AF429" s="23">
-        <v>4770</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="430" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A430" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>33</v>
@@ -41859,7 +41877,7 @@
         <v>43944</v>
       </c>
       <c r="D430" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>33</v>
@@ -41868,7 +41886,7 @@
         <v>2320</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H430" s="3" t="s">
         <v>36</v>
@@ -41887,10 +41905,10 @@
       <c r="P430" s="9"/>
       <c r="Q430" s="8"/>
       <c r="R430" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S430" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T430" s="3" t="s">
         <v>33</v>
@@ -41899,16 +41917,16 @@
         <v>33</v>
       </c>
       <c r="V430" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W430" s="24" t="s">
-        <v>1064</v>
+        <v>1.260677e6</v>
+      </c>
+      <c r="W430" s="5" t="s">
+        <v>1069</v>
       </c>
       <c r="X430" s="7">
         <v>2321</v>
       </c>
       <c r="Y430" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z430" s="5" t="s">
         <v>586</v>
@@ -41917,24 +41935,24 @@
         <v>563</v>
       </c>
       <c r="AB430" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC430" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AD430" s="11">
-        <v>271.97</v>
+        <v>1.59</v>
       </c>
       <c r="AE430" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
       <c r="AF430" s="12">
-        <v>16318.2</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A431" s="13" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B431" s="13" t="s">
         <v>33</v>
@@ -41943,7 +41961,7 @@
         <v>43944</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E431" s="15" t="s">
         <v>33</v>
@@ -41952,7 +41970,7 @@
         <v>2320</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>36</v>
@@ -41971,10 +41989,10 @@
       <c r="P431" s="19"/>
       <c r="Q431" s="18"/>
       <c r="R431" s="15" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="S431" s="15" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="T431" s="13" t="s">
         <v>33</v>
@@ -41983,16 +42001,16 @@
         <v>33</v>
       </c>
       <c r="V431" s="17">
-        <v>1.687115e6</v>
-      </c>
-      <c r="W431" s="15" t="s">
-        <v>1065</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W431" s="20" t="s">
+        <v>1070</v>
       </c>
       <c r="X431" s="17">
         <v>2321</v>
       </c>
       <c r="Y431" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z431" s="15" t="s">
         <v>586</v>
@@ -42004,21 +42022,21 @@
         <v>60</v>
       </c>
       <c r="AC431" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AD431" s="22">
-        <v>16.65</v>
+        <v>271.97</v>
       </c>
       <c r="AE431" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
       <c r="AF431" s="23">
-        <v>999</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A432" s="3" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>33</v>
@@ -42027,7 +42045,7 @@
         <v>43944</v>
       </c>
       <c r="D432" s="26" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>33</v>
@@ -42036,7 +42054,7 @@
         <v>2320</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H432" s="3" t="s">
         <v>36</v>
@@ -42055,10 +42073,10 @@
       <c r="P432" s="9"/>
       <c r="Q432" s="8"/>
       <c r="R432" s="5" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="S432" s="5" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="T432" s="3" t="s">
         <v>33</v>
@@ -42067,16 +42085,16 @@
         <v>33</v>
       </c>
       <c r="V432" s="7">
-        <v>1.257463e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W432" s="5" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="X432" s="7">
         <v>2321</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z432" s="5" t="s">
         <v>586</v>
@@ -42085,33 +42103,33 @@
         <v>563</v>
       </c>
       <c r="AB432" s="10">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC432" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AD432" s="11">
-        <v>34.2</v>
+        <v>16.65</v>
       </c>
       <c r="AE432" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
       <c r="AF432" s="12">
-        <v>6840</v>
+        <v>999</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A433" s="13" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="B433" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C433" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D433" s="15" t="s">
-        <v>1070</v>
+        <v>43944</v>
+      </c>
+      <c r="D433" s="25" t="s">
+        <v>1050</v>
       </c>
       <c r="E433" s="15" t="s">
         <v>33</v>
@@ -42120,7 +42138,7 @@
         <v>2320</v>
       </c>
       <c r="G433" s="13" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>36</v>
@@ -42139,10 +42157,10 @@
       <c r="P433" s="19"/>
       <c r="Q433" s="18"/>
       <c r="R433" s="15" t="s">
-        <v>546</v>
+        <v>1072</v>
       </c>
       <c r="S433" s="15" t="s">
-        <v>547</v>
+        <v>1073</v>
       </c>
       <c r="T433" s="13" t="s">
         <v>33</v>
@@ -42151,51 +42169,51 @@
         <v>33</v>
       </c>
       <c r="V433" s="17">
-        <v>1.408623e6</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W433" s="15" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="X433" s="17">
         <v>2321</v>
       </c>
       <c r="Y433" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z433" s="15" t="s">
-        <v>422</v>
+        <v>586</v>
       </c>
       <c r="AA433" s="13" t="s">
         <v>563</v>
       </c>
       <c r="AB433" s="21">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="AC433" s="22">
-        <v>18.69</v>
+        <v>34.2</v>
       </c>
       <c r="AD433" s="22">
-        <v>14.95</v>
+        <v>34.2</v>
       </c>
       <c r="AE433" s="23">
-        <v>37380</v>
+        <v>6840</v>
       </c>
       <c r="AF433" s="23">
-        <v>29900</v>
+        <v>6840</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A434" s="3" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C434" s="4">
-        <v>44034</v>
-      </c>
-      <c r="D434" s="26" t="s">
-        <v>1073</v>
+        <v>44012</v>
+      </c>
+      <c r="D434" s="5" t="s">
+        <v>1076</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>33</v>
@@ -42204,43 +42222,29 @@
         <v>2320</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="H434" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I434" s="3" t="s">
-        <v>1074</v>
+        <v>37</v>
       </c>
       <c r="J434" s="7">
-        <v>9.260962e6</v>
-      </c>
-      <c r="K434" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L434" s="7">
-        <v>2320</v>
-      </c>
-      <c r="M434" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="N434" s="8">
-        <v>44056</v>
-      </c>
-      <c r="O434" s="8">
-        <v>44056</v>
-      </c>
-      <c r="P434" s="9">
-        <v>44240</v>
-      </c>
-      <c r="Q434" s="8">
-        <v>44240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K434" s="5"/>
+      <c r="L434" s="7"/>
+      <c r="M434" s="5"/>
+      <c r="N434" s="8"/>
+      <c r="O434" s="8"/>
+      <c r="P434" s="9"/>
+      <c r="Q434" s="8"/>
       <c r="R434" s="5" t="s">
-        <v>847</v>
+        <v>546</v>
       </c>
       <c r="S434" s="5" t="s">
-        <v>848</v>
+        <v>547</v>
       </c>
       <c r="T434" s="3" t="s">
         <v>33</v>
@@ -42249,40 +42253,138 @@
         <v>33</v>
       </c>
       <c r="V434" s="7">
-        <v>1.758276e6</v>
+        <v>1.408623e6</v>
       </c>
       <c r="W434" s="5" t="s">
-        <v>849</v>
+        <v>1077</v>
       </c>
       <c r="X434" s="7">
         <v>2321</v>
       </c>
       <c r="Y434" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="Z434" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="AA434" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB434" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AC434" s="11">
+        <v>18.69</v>
+      </c>
+      <c r="AD434" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="AE434" s="12">
+        <v>37380</v>
+      </c>
+      <c r="AF434" s="12">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="435" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A435" s="13" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B435" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C435" s="14">
+        <v>44034</v>
+      </c>
+      <c r="D435" s="25" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E435" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F435" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G435" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H435" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I435" s="13" t="s">
+        <v>1080</v>
+      </c>
+      <c r="J435" s="17">
+        <v>9.260962e6</v>
+      </c>
+      <c r="K435" s="15" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L435" s="17">
+        <v>2320</v>
+      </c>
+      <c r="M435" s="15" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N435" s="18">
+        <v>44056</v>
+      </c>
+      <c r="O435" s="18">
+        <v>44056</v>
+      </c>
+      <c r="P435" s="19">
+        <v>44240</v>
+      </c>
+      <c r="Q435" s="18">
+        <v>44240</v>
+      </c>
+      <c r="R435" s="15" t="s">
+        <v>847</v>
+      </c>
+      <c r="S435" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="T435" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U435" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V435" s="17">
+        <v>1.758276e6</v>
+      </c>
+      <c r="W435" s="15" t="s">
+        <v>849</v>
+      </c>
+      <c r="X435" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y435" s="15" t="s">
+        <v>1054</v>
+      </c>
+      <c r="Z435" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="AA434" s="3" t="s">
+      <c r="AA435" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB434" s="10">
+      <c r="AB435" s="21">
         <v>7000</v>
       </c>
-      <c r="AC434" s="11">
+      <c r="AC435" s="22">
         <v>34.54</v>
       </c>
-      <c r="AD434" s="11">
+      <c r="AD435" s="22">
         <v>34.536</v>
       </c>
-      <c r="AE434" s="12">
+      <c r="AE435" s="23">
         <v>241780</v>
       </c>
-      <c r="AF434" s="12">
+      <c r="AF435" s="23">
         <v>241752</v>
       </c>
     </row>
-    <row r="435" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="436" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7051" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="1120">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1147,7 +1147,7 @@
     <t>ELETROELETRONICOS INCONFIDENTES EIRELI</t>
   </si>
   <si>
-    <t>CHAPA DE ACRILICO - MATERIA PRIMA: POLIMEROS; DIMENSAO: 100 CM X 150 CM, ESPESSURA 2 MM; SUPERFICIE: LISA; COR:  TRANSPARENTE ; APLICACAO: LOCAIS ATENDIMENTO AO PUBLICO;</t>
+    <t>CHAPA DE ACRILICO - MATERIA-PRIMA: POLIMEROS; DIMENSAO: 100 CM X 150 CM, ESPESSURA 2 MM; SUPERFICIE: LISA; COR:  TRANSPARENTE ; APLICACAO: LOCAIS ATENDIMENTO AO PUBLICO;</t>
   </si>
   <si>
     <t>0505022 000024/2020</t>
@@ -1162,10 +1162,10 @@
     <t>CENTRAL SUPRIMENTOS LTDA -ME</t>
   </si>
   <si>
-    <t>CHAPA DE ACRILICO - MATERIA PRIMA: ACRILICO; DIMENSAO: 196 CM X 79 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTOS AO PUBLICO;</t>
-  </si>
-  <si>
-    <t>CHAPA DE ACRILICO - MATERIA PRIMA: ACRILICO; DIMENSAO: 218 CM X 89 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTOS AO PUBLICO;</t>
+    <t>CHAPA DE ACRILICO - MATERIA-PRIMA: ACRILICO; DIMENSAO: 196 CM X 79 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTOS AO PUBLICO;</t>
+  </si>
+  <si>
+    <t>CHAPA DE ACRILICO - MATERIA-PRIMA: ACRILICO; DIMENSAO: 218 CM X 89 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTOS AO PUBLICO;</t>
   </si>
   <si>
     <t>0505022 000032/2020</t>
@@ -1174,7 +1174,7 @@
     <t>CHAPA DE ACRÍLICO - MATERIA PRIMA: ACRÍLICO ; DIMENSÃO: 100 CM X 150 CM, ESPESSURA 5MM; SUPERFÍCIE: LISA; COR: TRANSPARENTE, CRISTAL, INCOLOR; APLICAÇÃO: PROTEÇÃO DE LOCAIS DE ATENDIMENTO AO PUBLICO.</t>
   </si>
   <si>
-    <t>CHAPA DE ACRILICO - MATERIA PRIMA: ACRILICO ; DIMENSAO: 100 CM X 150 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTO AO PUBLICO;</t>
+    <t>CHAPA DE ACRILICO - MATERIA-PRIMA: ACRILICO ; DIMENSAO: 100 CM X 150 CM,  ESPESSURA 5MM; SUPERFICIE: LISA; COR:  TRANSPARENTE, CRISTAL, INCOLOR; APLICACAO:  PROTECAO DE LOCAIS DE ATENDIMENTO AO PUBLICO;</t>
   </si>
   <si>
     <t>0510037 000125/2020</t>
@@ -2904,6 +2904,21 @@
     <t>SERVICOS DE CONFECCAO DE ARTEFATOS DE ACRILICO</t>
   </si>
   <si>
+    <t>2121022 000058/2020</t>
+  </si>
+  <si>
+    <t>Aquisição de Totem dispenser de álcool em gel para combate ao COVID-19.</t>
+  </si>
+  <si>
+    <t>19.349.607/0001-00</t>
+  </si>
+  <si>
+    <t>CLASSIC COMERCIO LTDA - ME</t>
+  </si>
+  <si>
+    <t>TOTEM DISPENSADOR  - INDICACAO: ALCOOL EM GEL ; ESTRUTURA: ACO INOXIDAVEL; ACABAMENTO: PINTURA ELETROSTATICA; CAPACIDADE RESERVATORIO:  MINIMO 2 LITROS; ACIONAMENTO: ATRAVES DE PEDAL NA BASE; PERSONALIZACAO: CONFORME SOLICITADO DO ORGAO; DIMENSOES: 1,30 M(ALT) X 30 CM(LARG) X 30 CM(PROF);</t>
+  </si>
+  <si>
     <t>2261032 000112/2020</t>
   </si>
   <si>
@@ -3130,6 +3145,21 @@
   </si>
   <si>
     <t>EMBALAGEM DESCARTAVEL PARA ESTERILIZACAO -  MATERIA-PRIMA: SMS 100% POLIPROPILENO 45 G/M2; MATERIA-PRIMA 2: .; DIMENSOES (L X C ): 75 CM X 75 CM; TIPO ESTERILIZACAO: COMPATIVEL COM A MATERIA-PRIMA; INDICADOR: NAO POSSUI; APRESENTACAO: FOLHA 75 CM;</t>
+  </si>
+  <si>
+    <t>2311076 000407/2020</t>
+  </si>
+  <si>
+    <t>SERVIÇOS LABORATORIAIS DE DIAGNÓSTICO DA COVID - 19</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=164732</t>
+  </si>
+  <si>
+    <t>19.378.769/0053-05</t>
+  </si>
+  <si>
+    <t>INSTITUTO HERMES PARDINI S/A</t>
   </si>
   <si>
     <t>2311076 000512/2020</t>
@@ -3543,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF446"/>
+  <dimension ref="A1:AF448"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -36906,7 +36936,7 @@
         <v>33</v>
       </c>
       <c r="C374" s="4">
-        <v>43920</v>
+        <v>44146</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>963</v>
@@ -36915,16 +36945,16 @@
         <v>33</v>
       </c>
       <c r="F374" s="6">
-        <v>2260</v>
+        <v>2120</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>964</v>
+        <v>904</v>
       </c>
       <c r="H374" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I374" s="3" t="s">
-        <v>37</v>
+        <v>517</v>
       </c>
       <c r="J374" s="7">
         <v>0</v>
@@ -36937,54 +36967,54 @@
       <c r="P374" s="9"/>
       <c r="Q374" s="8"/>
       <c r="R374" s="5" t="s">
+        <v>964</v>
+      </c>
+      <c r="S374" s="5" t="s">
         <v>965</v>
       </c>
-      <c r="S374" s="5" t="s">
+      <c r="T374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U374" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V374" s="7">
+        <v>1.767771e6</v>
+      </c>
+      <c r="W374" s="24" t="s">
         <v>966</v>
       </c>
-      <c r="T374" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U374" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V374" s="7">
-        <v>82414</v>
-      </c>
-      <c r="W374" s="5" t="s">
-        <v>967</v>
-      </c>
       <c r="X374" s="7">
-        <v>2261</v>
+        <v>2121</v>
       </c>
       <c r="Y374" s="5" t="s">
-        <v>964</v>
+        <v>906</v>
       </c>
       <c r="Z374" s="5" t="s">
-        <v>429</v>
+        <v>71</v>
       </c>
       <c r="AA374" s="3" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="AB374" s="10">
-        <v>10000</v>
+        <v>2</v>
       </c>
       <c r="AC374" s="11">
-        <v>676000e-6</v>
+        <v>312.7</v>
       </c>
       <c r="AD374" s="11">
-        <v>676000e-6</v>
+        <v>312.7</v>
       </c>
       <c r="AE374" s="12">
-        <v>6760</v>
+        <v>625.4</v>
       </c>
       <c r="AF374" s="12">
-        <v>6760</v>
+        <v>625.4</v>
       </c>
     </row>
     <row r="375" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A375" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B375" s="13" t="s">
         <v>33</v>
@@ -36993,7 +37023,7 @@
         <v>43920</v>
       </c>
       <c r="D375" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E375" s="15" t="s">
         <v>33</v>
@@ -37002,7 +37032,7 @@
         <v>2260</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>36</v>
@@ -37021,10 +37051,10 @@
       <c r="P375" s="19"/>
       <c r="Q375" s="18"/>
       <c r="R375" s="15" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="S375" s="15" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="T375" s="13" t="s">
         <v>33</v>
@@ -37033,42 +37063,42 @@
         <v>33</v>
       </c>
       <c r="V375" s="17">
-        <v>1.670891e6</v>
+        <v>82414</v>
       </c>
       <c r="W375" s="15" t="s">
-        <v>968</v>
+        <v>972</v>
       </c>
       <c r="X375" s="17">
         <v>2261</v>
       </c>
       <c r="Y375" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z375" s="15" t="s">
-        <v>142</v>
+        <v>429</v>
       </c>
       <c r="AA375" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB375" s="21">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="AC375" s="22">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AD375" s="22">
-        <v>34.9</v>
+        <v>676000e-6</v>
       </c>
       <c r="AE375" s="23">
-        <v>698</v>
+        <v>6760</v>
       </c>
       <c r="AF375" s="23">
-        <v>698</v>
+        <v>6760</v>
       </c>
     </row>
     <row r="376" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A376" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>33</v>
@@ -37077,7 +37107,7 @@
         <v>43920</v>
       </c>
       <c r="D376" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E376" s="5" t="s">
         <v>33</v>
@@ -37086,7 +37116,7 @@
         <v>2260</v>
       </c>
       <c r="G376" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H376" s="3" t="s">
         <v>36</v>
@@ -37105,10 +37135,10 @@
       <c r="P376" s="9"/>
       <c r="Q376" s="8"/>
       <c r="R376" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="S376" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="T376" s="3" t="s">
         <v>33</v>
@@ -37117,42 +37147,42 @@
         <v>33</v>
       </c>
       <c r="V376" s="7">
-        <v>1.69773e6</v>
+        <v>1.670891e6</v>
       </c>
       <c r="W376" s="5" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="X376" s="7">
         <v>2261</v>
       </c>
       <c r="Y376" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z376" s="5" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="AA376" s="3" t="s">
         <v>44</v>
       </c>
       <c r="AB376" s="10">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="AC376" s="11">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AD376" s="11">
-        <v>12.43</v>
+        <v>34.9</v>
       </c>
       <c r="AE376" s="12">
-        <v>248600</v>
+        <v>698</v>
       </c>
       <c r="AF376" s="12">
-        <v>248600</v>
+        <v>698</v>
       </c>
     </row>
     <row r="377" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A377" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B377" s="13" t="s">
         <v>33</v>
@@ -37161,7 +37191,7 @@
         <v>43920</v>
       </c>
       <c r="D377" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E377" s="15" t="s">
         <v>33</v>
@@ -37170,7 +37200,7 @@
         <v>2260</v>
       </c>
       <c r="G377" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H377" s="13" t="s">
         <v>36</v>
@@ -37189,10 +37219,10 @@
       <c r="P377" s="19"/>
       <c r="Q377" s="18"/>
       <c r="R377" s="15" t="s">
-        <v>816</v>
+        <v>974</v>
       </c>
       <c r="S377" s="15" t="s">
-        <v>817</v>
+        <v>975</v>
       </c>
       <c r="T377" s="13" t="s">
         <v>33</v>
@@ -37201,16 +37231,16 @@
         <v>33</v>
       </c>
       <c r="V377" s="17">
-        <v>394890</v>
+        <v>1.69773e6</v>
       </c>
       <c r="W377" s="15" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="X377" s="17">
         <v>2261</v>
       </c>
       <c r="Y377" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z377" s="15" t="s">
         <v>429</v>
@@ -37219,24 +37249,24 @@
         <v>44</v>
       </c>
       <c r="AB377" s="21">
-        <v>450</v>
+        <v>20000</v>
       </c>
       <c r="AC377" s="22">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AD377" s="22">
-        <v>7.98</v>
+        <v>12.43</v>
       </c>
       <c r="AE377" s="23">
-        <v>3591</v>
+        <v>248600</v>
       </c>
       <c r="AF377" s="23">
-        <v>3591</v>
+        <v>248600</v>
       </c>
     </row>
     <row r="378" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A378" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>33</v>
@@ -37245,7 +37275,7 @@
         <v>43920</v>
       </c>
       <c r="D378" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E378" s="5" t="s">
         <v>33</v>
@@ -37254,7 +37284,7 @@
         <v>2260</v>
       </c>
       <c r="G378" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H378" s="3" t="s">
         <v>36</v>
@@ -37285,16 +37315,16 @@
         <v>33</v>
       </c>
       <c r="V378" s="7">
-        <v>1.368818e6</v>
+        <v>394890</v>
       </c>
       <c r="W378" s="5" t="s">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="X378" s="7">
         <v>2261</v>
       </c>
       <c r="Y378" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z378" s="5" t="s">
         <v>429</v>
@@ -37303,24 +37333,24 @@
         <v>44</v>
       </c>
       <c r="AB378" s="10">
-        <v>10</v>
+        <v>450</v>
       </c>
       <c r="AC378" s="11">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AD378" s="11">
-        <v>293.6</v>
+        <v>7.98</v>
       </c>
       <c r="AE378" s="12">
-        <v>2936</v>
+        <v>3591</v>
       </c>
       <c r="AF378" s="12">
-        <v>2936</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="379" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A379" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B379" s="13" t="s">
         <v>33</v>
@@ -37329,7 +37359,7 @@
         <v>43920</v>
       </c>
       <c r="D379" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E379" s="15" t="s">
         <v>33</v>
@@ -37338,7 +37368,7 @@
         <v>2260</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>36</v>
@@ -37369,16 +37399,16 @@
         <v>33</v>
       </c>
       <c r="V379" s="17">
-        <v>1.497391e6</v>
+        <v>1.368818e6</v>
       </c>
       <c r="W379" s="15" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="X379" s="17">
         <v>2261</v>
       </c>
       <c r="Y379" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z379" s="15" t="s">
         <v>429</v>
@@ -37387,24 +37417,24 @@
         <v>44</v>
       </c>
       <c r="AB379" s="21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AC379" s="22">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AD379" s="22">
-        <v>3420</v>
+        <v>293.6</v>
       </c>
       <c r="AE379" s="23">
-        <v>51300</v>
+        <v>2936</v>
       </c>
       <c r="AF379" s="23">
-        <v>51300</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="380" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A380" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>33</v>
@@ -37413,7 +37443,7 @@
         <v>43920</v>
       </c>
       <c r="D380" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E380" s="5" t="s">
         <v>33</v>
@@ -37422,7 +37452,7 @@
         <v>2260</v>
       </c>
       <c r="G380" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H380" s="3" t="s">
         <v>36</v>
@@ -37441,10 +37471,10 @@
       <c r="P380" s="9"/>
       <c r="Q380" s="8"/>
       <c r="R380" s="5" t="s">
-        <v>975</v>
+        <v>816</v>
       </c>
       <c r="S380" s="5" t="s">
-        <v>976</v>
+        <v>817</v>
       </c>
       <c r="T380" s="3" t="s">
         <v>33</v>
@@ -37453,16 +37483,16 @@
         <v>33</v>
       </c>
       <c r="V380" s="7">
-        <v>1.669613e6</v>
+        <v>1.497391e6</v>
       </c>
       <c r="W380" s="5" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="X380" s="7">
         <v>2261</v>
       </c>
       <c r="Y380" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z380" s="5" t="s">
         <v>429</v>
@@ -37471,24 +37501,24 @@
         <v>44</v>
       </c>
       <c r="AB380" s="10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AC380" s="11">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AD380" s="11">
-        <v>31.96</v>
+        <v>3420</v>
       </c>
       <c r="AE380" s="12">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
       <c r="AF380" s="12">
-        <v>319.6</v>
+        <v>51300</v>
       </c>
     </row>
     <row r="381" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A381" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B381" s="13" t="s">
         <v>33</v>
@@ -37497,7 +37527,7 @@
         <v>43920</v>
       </c>
       <c r="D381" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E381" s="15" t="s">
         <v>33</v>
@@ -37506,7 +37536,7 @@
         <v>2260</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H381" s="13" t="s">
         <v>36</v>
@@ -37525,10 +37555,10 @@
       <c r="P381" s="19"/>
       <c r="Q381" s="18"/>
       <c r="R381" s="15" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="S381" s="15" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="T381" s="13" t="s">
         <v>33</v>
@@ -37537,16 +37567,16 @@
         <v>33</v>
       </c>
       <c r="V381" s="17">
-        <v>857025</v>
+        <v>1.669613e6</v>
       </c>
       <c r="W381" s="15" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="X381" s="17">
         <v>2261</v>
       </c>
       <c r="Y381" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z381" s="15" t="s">
         <v>429</v>
@@ -37555,24 +37585,24 @@
         <v>44</v>
       </c>
       <c r="AB381" s="21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="AC381" s="22">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AD381" s="22">
-        <v>16.756</v>
+        <v>31.96</v>
       </c>
       <c r="AE381" s="23">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
       <c r="AF381" s="23">
-        <v>1675.6</v>
+        <v>319.6</v>
       </c>
     </row>
     <row r="382" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A382" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B382" s="3" t="s">
         <v>33</v>
@@ -37581,7 +37611,7 @@
         <v>43920</v>
       </c>
       <c r="D382" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E382" s="5" t="s">
         <v>33</v>
@@ -37590,7 +37620,7 @@
         <v>2260</v>
       </c>
       <c r="G382" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H382" s="3" t="s">
         <v>36</v>
@@ -37609,10 +37639,10 @@
       <c r="P382" s="9"/>
       <c r="Q382" s="8"/>
       <c r="R382" s="5" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="S382" s="5" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="T382" s="3" t="s">
         <v>33</v>
@@ -37621,16 +37651,16 @@
         <v>33</v>
       </c>
       <c r="V382" s="7">
-        <v>1.151746e6</v>
+        <v>857025</v>
       </c>
       <c r="W382" s="5" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="X382" s="7">
         <v>2261</v>
       </c>
       <c r="Y382" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z382" s="5" t="s">
         <v>429</v>
@@ -37639,24 +37669,24 @@
         <v>44</v>
       </c>
       <c r="AB382" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AC382" s="11">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AD382" s="11">
-        <v>117</v>
+        <v>16.756</v>
       </c>
       <c r="AE382" s="12">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
       <c r="AF382" s="12">
-        <v>2340</v>
+        <v>1675.6</v>
       </c>
     </row>
     <row r="383" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A383" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B383" s="13" t="s">
         <v>33</v>
@@ -37665,7 +37695,7 @@
         <v>43920</v>
       </c>
       <c r="D383" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E383" s="15" t="s">
         <v>33</v>
@@ -37674,7 +37704,7 @@
         <v>2260</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>36</v>
@@ -37683,32 +37713,20 @@
         <v>37</v>
       </c>
       <c r="J383" s="17">
-        <v>9.245762e6</v>
-      </c>
-      <c r="K383" s="15" t="s">
-        <v>984</v>
-      </c>
-      <c r="L383" s="17">
-        <v>2260</v>
-      </c>
-      <c r="M383" s="15" t="s">
-        <v>964</v>
-      </c>
-      <c r="N383" s="18">
-        <v>43936</v>
-      </c>
-      <c r="O383" s="18">
-        <v>43936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K383" s="15"/>
+      <c r="L383" s="17"/>
+      <c r="M383" s="15"/>
+      <c r="N383" s="18"/>
+      <c r="O383" s="18"/>
       <c r="P383" s="19"/>
-      <c r="Q383" s="18">
-        <v>44115</v>
-      </c>
+      <c r="Q383" s="18"/>
       <c r="R383" s="15" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="S383" s="15" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="T383" s="13" t="s">
         <v>33</v>
@@ -37717,42 +37735,42 @@
         <v>33</v>
       </c>
       <c r="V383" s="17">
-        <v>781673</v>
+        <v>1.151746e6</v>
       </c>
       <c r="W383" s="15" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="X383" s="17">
         <v>2261</v>
       </c>
       <c r="Y383" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z383" s="15" t="s">
-        <v>122</v>
+        <v>429</v>
       </c>
       <c r="AA383" s="13" t="s">
         <v>44</v>
       </c>
       <c r="AB383" s="21">
-        <v>30000</v>
+        <v>20</v>
       </c>
       <c r="AC383" s="22">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AD383" s="22">
-        <v>900000e-6</v>
+        <v>117</v>
       </c>
       <c r="AE383" s="23">
-        <v>27000</v>
+        <v>2340</v>
       </c>
       <c r="AF383" s="23">
-        <v>27000</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="384" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A384" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B384" s="3" t="s">
         <v>33</v>
@@ -37761,7 +37779,7 @@
         <v>43920</v>
       </c>
       <c r="D384" s="5" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E384" s="5" t="s">
         <v>33</v>
@@ -37770,7 +37788,7 @@
         <v>2260</v>
       </c>
       <c r="G384" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H384" s="3" t="s">
         <v>36</v>
@@ -37779,16 +37797,16 @@
         <v>37</v>
       </c>
       <c r="J384" s="7">
-        <v>9.245763e6</v>
+        <v>9.245762e6</v>
       </c>
       <c r="K384" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="L384" s="7">
         <v>2260</v>
       </c>
       <c r="M384" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="N384" s="8">
         <v>43936</v>
@@ -37801,10 +37819,10 @@
         <v>44115</v>
       </c>
       <c r="R384" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S384" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="T384" s="3" t="s">
         <v>33</v>
@@ -37813,16 +37831,16 @@
         <v>33</v>
       </c>
       <c r="V384" s="7">
-        <v>538957</v>
+        <v>781673</v>
       </c>
       <c r="W384" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="X384" s="7">
         <v>2261</v>
       </c>
       <c r="Y384" s="5" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z384" s="5" t="s">
         <v>122</v>
@@ -37834,21 +37852,21 @@
         <v>30000</v>
       </c>
       <c r="AC384" s="11">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AD384" s="11">
-        <v>550000e-6</v>
+        <v>900000e-6</v>
       </c>
       <c r="AE384" s="12">
-        <v>16500</v>
+        <v>27000</v>
       </c>
       <c r="AF384" s="12">
-        <v>16500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="385" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A385" s="13" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="B385" s="13" t="s">
         <v>33</v>
@@ -37857,7 +37875,7 @@
         <v>43920</v>
       </c>
       <c r="D385" s="15" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="E385" s="15" t="s">
         <v>33</v>
@@ -37866,7 +37884,7 @@
         <v>2260</v>
       </c>
       <c r="G385" s="13" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="H385" s="13" t="s">
         <v>36</v>
@@ -37878,13 +37896,13 @@
         <v>9.245763e6</v>
       </c>
       <c r="K385" s="15" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="L385" s="17">
         <v>2260</v>
       </c>
       <c r="M385" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="N385" s="18">
         <v>43936</v>
@@ -37897,10 +37915,10 @@
         <v>44115</v>
       </c>
       <c r="R385" s="15" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="S385" s="15" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="T385" s="13" t="s">
         <v>33</v>
@@ -37909,16 +37927,16 @@
         <v>33</v>
       </c>
       <c r="V385" s="17">
-        <v>1.651595e6</v>
+        <v>538957</v>
       </c>
       <c r="W385" s="15" t="s">
-        <v>992</v>
+        <v>996</v>
       </c>
       <c r="X385" s="17">
         <v>2261</v>
       </c>
       <c r="Y385" s="15" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="Z385" s="15" t="s">
         <v>122</v>
@@ -37930,62 +37948,74 @@
         <v>30000</v>
       </c>
       <c r="AC385" s="22">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AD385" s="22">
-        <v>1.08</v>
+        <v>550000e-6</v>
       </c>
       <c r="AE385" s="23">
-        <v>32400</v>
+        <v>16500</v>
       </c>
       <c r="AF385" s="23">
-        <v>32400</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="386" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A386" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C386" s="4">
+        <v>43920</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>968</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F386" s="6">
+        <v>2260</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J386" s="7">
+        <v>9.245763e6</v>
+      </c>
+      <c r="K386" s="5" t="s">
         <v>993</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C386" s="4">
-        <v>43972</v>
-      </c>
-      <c r="D386" s="5" t="s">
+      <c r="L386" s="7">
+        <v>2260</v>
+      </c>
+      <c r="M386" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="N386" s="8">
+        <v>43936</v>
+      </c>
+      <c r="O386" s="8">
+        <v>43936</v>
+      </c>
+      <c r="P386" s="9"/>
+      <c r="Q386" s="8">
+        <v>44115</v>
+      </c>
+      <c r="R386" s="5" t="s">
         <v>994</v>
       </c>
-      <c r="E386" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F386" s="6">
-        <v>2280</v>
-      </c>
-      <c r="G386" s="3" t="s">
+      <c r="S386" s="5" t="s">
         <v>995</v>
       </c>
-      <c r="H386" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I386" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="J386" s="7">
-        <v>0</v>
-      </c>
-      <c r="K386" s="5"/>
-      <c r="L386" s="7"/>
-      <c r="M386" s="5"/>
-      <c r="N386" s="8"/>
-      <c r="O386" s="8"/>
-      <c r="P386" s="9"/>
-      <c r="Q386" s="8"/>
-      <c r="R386" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="S386" s="5" t="s">
-        <v>544</v>
-      </c>
       <c r="T386" s="3" t="s">
         <v>33</v>
       </c>
@@ -37993,149 +38023,135 @@
         <v>33</v>
       </c>
       <c r="V386" s="7">
-        <v>1.756699e6</v>
+        <v>1.651595e6</v>
       </c>
       <c r="W386" s="5" t="s">
-        <v>512</v>
+        <v>997</v>
       </c>
       <c r="X386" s="7">
-        <v>2281</v>
+        <v>2261</v>
       </c>
       <c r="Y386" s="5" t="s">
-        <v>996</v>
+        <v>969</v>
       </c>
       <c r="Z386" s="5" t="s">
-        <v>436</v>
+        <v>122</v>
       </c>
       <c r="AA386" s="3" t="s">
-        <v>335</v>
+        <v>44</v>
       </c>
       <c r="AB386" s="10">
-        <v>127</v>
+        <v>30000</v>
       </c>
       <c r="AC386" s="11">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AD386" s="11">
-        <v>1.89</v>
+        <v>1.08</v>
       </c>
       <c r="AE386" s="12">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
       <c r="AF386" s="12">
-        <v>240.03</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="387" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A387" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B387" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C387" s="14">
-        <v>43921</v>
+        <v>43972</v>
       </c>
       <c r="D387" s="15" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E387" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F387" s="16">
-        <v>2300</v>
+        <v>2280</v>
       </c>
       <c r="G387" s="13" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="H387" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I387" s="13" t="s">
-        <v>37</v>
+        <v>542</v>
       </c>
       <c r="J387" s="17">
-        <v>9.245674e6</v>
-      </c>
-      <c r="K387" s="15" t="s">
-        <v>1000</v>
-      </c>
-      <c r="L387" s="17">
-        <v>2300</v>
-      </c>
-      <c r="M387" s="15" t="s">
-        <v>999</v>
-      </c>
-      <c r="N387" s="18">
-        <v>43922</v>
-      </c>
-      <c r="O387" s="18">
-        <v>43922</v>
-      </c>
-      <c r="P387" s="19">
-        <v>44105</v>
-      </c>
-      <c r="Q387" s="18">
-        <v>44131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K387" s="15"/>
+      <c r="L387" s="17"/>
+      <c r="M387" s="15"/>
+      <c r="N387" s="18"/>
+      <c r="O387" s="18"/>
+      <c r="P387" s="19"/>
+      <c r="Q387" s="18"/>
       <c r="R387" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="S387" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="T387" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U387" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V387" s="17">
+        <v>1.756699e6</v>
+      </c>
+      <c r="W387" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="X387" s="17">
+        <v>2281</v>
+      </c>
+      <c r="Y387" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="S387" s="15" t="s">
-        <v>1002</v>
-      </c>
-      <c r="T387" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U387" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V387" s="17">
-        <v>1155</v>
-      </c>
-      <c r="W387" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="X387" s="17">
-        <v>2301</v>
-      </c>
-      <c r="Y387" s="15" t="s">
-        <v>1003</v>
-      </c>
       <c r="Z387" s="15" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="AA387" s="13" t="s">
-        <v>44</v>
+        <v>335</v>
       </c>
       <c r="AB387" s="21">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="AC387" s="22">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AD387" s="22">
-        <v>4.35942886e6</v>
+        <v>1.89</v>
       </c>
       <c r="AE387" s="23">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
       <c r="AF387" s="23">
-        <v>4.35942886e6</v>
+        <v>240.03</v>
       </c>
     </row>
     <row r="388" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A388" s="3" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B388" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C388" s="4">
-        <v>43935</v>
+        <v>43921</v>
       </c>
       <c r="D388" s="5" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E388" s="5" t="s">
         <v>33</v>
@@ -38144,7 +38160,7 @@
         <v>2300</v>
       </c>
       <c r="G388" s="3" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="H388" s="3" t="s">
         <v>36</v>
@@ -38153,34 +38169,34 @@
         <v>37</v>
       </c>
       <c r="J388" s="7">
-        <v>9.24595e6</v>
+        <v>9.245674e6</v>
       </c>
       <c r="K388" s="5" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="L388" s="7">
         <v>2300</v>
       </c>
       <c r="M388" s="5" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="N388" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="O388" s="8">
-        <v>43936</v>
+        <v>43922</v>
       </c>
       <c r="P388" s="9">
-        <v>44119</v>
+        <v>44105</v>
       </c>
       <c r="Q388" s="8">
-        <v>44119</v>
+        <v>44131</v>
       </c>
       <c r="R388" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S388" s="5" t="s">
         <v>1007</v>
-      </c>
-      <c r="S388" s="5" t="s">
-        <v>1008</v>
       </c>
       <c r="T388" s="3" t="s">
         <v>33</v>
@@ -38198,7 +38214,7 @@
         <v>2301</v>
       </c>
       <c r="Y388" s="5" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="Z388" s="5" t="s">
         <v>108</v>
@@ -38210,16 +38226,16 @@
         <v>0</v>
       </c>
       <c r="AC388" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AD388" s="11">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AE388" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
       <c r="AF388" s="12">
-        <v>1.04162557e6</v>
+        <v>4.35942886e6</v>
       </c>
     </row>
     <row r="389" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -38230,7 +38246,7 @@
         <v>33</v>
       </c>
       <c r="C389" s="14">
-        <v>43963</v>
+        <v>43935</v>
       </c>
       <c r="D389" s="15" t="s">
         <v>1010</v>
@@ -38242,7 +38258,7 @@
         <v>2300</v>
       </c>
       <c r="G389" s="13" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="H389" s="13" t="s">
         <v>36</v>
@@ -38251,7 +38267,7 @@
         <v>37</v>
       </c>
       <c r="J389" s="17">
-        <v>9.247198e6</v>
+        <v>9.24595e6</v>
       </c>
       <c r="K389" s="15" t="s">
         <v>1011</v>
@@ -38260,25 +38276,25 @@
         <v>2300</v>
       </c>
       <c r="M389" s="15" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="N389" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="O389" s="18">
-        <v>43963</v>
+        <v>43936</v>
       </c>
       <c r="P389" s="19">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="Q389" s="18">
-        <v>44195</v>
+        <v>44119</v>
       </c>
       <c r="R389" s="15" t="s">
-        <v>367</v>
+        <v>1012</v>
       </c>
       <c r="S389" s="15" t="s">
-        <v>368</v>
+        <v>1013</v>
       </c>
       <c r="T389" s="13" t="s">
         <v>33</v>
@@ -38296,7 +38312,7 @@
         <v>2301</v>
       </c>
       <c r="Y389" s="15" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="Z389" s="15" t="s">
         <v>108</v>
@@ -38308,39 +38324,39 @@
         <v>0</v>
       </c>
       <c r="AC389" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AD389" s="22">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AE389" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
       <c r="AF389" s="23">
-        <v>7.11634326e6</v>
+        <v>1.04162557e6</v>
       </c>
     </row>
     <row r="390" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A390" s="3" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B390" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C390" s="4">
-        <v>43928</v>
+        <v>43963</v>
       </c>
       <c r="D390" s="5" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="E390" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F390" s="6">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="G390" s="3" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="H390" s="3" t="s">
         <v>36</v>
@@ -38349,34 +38365,34 @@
         <v>37</v>
       </c>
       <c r="J390" s="7">
-        <v>9.245982e6</v>
+        <v>9.247198e6</v>
       </c>
       <c r="K390" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="L390" s="7">
-        <v>2310</v>
+        <v>2300</v>
       </c>
       <c r="M390" s="5" t="s">
-        <v>1014</v>
+        <v>1004</v>
       </c>
       <c r="N390" s="8">
-        <v>43943</v>
+        <v>43963</v>
       </c>
       <c r="O390" s="8">
-        <v>43939</v>
+        <v>43963</v>
       </c>
       <c r="P390" s="9">
-        <v>44304</v>
+        <v>44195</v>
       </c>
       <c r="Q390" s="8">
-        <v>44121</v>
+        <v>44195</v>
       </c>
       <c r="R390" s="5" t="s">
-        <v>854</v>
+        <v>367</v>
       </c>
       <c r="S390" s="5" t="s">
-        <v>855</v>
+        <v>368</v>
       </c>
       <c r="T390" s="3" t="s">
         <v>33</v>
@@ -38385,42 +38401,42 @@
         <v>33</v>
       </c>
       <c r="V390" s="7">
-        <v>18228</v>
-      </c>
-      <c r="W390" s="24" t="s">
-        <v>1016</v>
+        <v>1155</v>
+      </c>
+      <c r="W390" s="5" t="s">
+        <v>107</v>
       </c>
       <c r="X390" s="7">
-        <v>2311</v>
+        <v>2301</v>
       </c>
       <c r="Y390" s="5" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="Z390" s="5" t="s">
-        <v>421</v>
+        <v>108</v>
       </c>
       <c r="AA390" s="3" t="s">
-        <v>1017</v>
+        <v>44</v>
       </c>
       <c r="AB390" s="10">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AC390" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AD390" s="11">
-        <v>36</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AE390" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
       <c r="AF390" s="12">
-        <v>7200</v>
+        <v>7.11634326e6</v>
       </c>
     </row>
     <row r="391" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A391" s="13" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B391" s="13" t="s">
         <v>33</v>
@@ -38429,7 +38445,7 @@
         <v>43928</v>
       </c>
       <c r="D391" s="15" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E391" s="15" t="s">
         <v>33</v>
@@ -38438,7 +38454,7 @@
         <v>2310</v>
       </c>
       <c r="G391" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H391" s="13" t="s">
         <v>36</v>
@@ -38450,13 +38466,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K391" s="15" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L391" s="17">
         <v>2310</v>
       </c>
       <c r="M391" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N391" s="18">
         <v>43943</v>
@@ -38483,42 +38499,42 @@
         <v>33</v>
       </c>
       <c r="V391" s="17">
-        <v>236268</v>
-      </c>
-      <c r="W391" s="15" t="s">
-        <v>1018</v>
+        <v>18228</v>
+      </c>
+      <c r="W391" s="20" t="s">
+        <v>1021</v>
       </c>
       <c r="X391" s="17">
         <v>2311</v>
       </c>
       <c r="Y391" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z391" s="15" t="s">
-        <v>142</v>
+        <v>421</v>
       </c>
       <c r="AA391" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB391" s="21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AC391" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AD391" s="22">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="AE391" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
       <c r="AF391" s="23">
-        <v>2250</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="392" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A392" s="3" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>33</v>
@@ -38527,7 +38543,7 @@
         <v>43928</v>
       </c>
       <c r="D392" s="5" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E392" s="5" t="s">
         <v>33</v>
@@ -38536,7 +38552,7 @@
         <v>2310</v>
       </c>
       <c r="G392" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H392" s="3" t="s">
         <v>36</v>
@@ -38548,13 +38564,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K392" s="5" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L392" s="7">
         <v>2310</v>
       </c>
       <c r="M392" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N392" s="8">
         <v>43943</v>
@@ -38581,42 +38597,42 @@
         <v>33</v>
       </c>
       <c r="V392" s="7">
-        <v>461920</v>
+        <v>236268</v>
       </c>
       <c r="W392" s="5" t="s">
-        <v>860</v>
+        <v>1023</v>
       </c>
       <c r="X392" s="7">
         <v>2311</v>
       </c>
       <c r="Y392" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z392" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA392" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB392" s="10">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="AC392" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AD392" s="11">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="AE392" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
       <c r="AF392" s="12">
-        <v>4800</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="393" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A393" s="13" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B393" s="13" t="s">
         <v>33</v>
@@ -38625,7 +38641,7 @@
         <v>43928</v>
       </c>
       <c r="D393" s="15" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E393" s="15" t="s">
         <v>33</v>
@@ -38634,7 +38650,7 @@
         <v>2310</v>
       </c>
       <c r="G393" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H393" s="13" t="s">
         <v>36</v>
@@ -38646,13 +38662,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K393" s="15" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L393" s="17">
         <v>2310</v>
       </c>
       <c r="M393" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N393" s="18">
         <v>43943</v>
@@ -38679,42 +38695,42 @@
         <v>33</v>
       </c>
       <c r="V393" s="17">
-        <v>804495</v>
+        <v>461920</v>
       </c>
       <c r="W393" s="15" t="s">
-        <v>493</v>
+        <v>860</v>
       </c>
       <c r="X393" s="17">
         <v>2311</v>
       </c>
       <c r="Y393" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z393" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA393" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB393" s="21">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AC393" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AD393" s="22">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="AE393" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
       <c r="AF393" s="23">
-        <v>7650</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="394" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A394" s="3" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B394" s="3" t="s">
         <v>33</v>
@@ -38723,7 +38739,7 @@
         <v>43928</v>
       </c>
       <c r="D394" s="5" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E394" s="5" t="s">
         <v>33</v>
@@ -38732,7 +38748,7 @@
         <v>2310</v>
       </c>
       <c r="G394" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H394" s="3" t="s">
         <v>36</v>
@@ -38744,13 +38760,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K394" s="5" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L394" s="7">
         <v>2310</v>
       </c>
       <c r="M394" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N394" s="8">
         <v>43943</v>
@@ -38777,25 +38793,25 @@
         <v>33</v>
       </c>
       <c r="V394" s="7">
-        <v>1.129139e6</v>
+        <v>804495</v>
       </c>
       <c r="W394" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="X394" s="7">
         <v>2311</v>
       </c>
       <c r="Y394" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z394" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA394" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB394" s="10">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AC394" s="11">
         <v>45</v>
@@ -38804,15 +38820,15 @@
         <v>45</v>
       </c>
       <c r="AE394" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
       <c r="AF394" s="12">
-        <v>1350</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="395" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A395" s="13" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B395" s="13" t="s">
         <v>33</v>
@@ -38821,7 +38837,7 @@
         <v>43928</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E395" s="15" t="s">
         <v>33</v>
@@ -38830,7 +38846,7 @@
         <v>2310</v>
       </c>
       <c r="G395" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H395" s="13" t="s">
         <v>36</v>
@@ -38842,13 +38858,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K395" s="15" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L395" s="17">
         <v>2310</v>
       </c>
       <c r="M395" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N395" s="18">
         <v>43943</v>
@@ -38875,22 +38891,22 @@
         <v>33</v>
       </c>
       <c r="V395" s="17">
-        <v>1.152823e6</v>
+        <v>1.129139e6</v>
       </c>
       <c r="W395" s="15" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="X395" s="17">
         <v>2311</v>
       </c>
       <c r="Y395" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z395" s="15" t="s">
         <v>142</v>
       </c>
       <c r="AA395" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB395" s="21">
         <v>30</v>
@@ -38910,7 +38926,7 @@
     </row>
     <row r="396" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A396" s="3" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="B396" s="3" t="s">
         <v>33</v>
@@ -38919,7 +38935,7 @@
         <v>43928</v>
       </c>
       <c r="D396" s="5" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="E396" s="5" t="s">
         <v>33</v>
@@ -38928,7 +38944,7 @@
         <v>2310</v>
       </c>
       <c r="G396" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H396" s="3" t="s">
         <v>36</v>
@@ -38940,13 +38956,13 @@
         <v>9.245982e6</v>
       </c>
       <c r="K396" s="5" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="L396" s="7">
         <v>2310</v>
       </c>
       <c r="M396" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N396" s="8">
         <v>43943</v>
@@ -38973,22 +38989,22 @@
         <v>33</v>
       </c>
       <c r="V396" s="7">
-        <v>1.152831e6</v>
+        <v>1.152823e6</v>
       </c>
       <c r="W396" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="X396" s="7">
         <v>2311</v>
       </c>
       <c r="Y396" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z396" s="5" t="s">
         <v>142</v>
       </c>
       <c r="AA396" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB396" s="10">
         <v>30</v>
@@ -39008,16 +39024,16 @@
     </row>
     <row r="397" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A397" s="13" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B397" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C397" s="14">
-        <v>43955</v>
+        <v>43928</v>
       </c>
       <c r="D397" s="15" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E397" s="15" t="s">
         <v>33</v>
@@ -39026,7 +39042,7 @@
         <v>2310</v>
       </c>
       <c r="G397" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H397" s="13" t="s">
         <v>36</v>
@@ -39035,34 +39051,34 @@
         <v>37</v>
       </c>
       <c r="J397" s="17">
-        <v>9.251383e6</v>
+        <v>9.245982e6</v>
       </c>
       <c r="K397" s="15" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="L397" s="17">
         <v>2310</v>
       </c>
       <c r="M397" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N397" s="18">
-        <v>44014</v>
+        <v>43943</v>
       </c>
       <c r="O397" s="18">
-        <v>44013</v>
+        <v>43939</v>
       </c>
       <c r="P397" s="19">
-        <v>44557</v>
+        <v>44304</v>
       </c>
       <c r="Q397" s="18">
-        <v>44192</v>
+        <v>44121</v>
       </c>
       <c r="R397" s="15" t="s">
-        <v>1022</v>
+        <v>854</v>
       </c>
       <c r="S397" s="15" t="s">
-        <v>1023</v>
+        <v>855</v>
       </c>
       <c r="T397" s="13" t="s">
         <v>33</v>
@@ -39071,51 +39087,51 @@
         <v>33</v>
       </c>
       <c r="V397" s="17">
-        <v>1.755897e6</v>
+        <v>1.152831e6</v>
       </c>
       <c r="W397" s="15" t="s">
-        <v>1024</v>
+        <v>496</v>
       </c>
       <c r="X397" s="17">
         <v>2311</v>
       </c>
       <c r="Y397" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z397" s="15" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="AA397" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB397" s="21">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="AC397" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AD397" s="22">
-        <v>950000e-6</v>
+        <v>45</v>
       </c>
       <c r="AE397" s="23">
-        <v>285</v>
+        <v>1350</v>
       </c>
       <c r="AF397" s="23">
-        <v>285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="398" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A398" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C398" s="4">
+        <v>43955</v>
+      </c>
+      <c r="D398" s="5" t="s">
         <v>1025</v>
-      </c>
-      <c r="B398" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C398" s="4">
-        <v>43966</v>
-      </c>
-      <c r="D398" s="5" t="s">
-        <v>1026</v>
       </c>
       <c r="E398" s="5" t="s">
         <v>33</v>
@@ -39124,7 +39140,7 @@
         <v>2310</v>
       </c>
       <c r="G398" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H398" s="3" t="s">
         <v>36</v>
@@ -39133,34 +39149,34 @@
         <v>37</v>
       </c>
       <c r="J398" s="7">
-        <v>9.253515e6</v>
+        <v>9.251383e6</v>
       </c>
       <c r="K398" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="L398" s="7">
         <v>2310</v>
       </c>
       <c r="M398" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N398" s="8">
-        <v>44027</v>
+        <v>44014</v>
       </c>
       <c r="O398" s="8">
-        <v>44027</v>
+        <v>44013</v>
       </c>
       <c r="P398" s="9">
-        <v>44757</v>
+        <v>44557</v>
       </c>
       <c r="Q398" s="8">
-        <v>44206</v>
+        <v>44192</v>
       </c>
       <c r="R398" s="5" t="s">
-        <v>564</v>
+        <v>1027</v>
       </c>
       <c r="S398" s="5" t="s">
-        <v>565</v>
+        <v>1028</v>
       </c>
       <c r="T398" s="3" t="s">
         <v>33</v>
@@ -39169,42 +39185,42 @@
         <v>33</v>
       </c>
       <c r="V398" s="7">
-        <v>1.722859e6</v>
+        <v>1.755897e6</v>
       </c>
       <c r="W398" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="X398" s="7">
         <v>2311</v>
       </c>
       <c r="Y398" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z398" s="5" t="s">
-        <v>122</v>
+        <v>341</v>
       </c>
       <c r="AA398" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB398" s="10">
-        <v>50000</v>
+        <v>300</v>
       </c>
       <c r="AC398" s="11">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AD398" s="11">
-        <v>2.68</v>
+        <v>950000e-6</v>
       </c>
       <c r="AE398" s="12">
-        <v>134000</v>
+        <v>285</v>
       </c>
       <c r="AF398" s="12">
-        <v>134000</v>
+        <v>285</v>
       </c>
     </row>
     <row r="399" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A399" s="13" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B399" s="13" t="s">
         <v>33</v>
@@ -39213,7 +39229,7 @@
         <v>43966</v>
       </c>
       <c r="D399" s="15" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="E399" s="15" t="s">
         <v>33</v>
@@ -39222,7 +39238,7 @@
         <v>2310</v>
       </c>
       <c r="G399" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H399" s="13" t="s">
         <v>36</v>
@@ -39234,13 +39250,13 @@
         <v>9.253515e6</v>
       </c>
       <c r="K399" s="15" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="L399" s="17">
         <v>2310</v>
       </c>
       <c r="M399" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N399" s="18">
         <v>44027</v>
@@ -39267,42 +39283,42 @@
         <v>33</v>
       </c>
       <c r="V399" s="17">
-        <v>1.722891e6</v>
+        <v>1.722859e6</v>
       </c>
       <c r="W399" s="15" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="X399" s="17">
         <v>2311</v>
       </c>
       <c r="Y399" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z399" s="15" t="s">
         <v>122</v>
       </c>
       <c r="AA399" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB399" s="21">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="AC399" s="22">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AD399" s="22">
-        <v>440000e-6</v>
+        <v>2.68</v>
       </c>
       <c r="AE399" s="23">
-        <v>8800</v>
+        <v>134000</v>
       </c>
       <c r="AF399" s="23">
-        <v>8800</v>
+        <v>134000</v>
       </c>
     </row>
     <row r="400" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A400" s="3" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="B400" s="3" t="s">
         <v>33</v>
@@ -39311,7 +39327,7 @@
         <v>43966</v>
       </c>
       <c r="D400" s="5" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="E400" s="5" t="s">
         <v>33</v>
@@ -39320,7 +39336,7 @@
         <v>2310</v>
       </c>
       <c r="G400" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H400" s="3" t="s">
         <v>36</v>
@@ -39329,16 +39345,16 @@
         <v>37</v>
       </c>
       <c r="J400" s="7">
-        <v>9.253532e6</v>
+        <v>9.253515e6</v>
       </c>
       <c r="K400" s="5" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="L400" s="7">
         <v>2310</v>
       </c>
       <c r="M400" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N400" s="8">
         <v>44027</v>
@@ -39353,10 +39369,10 @@
         <v>44206</v>
       </c>
       <c r="R400" s="5" t="s">
-        <v>1031</v>
+        <v>564</v>
       </c>
       <c r="S400" s="5" t="s">
-        <v>1032</v>
+        <v>565</v>
       </c>
       <c r="T400" s="3" t="s">
         <v>33</v>
@@ -39365,51 +39381,51 @@
         <v>33</v>
       </c>
       <c r="V400" s="7">
-        <v>1.043684e6</v>
+        <v>1.722891e6</v>
       </c>
       <c r="W400" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="X400" s="7">
         <v>2311</v>
       </c>
       <c r="Y400" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z400" s="5" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="AA400" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB400" s="10">
-        <v>780</v>
+        <v>20000</v>
       </c>
       <c r="AC400" s="11">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AD400" s="11">
-        <v>25</v>
+        <v>440000e-6</v>
       </c>
       <c r="AE400" s="12">
-        <v>19500</v>
+        <v>8800</v>
       </c>
       <c r="AF400" s="12">
-        <v>19500</v>
+        <v>8800</v>
       </c>
     </row>
     <row r="401" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A401" s="13" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="B401" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C401" s="14">
-        <v>44001</v>
+        <v>43966</v>
       </c>
       <c r="D401" s="15" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E401" s="15" t="s">
         <v>33</v>
@@ -39418,7 +39434,7 @@
         <v>2310</v>
       </c>
       <c r="G401" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H401" s="13" t="s">
         <v>36</v>
@@ -39427,16 +39443,16 @@
         <v>37</v>
       </c>
       <c r="J401" s="17">
-        <v>9.253504e6</v>
+        <v>9.253532e6</v>
       </c>
       <c r="K401" s="15" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="L401" s="17">
         <v>2310</v>
       </c>
       <c r="M401" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N401" s="18">
         <v>44027</v>
@@ -39445,16 +39461,16 @@
         <v>44027</v>
       </c>
       <c r="P401" s="19">
-        <v>44756</v>
+        <v>44757</v>
       </c>
       <c r="Q401" s="18">
         <v>44206</v>
       </c>
       <c r="R401" s="15" t="s">
-        <v>564</v>
+        <v>1036</v>
       </c>
       <c r="S401" s="15" t="s">
-        <v>565</v>
+        <v>1037</v>
       </c>
       <c r="T401" s="13" t="s">
         <v>33</v>
@@ -39463,51 +39479,51 @@
         <v>33</v>
       </c>
       <c r="V401" s="17">
-        <v>1.722905e6</v>
+        <v>1.043684e6</v>
       </c>
       <c r="W401" s="15" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="X401" s="17">
         <v>2311</v>
       </c>
       <c r="Y401" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z401" s="15" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="AA401" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB401" s="21">
-        <v>30000</v>
+        <v>780</v>
       </c>
       <c r="AC401" s="22">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AD401" s="22">
-        <v>1.16</v>
+        <v>25</v>
       </c>
       <c r="AE401" s="23">
-        <v>34800</v>
+        <v>19500</v>
       </c>
       <c r="AF401" s="23">
-        <v>34800</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="402" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A402" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B402" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C402" s="4">
-        <v>44063</v>
-      </c>
-      <c r="D402" s="25" t="s">
-        <v>1039</v>
+        <v>44001</v>
+      </c>
+      <c r="D402" s="5" t="s">
+        <v>1040</v>
       </c>
       <c r="E402" s="5" t="s">
         <v>33</v>
@@ -39516,7 +39532,7 @@
         <v>2310</v>
       </c>
       <c r="G402" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H402" s="3" t="s">
         <v>36</v>
@@ -39525,20 +39541,34 @@
         <v>37</v>
       </c>
       <c r="J402" s="7">
-        <v>0</v>
-      </c>
-      <c r="K402" s="5"/>
-      <c r="L402" s="7"/>
-      <c r="M402" s="5"/>
-      <c r="N402" s="8"/>
-      <c r="O402" s="8"/>
-      <c r="P402" s="9"/>
-      <c r="Q402" s="8"/>
+        <v>9.253504e6</v>
+      </c>
+      <c r="K402" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="L402" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M402" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N402" s="8">
+        <v>44027</v>
+      </c>
+      <c r="O402" s="8">
+        <v>44027</v>
+      </c>
+      <c r="P402" s="9">
+        <v>44756</v>
+      </c>
+      <c r="Q402" s="8">
+        <v>44206</v>
+      </c>
       <c r="R402" s="5" t="s">
-        <v>1040</v>
+        <v>564</v>
       </c>
       <c r="S402" s="5" t="s">
-        <v>1041</v>
+        <v>565</v>
       </c>
       <c r="T402" s="3" t="s">
         <v>33</v>
@@ -39547,7 +39577,7 @@
         <v>33</v>
       </c>
       <c r="V402" s="7">
-        <v>1.513559e6</v>
+        <v>1.722905e6</v>
       </c>
       <c r="W402" s="5" t="s">
         <v>1042</v>
@@ -39556,42 +39586,42 @@
         <v>2311</v>
       </c>
       <c r="Y402" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z402" s="5" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
       <c r="AA402" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB402" s="10">
-        <v>502</v>
+        <v>30000</v>
       </c>
       <c r="AC402" s="11">
-        <v>13.9</v>
+        <v>1.16</v>
       </c>
       <c r="AD402" s="11">
-        <v>13.9</v>
+        <v>1.16</v>
       </c>
       <c r="AE402" s="12">
-        <v>6977.8</v>
+        <v>34800</v>
       </c>
       <c r="AF402" s="12">
-        <v>6977.8</v>
+        <v>34800</v>
       </c>
     </row>
     <row r="403" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A403" s="13" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="B403" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C403" s="14">
-        <v>44063</v>
-      </c>
-      <c r="D403" s="26" t="s">
-        <v>1039</v>
+        <v>44042</v>
+      </c>
+      <c r="D403" s="15" t="s">
+        <v>1044</v>
       </c>
       <c r="E403" s="15" t="s">
         <v>33</v>
@@ -39600,7 +39630,7 @@
         <v>2310</v>
       </c>
       <c r="G403" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H403" s="13" t="s">
         <v>36</v>
@@ -39609,20 +39639,34 @@
         <v>37</v>
       </c>
       <c r="J403" s="17">
-        <v>0</v>
-      </c>
-      <c r="K403" s="15"/>
-      <c r="L403" s="17"/>
-      <c r="M403" s="15"/>
-      <c r="N403" s="18"/>
-      <c r="O403" s="18"/>
-      <c r="P403" s="19"/>
-      <c r="Q403" s="18"/>
+        <v>9.262582e6</v>
+      </c>
+      <c r="K403" s="15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L403" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M403" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N403" s="18">
+        <v>44118</v>
+      </c>
+      <c r="O403" s="18">
+        <v>44118</v>
+      </c>
+      <c r="P403" s="19">
+        <v>44848</v>
+      </c>
+      <c r="Q403" s="18">
+        <v>44299</v>
+      </c>
       <c r="R403" s="15" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="S403" s="15" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="T403" s="13" t="s">
         <v>33</v>
@@ -39631,42 +39675,42 @@
         <v>33</v>
       </c>
       <c r="V403" s="17">
-        <v>1.51421e6</v>
+        <v>22306</v>
       </c>
       <c r="W403" s="15" t="s">
-        <v>1043</v>
+        <v>273</v>
       </c>
       <c r="X403" s="17">
         <v>2311</v>
       </c>
       <c r="Y403" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z403" s="15" t="s">
-        <v>341</v>
+        <v>274</v>
       </c>
       <c r="AA403" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB403" s="21">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="AC403" s="22">
-        <v>8.55</v>
+        <v>270000</v>
       </c>
       <c r="AD403" s="22">
-        <v>8.55</v>
+        <v>270000</v>
       </c>
       <c r="AE403" s="23">
-        <v>4292.1</v>
+        <v>270000</v>
       </c>
       <c r="AF403" s="23">
-        <v>4292.1</v>
+        <v>270000</v>
       </c>
     </row>
     <row r="404" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A404" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B404" s="3" t="s">
         <v>33</v>
@@ -39675,7 +39719,7 @@
         <v>44063</v>
       </c>
       <c r="D404" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E404" s="5" t="s">
         <v>33</v>
@@ -39684,7 +39728,7 @@
         <v>2310</v>
       </c>
       <c r="G404" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H404" s="3" t="s">
         <v>36</v>
@@ -39693,34 +39737,20 @@
         <v>37</v>
       </c>
       <c r="J404" s="7">
-        <v>9.261504e6</v>
-      </c>
-      <c r="K404" s="5" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L404" s="7">
-        <v>2310</v>
-      </c>
-      <c r="M404" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N404" s="8">
-        <v>44084</v>
-      </c>
-      <c r="O404" s="8">
-        <v>44084</v>
-      </c>
-      <c r="P404" s="9">
-        <v>44449</v>
-      </c>
-      <c r="Q404" s="8">
-        <v>44264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K404" s="5"/>
+      <c r="L404" s="7"/>
+      <c r="M404" s="5"/>
+      <c r="N404" s="8"/>
+      <c r="O404" s="8"/>
+      <c r="P404" s="9"/>
+      <c r="Q404" s="8"/>
       <c r="R404" s="5" t="s">
-        <v>523</v>
+        <v>1050</v>
       </c>
       <c r="S404" s="5" t="s">
-        <v>524</v>
+        <v>1051</v>
       </c>
       <c r="T404" s="3" t="s">
         <v>33</v>
@@ -39729,42 +39759,42 @@
         <v>33</v>
       </c>
       <c r="V404" s="7">
-        <v>1.487779e6</v>
+        <v>1.513559e6</v>
       </c>
       <c r="W404" s="5" t="s">
-        <v>1045</v>
+        <v>1052</v>
       </c>
       <c r="X404" s="7">
         <v>2311</v>
       </c>
       <c r="Y404" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z404" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA404" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB404" s="10">
-        <v>1130</v>
+        <v>502</v>
       </c>
       <c r="AC404" s="11">
-        <v>22.27</v>
+        <v>13.9</v>
       </c>
       <c r="AD404" s="11">
-        <v>22.27</v>
+        <v>13.9</v>
       </c>
       <c r="AE404" s="12">
-        <v>25165.1</v>
+        <v>6977.8</v>
       </c>
       <c r="AF404" s="12">
-        <v>25165.1</v>
+        <v>6977.8</v>
       </c>
     </row>
     <row r="405" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A405" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B405" s="13" t="s">
         <v>33</v>
@@ -39773,7 +39803,7 @@
         <v>44063</v>
       </c>
       <c r="D405" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E405" s="15" t="s">
         <v>33</v>
@@ -39782,7 +39812,7 @@
         <v>2310</v>
       </c>
       <c r="G405" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H405" s="13" t="s">
         <v>36</v>
@@ -39791,34 +39821,20 @@
         <v>37</v>
       </c>
       <c r="J405" s="17">
-        <v>9.261504e6</v>
-      </c>
-      <c r="K405" s="15" t="s">
-        <v>1044</v>
-      </c>
-      <c r="L405" s="17">
-        <v>2310</v>
-      </c>
-      <c r="M405" s="15" t="s">
-        <v>1014</v>
-      </c>
-      <c r="N405" s="18">
-        <v>44084</v>
-      </c>
-      <c r="O405" s="18">
-        <v>44084</v>
-      </c>
-      <c r="P405" s="19">
-        <v>44449</v>
-      </c>
-      <c r="Q405" s="18">
-        <v>44264</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K405" s="15"/>
+      <c r="L405" s="17"/>
+      <c r="M405" s="15"/>
+      <c r="N405" s="18"/>
+      <c r="O405" s="18"/>
+      <c r="P405" s="19"/>
+      <c r="Q405" s="18"/>
       <c r="R405" s="15" t="s">
-        <v>523</v>
+        <v>1050</v>
       </c>
       <c r="S405" s="15" t="s">
-        <v>524</v>
+        <v>1051</v>
       </c>
       <c r="T405" s="13" t="s">
         <v>33</v>
@@ -39827,42 +39843,42 @@
         <v>33</v>
       </c>
       <c r="V405" s="17">
-        <v>1.512285e6</v>
+        <v>1.51421e6</v>
       </c>
       <c r="W405" s="15" t="s">
-        <v>526</v>
+        <v>1053</v>
       </c>
       <c r="X405" s="17">
         <v>2311</v>
       </c>
       <c r="Y405" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z405" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA405" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB405" s="21">
-        <v>250</v>
+        <v>502</v>
       </c>
       <c r="AC405" s="22">
-        <v>69.9</v>
+        <v>8.55</v>
       </c>
       <c r="AD405" s="22">
-        <v>69.9</v>
+        <v>8.55</v>
       </c>
       <c r="AE405" s="23">
-        <v>17475</v>
+        <v>4292.1</v>
       </c>
       <c r="AF405" s="23">
-        <v>17475</v>
+        <v>4292.1</v>
       </c>
     </row>
     <row r="406" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A406" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>33</v>
@@ -39871,7 +39887,7 @@
         <v>44063</v>
       </c>
       <c r="D406" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E406" s="5" t="s">
         <v>33</v>
@@ -39880,7 +39896,7 @@
         <v>2310</v>
       </c>
       <c r="G406" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H406" s="3" t="s">
         <v>36</v>
@@ -39892,13 +39908,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K406" s="5" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L406" s="7">
         <v>2310</v>
       </c>
       <c r="M406" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N406" s="8">
         <v>44084</v>
@@ -39925,42 +39941,42 @@
         <v>33</v>
       </c>
       <c r="V406" s="7">
-        <v>1.512293e6</v>
+        <v>1.487779e6</v>
       </c>
       <c r="W406" s="5" t="s">
-        <v>527</v>
+        <v>1055</v>
       </c>
       <c r="X406" s="7">
         <v>2311</v>
       </c>
       <c r="Y406" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z406" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA406" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB406" s="10">
-        <v>900</v>
+        <v>1130</v>
       </c>
       <c r="AC406" s="11">
-        <v>13.76</v>
+        <v>22.27</v>
       </c>
       <c r="AD406" s="11">
-        <v>13.76</v>
+        <v>22.27</v>
       </c>
       <c r="AE406" s="12">
-        <v>12384</v>
+        <v>25165.1</v>
       </c>
       <c r="AF406" s="12">
-        <v>12384</v>
+        <v>25165.1</v>
       </c>
     </row>
     <row r="407" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A407" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B407" s="13" t="s">
         <v>33</v>
@@ -39969,7 +39985,7 @@
         <v>44063</v>
       </c>
       <c r="D407" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E407" s="15" t="s">
         <v>33</v>
@@ -39978,7 +39994,7 @@
         <v>2310</v>
       </c>
       <c r="G407" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H407" s="13" t="s">
         <v>36</v>
@@ -39990,13 +40006,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K407" s="15" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L407" s="17">
         <v>2310</v>
       </c>
       <c r="M407" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N407" s="18">
         <v>44084</v>
@@ -40023,42 +40039,42 @@
         <v>33</v>
       </c>
       <c r="V407" s="17">
-        <v>1.512552e6</v>
+        <v>1.512285e6</v>
       </c>
       <c r="W407" s="15" t="s">
-        <v>374</v>
+        <v>526</v>
       </c>
       <c r="X407" s="17">
         <v>2311</v>
       </c>
       <c r="Y407" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z407" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA407" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB407" s="21">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="AC407" s="22">
-        <v>6.9</v>
+        <v>69.9</v>
       </c>
       <c r="AD407" s="22">
-        <v>6.9</v>
+        <v>69.9</v>
       </c>
       <c r="AE407" s="23">
-        <v>27600</v>
+        <v>17475</v>
       </c>
       <c r="AF407" s="23">
-        <v>27600</v>
+        <v>17475</v>
       </c>
     </row>
     <row r="408" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A408" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B408" s="3" t="s">
         <v>33</v>
@@ -40067,7 +40083,7 @@
         <v>44063</v>
       </c>
       <c r="D408" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E408" s="5" t="s">
         <v>33</v>
@@ -40076,7 +40092,7 @@
         <v>2310</v>
       </c>
       <c r="G408" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H408" s="3" t="s">
         <v>36</v>
@@ -40088,13 +40104,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K408" s="5" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L408" s="7">
         <v>2310</v>
       </c>
       <c r="M408" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N408" s="8">
         <v>44084</v>
@@ -40121,42 +40137,42 @@
         <v>33</v>
       </c>
       <c r="V408" s="7">
-        <v>1.512897e6</v>
+        <v>1.512293e6</v>
       </c>
       <c r="W408" s="5" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="X408" s="7">
         <v>2311</v>
       </c>
       <c r="Y408" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z408" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA408" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB408" s="10">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="AC408" s="11">
-        <v>13.54</v>
+        <v>13.76</v>
       </c>
       <c r="AD408" s="11">
-        <v>13.54</v>
+        <v>13.76</v>
       </c>
       <c r="AE408" s="12">
-        <v>27080</v>
+        <v>12384</v>
       </c>
       <c r="AF408" s="12">
-        <v>27080</v>
+        <v>12384</v>
       </c>
     </row>
     <row r="409" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A409" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B409" s="13" t="s">
         <v>33</v>
@@ -40165,7 +40181,7 @@
         <v>44063</v>
       </c>
       <c r="D409" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E409" s="15" t="s">
         <v>33</v>
@@ -40174,7 +40190,7 @@
         <v>2310</v>
       </c>
       <c r="G409" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H409" s="13" t="s">
         <v>36</v>
@@ -40186,13 +40202,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K409" s="15" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L409" s="17">
         <v>2310</v>
       </c>
       <c r="M409" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N409" s="18">
         <v>44084</v>
@@ -40219,42 +40235,42 @@
         <v>33</v>
       </c>
       <c r="V409" s="17">
-        <v>1.525662e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W409" s="15" t="s">
-        <v>522</v>
+        <v>374</v>
       </c>
       <c r="X409" s="17">
         <v>2311</v>
       </c>
       <c r="Y409" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z409" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA409" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB409" s="21">
-        <v>250</v>
+        <v>4000</v>
       </c>
       <c r="AC409" s="22">
-        <v>20.5</v>
+        <v>6.9</v>
       </c>
       <c r="AD409" s="22">
-        <v>20.5</v>
+        <v>6.9</v>
       </c>
       <c r="AE409" s="23">
-        <v>5125</v>
+        <v>27600</v>
       </c>
       <c r="AF409" s="23">
-        <v>5125</v>
+        <v>27600</v>
       </c>
     </row>
     <row r="410" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A410" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B410" s="3" t="s">
         <v>33</v>
@@ -40263,7 +40279,7 @@
         <v>44063</v>
       </c>
       <c r="D410" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E410" s="5" t="s">
         <v>33</v>
@@ -40272,7 +40288,7 @@
         <v>2310</v>
       </c>
       <c r="G410" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H410" s="3" t="s">
         <v>36</v>
@@ -40284,13 +40300,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K410" s="5" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L410" s="7">
         <v>2310</v>
       </c>
       <c r="M410" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N410" s="8">
         <v>44084</v>
@@ -40317,42 +40333,42 @@
         <v>33</v>
       </c>
       <c r="V410" s="7">
-        <v>1.525689e6</v>
+        <v>1.512897e6</v>
       </c>
       <c r="W410" s="5" t="s">
-        <v>1046</v>
+        <v>532</v>
       </c>
       <c r="X410" s="7">
         <v>2311</v>
       </c>
       <c r="Y410" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z410" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA410" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB410" s="10">
-        <v>1300</v>
+        <v>2000</v>
       </c>
       <c r="AC410" s="11">
-        <v>7.5</v>
+        <v>13.54</v>
       </c>
       <c r="AD410" s="11">
-        <v>7.5</v>
+        <v>13.54</v>
       </c>
       <c r="AE410" s="12">
-        <v>9750</v>
+        <v>27080</v>
       </c>
       <c r="AF410" s="12">
-        <v>9750</v>
+        <v>27080</v>
       </c>
     </row>
     <row r="411" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A411" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B411" s="13" t="s">
         <v>33</v>
@@ -40361,7 +40377,7 @@
         <v>44063</v>
       </c>
       <c r="D411" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E411" s="15" t="s">
         <v>33</v>
@@ -40370,7 +40386,7 @@
         <v>2310</v>
       </c>
       <c r="G411" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H411" s="13" t="s">
         <v>36</v>
@@ -40382,13 +40398,13 @@
         <v>9.261504e6</v>
       </c>
       <c r="K411" s="15" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
       <c r="L411" s="17">
         <v>2310</v>
       </c>
       <c r="M411" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N411" s="18">
         <v>44084</v>
@@ -40415,42 +40431,42 @@
         <v>33</v>
       </c>
       <c r="V411" s="17">
-        <v>1.525727e6</v>
+        <v>1.525662e6</v>
       </c>
       <c r="W411" s="15" t="s">
-        <v>1047</v>
+        <v>522</v>
       </c>
       <c r="X411" s="17">
         <v>2311</v>
       </c>
       <c r="Y411" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z411" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA411" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB411" s="21">
-        <v>3700</v>
+        <v>250</v>
       </c>
       <c r="AC411" s="22">
-        <v>14.1</v>
+        <v>20.5</v>
       </c>
       <c r="AD411" s="22">
-        <v>14.1</v>
+        <v>20.5</v>
       </c>
       <c r="AE411" s="23">
-        <v>52170</v>
+        <v>5125</v>
       </c>
       <c r="AF411" s="23">
-        <v>52170</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="412" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A412" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B412" s="3" t="s">
         <v>33</v>
@@ -40459,7 +40475,7 @@
         <v>44063</v>
       </c>
       <c r="D412" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E412" s="5" t="s">
         <v>33</v>
@@ -40468,7 +40484,7 @@
         <v>2310</v>
       </c>
       <c r="G412" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H412" s="3" t="s">
         <v>36</v>
@@ -40477,34 +40493,34 @@
         <v>37</v>
       </c>
       <c r="J412" s="7">
-        <v>9.261505e6</v>
+        <v>9.261504e6</v>
       </c>
       <c r="K412" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="L412" s="7">
         <v>2310</v>
       </c>
       <c r="M412" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N412" s="8">
-        <v>44105</v>
+        <v>44084</v>
       </c>
       <c r="O412" s="8">
-        <v>44105</v>
+        <v>44084</v>
       </c>
       <c r="P412" s="9">
-        <v>44285</v>
+        <v>44449</v>
       </c>
       <c r="Q412" s="8">
-        <v>44285</v>
+        <v>44264</v>
       </c>
       <c r="R412" s="5" t="s">
-        <v>1049</v>
+        <v>523</v>
       </c>
       <c r="S412" s="5" t="s">
-        <v>1050</v>
+        <v>524</v>
       </c>
       <c r="T412" s="3" t="s">
         <v>33</v>
@@ -40513,42 +40529,42 @@
         <v>33</v>
       </c>
       <c r="V412" s="7">
-        <v>1.489186e6</v>
+        <v>1.525689e6</v>
       </c>
       <c r="W412" s="5" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="X412" s="7">
         <v>2311</v>
       </c>
       <c r="Y412" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z412" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA412" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB412" s="10">
-        <v>1170</v>
+        <v>1300</v>
       </c>
       <c r="AC412" s="11">
-        <v>73000e-6</v>
+        <v>7.5</v>
       </c>
       <c r="AD412" s="11">
-        <v>73000e-6</v>
+        <v>7.5</v>
       </c>
       <c r="AE412" s="12">
-        <v>85.41</v>
+        <v>9750</v>
       </c>
       <c r="AF412" s="12">
-        <v>85.41</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="413" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A413" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B413" s="13" t="s">
         <v>33</v>
@@ -40557,7 +40573,7 @@
         <v>44063</v>
       </c>
       <c r="D413" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E413" s="15" t="s">
         <v>33</v>
@@ -40566,7 +40582,7 @@
         <v>2310</v>
       </c>
       <c r="G413" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H413" s="13" t="s">
         <v>36</v>
@@ -40575,34 +40591,34 @@
         <v>37</v>
       </c>
       <c r="J413" s="17">
-        <v>9.261505e6</v>
+        <v>9.261504e6</v>
       </c>
       <c r="K413" s="15" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="L413" s="17">
         <v>2310</v>
       </c>
       <c r="M413" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N413" s="18">
-        <v>44105</v>
+        <v>44084</v>
       </c>
       <c r="O413" s="18">
-        <v>44105</v>
+        <v>44084</v>
       </c>
       <c r="P413" s="19">
-        <v>44285</v>
+        <v>44449</v>
       </c>
       <c r="Q413" s="18">
-        <v>44285</v>
+        <v>44264</v>
       </c>
       <c r="R413" s="15" t="s">
-        <v>1049</v>
+        <v>523</v>
       </c>
       <c r="S413" s="15" t="s">
-        <v>1050</v>
+        <v>524</v>
       </c>
       <c r="T413" s="13" t="s">
         <v>33</v>
@@ -40611,42 +40627,42 @@
         <v>33</v>
       </c>
       <c r="V413" s="17">
-        <v>1.489259e6</v>
+        <v>1.525727e6</v>
       </c>
       <c r="W413" s="15" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="X413" s="17">
         <v>2311</v>
       </c>
       <c r="Y413" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z413" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA413" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB413" s="21">
-        <v>1500</v>
+        <v>3700</v>
       </c>
       <c r="AC413" s="22">
-        <v>2</v>
+        <v>14.1</v>
       </c>
       <c r="AD413" s="22">
-        <v>2</v>
+        <v>14.1</v>
       </c>
       <c r="AE413" s="23">
-        <v>3000</v>
+        <v>52170</v>
       </c>
       <c r="AF413" s="23">
-        <v>3000</v>
+        <v>52170</v>
       </c>
     </row>
     <row r="414" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A414" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B414" s="3" t="s">
         <v>33</v>
@@ -40655,7 +40671,7 @@
         <v>44063</v>
       </c>
       <c r="D414" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E414" s="5" t="s">
         <v>33</v>
@@ -40664,7 +40680,7 @@
         <v>2310</v>
       </c>
       <c r="G414" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H414" s="3" t="s">
         <v>36</v>
@@ -40676,13 +40692,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K414" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L414" s="7">
         <v>2310</v>
       </c>
       <c r="M414" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N414" s="8">
         <v>44105</v>
@@ -40697,10 +40713,10 @@
         <v>44285</v>
       </c>
       <c r="R414" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S414" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T414" s="3" t="s">
         <v>33</v>
@@ -40709,42 +40725,42 @@
         <v>33</v>
       </c>
       <c r="V414" s="7">
-        <v>1.489755e6</v>
+        <v>1.489186e6</v>
       </c>
       <c r="W414" s="5" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="X414" s="7">
         <v>2311</v>
       </c>
       <c r="Y414" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z414" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA414" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB414" s="10">
-        <v>1500</v>
+        <v>1170</v>
       </c>
       <c r="AC414" s="11">
-        <v>9.43</v>
+        <v>73000e-6</v>
       </c>
       <c r="AD414" s="11">
-        <v>9.43</v>
+        <v>73000e-6</v>
       </c>
       <c r="AE414" s="12">
-        <v>14145</v>
+        <v>85.41</v>
       </c>
       <c r="AF414" s="12">
-        <v>14145</v>
+        <v>85.41</v>
       </c>
     </row>
     <row r="415" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A415" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B415" s="13" t="s">
         <v>33</v>
@@ -40753,7 +40769,7 @@
         <v>44063</v>
       </c>
       <c r="D415" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E415" s="15" t="s">
         <v>33</v>
@@ -40762,7 +40778,7 @@
         <v>2310</v>
       </c>
       <c r="G415" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H415" s="13" t="s">
         <v>36</v>
@@ -40774,13 +40790,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K415" s="15" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L415" s="17">
         <v>2310</v>
       </c>
       <c r="M415" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N415" s="18">
         <v>44105</v>
@@ -40795,10 +40811,10 @@
         <v>44285</v>
       </c>
       <c r="R415" s="15" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S415" s="15" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T415" s="13" t="s">
         <v>33</v>
@@ -40807,42 +40823,42 @@
         <v>33</v>
       </c>
       <c r="V415" s="17">
-        <v>1.490869e6</v>
+        <v>1.489259e6</v>
       </c>
       <c r="W415" s="15" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="X415" s="17">
         <v>2311</v>
       </c>
       <c r="Y415" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z415" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA415" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB415" s="21">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AC415" s="22">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="AD415" s="22">
-        <v>7.9</v>
+        <v>2</v>
       </c>
       <c r="AE415" s="23">
-        <v>15800</v>
+        <v>3000</v>
       </c>
       <c r="AF415" s="23">
-        <v>15800</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="416" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A416" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B416" s="3" t="s">
         <v>33</v>
@@ -40851,7 +40867,7 @@
         <v>44063</v>
       </c>
       <c r="D416" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E416" s="5" t="s">
         <v>33</v>
@@ -40860,7 +40876,7 @@
         <v>2310</v>
       </c>
       <c r="G416" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H416" s="3" t="s">
         <v>36</v>
@@ -40872,13 +40888,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K416" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L416" s="7">
         <v>2310</v>
       </c>
       <c r="M416" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N416" s="8">
         <v>44105</v>
@@ -40893,10 +40909,10 @@
         <v>44285</v>
       </c>
       <c r="R416" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S416" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T416" s="3" t="s">
         <v>33</v>
@@ -40905,42 +40921,42 @@
         <v>33</v>
       </c>
       <c r="V416" s="7">
-        <v>1.512552e6</v>
+        <v>1.489755e6</v>
       </c>
       <c r="W416" s="5" t="s">
-        <v>374</v>
+        <v>1063</v>
       </c>
       <c r="X416" s="7">
         <v>2311</v>
       </c>
       <c r="Y416" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z416" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA416" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB416" s="10">
-        <v>12650</v>
+        <v>1500</v>
       </c>
       <c r="AC416" s="11">
-        <v>10.3</v>
+        <v>9.43</v>
       </c>
       <c r="AD416" s="11">
-        <v>10.3</v>
+        <v>9.43</v>
       </c>
       <c r="AE416" s="12">
-        <v>130295</v>
+        <v>14145</v>
       </c>
       <c r="AF416" s="12">
-        <v>130295</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="417" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A417" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B417" s="13" t="s">
         <v>33</v>
@@ -40949,7 +40965,7 @@
         <v>44063</v>
       </c>
       <c r="D417" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E417" s="15" t="s">
         <v>33</v>
@@ -40958,7 +40974,7 @@
         <v>2310</v>
       </c>
       <c r="G417" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H417" s="13" t="s">
         <v>36</v>
@@ -40970,13 +40986,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K417" s="15" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L417" s="17">
         <v>2310</v>
       </c>
       <c r="M417" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N417" s="18">
         <v>44105</v>
@@ -40991,10 +41007,10 @@
         <v>44285</v>
       </c>
       <c r="R417" s="15" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S417" s="15" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T417" s="13" t="s">
         <v>33</v>
@@ -41003,42 +41019,42 @@
         <v>33</v>
       </c>
       <c r="V417" s="17">
-        <v>1.514385e6</v>
+        <v>1.490869e6</v>
       </c>
       <c r="W417" s="15" t="s">
-        <v>1055</v>
+        <v>1064</v>
       </c>
       <c r="X417" s="17">
         <v>2311</v>
       </c>
       <c r="Y417" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z417" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA417" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB417" s="21">
-        <v>120</v>
+        <v>2000</v>
       </c>
       <c r="AC417" s="22">
-        <v>17.4</v>
+        <v>7.9</v>
       </c>
       <c r="AD417" s="22">
-        <v>17.4</v>
+        <v>7.9</v>
       </c>
       <c r="AE417" s="23">
-        <v>2088</v>
+        <v>15800</v>
       </c>
       <c r="AF417" s="23">
-        <v>2088</v>
+        <v>15800</v>
       </c>
     </row>
     <row r="418" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A418" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B418" s="3" t="s">
         <v>33</v>
@@ -41047,7 +41063,7 @@
         <v>44063</v>
       </c>
       <c r="D418" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>33</v>
@@ -41056,7 +41072,7 @@
         <v>2310</v>
       </c>
       <c r="G418" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H418" s="3" t="s">
         <v>36</v>
@@ -41068,13 +41084,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K418" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L418" s="7">
         <v>2310</v>
       </c>
       <c r="M418" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N418" s="8">
         <v>44105</v>
@@ -41089,10 +41105,10 @@
         <v>44285</v>
       </c>
       <c r="R418" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S418" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T418" s="3" t="s">
         <v>33</v>
@@ -41101,42 +41117,42 @@
         <v>33</v>
       </c>
       <c r="V418" s="7">
-        <v>1.517287e6</v>
+        <v>1.512552e6</v>
       </c>
       <c r="W418" s="5" t="s">
-        <v>1056</v>
+        <v>374</v>
       </c>
       <c r="X418" s="7">
         <v>2311</v>
       </c>
       <c r="Y418" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z418" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA418" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB418" s="10">
-        <v>1130</v>
+        <v>12650</v>
       </c>
       <c r="AC418" s="11">
-        <v>21.3</v>
+        <v>10.3</v>
       </c>
       <c r="AD418" s="11">
-        <v>21.3</v>
+        <v>10.3</v>
       </c>
       <c r="AE418" s="12">
-        <v>24069</v>
+        <v>130295</v>
       </c>
       <c r="AF418" s="12">
-        <v>24069</v>
+        <v>130295</v>
       </c>
     </row>
     <row r="419" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A419" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B419" s="13" t="s">
         <v>33</v>
@@ -41145,7 +41161,7 @@
         <v>44063</v>
       </c>
       <c r="D419" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E419" s="15" t="s">
         <v>33</v>
@@ -41154,7 +41170,7 @@
         <v>2310</v>
       </c>
       <c r="G419" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H419" s="13" t="s">
         <v>36</v>
@@ -41166,13 +41182,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K419" s="15" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L419" s="17">
         <v>2310</v>
       </c>
       <c r="M419" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N419" s="18">
         <v>44105</v>
@@ -41187,10 +41203,10 @@
         <v>44285</v>
       </c>
       <c r="R419" s="15" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S419" s="15" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T419" s="13" t="s">
         <v>33</v>
@@ -41199,42 +41215,42 @@
         <v>33</v>
       </c>
       <c r="V419" s="17">
-        <v>1.527703e6</v>
+        <v>1.514385e6</v>
       </c>
       <c r="W419" s="15" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="X419" s="17">
         <v>2311</v>
       </c>
       <c r="Y419" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z419" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA419" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB419" s="21">
-        <v>3400</v>
+        <v>120</v>
       </c>
       <c r="AC419" s="22">
-        <v>850000e-6</v>
+        <v>17.4</v>
       </c>
       <c r="AD419" s="22">
-        <v>850000e-6</v>
+        <v>17.4</v>
       </c>
       <c r="AE419" s="23">
-        <v>2890</v>
+        <v>2088</v>
       </c>
       <c r="AF419" s="23">
-        <v>2890</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="420" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A420" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B420" s="3" t="s">
         <v>33</v>
@@ -41243,7 +41259,7 @@
         <v>44063</v>
       </c>
       <c r="D420" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E420" s="5" t="s">
         <v>33</v>
@@ -41252,7 +41268,7 @@
         <v>2310</v>
       </c>
       <c r="G420" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H420" s="3" t="s">
         <v>36</v>
@@ -41264,13 +41280,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K420" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L420" s="7">
         <v>2310</v>
       </c>
       <c r="M420" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N420" s="8">
         <v>44105</v>
@@ -41285,10 +41301,10 @@
         <v>44285</v>
       </c>
       <c r="R420" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S420" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T420" s="3" t="s">
         <v>33</v>
@@ -41297,42 +41313,42 @@
         <v>33</v>
       </c>
       <c r="V420" s="7">
-        <v>1.568515e6</v>
+        <v>1.517287e6</v>
       </c>
       <c r="W420" s="5" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="X420" s="7">
         <v>2311</v>
       </c>
       <c r="Y420" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z420" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA420" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB420" s="10">
-        <v>9000</v>
+        <v>1130</v>
       </c>
       <c r="AC420" s="11">
-        <v>880000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AD420" s="11">
-        <v>880000e-6</v>
+        <v>21.3</v>
       </c>
       <c r="AE420" s="12">
-        <v>7920</v>
+        <v>24069</v>
       </c>
       <c r="AF420" s="12">
-        <v>7920</v>
+        <v>24069</v>
       </c>
     </row>
     <row r="421" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A421" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B421" s="13" t="s">
         <v>33</v>
@@ -41341,7 +41357,7 @@
         <v>44063</v>
       </c>
       <c r="D421" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E421" s="15" t="s">
         <v>33</v>
@@ -41350,7 +41366,7 @@
         <v>2310</v>
       </c>
       <c r="G421" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H421" s="13" t="s">
         <v>36</v>
@@ -41362,13 +41378,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K421" s="15" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L421" s="17">
         <v>2310</v>
       </c>
       <c r="M421" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N421" s="18">
         <v>44105</v>
@@ -41383,10 +41399,10 @@
         <v>44285</v>
       </c>
       <c r="R421" s="15" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S421" s="15" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T421" s="13" t="s">
         <v>33</v>
@@ -41395,42 +41411,42 @@
         <v>33</v>
       </c>
       <c r="V421" s="17">
-        <v>1.573985e6</v>
+        <v>1.527703e6</v>
       </c>
       <c r="W421" s="15" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="X421" s="17">
         <v>2311</v>
       </c>
       <c r="Y421" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z421" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA421" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB421" s="21">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="AC421" s="22">
-        <v>1.25</v>
+        <v>850000e-6</v>
       </c>
       <c r="AD421" s="22">
-        <v>1.25</v>
+        <v>850000e-6</v>
       </c>
       <c r="AE421" s="23">
-        <v>5625</v>
+        <v>2890</v>
       </c>
       <c r="AF421" s="23">
-        <v>5625</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="422" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A422" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B422" s="3" t="s">
         <v>33</v>
@@ -41439,7 +41455,7 @@
         <v>44063</v>
       </c>
       <c r="D422" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E422" s="5" t="s">
         <v>33</v>
@@ -41448,7 +41464,7 @@
         <v>2310</v>
       </c>
       <c r="G422" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H422" s="3" t="s">
         <v>36</v>
@@ -41460,13 +41476,13 @@
         <v>9.261505e6</v>
       </c>
       <c r="K422" s="5" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
       <c r="L422" s="7">
         <v>2310</v>
       </c>
       <c r="M422" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N422" s="8">
         <v>44105</v>
@@ -41481,10 +41497,10 @@
         <v>44285</v>
       </c>
       <c r="R422" s="5" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="S422" s="5" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
       <c r="T422" s="3" t="s">
         <v>33</v>
@@ -41493,42 +41509,42 @@
         <v>33</v>
       </c>
       <c r="V422" s="7">
-        <v>1.582194e6</v>
+        <v>1.568515e6</v>
       </c>
       <c r="W422" s="5" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="X422" s="7">
         <v>2311</v>
       </c>
       <c r="Y422" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z422" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA422" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB422" s="10">
-        <v>48</v>
+        <v>9000</v>
       </c>
       <c r="AC422" s="11">
-        <v>17.4</v>
+        <v>880000e-6</v>
       </c>
       <c r="AD422" s="11">
-        <v>17.4</v>
+        <v>880000e-6</v>
       </c>
       <c r="AE422" s="12">
-        <v>835.2</v>
+        <v>7920</v>
       </c>
       <c r="AF422" s="12">
-        <v>835.2</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="423" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A423" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B423" s="13" t="s">
         <v>33</v>
@@ -41537,7 +41553,7 @@
         <v>44063</v>
       </c>
       <c r="D423" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E423" s="15" t="s">
         <v>33</v>
@@ -41546,7 +41562,7 @@
         <v>2310</v>
       </c>
       <c r="G423" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H423" s="13" t="s">
         <v>36</v>
@@ -41555,34 +41571,34 @@
         <v>37</v>
       </c>
       <c r="J423" s="17">
-        <v>9.261506e6</v>
+        <v>9.261505e6</v>
       </c>
       <c r="K423" s="15" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="L423" s="17">
         <v>2310</v>
       </c>
       <c r="M423" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N423" s="18">
-        <v>44085</v>
+        <v>44105</v>
       </c>
       <c r="O423" s="18">
-        <v>44085</v>
+        <v>44105</v>
       </c>
       <c r="P423" s="19">
-        <v>44449</v>
+        <v>44285</v>
       </c>
       <c r="Q423" s="18">
-        <v>44265</v>
+        <v>44285</v>
       </c>
       <c r="R423" s="15" t="s">
-        <v>479</v>
+        <v>1059</v>
       </c>
       <c r="S423" s="15" t="s">
-        <v>480</v>
+        <v>1060</v>
       </c>
       <c r="T423" s="13" t="s">
         <v>33</v>
@@ -41591,42 +41607,42 @@
         <v>33</v>
       </c>
       <c r="V423" s="17">
-        <v>1.487264e6</v>
+        <v>1.573985e6</v>
       </c>
       <c r="W423" s="15" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="X423" s="17">
         <v>2311</v>
       </c>
       <c r="Y423" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z423" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA423" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB423" s="21">
-        <v>5600</v>
+        <v>4500</v>
       </c>
       <c r="AC423" s="22">
-        <v>1.899</v>
+        <v>1.25</v>
       </c>
       <c r="AD423" s="22">
-        <v>1.899</v>
+        <v>1.25</v>
       </c>
       <c r="AE423" s="23">
-        <v>10634.4</v>
+        <v>5625</v>
       </c>
       <c r="AF423" s="23">
-        <v>10634.4</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="424" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A424" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B424" s="3" t="s">
         <v>33</v>
@@ -41635,7 +41651,7 @@
         <v>44063</v>
       </c>
       <c r="D424" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E424" s="5" t="s">
         <v>33</v>
@@ -41644,7 +41660,7 @@
         <v>2310</v>
       </c>
       <c r="G424" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H424" s="3" t="s">
         <v>36</v>
@@ -41653,34 +41669,34 @@
         <v>37</v>
       </c>
       <c r="J424" s="7">
-        <v>9.261508e6</v>
+        <v>9.261505e6</v>
       </c>
       <c r="K424" s="5" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="L424" s="7">
         <v>2310</v>
       </c>
       <c r="M424" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N424" s="8">
-        <v>44118</v>
+        <v>44105</v>
       </c>
       <c r="O424" s="8">
-        <v>44117</v>
+        <v>44105</v>
       </c>
       <c r="P424" s="9">
-        <v>44847</v>
+        <v>44285</v>
       </c>
       <c r="Q424" s="8">
-        <v>44298</v>
+        <v>44285</v>
       </c>
       <c r="R424" s="5" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="S424" s="5" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="T424" s="3" t="s">
         <v>33</v>
@@ -41689,42 +41705,42 @@
         <v>33</v>
       </c>
       <c r="V424" s="7">
-        <v>1.527525e6</v>
+        <v>1.582194e6</v>
       </c>
       <c r="W424" s="5" t="s">
-        <v>1066</v>
+        <v>1070</v>
       </c>
       <c r="X424" s="7">
         <v>2311</v>
       </c>
       <c r="Y424" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z424" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA424" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB424" s="10">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AC424" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AD424" s="11">
-        <v>14.3</v>
+        <v>17.4</v>
       </c>
       <c r="AE424" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
       <c r="AF424" s="12">
-        <v>14300</v>
+        <v>835.2</v>
       </c>
     </row>
     <row r="425" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A425" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B425" s="13" t="s">
         <v>33</v>
@@ -41733,7 +41749,7 @@
         <v>44063</v>
       </c>
       <c r="D425" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E425" s="15" t="s">
         <v>33</v>
@@ -41742,7 +41758,7 @@
         <v>2310</v>
       </c>
       <c r="G425" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H425" s="13" t="s">
         <v>36</v>
@@ -41751,34 +41767,34 @@
         <v>37</v>
       </c>
       <c r="J425" s="17">
-        <v>9.261509e6</v>
+        <v>9.261506e6</v>
       </c>
       <c r="K425" s="15" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="L425" s="17">
         <v>2310</v>
       </c>
       <c r="M425" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N425" s="18">
         <v>44085</v>
       </c>
       <c r="O425" s="18">
-        <v>44084</v>
+        <v>44085</v>
       </c>
       <c r="P425" s="19">
         <v>44449</v>
       </c>
       <c r="Q425" s="18">
-        <v>44264</v>
+        <v>44265</v>
       </c>
       <c r="R425" s="15" t="s">
-        <v>1068</v>
+        <v>479</v>
       </c>
       <c r="S425" s="15" t="s">
-        <v>1069</v>
+        <v>480</v>
       </c>
       <c r="T425" s="13" t="s">
         <v>33</v>
@@ -41787,42 +41803,42 @@
         <v>33</v>
       </c>
       <c r="V425" s="17">
-        <v>1.523619e6</v>
+        <v>1.487264e6</v>
       </c>
       <c r="W425" s="15" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="X425" s="17">
         <v>2311</v>
       </c>
       <c r="Y425" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z425" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA425" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB425" s="21">
-        <v>4300</v>
+        <v>5600</v>
       </c>
       <c r="AC425" s="22">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AD425" s="22">
-        <v>12.7</v>
+        <v>1.899</v>
       </c>
       <c r="AE425" s="23">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
       <c r="AF425" s="23">
-        <v>54610</v>
+        <v>10634.4</v>
       </c>
     </row>
     <row r="426" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A426" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B426" s="3" t="s">
         <v>33</v>
@@ -41831,7 +41847,7 @@
         <v>44063</v>
       </c>
       <c r="D426" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E426" s="5" t="s">
         <v>33</v>
@@ -41840,7 +41856,7 @@
         <v>2310</v>
       </c>
       <c r="G426" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H426" s="3" t="s">
         <v>36</v>
@@ -41849,34 +41865,34 @@
         <v>37</v>
       </c>
       <c r="J426" s="7">
-        <v>9.261509e6</v>
+        <v>9.261508e6</v>
       </c>
       <c r="K426" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="L426" s="7">
         <v>2310</v>
       </c>
       <c r="M426" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N426" s="8">
-        <v>44085</v>
+        <v>44118</v>
       </c>
       <c r="O426" s="8">
-        <v>44084</v>
+        <v>44117</v>
       </c>
       <c r="P426" s="9">
-        <v>44449</v>
+        <v>44847</v>
       </c>
       <c r="Q426" s="8">
-        <v>44264</v>
+        <v>44298</v>
       </c>
       <c r="R426" s="5" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="S426" s="5" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="T426" s="3" t="s">
         <v>33</v>
@@ -41885,42 +41901,42 @@
         <v>33</v>
       </c>
       <c r="V426" s="7">
-        <v>1.523775e6</v>
+        <v>1.527525e6</v>
       </c>
       <c r="W426" s="5" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="X426" s="7">
         <v>2311</v>
       </c>
       <c r="Y426" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z426" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA426" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB426" s="10">
-        <v>1900</v>
+        <v>1000</v>
       </c>
       <c r="AC426" s="11">
-        <v>35</v>
+        <v>14.3</v>
       </c>
       <c r="AD426" s="11">
-        <v>35</v>
+        <v>14.3</v>
       </c>
       <c r="AE426" s="12">
-        <v>66500</v>
+        <v>14300</v>
       </c>
       <c r="AF426" s="12">
-        <v>66500</v>
+        <v>14300</v>
       </c>
     </row>
     <row r="427" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A427" s="13" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B427" s="13" t="s">
         <v>33</v>
@@ -41929,7 +41945,7 @@
         <v>44063</v>
       </c>
       <c r="D427" s="26" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E427" s="15" t="s">
         <v>33</v>
@@ -41938,7 +41954,7 @@
         <v>2310</v>
       </c>
       <c r="G427" s="13" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H427" s="13" t="s">
         <v>36</v>
@@ -41950,13 +41966,13 @@
         <v>9.261509e6</v>
       </c>
       <c r="K427" s="15" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="L427" s="17">
         <v>2310</v>
       </c>
       <c r="M427" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N427" s="18">
         <v>44085</v>
@@ -41971,10 +41987,10 @@
         <v>44264</v>
       </c>
       <c r="R427" s="15" t="s">
-        <v>1068</v>
+        <v>1078</v>
       </c>
       <c r="S427" s="15" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="T427" s="13" t="s">
         <v>33</v>
@@ -41983,42 +41999,42 @@
         <v>33</v>
       </c>
       <c r="V427" s="17">
-        <v>1.5245e6</v>
+        <v>1.523619e6</v>
       </c>
       <c r="W427" s="15" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="X427" s="17">
         <v>2311</v>
       </c>
       <c r="Y427" s="15" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z427" s="15" t="s">
         <v>341</v>
       </c>
       <c r="AA427" s="13" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB427" s="21">
-        <v>2400</v>
+        <v>4300</v>
       </c>
       <c r="AC427" s="22">
-        <v>4.5</v>
+        <v>12.7</v>
       </c>
       <c r="AD427" s="22">
-        <v>4.5</v>
+        <v>12.7</v>
       </c>
       <c r="AE427" s="23">
-        <v>10800</v>
+        <v>54610</v>
       </c>
       <c r="AF427" s="23">
-        <v>10800</v>
+        <v>54610</v>
       </c>
     </row>
     <row r="428" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A428" s="3" t="s">
-        <v>1038</v>
+        <v>1048</v>
       </c>
       <c r="B428" s="3" t="s">
         <v>33</v>
@@ -42027,7 +42043,7 @@
         <v>44063</v>
       </c>
       <c r="D428" s="25" t="s">
-        <v>1039</v>
+        <v>1049</v>
       </c>
       <c r="E428" s="5" t="s">
         <v>33</v>
@@ -42036,7 +42052,7 @@
         <v>2310</v>
       </c>
       <c r="G428" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="H428" s="3" t="s">
         <v>36</v>
@@ -42045,34 +42061,34 @@
         <v>37</v>
       </c>
       <c r="J428" s="7">
-        <v>9.261535e6</v>
+        <v>9.261509e6</v>
       </c>
       <c r="K428" s="5" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="L428" s="7">
         <v>2310</v>
       </c>
       <c r="M428" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="N428" s="8">
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="O428" s="8">
-        <v>44088</v>
+        <v>44084</v>
       </c>
       <c r="P428" s="9">
-        <v>44450</v>
+        <v>44449</v>
       </c>
       <c r="Q428" s="8">
-        <v>44268</v>
+        <v>44264</v>
       </c>
       <c r="R428" s="5" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="S428" s="5" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="T428" s="3" t="s">
         <v>33</v>
@@ -42081,60 +42097,60 @@
         <v>33</v>
       </c>
       <c r="V428" s="7">
-        <v>1.527878e6</v>
+        <v>1.523775e6</v>
       </c>
       <c r="W428" s="5" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="X428" s="7">
         <v>2311</v>
       </c>
       <c r="Y428" s="5" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="Z428" s="5" t="s">
         <v>341</v>
       </c>
       <c r="AA428" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="AB428" s="10">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="AC428" s="11">
-        <v>22.95</v>
+        <v>35</v>
       </c>
       <c r="AD428" s="11">
-        <v>22.95</v>
+        <v>35</v>
       </c>
       <c r="AE428" s="12">
-        <v>11475</v>
+        <v>66500</v>
       </c>
       <c r="AF428" s="12">
-        <v>11475</v>
+        <v>66500</v>
       </c>
     </row>
     <row r="429" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A429" s="13" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
       <c r="B429" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C429" s="14">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D429" s="26" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="E429" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F429" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G429" s="13" t="s">
-        <v>1079</v>
+        <v>1019</v>
       </c>
       <c r="H429" s="13" t="s">
         <v>36</v>
@@ -42143,20 +42159,34 @@
         <v>37</v>
       </c>
       <c r="J429" s="17">
-        <v>0</v>
-      </c>
-      <c r="K429" s="15"/>
-      <c r="L429" s="17"/>
-      <c r="M429" s="15"/>
-      <c r="N429" s="18"/>
-      <c r="O429" s="18"/>
-      <c r="P429" s="19"/>
-      <c r="Q429" s="18"/>
+        <v>9.261509e6</v>
+      </c>
+      <c r="K429" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L429" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M429" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N429" s="18">
+        <v>44085</v>
+      </c>
+      <c r="O429" s="18">
+        <v>44084</v>
+      </c>
+      <c r="P429" s="19">
+        <v>44449</v>
+      </c>
+      <c r="Q429" s="18">
+        <v>44264</v>
+      </c>
       <c r="R429" s="15" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="S429" s="15" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="T429" s="13" t="s">
         <v>33</v>
@@ -42165,60 +42195,60 @@
         <v>33</v>
       </c>
       <c r="V429" s="17">
-        <v>1.692143e6</v>
+        <v>1.5245e6</v>
       </c>
       <c r="W429" s="15" t="s">
-        <v>583</v>
+        <v>1082</v>
       </c>
       <c r="X429" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y429" s="15" t="s">
-        <v>1082</v>
+        <v>1019</v>
       </c>
       <c r="Z429" s="15" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AA429" s="13" t="s">
-        <v>581</v>
+        <v>1022</v>
       </c>
       <c r="AB429" s="21">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="AC429" s="22">
-        <v>8.2</v>
+        <v>4.5</v>
       </c>
       <c r="AD429" s="22">
-        <v>8.2</v>
+        <v>4.5</v>
       </c>
       <c r="AE429" s="23">
-        <v>24600</v>
+        <v>10800</v>
       </c>
       <c r="AF429" s="23">
-        <v>24600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="430" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A430" s="3" t="s">
-        <v>1077</v>
+        <v>1048</v>
       </c>
       <c r="B430" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C430" s="4">
-        <v>43944</v>
+        <v>44063</v>
       </c>
       <c r="D430" s="25" t="s">
-        <v>1078</v>
+        <v>1049</v>
       </c>
       <c r="E430" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F430" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G430" s="3" t="s">
-        <v>1079</v>
+        <v>1019</v>
       </c>
       <c r="H430" s="3" t="s">
         <v>36</v>
@@ -42227,20 +42257,34 @@
         <v>37</v>
       </c>
       <c r="J430" s="7">
-        <v>0</v>
-      </c>
-      <c r="K430" s="5"/>
-      <c r="L430" s="7"/>
-      <c r="M430" s="5"/>
-      <c r="N430" s="8"/>
-      <c r="O430" s="8"/>
-      <c r="P430" s="9"/>
-      <c r="Q430" s="8"/>
+        <v>9.261535e6</v>
+      </c>
+      <c r="K430" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L430" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M430" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N430" s="8">
+        <v>44088</v>
+      </c>
+      <c r="O430" s="8">
+        <v>44088</v>
+      </c>
+      <c r="P430" s="9">
+        <v>44450</v>
+      </c>
+      <c r="Q430" s="8">
+        <v>44268</v>
+      </c>
       <c r="R430" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="S430" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="T430" s="3" t="s">
         <v>33</v>
@@ -42249,42 +42293,42 @@
         <v>33</v>
       </c>
       <c r="V430" s="7">
-        <v>1.143883e6</v>
+        <v>1.527878e6</v>
       </c>
       <c r="W430" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="X430" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y430" s="5" t="s">
-        <v>1082</v>
+        <v>1019</v>
       </c>
       <c r="Z430" s="5" t="s">
-        <v>604</v>
+        <v>341</v>
       </c>
       <c r="AA430" s="3" t="s">
-        <v>581</v>
+        <v>1022</v>
       </c>
       <c r="AB430" s="10">
-        <v>200000</v>
+        <v>500</v>
       </c>
       <c r="AC430" s="11">
-        <v>600000e-6</v>
+        <v>22.95</v>
       </c>
       <c r="AD430" s="11">
-        <v>600000e-6</v>
+        <v>22.95</v>
       </c>
       <c r="AE430" s="12">
-        <v>120000</v>
+        <v>11475</v>
       </c>
       <c r="AF430" s="12">
-        <v>120000</v>
+        <v>11475</v>
       </c>
     </row>
     <row r="431" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A431" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B431" s="13" t="s">
         <v>33</v>
@@ -42293,7 +42337,7 @@
         <v>43944</v>
       </c>
       <c r="D431" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E431" s="15" t="s">
         <v>33</v>
@@ -42302,7 +42346,7 @@
         <v>2320</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>36</v>
@@ -42321,10 +42365,10 @@
       <c r="P431" s="19"/>
       <c r="Q431" s="18"/>
       <c r="R431" s="15" t="s">
-        <v>950</v>
+        <v>1090</v>
       </c>
       <c r="S431" s="15" t="s">
-        <v>951</v>
+        <v>1091</v>
       </c>
       <c r="T431" s="13" t="s">
         <v>33</v>
@@ -42333,42 +42377,42 @@
         <v>33</v>
       </c>
       <c r="V431" s="17">
-        <v>1.244515e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W431" s="15" t="s">
-        <v>1086</v>
+        <v>583</v>
       </c>
       <c r="X431" s="17">
         <v>2321</v>
       </c>
       <c r="Y431" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z431" s="15" t="s">
-        <v>604</v>
+        <v>347</v>
       </c>
       <c r="AA431" s="13" t="s">
         <v>581</v>
       </c>
       <c r="AB431" s="21">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="AC431" s="22">
-        <v>20.1</v>
+        <v>8.2</v>
       </c>
       <c r="AD431" s="22">
-        <v>20.1</v>
+        <v>8.2</v>
       </c>
       <c r="AE431" s="23">
-        <v>1005</v>
+        <v>24600</v>
       </c>
       <c r="AF431" s="23">
-        <v>1005</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A432" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B432" s="3" t="s">
         <v>33</v>
@@ -42377,7 +42421,7 @@
         <v>43944</v>
       </c>
       <c r="D432" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>33</v>
@@ -42386,7 +42430,7 @@
         <v>2320</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H432" s="3" t="s">
         <v>36</v>
@@ -42405,10 +42449,10 @@
       <c r="P432" s="9"/>
       <c r="Q432" s="8"/>
       <c r="R432" s="5" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="S432" s="5" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="T432" s="3" t="s">
         <v>33</v>
@@ -42417,16 +42461,16 @@
         <v>33</v>
       </c>
       <c r="V432" s="7">
-        <v>1.244108e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W432" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="X432" s="7">
         <v>2321</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z432" s="5" t="s">
         <v>604</v>
@@ -42435,24 +42479,24 @@
         <v>581</v>
       </c>
       <c r="AB432" s="10">
-        <v>90</v>
+        <v>200000</v>
       </c>
       <c r="AC432" s="11">
-        <v>358.24</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD432" s="11">
-        <v>358.24</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE432" s="12">
-        <v>32241.6</v>
+        <v>120000</v>
       </c>
       <c r="AF432" s="12">
-        <v>32241.6</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A433" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B433" s="13" t="s">
         <v>33</v>
@@ -42461,7 +42505,7 @@
         <v>43944</v>
       </c>
       <c r="D433" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E433" s="15" t="s">
         <v>33</v>
@@ -42470,7 +42514,7 @@
         <v>2320</v>
       </c>
       <c r="G433" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>36</v>
@@ -42489,10 +42533,10 @@
       <c r="P433" s="19"/>
       <c r="Q433" s="18"/>
       <c r="R433" s="15" t="s">
-        <v>1087</v>
+        <v>950</v>
       </c>
       <c r="S433" s="15" t="s">
-        <v>1088</v>
+        <v>951</v>
       </c>
       <c r="T433" s="13" t="s">
         <v>33</v>
@@ -42501,16 +42545,16 @@
         <v>33</v>
       </c>
       <c r="V433" s="17">
-        <v>1.244507e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W433" s="15" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="X433" s="17">
         <v>2321</v>
       </c>
       <c r="Y433" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z433" s="15" t="s">
         <v>604</v>
@@ -42522,21 +42566,21 @@
         <v>50</v>
       </c>
       <c r="AC433" s="22">
-        <v>34.9</v>
+        <v>20.1</v>
       </c>
       <c r="AD433" s="22">
-        <v>34.9</v>
+        <v>20.1</v>
       </c>
       <c r="AE433" s="23">
-        <v>1745</v>
+        <v>1005</v>
       </c>
       <c r="AF433" s="23">
-        <v>1745</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A434" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>33</v>
@@ -42545,7 +42589,7 @@
         <v>43944</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>33</v>
@@ -42554,7 +42598,7 @@
         <v>2320</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H434" s="3" t="s">
         <v>36</v>
@@ -42573,10 +42617,10 @@
       <c r="P434" s="9"/>
       <c r="Q434" s="8"/>
       <c r="R434" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S434" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T434" s="3" t="s">
         <v>33</v>
@@ -42585,16 +42629,16 @@
         <v>33</v>
       </c>
       <c r="V434" s="7">
-        <v>1.257587e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W434" s="5" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="X434" s="7">
         <v>2321</v>
       </c>
       <c r="Y434" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z434" s="5" t="s">
         <v>604</v>
@@ -42603,24 +42647,24 @@
         <v>581</v>
       </c>
       <c r="AB434" s="10">
-        <v>80000</v>
+        <v>90</v>
       </c>
       <c r="AC434" s="11">
-        <v>390000e-6</v>
+        <v>358.24</v>
       </c>
       <c r="AD434" s="11">
-        <v>390000e-6</v>
+        <v>358.24</v>
       </c>
       <c r="AE434" s="12">
-        <v>31200</v>
+        <v>32241.6</v>
       </c>
       <c r="AF434" s="12">
-        <v>31200</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A435" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>33</v>
@@ -42629,7 +42673,7 @@
         <v>43944</v>
       </c>
       <c r="D435" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E435" s="15" t="s">
         <v>33</v>
@@ -42638,7 +42682,7 @@
         <v>2320</v>
       </c>
       <c r="G435" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H435" s="13" t="s">
         <v>36</v>
@@ -42657,10 +42701,10 @@
       <c r="P435" s="19"/>
       <c r="Q435" s="18"/>
       <c r="R435" s="15" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S435" s="15" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T435" s="13" t="s">
         <v>33</v>
@@ -42669,42 +42713,42 @@
         <v>33</v>
       </c>
       <c r="V435" s="17">
-        <v>1.257625e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W435" s="15" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="X435" s="17">
         <v>2321</v>
       </c>
       <c r="Y435" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z435" s="15" t="s">
-        <v>429</v>
+        <v>604</v>
       </c>
       <c r="AA435" s="13" t="s">
         <v>581</v>
       </c>
       <c r="AB435" s="21">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC435" s="22">
-        <v>351</v>
+        <v>34.9</v>
       </c>
       <c r="AD435" s="22">
-        <v>351</v>
+        <v>34.9</v>
       </c>
       <c r="AE435" s="23">
-        <v>31590</v>
+        <v>1745</v>
       </c>
       <c r="AF435" s="23">
-        <v>31590</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A436" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>33</v>
@@ -42713,7 +42757,7 @@
         <v>43944</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>33</v>
@@ -42722,7 +42766,7 @@
         <v>2320</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H436" s="3" t="s">
         <v>36</v>
@@ -42741,10 +42785,10 @@
       <c r="P436" s="9"/>
       <c r="Q436" s="8"/>
       <c r="R436" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S436" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T436" s="3" t="s">
         <v>33</v>
@@ -42753,16 +42797,16 @@
         <v>33</v>
       </c>
       <c r="V436" s="7">
-        <v>1.258699e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W436" s="5" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="X436" s="7">
         <v>2321</v>
       </c>
       <c r="Y436" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z436" s="5" t="s">
         <v>604</v>
@@ -42771,24 +42815,24 @@
         <v>581</v>
       </c>
       <c r="AB436" s="10">
-        <v>2000</v>
+        <v>80000</v>
       </c>
       <c r="AC436" s="11">
-        <v>1.39</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD436" s="11">
-        <v>1.39</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE436" s="12">
-        <v>2780</v>
+        <v>31200</v>
       </c>
       <c r="AF436" s="12">
-        <v>2780</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A437" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B437" s="13" t="s">
         <v>33</v>
@@ -42797,7 +42841,7 @@
         <v>43944</v>
       </c>
       <c r="D437" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E437" s="15" t="s">
         <v>33</v>
@@ -42806,7 +42850,7 @@
         <v>2320</v>
       </c>
       <c r="G437" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H437" s="13" t="s">
         <v>36</v>
@@ -42825,10 +42869,10 @@
       <c r="P437" s="19"/>
       <c r="Q437" s="18"/>
       <c r="R437" s="15" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S437" s="15" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T437" s="13" t="s">
         <v>33</v>
@@ -42837,42 +42881,42 @@
         <v>33</v>
       </c>
       <c r="V437" s="17">
-        <v>1.259784e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W437" s="15" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="X437" s="17">
         <v>2321</v>
       </c>
       <c r="Y437" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z437" s="15" t="s">
-        <v>604</v>
+        <v>429</v>
       </c>
       <c r="AA437" s="13" t="s">
         <v>581</v>
       </c>
       <c r="AB437" s="21">
-        <v>3000</v>
+        <v>90</v>
       </c>
       <c r="AC437" s="22">
-        <v>600000e-6</v>
+        <v>351</v>
       </c>
       <c r="AD437" s="22">
-        <v>600000e-6</v>
+        <v>351</v>
       </c>
       <c r="AE437" s="23">
-        <v>1800</v>
+        <v>31590</v>
       </c>
       <c r="AF437" s="23">
-        <v>1800</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A438" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>33</v>
@@ -42881,7 +42925,7 @@
         <v>43944</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>33</v>
@@ -42890,7 +42934,7 @@
         <v>2320</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>36</v>
@@ -42909,10 +42953,10 @@
       <c r="P438" s="9"/>
       <c r="Q438" s="8"/>
       <c r="R438" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S438" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T438" s="3" t="s">
         <v>33</v>
@@ -42921,16 +42965,16 @@
         <v>33</v>
       </c>
       <c r="V438" s="7">
-        <v>1.259792e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W438" s="5" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="X438" s="7">
         <v>2321</v>
       </c>
       <c r="Y438" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z438" s="5" t="s">
         <v>604</v>
@@ -42939,24 +42983,24 @@
         <v>581</v>
       </c>
       <c r="AB438" s="10">
-        <v>80</v>
+        <v>2000</v>
       </c>
       <c r="AC438" s="11">
-        <v>15.35</v>
+        <v>1.39</v>
       </c>
       <c r="AD438" s="11">
-        <v>15.35</v>
+        <v>1.39</v>
       </c>
       <c r="AE438" s="12">
-        <v>1228</v>
+        <v>2780</v>
       </c>
       <c r="AF438" s="12">
-        <v>1228</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A439" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B439" s="13" t="s">
         <v>33</v>
@@ -42965,7 +43009,7 @@
         <v>43944</v>
       </c>
       <c r="D439" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E439" s="15" t="s">
         <v>33</v>
@@ -42974,7 +43018,7 @@
         <v>2320</v>
       </c>
       <c r="G439" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>36</v>
@@ -42993,10 +43037,10 @@
       <c r="P439" s="19"/>
       <c r="Q439" s="18"/>
       <c r="R439" s="15" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S439" s="15" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T439" s="13" t="s">
         <v>33</v>
@@ -43005,16 +43049,16 @@
         <v>33</v>
       </c>
       <c r="V439" s="17">
-        <v>1.260669e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W439" s="15" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="X439" s="17">
         <v>2321</v>
       </c>
       <c r="Y439" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z439" s="15" t="s">
         <v>604</v>
@@ -43023,24 +43067,24 @@
         <v>581</v>
       </c>
       <c r="AB439" s="21">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="AC439" s="22">
-        <v>1.49</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD439" s="22">
-        <v>1.49</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE439" s="23">
-        <v>1490</v>
+        <v>1800</v>
       </c>
       <c r="AF439" s="23">
-        <v>1490</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A440" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>33</v>
@@ -43049,7 +43093,7 @@
         <v>43944</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E440" s="5" t="s">
         <v>33</v>
@@ -43058,7 +43102,7 @@
         <v>2320</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H440" s="3" t="s">
         <v>36</v>
@@ -43077,10 +43121,10 @@
       <c r="P440" s="9"/>
       <c r="Q440" s="8"/>
       <c r="R440" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S440" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T440" s="3" t="s">
         <v>33</v>
@@ -43089,16 +43133,16 @@
         <v>33</v>
       </c>
       <c r="V440" s="7">
-        <v>1.260677e6</v>
+        <v>1.259792e6</v>
       </c>
       <c r="W440" s="5" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="X440" s="7">
         <v>2321</v>
       </c>
       <c r="Y440" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z440" s="5" t="s">
         <v>604</v>
@@ -43107,24 +43151,24 @@
         <v>581</v>
       </c>
       <c r="AB440" s="10">
-        <v>3000</v>
+        <v>80</v>
       </c>
       <c r="AC440" s="11">
-        <v>1.59</v>
+        <v>15.35</v>
       </c>
       <c r="AD440" s="11">
-        <v>1.59</v>
+        <v>15.35</v>
       </c>
       <c r="AE440" s="12">
-        <v>4770</v>
+        <v>1228</v>
       </c>
       <c r="AF440" s="12">
-        <v>4770</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="441" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A441" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B441" s="13" t="s">
         <v>33</v>
@@ -43133,7 +43177,7 @@
         <v>43944</v>
       </c>
       <c r="D441" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E441" s="15" t="s">
         <v>33</v>
@@ -43142,7 +43186,7 @@
         <v>2320</v>
       </c>
       <c r="G441" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H441" s="13" t="s">
         <v>36</v>
@@ -43161,10 +43205,10 @@
       <c r="P441" s="19"/>
       <c r="Q441" s="18"/>
       <c r="R441" s="15" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S441" s="15" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T441" s="13" t="s">
         <v>33</v>
@@ -43173,16 +43217,16 @@
         <v>33</v>
       </c>
       <c r="V441" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W441" s="20" t="s">
-        <v>1098</v>
+        <v>1.260669e6</v>
+      </c>
+      <c r="W441" s="15" t="s">
+        <v>1106</v>
       </c>
       <c r="X441" s="17">
         <v>2321</v>
       </c>
       <c r="Y441" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z441" s="15" t="s">
         <v>604</v>
@@ -43191,24 +43235,24 @@
         <v>581</v>
       </c>
       <c r="AB441" s="21">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC441" s="22">
-        <v>271.97</v>
+        <v>1.49</v>
       </c>
       <c r="AD441" s="22">
-        <v>271.97</v>
+        <v>1.49</v>
       </c>
       <c r="AE441" s="23">
-        <v>16318.2</v>
+        <v>1490</v>
       </c>
       <c r="AF441" s="23">
-        <v>16318.2</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="442" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A442" s="3" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>33</v>
@@ -43217,7 +43261,7 @@
         <v>43944</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>33</v>
@@ -43226,7 +43270,7 @@
         <v>2320</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H442" s="3" t="s">
         <v>36</v>
@@ -43245,10 +43289,10 @@
       <c r="P442" s="9"/>
       <c r="Q442" s="8"/>
       <c r="R442" s="5" t="s">
-        <v>1087</v>
+        <v>1097</v>
       </c>
       <c r="S442" s="5" t="s">
-        <v>1088</v>
+        <v>1098</v>
       </c>
       <c r="T442" s="3" t="s">
         <v>33</v>
@@ -43257,16 +43301,16 @@
         <v>33</v>
       </c>
       <c r="V442" s="7">
-        <v>1.687115e6</v>
+        <v>1.260677e6</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="X442" s="7">
         <v>2321</v>
       </c>
       <c r="Y442" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z442" s="5" t="s">
         <v>604</v>
@@ -43275,24 +43319,24 @@
         <v>581</v>
       </c>
       <c r="AB442" s="10">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC442" s="11">
-        <v>16.65</v>
+        <v>1.59</v>
       </c>
       <c r="AD442" s="11">
-        <v>16.65</v>
+        <v>1.59</v>
       </c>
       <c r="AE442" s="12">
-        <v>999</v>
+        <v>4770</v>
       </c>
       <c r="AF442" s="12">
-        <v>999</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="443" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A443" s="13" t="s">
-        <v>1077</v>
+        <v>1087</v>
       </c>
       <c r="B443" s="13" t="s">
         <v>33</v>
@@ -43301,7 +43345,7 @@
         <v>43944</v>
       </c>
       <c r="D443" s="26" t="s">
-        <v>1078</v>
+        <v>1088</v>
       </c>
       <c r="E443" s="15" t="s">
         <v>33</v>
@@ -43310,7 +43354,7 @@
         <v>2320</v>
       </c>
       <c r="G443" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>36</v>
@@ -43329,10 +43373,10 @@
       <c r="P443" s="19"/>
       <c r="Q443" s="18"/>
       <c r="R443" s="15" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="S443" s="15" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="T443" s="13" t="s">
         <v>33</v>
@@ -43341,16 +43385,16 @@
         <v>33</v>
       </c>
       <c r="V443" s="17">
-        <v>1.257463e6</v>
-      </c>
-      <c r="W443" s="15" t="s">
-        <v>1102</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W443" s="20" t="s">
+        <v>1108</v>
       </c>
       <c r="X443" s="17">
         <v>2321</v>
       </c>
       <c r="Y443" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z443" s="15" t="s">
         <v>604</v>
@@ -43359,33 +43403,33 @@
         <v>581</v>
       </c>
       <c r="AB443" s="21">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="AC443" s="22">
-        <v>34.2</v>
+        <v>271.97</v>
       </c>
       <c r="AD443" s="22">
-        <v>34.2</v>
+        <v>271.97</v>
       </c>
       <c r="AE443" s="23">
-        <v>6840</v>
+        <v>16318.2</v>
       </c>
       <c r="AF443" s="23">
-        <v>6840</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="444" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A444" s="3" t="s">
-        <v>1103</v>
+        <v>1087</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C444" s="4">
-        <v>44012</v>
-      </c>
-      <c r="D444" s="5" t="s">
-        <v>1104</v>
+        <v>43944</v>
+      </c>
+      <c r="D444" s="25" t="s">
+        <v>1088</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>33</v>
@@ -43394,7 +43438,7 @@
         <v>2320</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H444" s="3" t="s">
         <v>36</v>
@@ -43413,10 +43457,10 @@
       <c r="P444" s="9"/>
       <c r="Q444" s="8"/>
       <c r="R444" s="5" t="s">
-        <v>564</v>
+        <v>1097</v>
       </c>
       <c r="S444" s="5" t="s">
-        <v>565</v>
+        <v>1098</v>
       </c>
       <c r="T444" s="3" t="s">
         <v>33</v>
@@ -43425,51 +43469,51 @@
         <v>33</v>
       </c>
       <c r="V444" s="7">
-        <v>1.408623e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
       <c r="X444" s="7">
         <v>2321</v>
       </c>
       <c r="Y444" s="5" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z444" s="5" t="s">
-        <v>436</v>
+        <v>604</v>
       </c>
       <c r="AA444" s="3" t="s">
         <v>581</v>
       </c>
       <c r="AB444" s="10">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="AC444" s="11">
-        <v>18.69</v>
+        <v>16.65</v>
       </c>
       <c r="AD444" s="11">
-        <v>14.95</v>
+        <v>16.65</v>
       </c>
       <c r="AE444" s="12">
-        <v>37380</v>
+        <v>999</v>
       </c>
       <c r="AF444" s="12">
-        <v>29900</v>
+        <v>999</v>
       </c>
     </row>
     <row r="445" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A445" s="13" t="s">
-        <v>1106</v>
+        <v>1087</v>
       </c>
       <c r="B445" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C445" s="14">
-        <v>44034</v>
+        <v>43944</v>
       </c>
       <c r="D445" s="26" t="s">
-        <v>1107</v>
+        <v>1088</v>
       </c>
       <c r="E445" s="15" t="s">
         <v>33</v>
@@ -43478,43 +43522,29 @@
         <v>2320</v>
       </c>
       <c r="G445" s="13" t="s">
-        <v>1079</v>
+        <v>1089</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I445" s="13" t="s">
-        <v>1108</v>
+        <v>37</v>
       </c>
       <c r="J445" s="17">
-        <v>9.260962e6</v>
-      </c>
-      <c r="K445" s="15" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L445" s="17">
-        <v>2320</v>
-      </c>
-      <c r="M445" s="15" t="s">
-        <v>1079</v>
-      </c>
-      <c r="N445" s="18">
-        <v>44056</v>
-      </c>
-      <c r="O445" s="18">
-        <v>44056</v>
-      </c>
-      <c r="P445" s="19">
-        <v>44240</v>
-      </c>
-      <c r="Q445" s="18">
-        <v>44240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K445" s="15"/>
+      <c r="L445" s="17"/>
+      <c r="M445" s="15"/>
+      <c r="N445" s="18"/>
+      <c r="O445" s="18"/>
+      <c r="P445" s="19"/>
+      <c r="Q445" s="18"/>
       <c r="R445" s="15" t="s">
-        <v>864</v>
+        <v>1110</v>
       </c>
       <c r="S445" s="15" t="s">
-        <v>865</v>
+        <v>1111</v>
       </c>
       <c r="T445" s="13" t="s">
         <v>33</v>
@@ -43523,40 +43553,222 @@
         <v>33</v>
       </c>
       <c r="V445" s="17">
-        <v>1.758276e6</v>
+        <v>1.257463e6</v>
       </c>
       <c r="W445" s="15" t="s">
-        <v>866</v>
+        <v>1112</v>
       </c>
       <c r="X445" s="17">
         <v>2321</v>
       </c>
       <c r="Y445" s="15" t="s">
-        <v>1082</v>
+        <v>1092</v>
       </c>
       <c r="Z445" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA445" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB445" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC445" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AD445" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AE445" s="23">
+        <v>6840</v>
+      </c>
+      <c r="AF445" s="23">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="446" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A446" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C446" s="4">
+        <v>44012</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E446" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F446" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J446" s="7">
+        <v>0</v>
+      </c>
+      <c r="K446" s="5"/>
+      <c r="L446" s="7"/>
+      <c r="M446" s="5"/>
+      <c r="N446" s="8"/>
+      <c r="O446" s="8"/>
+      <c r="P446" s="9"/>
+      <c r="Q446" s="8"/>
+      <c r="R446" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="S446" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="T446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U446" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V446" s="7">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W446" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="X446" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y446" s="5" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Z446" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA446" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB446" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AC446" s="11">
+        <v>18.69</v>
+      </c>
+      <c r="AD446" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="AE446" s="12">
+        <v>37380</v>
+      </c>
+      <c r="AF446" s="12">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="447" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A447" s="13" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B447" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C447" s="14">
+        <v>44034</v>
+      </c>
+      <c r="D447" s="26" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E447" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F447" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G447" s="13" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H447" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I447" s="13" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J447" s="17">
+        <v>9.260962e6</v>
+      </c>
+      <c r="K447" s="15" t="s">
+        <v>1119</v>
+      </c>
+      <c r="L447" s="17">
+        <v>2320</v>
+      </c>
+      <c r="M447" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N447" s="18">
+        <v>44056</v>
+      </c>
+      <c r="O447" s="18">
+        <v>44056</v>
+      </c>
+      <c r="P447" s="19">
+        <v>44240</v>
+      </c>
+      <c r="Q447" s="18">
+        <v>44240</v>
+      </c>
+      <c r="R447" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="S447" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="T447" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U447" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V447" s="17">
+        <v>1.758276e6</v>
+      </c>
+      <c r="W447" s="15" t="s">
+        <v>866</v>
+      </c>
+      <c r="X447" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y447" s="15" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Z447" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AA445" s="13" t="s">
+      <c r="AA447" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB445" s="21">
+      <c r="AB447" s="21">
         <v>7000</v>
       </c>
-      <c r="AC445" s="22">
+      <c r="AC447" s="22">
         <v>34.54</v>
       </c>
-      <c r="AD445" s="22">
+      <c r="AD447" s="22">
         <v>34.536</v>
       </c>
-      <c r="AE445" s="23">
+      <c r="AE447" s="23">
         <v>241780</v>
       </c>
-      <c r="AF445" s="23">
+      <c r="AF447" s="23">
         <v>241752</v>
       </c>
     </row>
-    <row r="446" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="448" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7083" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="1132">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1993,7 +1993,7 @@
     <t>VASSOURA -  TIPO DAS CERDAS: PIACAVA NATURAL; LARGURA BASE: NUMERO 5, MINIMO 13 CM DE BASE; MATERIAL BASE: MADEIRA; MATERIAL CABO: MADEIRA REVESTIDO PLASTICO; COMPRIMENTO CABO: 1,50 M;</t>
   </si>
   <si>
-    <t>DESINFETANTE DE USO GERAL -  TIPO: CONCENTRADO; ACAO PRINCIPAL: BACTERICIDA E GERMICIDA; PRINCIPIO ATIVO: QUATERNARIO DE AMONIO; COMPOSICAO BASICA: TENSOATIVOS CATIONICOS, DILUICAO 1/300; FRAGRANCIA: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: FRASCO 5 L;</t>
+    <t>DESINFETANTE  -  TIPO: CONCENTRADO; ACAO PRINCIPAL: BACTERICIDA E GERMICIDA; PRINCIPIO ATIVO: QUATERNARIO DE AMONIO; COMPOSICAO BASICA: TENSOATIVOS CATIONICOS; DILUICAO: 1:300; FRAGRANCIA: CONFORME SOLICITADO PELO ORGAO/ENTIDADE; APRESENTACAO: FRASCO 5 L;</t>
   </si>
   <si>
     <t>1401269 000049/2020</t>
@@ -3278,6 +3278,42 @@
   </si>
   <si>
     <t>ARGIPRESSINA - PRINCIPIO ATIVO: ARGIPRESSINA; CONCENTRACAO/DOSAGEM: 20 U/ML; FORMA FARMACEUTICA: SOLUCAO INJETAVEL; APRESENTACAO: AMPOLA 1 ML; COMPONENTE: .;</t>
+  </si>
+  <si>
+    <t>2311076 000663/2020</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS PARA HEMODIALISE</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=165468</t>
+  </si>
+  <si>
+    <t>01.440.590/0001-36</t>
+  </si>
+  <si>
+    <t>FRESENIUS MEDICAL CARE LTDA</t>
+  </si>
+  <si>
+    <t>UNIDADE PARA HEMODIALISE - CONTROLE: TOTALMENTE MICROPROCESSADO; PAINEL DE COMANDO: TELA DE CRISTAL LIQUIDO C/INFORMACOES EM PORTUGUES; FLUXO: VARIACAO DO FLUXO DE DIALISATO:300 A 800 ML/MINUTO; MONITORACAO:  PRESSAO DAS LINHAS ARTERIAL E VENOSA DO SISTEMA E; INTERFACE: --; TENSAO/FREQUENCIA: EM REDE 60 HZ, 127 OU 220 VOLTS;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=165457</t>
+  </si>
+  <si>
+    <t>36.078.798/0001-31</t>
+  </si>
+  <si>
+    <t>IPABRAS INDUSTRIA E COMERCIO LTDA</t>
+  </si>
+  <si>
+    <t>SISTEMA DE OSMOSE REVERSA - APLICACAO: TRATAR AGUAS PROBLEMATICAS COM ALTA CONDUTIVIDADE; CAPACIDADE DE VAZAO: 60 LITROS/HORA; COMPONENTE (1): CONDUTIVIMETRO DIGITAL COM DISPLAY LCD; COMPONENTE (2): HORIMETRO TOTAL; ALIMENTACAO: BIVOLT AUTOMATICO, 127V-240V;</t>
+  </si>
+  <si>
+    <t>EQUIPAMENTOS E ARTIGOS  PARA PURIFICACAO E TRATAMENTO  DE AGUA E TRATAMENTO DE ESGOTO</t>
+  </si>
+  <si>
+    <t>FILTRO ABRANDADOR - MATERIA-PRIMA: ACO INOX E TERMOPLASTICO; VAZAO: 200 LITROS/HORA; CICLO: 200 LITROS/HORA; TEMPERATURA: NOMINAL FORNECIDA; VOLUME: 200 LITROS/HORA; DIMENSOES: APROXIMADAMENTE 120CM(ALT)X 50CM(LARG)X 30CM(PROF);</t>
   </si>
   <si>
     <t>2320310 000127/2020</t>
@@ -3573,7 +3609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF448"/>
+  <dimension ref="A1:AF451"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -25697,7 +25733,7 @@
       <c r="V248" s="7">
         <v>1.698915e6</v>
       </c>
-      <c r="W248" s="24" t="s">
+      <c r="W248" s="5" t="s">
         <v>659</v>
       </c>
       <c r="X248" s="7">
@@ -42334,19 +42370,19 @@
         <v>33</v>
       </c>
       <c r="C431" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D431" s="26" t="s">
+        <v>44125</v>
+      </c>
+      <c r="D431" s="15" t="s">
         <v>1088</v>
       </c>
       <c r="E431" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F431" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G431" s="13" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="H431" s="13" t="s">
         <v>36</v>
@@ -42355,15 +42391,29 @@
         <v>37</v>
       </c>
       <c r="J431" s="17">
-        <v>0</v>
-      </c>
-      <c r="K431" s="15"/>
-      <c r="L431" s="17"/>
-      <c r="M431" s="15"/>
-      <c r="N431" s="18"/>
-      <c r="O431" s="18"/>
-      <c r="P431" s="19"/>
-      <c r="Q431" s="18"/>
+        <v>9.263559e6</v>
+      </c>
+      <c r="K431" s="15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L431" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M431" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N431" s="18">
+        <v>44161</v>
+      </c>
+      <c r="O431" s="18">
+        <v>44161</v>
+      </c>
+      <c r="P431" s="19">
+        <v>44891</v>
+      </c>
+      <c r="Q431" s="18">
+        <v>44341</v>
+      </c>
       <c r="R431" s="15" t="s">
         <v>1090</v>
       </c>
@@ -42377,37 +42427,37 @@
         <v>33</v>
       </c>
       <c r="V431" s="17">
-        <v>1.692143e6</v>
-      </c>
-      <c r="W431" s="15" t="s">
-        <v>583</v>
+        <v>1.427423e6</v>
+      </c>
+      <c r="W431" s="20" t="s">
+        <v>1092</v>
       </c>
       <c r="X431" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y431" s="15" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="Z431" s="15" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="AA431" s="13" t="s">
-        <v>581</v>
+        <v>1022</v>
       </c>
       <c r="AB431" s="21">
-        <v>3000</v>
+        <v>2</v>
       </c>
       <c r="AC431" s="22">
-        <v>8.2</v>
+        <v>57990</v>
       </c>
       <c r="AD431" s="22">
-        <v>8.2</v>
+        <v>57990</v>
       </c>
       <c r="AE431" s="23">
-        <v>24600</v>
+        <v>115980</v>
       </c>
       <c r="AF431" s="23">
-        <v>24600</v>
+        <v>115980</v>
       </c>
     </row>
     <row r="432" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -42418,19 +42468,19 @@
         <v>33</v>
       </c>
       <c r="C432" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D432" s="25" t="s">
+        <v>44125</v>
+      </c>
+      <c r="D432" s="5" t="s">
         <v>1088</v>
       </c>
       <c r="E432" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F432" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G432" s="3" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="H432" s="3" t="s">
         <v>36</v>
@@ -42439,20 +42489,34 @@
         <v>37</v>
       </c>
       <c r="J432" s="7">
-        <v>0</v>
-      </c>
-      <c r="K432" s="5"/>
-      <c r="L432" s="7"/>
-      <c r="M432" s="5"/>
-      <c r="N432" s="8"/>
-      <c r="O432" s="8"/>
-      <c r="P432" s="9"/>
-      <c r="Q432" s="8"/>
+        <v>9.263561e6</v>
+      </c>
+      <c r="K432" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L432" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M432" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N432" s="8">
+        <v>44162</v>
+      </c>
+      <c r="O432" s="8">
+        <v>44161</v>
+      </c>
+      <c r="P432" s="9">
+        <v>44891</v>
+      </c>
+      <c r="Q432" s="8">
+        <v>44341</v>
+      </c>
       <c r="R432" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="S432" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="T432" s="3" t="s">
         <v>33</v>
@@ -42461,37 +42525,37 @@
         <v>33</v>
       </c>
       <c r="V432" s="7">
-        <v>1.143883e6</v>
-      </c>
-      <c r="W432" s="5" t="s">
-        <v>1095</v>
+        <v>1.398113e6</v>
+      </c>
+      <c r="W432" s="24" t="s">
+        <v>1096</v>
       </c>
       <c r="X432" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y432" s="5" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="Z432" s="5" t="s">
-        <v>604</v>
+        <v>1097</v>
       </c>
       <c r="AA432" s="3" t="s">
-        <v>581</v>
+        <v>1022</v>
       </c>
       <c r="AB432" s="10">
-        <v>200000</v>
+        <v>2</v>
       </c>
       <c r="AC432" s="11">
-        <v>600000e-6</v>
+        <v>37809.01</v>
       </c>
       <c r="AD432" s="11">
-        <v>600000e-6</v>
+        <v>37809.01</v>
       </c>
       <c r="AE432" s="12">
-        <v>120000</v>
+        <v>75618.02</v>
       </c>
       <c r="AF432" s="12">
-        <v>120000</v>
+        <v>75618.02</v>
       </c>
     </row>
     <row r="433" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -42502,19 +42566,19 @@
         <v>33</v>
       </c>
       <c r="C433" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D433" s="26" t="s">
+        <v>44125</v>
+      </c>
+      <c r="D433" s="15" t="s">
         <v>1088</v>
       </c>
       <c r="E433" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F433" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G433" s="13" t="s">
-        <v>1089</v>
+        <v>1019</v>
       </c>
       <c r="H433" s="13" t="s">
         <v>36</v>
@@ -42523,20 +42587,34 @@
         <v>37</v>
       </c>
       <c r="J433" s="17">
-        <v>0</v>
-      </c>
-      <c r="K433" s="15"/>
-      <c r="L433" s="17"/>
-      <c r="M433" s="15"/>
-      <c r="N433" s="18"/>
-      <c r="O433" s="18"/>
-      <c r="P433" s="19"/>
-      <c r="Q433" s="18"/>
+        <v>9.263561e6</v>
+      </c>
+      <c r="K433" s="15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L433" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M433" s="15" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N433" s="18">
+        <v>44162</v>
+      </c>
+      <c r="O433" s="18">
+        <v>44161</v>
+      </c>
+      <c r="P433" s="19">
+        <v>44891</v>
+      </c>
+      <c r="Q433" s="18">
+        <v>44341</v>
+      </c>
       <c r="R433" s="15" t="s">
-        <v>950</v>
+        <v>1094</v>
       </c>
       <c r="S433" s="15" t="s">
-        <v>951</v>
+        <v>1095</v>
       </c>
       <c r="T433" s="13" t="s">
         <v>33</v>
@@ -42545,42 +42623,42 @@
         <v>33</v>
       </c>
       <c r="V433" s="17">
-        <v>1.244515e6</v>
+        <v>1.398709e6</v>
       </c>
       <c r="W433" s="15" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="X433" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y433" s="15" t="s">
-        <v>1092</v>
+        <v>1019</v>
       </c>
       <c r="Z433" s="15" t="s">
-        <v>604</v>
+        <v>1097</v>
       </c>
       <c r="AA433" s="13" t="s">
-        <v>581</v>
+        <v>1022</v>
       </c>
       <c r="AB433" s="21">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="AC433" s="22">
-        <v>20.1</v>
+        <v>5071.2</v>
       </c>
       <c r="AD433" s="22">
-        <v>20.1</v>
+        <v>5071.2</v>
       </c>
       <c r="AE433" s="23">
-        <v>1005</v>
+        <v>10142.4</v>
       </c>
       <c r="AF433" s="23">
-        <v>1005</v>
+        <v>10142.4</v>
       </c>
     </row>
     <row r="434" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A434" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B434" s="3" t="s">
         <v>33</v>
@@ -42589,7 +42667,7 @@
         <v>43944</v>
       </c>
       <c r="D434" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E434" s="5" t="s">
         <v>33</v>
@@ -42598,7 +42676,7 @@
         <v>2320</v>
       </c>
       <c r="G434" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H434" s="3" t="s">
         <v>36</v>
@@ -42617,10 +42695,10 @@
       <c r="P434" s="9"/>
       <c r="Q434" s="8"/>
       <c r="R434" s="5" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="S434" s="5" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
       <c r="T434" s="3" t="s">
         <v>33</v>
@@ -42629,42 +42707,42 @@
         <v>33</v>
       </c>
       <c r="V434" s="7">
-        <v>1.244108e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W434" s="5" t="s">
-        <v>1099</v>
+        <v>583</v>
       </c>
       <c r="X434" s="7">
         <v>2321</v>
       </c>
       <c r="Y434" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z434" s="5" t="s">
-        <v>604</v>
+        <v>347</v>
       </c>
       <c r="AA434" s="3" t="s">
         <v>581</v>
       </c>
       <c r="AB434" s="10">
-        <v>90</v>
+        <v>3000</v>
       </c>
       <c r="AC434" s="11">
-        <v>358.24</v>
+        <v>8.2</v>
       </c>
       <c r="AD434" s="11">
-        <v>358.24</v>
+        <v>8.2</v>
       </c>
       <c r="AE434" s="12">
-        <v>32241.6</v>
+        <v>24600</v>
       </c>
       <c r="AF434" s="12">
-        <v>32241.6</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="435" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A435" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>33</v>
@@ -42673,7 +42751,7 @@
         <v>43944</v>
       </c>
       <c r="D435" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E435" s="15" t="s">
         <v>33</v>
@@ -42682,7 +42760,7 @@
         <v>2320</v>
       </c>
       <c r="G435" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H435" s="13" t="s">
         <v>36</v>
@@ -42701,10 +42779,10 @@
       <c r="P435" s="19"/>
       <c r="Q435" s="18"/>
       <c r="R435" s="15" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="S435" s="15" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="T435" s="13" t="s">
         <v>33</v>
@@ -42713,16 +42791,16 @@
         <v>33</v>
       </c>
       <c r="V435" s="17">
-        <v>1.244507e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W435" s="15" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="X435" s="17">
         <v>2321</v>
       </c>
       <c r="Y435" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z435" s="15" t="s">
         <v>604</v>
@@ -42731,24 +42809,24 @@
         <v>581</v>
       </c>
       <c r="AB435" s="21">
-        <v>50</v>
+        <v>200000</v>
       </c>
       <c r="AC435" s="22">
-        <v>34.9</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD435" s="22">
-        <v>34.9</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE435" s="23">
-        <v>1745</v>
+        <v>120000</v>
       </c>
       <c r="AF435" s="23">
-        <v>1745</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="436" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A436" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B436" s="3" t="s">
         <v>33</v>
@@ -42757,7 +42835,7 @@
         <v>43944</v>
       </c>
       <c r="D436" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E436" s="5" t="s">
         <v>33</v>
@@ -42766,7 +42844,7 @@
         <v>2320</v>
       </c>
       <c r="G436" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H436" s="3" t="s">
         <v>36</v>
@@ -42785,10 +42863,10 @@
       <c r="P436" s="9"/>
       <c r="Q436" s="8"/>
       <c r="R436" s="5" t="s">
-        <v>1097</v>
+        <v>950</v>
       </c>
       <c r="S436" s="5" t="s">
-        <v>1098</v>
+        <v>951</v>
       </c>
       <c r="T436" s="3" t="s">
         <v>33</v>
@@ -42797,16 +42875,16 @@
         <v>33</v>
       </c>
       <c r="V436" s="7">
-        <v>1.257587e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W436" s="5" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="X436" s="7">
         <v>2321</v>
       </c>
       <c r="Y436" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z436" s="5" t="s">
         <v>604</v>
@@ -42815,24 +42893,24 @@
         <v>581</v>
       </c>
       <c r="AB436" s="10">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC436" s="11">
-        <v>390000e-6</v>
+        <v>20.1</v>
       </c>
       <c r="AD436" s="11">
-        <v>390000e-6</v>
+        <v>20.1</v>
       </c>
       <c r="AE436" s="12">
-        <v>31200</v>
+        <v>1005</v>
       </c>
       <c r="AF436" s="12">
-        <v>31200</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="437" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A437" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B437" s="13" t="s">
         <v>33</v>
@@ -42841,7 +42919,7 @@
         <v>43944</v>
       </c>
       <c r="D437" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E437" s="15" t="s">
         <v>33</v>
@@ -42850,7 +42928,7 @@
         <v>2320</v>
       </c>
       <c r="G437" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H437" s="13" t="s">
         <v>36</v>
@@ -42869,10 +42947,10 @@
       <c r="P437" s="19"/>
       <c r="Q437" s="18"/>
       <c r="R437" s="15" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S437" s="15" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T437" s="13" t="s">
         <v>33</v>
@@ -42881,19 +42959,19 @@
         <v>33</v>
       </c>
       <c r="V437" s="17">
-        <v>1.257625e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W437" s="15" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="X437" s="17">
         <v>2321</v>
       </c>
       <c r="Y437" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z437" s="15" t="s">
-        <v>429</v>
+        <v>604</v>
       </c>
       <c r="AA437" s="13" t="s">
         <v>581</v>
@@ -42902,21 +42980,21 @@
         <v>90</v>
       </c>
       <c r="AC437" s="22">
-        <v>351</v>
+        <v>358.24</v>
       </c>
       <c r="AD437" s="22">
-        <v>351</v>
+        <v>358.24</v>
       </c>
       <c r="AE437" s="23">
-        <v>31590</v>
+        <v>32241.6</v>
       </c>
       <c r="AF437" s="23">
-        <v>31590</v>
+        <v>32241.6</v>
       </c>
     </row>
     <row r="438" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A438" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B438" s="3" t="s">
         <v>33</v>
@@ -42925,7 +43003,7 @@
         <v>43944</v>
       </c>
       <c r="D438" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E438" s="5" t="s">
         <v>33</v>
@@ -42934,7 +43012,7 @@
         <v>2320</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H438" s="3" t="s">
         <v>36</v>
@@ -42953,10 +43031,10 @@
       <c r="P438" s="9"/>
       <c r="Q438" s="8"/>
       <c r="R438" s="5" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S438" s="5" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T438" s="3" t="s">
         <v>33</v>
@@ -42965,16 +43043,16 @@
         <v>33</v>
       </c>
       <c r="V438" s="7">
-        <v>1.258699e6</v>
+        <v>1.244507e6</v>
       </c>
       <c r="W438" s="5" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="X438" s="7">
         <v>2321</v>
       </c>
       <c r="Y438" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z438" s="5" t="s">
         <v>604</v>
@@ -42983,24 +43061,24 @@
         <v>581</v>
       </c>
       <c r="AB438" s="10">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="AC438" s="11">
-        <v>1.39</v>
+        <v>34.9</v>
       </c>
       <c r="AD438" s="11">
-        <v>1.39</v>
+        <v>34.9</v>
       </c>
       <c r="AE438" s="12">
-        <v>2780</v>
+        <v>1745</v>
       </c>
       <c r="AF438" s="12">
-        <v>2780</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="439" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A439" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B439" s="13" t="s">
         <v>33</v>
@@ -43009,7 +43087,7 @@
         <v>43944</v>
       </c>
       <c r="D439" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E439" s="15" t="s">
         <v>33</v>
@@ -43018,7 +43096,7 @@
         <v>2320</v>
       </c>
       <c r="G439" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H439" s="13" t="s">
         <v>36</v>
@@ -43037,10 +43115,10 @@
       <c r="P439" s="19"/>
       <c r="Q439" s="18"/>
       <c r="R439" s="15" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S439" s="15" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T439" s="13" t="s">
         <v>33</v>
@@ -43049,16 +43127,16 @@
         <v>33</v>
       </c>
       <c r="V439" s="17">
-        <v>1.259784e6</v>
+        <v>1.257587e6</v>
       </c>
       <c r="W439" s="15" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="X439" s="17">
         <v>2321</v>
       </c>
       <c r="Y439" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z439" s="15" t="s">
         <v>604</v>
@@ -43067,24 +43145,24 @@
         <v>581</v>
       </c>
       <c r="AB439" s="21">
-        <v>3000</v>
+        <v>80000</v>
       </c>
       <c r="AC439" s="22">
-        <v>600000e-6</v>
+        <v>390000e-6</v>
       </c>
       <c r="AD439" s="22">
-        <v>600000e-6</v>
+        <v>390000e-6</v>
       </c>
       <c r="AE439" s="23">
-        <v>1800</v>
+        <v>31200</v>
       </c>
       <c r="AF439" s="23">
-        <v>1800</v>
+        <v>31200</v>
       </c>
     </row>
     <row r="440" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A440" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B440" s="3" t="s">
         <v>33</v>
@@ -43093,7 +43171,7 @@
         <v>43944</v>
       </c>
       <c r="D440" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E440" s="5" t="s">
         <v>33</v>
@@ -43102,7 +43180,7 @@
         <v>2320</v>
       </c>
       <c r="G440" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H440" s="3" t="s">
         <v>36</v>
@@ -43121,10 +43199,10 @@
       <c r="P440" s="9"/>
       <c r="Q440" s="8"/>
       <c r="R440" s="5" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S440" s="5" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T440" s="3" t="s">
         <v>33</v>
@@ -43133,42 +43211,42 @@
         <v>33</v>
       </c>
       <c r="V440" s="7">
-        <v>1.259792e6</v>
+        <v>1.257625e6</v>
       </c>
       <c r="W440" s="5" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="X440" s="7">
         <v>2321</v>
       </c>
       <c r="Y440" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z440" s="5" t="s">
-        <v>604</v>
+        <v>429</v>
       </c>
       <c r="AA440" s="3" t="s">
         <v>581</v>
       </c>
       <c r="AB440" s="10">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AC440" s="11">
-        <v>15.35</v>
+        <v>351</v>
       </c>
       <c r="AD440" s="11">
-        <v>15.35</v>
+        <v>351</v>
       </c>
       <c r="AE440" s="12">
-        <v>1228</v>
+        <v>31590</v>
       </c>
       <c r="AF440" s="12">
-        <v>1228</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="441" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A441" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B441" s="13" t="s">
         <v>33</v>
@@ -43177,7 +43255,7 @@
         <v>43944</v>
       </c>
       <c r="D441" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E441" s="15" t="s">
         <v>33</v>
@@ -43186,7 +43264,7 @@
         <v>2320</v>
       </c>
       <c r="G441" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H441" s="13" t="s">
         <v>36</v>
@@ -43205,10 +43283,10 @@
       <c r="P441" s="19"/>
       <c r="Q441" s="18"/>
       <c r="R441" s="15" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S441" s="15" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T441" s="13" t="s">
         <v>33</v>
@@ -43217,16 +43295,16 @@
         <v>33</v>
       </c>
       <c r="V441" s="17">
-        <v>1.260669e6</v>
+        <v>1.258699e6</v>
       </c>
       <c r="W441" s="15" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="X441" s="17">
         <v>2321</v>
       </c>
       <c r="Y441" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z441" s="15" t="s">
         <v>604</v>
@@ -43235,24 +43313,24 @@
         <v>581</v>
       </c>
       <c r="AB441" s="21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="AC441" s="22">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AD441" s="22">
-        <v>1.49</v>
+        <v>1.39</v>
       </c>
       <c r="AE441" s="23">
-        <v>1490</v>
+        <v>2780</v>
       </c>
       <c r="AF441" s="23">
-        <v>1490</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="442" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A442" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B442" s="3" t="s">
         <v>33</v>
@@ -43261,7 +43339,7 @@
         <v>43944</v>
       </c>
       <c r="D442" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E442" s="5" t="s">
         <v>33</v>
@@ -43270,7 +43348,7 @@
         <v>2320</v>
       </c>
       <c r="G442" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H442" s="3" t="s">
         <v>36</v>
@@ -43289,10 +43367,10 @@
       <c r="P442" s="9"/>
       <c r="Q442" s="8"/>
       <c r="R442" s="5" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S442" s="5" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T442" s="3" t="s">
         <v>33</v>
@@ -43301,16 +43379,16 @@
         <v>33</v>
       </c>
       <c r="V442" s="7">
-        <v>1.260677e6</v>
+        <v>1.259784e6</v>
       </c>
       <c r="W442" s="5" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="X442" s="7">
         <v>2321</v>
       </c>
       <c r="Y442" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z442" s="5" t="s">
         <v>604</v>
@@ -43322,21 +43400,21 @@
         <v>3000</v>
       </c>
       <c r="AC442" s="11">
-        <v>1.59</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD442" s="11">
-        <v>1.59</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE442" s="12">
-        <v>4770</v>
+        <v>1800</v>
       </c>
       <c r="AF442" s="12">
-        <v>4770</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="443" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A443" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B443" s="13" t="s">
         <v>33</v>
@@ -43345,7 +43423,7 @@
         <v>43944</v>
       </c>
       <c r="D443" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E443" s="15" t="s">
         <v>33</v>
@@ -43354,7 +43432,7 @@
         <v>2320</v>
       </c>
       <c r="G443" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H443" s="13" t="s">
         <v>36</v>
@@ -43373,10 +43451,10 @@
       <c r="P443" s="19"/>
       <c r="Q443" s="18"/>
       <c r="R443" s="15" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S443" s="15" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T443" s="13" t="s">
         <v>33</v>
@@ -43385,16 +43463,16 @@
         <v>33</v>
       </c>
       <c r="V443" s="17">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W443" s="20" t="s">
-        <v>1108</v>
+        <v>1.259792e6</v>
+      </c>
+      <c r="W443" s="15" t="s">
+        <v>1117</v>
       </c>
       <c r="X443" s="17">
         <v>2321</v>
       </c>
       <c r="Y443" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z443" s="15" t="s">
         <v>604</v>
@@ -43403,24 +43481,24 @@
         <v>581</v>
       </c>
       <c r="AB443" s="21">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AC443" s="22">
-        <v>271.97</v>
+        <v>15.35</v>
       </c>
       <c r="AD443" s="22">
-        <v>271.97</v>
+        <v>15.35</v>
       </c>
       <c r="AE443" s="23">
-        <v>16318.2</v>
+        <v>1228</v>
       </c>
       <c r="AF443" s="23">
-        <v>16318.2</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="444" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A444" s="3" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B444" s="3" t="s">
         <v>33</v>
@@ -43429,7 +43507,7 @@
         <v>43944</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E444" s="5" t="s">
         <v>33</v>
@@ -43438,7 +43516,7 @@
         <v>2320</v>
       </c>
       <c r="G444" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H444" s="3" t="s">
         <v>36</v>
@@ -43457,10 +43535,10 @@
       <c r="P444" s="9"/>
       <c r="Q444" s="8"/>
       <c r="R444" s="5" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="S444" s="5" t="s">
-        <v>1098</v>
+        <v>1110</v>
       </c>
       <c r="T444" s="3" t="s">
         <v>33</v>
@@ -43469,16 +43547,16 @@
         <v>33</v>
       </c>
       <c r="V444" s="7">
-        <v>1.687115e6</v>
+        <v>1.260669e6</v>
       </c>
       <c r="W444" s="5" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="X444" s="7">
         <v>2321</v>
       </c>
       <c r="Y444" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z444" s="5" t="s">
         <v>604</v>
@@ -43487,24 +43565,24 @@
         <v>581</v>
       </c>
       <c r="AB444" s="10">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AC444" s="11">
-        <v>16.65</v>
+        <v>1.49</v>
       </c>
       <c r="AD444" s="11">
-        <v>16.65</v>
+        <v>1.49</v>
       </c>
       <c r="AE444" s="12">
-        <v>999</v>
+        <v>1490</v>
       </c>
       <c r="AF444" s="12">
-        <v>999</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="445" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A445" s="13" t="s">
-        <v>1087</v>
+        <v>1099</v>
       </c>
       <c r="B445" s="13" t="s">
         <v>33</v>
@@ -43513,7 +43591,7 @@
         <v>43944</v>
       </c>
       <c r="D445" s="26" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="E445" s="15" t="s">
         <v>33</v>
@@ -43522,7 +43600,7 @@
         <v>2320</v>
       </c>
       <c r="G445" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H445" s="13" t="s">
         <v>36</v>
@@ -43541,11 +43619,11 @@
       <c r="P445" s="19"/>
       <c r="Q445" s="18"/>
       <c r="R445" s="15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="S445" s="15" t="s">
         <v>1110</v>
       </c>
-      <c r="S445" s="15" t="s">
-        <v>1111</v>
-      </c>
       <c r="T445" s="13" t="s">
         <v>33</v>
       </c>
@@ -43553,16 +43631,16 @@
         <v>33</v>
       </c>
       <c r="V445" s="17">
-        <v>1.257463e6</v>
+        <v>1.260677e6</v>
       </c>
       <c r="W445" s="15" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
       <c r="X445" s="17">
         <v>2321</v>
       </c>
       <c r="Y445" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z445" s="15" t="s">
         <v>604</v>
@@ -43571,33 +43649,33 @@
         <v>581</v>
       </c>
       <c r="AB445" s="21">
-        <v>200</v>
+        <v>3000</v>
       </c>
       <c r="AC445" s="22">
-        <v>34.2</v>
+        <v>1.59</v>
       </c>
       <c r="AD445" s="22">
-        <v>34.2</v>
+        <v>1.59</v>
       </c>
       <c r="AE445" s="23">
-        <v>6840</v>
+        <v>4770</v>
       </c>
       <c r="AF445" s="23">
-        <v>6840</v>
+        <v>4770</v>
       </c>
     </row>
     <row r="446" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A446" s="3" t="s">
-        <v>1113</v>
+        <v>1099</v>
       </c>
       <c r="B446" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C446" s="4">
-        <v>44012</v>
-      </c>
-      <c r="D446" s="5" t="s">
-        <v>1114</v>
+        <v>43944</v>
+      </c>
+      <c r="D446" s="25" t="s">
+        <v>1100</v>
       </c>
       <c r="E446" s="5" t="s">
         <v>33</v>
@@ -43606,7 +43684,7 @@
         <v>2320</v>
       </c>
       <c r="G446" s="3" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H446" s="3" t="s">
         <v>36</v>
@@ -43625,10 +43703,10 @@
       <c r="P446" s="9"/>
       <c r="Q446" s="8"/>
       <c r="R446" s="5" t="s">
-        <v>564</v>
+        <v>1109</v>
       </c>
       <c r="S446" s="5" t="s">
-        <v>565</v>
+        <v>1110</v>
       </c>
       <c r="T446" s="3" t="s">
         <v>33</v>
@@ -43637,51 +43715,51 @@
         <v>33</v>
       </c>
       <c r="V446" s="7">
-        <v>1.408623e6</v>
-      </c>
-      <c r="W446" s="5" t="s">
-        <v>1115</v>
+        <v>1.260731e6</v>
+      </c>
+      <c r="W446" s="24" t="s">
+        <v>1120</v>
       </c>
       <c r="X446" s="7">
         <v>2321</v>
       </c>
       <c r="Y446" s="5" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z446" s="5" t="s">
-        <v>436</v>
+        <v>604</v>
       </c>
       <c r="AA446" s="3" t="s">
         <v>581</v>
       </c>
       <c r="AB446" s="10">
-        <v>2000</v>
+        <v>60</v>
       </c>
       <c r="AC446" s="11">
-        <v>18.69</v>
+        <v>271.97</v>
       </c>
       <c r="AD446" s="11">
-        <v>14.95</v>
+        <v>271.97</v>
       </c>
       <c r="AE446" s="12">
-        <v>37380</v>
+        <v>16318.2</v>
       </c>
       <c r="AF446" s="12">
-        <v>29900</v>
+        <v>16318.2</v>
       </c>
     </row>
     <row r="447" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A447" s="13" t="s">
-        <v>1116</v>
+        <v>1099</v>
       </c>
       <c r="B447" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C447" s="14">
-        <v>44034</v>
+        <v>43944</v>
       </c>
       <c r="D447" s="26" t="s">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="E447" s="15" t="s">
         <v>33</v>
@@ -43690,43 +43768,29 @@
         <v>2320</v>
       </c>
       <c r="G447" s="13" t="s">
-        <v>1089</v>
+        <v>1101</v>
       </c>
       <c r="H447" s="13" t="s">
         <v>36</v>
       </c>
       <c r="I447" s="13" t="s">
-        <v>1118</v>
+        <v>37</v>
       </c>
       <c r="J447" s="17">
-        <v>9.260962e6</v>
-      </c>
-      <c r="K447" s="15" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L447" s="17">
-        <v>2320</v>
-      </c>
-      <c r="M447" s="15" t="s">
-        <v>1089</v>
-      </c>
-      <c r="N447" s="18">
-        <v>44056</v>
-      </c>
-      <c r="O447" s="18">
-        <v>44056</v>
-      </c>
-      <c r="P447" s="19">
-        <v>44240</v>
-      </c>
-      <c r="Q447" s="18">
-        <v>44240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K447" s="15"/>
+      <c r="L447" s="17"/>
+      <c r="M447" s="15"/>
+      <c r="N447" s="18"/>
+      <c r="O447" s="18"/>
+      <c r="P447" s="19"/>
+      <c r="Q447" s="18"/>
       <c r="R447" s="15" t="s">
-        <v>864</v>
+        <v>1109</v>
       </c>
       <c r="S447" s="15" t="s">
-        <v>865</v>
+        <v>1110</v>
       </c>
       <c r="T447" s="13" t="s">
         <v>33</v>
@@ -43735,40 +43799,306 @@
         <v>33</v>
       </c>
       <c r="V447" s="17">
-        <v>1.758276e6</v>
+        <v>1.687115e6</v>
       </c>
       <c r="W447" s="15" t="s">
-        <v>866</v>
+        <v>1121</v>
       </c>
       <c r="X447" s="17">
         <v>2321</v>
       </c>
       <c r="Y447" s="15" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="Z447" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA447" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB447" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC447" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AD447" s="22">
+        <v>16.65</v>
+      </c>
+      <c r="AE447" s="23">
+        <v>999</v>
+      </c>
+      <c r="AF447" s="23">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="448" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A448" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C448" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D448" s="25" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E448" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F448" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J448" s="7">
+        <v>0</v>
+      </c>
+      <c r="K448" s="5"/>
+      <c r="L448" s="7"/>
+      <c r="M448" s="5"/>
+      <c r="N448" s="8"/>
+      <c r="O448" s="8"/>
+      <c r="P448" s="9"/>
+      <c r="Q448" s="8"/>
+      <c r="R448" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="S448" s="5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U448" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V448" s="7">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W448" s="5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="X448" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y448" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Z448" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA448" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB448" s="10">
+        <v>200</v>
+      </c>
+      <c r="AC448" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AD448" s="11">
+        <v>34.2</v>
+      </c>
+      <c r="AE448" s="12">
+        <v>6840</v>
+      </c>
+      <c r="AF448" s="12">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="449" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A449" s="13" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B449" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C449" s="14">
+        <v>44012</v>
+      </c>
+      <c r="D449" s="15" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E449" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F449" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G449" s="13" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H449" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I449" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J449" s="17">
+        <v>0</v>
+      </c>
+      <c r="K449" s="15"/>
+      <c r="L449" s="17"/>
+      <c r="M449" s="15"/>
+      <c r="N449" s="18"/>
+      <c r="O449" s="18"/>
+      <c r="P449" s="19"/>
+      <c r="Q449" s="18"/>
+      <c r="R449" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="S449" s="15" t="s">
+        <v>565</v>
+      </c>
+      <c r="T449" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U449" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V449" s="17">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W449" s="15" t="s">
+        <v>1127</v>
+      </c>
+      <c r="X449" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y449" s="15" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Z449" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA449" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB449" s="21">
+        <v>2000</v>
+      </c>
+      <c r="AC449" s="22">
+        <v>18.69</v>
+      </c>
+      <c r="AD449" s="22">
+        <v>14.95</v>
+      </c>
+      <c r="AE449" s="23">
+        <v>37380</v>
+      </c>
+      <c r="AF449" s="23">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="450" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A450" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C450" s="4">
+        <v>44034</v>
+      </c>
+      <c r="D450" s="25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F450" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J450" s="7">
+        <v>9.260962e6</v>
+      </c>
+      <c r="K450" s="5" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L450" s="7">
+        <v>2320</v>
+      </c>
+      <c r="M450" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="N450" s="8">
+        <v>44056</v>
+      </c>
+      <c r="O450" s="8">
+        <v>44056</v>
+      </c>
+      <c r="P450" s="9">
+        <v>44240</v>
+      </c>
+      <c r="Q450" s="8">
+        <v>44240</v>
+      </c>
+      <c r="R450" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="S450" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="T450" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U450" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V450" s="7">
+        <v>1.758276e6</v>
+      </c>
+      <c r="W450" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="X450" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y450" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="Z450" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="AA447" s="13" t="s">
+      <c r="AA450" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AB447" s="21">
+      <c r="AB450" s="10">
         <v>7000</v>
       </c>
-      <c r="AC447" s="22">
+      <c r="AC450" s="11">
         <v>34.54</v>
       </c>
-      <c r="AD447" s="22">
+      <c r="AD450" s="11">
         <v>34.536</v>
       </c>
-      <c r="AE447" s="23">
+      <c r="AE450" s="12">
         <v>241780</v>
       </c>
-      <c r="AF447" s="23">
+      <c r="AF450" s="12">
         <v>241752</v>
       </c>
     </row>
-    <row r="448" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="451" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>

--- a/data-raw/compras-coronavirus.xlsx
+++ b/data-raw/compras-coronavirus.xlsx
@@ -8,7 +8,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7344" uniqueCount="1169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7555" uniqueCount="1200">
   <si>
     <t>Número Processo -  Formatado</t>
   </si>
@@ -1198,7 +1198,7 @@
     <t>DISPLAY PARA EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: DISPLAY LED C/ KIT FIXACAO P/ TECLADO NOVO  GRAPH; EQUIPAMENTO: VENTILADOR; MARCA/MODELO: DIXTAL/DX-3010; REFERENCIA: DR-0004U-2 / 4329R2V;</t>
   </si>
   <si>
-    <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 11.1 VOLTS; CORRENTE: 7.8 AH; REFERENCIA: DR-2003A-0 / 4152R1V; EQUIPAMENTO: VENTILADOR DIXTAL/DX-3012;</t>
+    <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 11.1 VOLTS; CORRENTE: 7.8 AH; REFERENCIA: DR-2003A-0 / 4152R1V; COMPATIBILIDADE: VENTILADOR DIXTAL/DX-3012;</t>
   </si>
   <si>
     <t>KIT PARA EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: KIT PNEUMOTACOGRAFO (TS/ADV.); EQUIPAMENTO: VENTILADOR; MARCA/MODELO: DIXTAL/DX-3012-3020; REFERENCIA: 3696R1V;</t>
@@ -1963,7 +1963,7 @@
     <t>CERA USO AUTOMOTIVO - CONSISTENCIA: EM PASTA;</t>
   </si>
   <si>
-    <t>PEROXIDO DE HIDROGENIO - APLICACAO: SANITIZACAO; ASPECTO FISICO: LIQUIDO LIMPIDO, INCOLOR, CORROSIVO - 10 VOLUMES; FORMULA MOLECULAR: H2O2; PESO MOLECULAR: 34,02;</t>
+    <t>PEROXIDO DE HIDROGENIO - GRAU: SANITIZACAO; ASPECTO FISICO: LIQUIDO LIMPIDO, INCOLOR, CORROSIVO - 10 VOLUMES; FORMULA MOLECULAR: H2O2; PESO MOLECULAR: 34,02;</t>
   </si>
   <si>
     <t>SHAMPOO AUTOMOTIVO - APRESENTACAO: DETERGENTE CREMOSO;</t>
@@ -2840,7 +2840,7 @@
     <t>KIT MANUTENCAO EQUIPAMENTOS MEDICO-HOSPITALARES - IDENTIFICACAO: PREVENTIVA 10.000 HORAS; EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-078179-00;</t>
   </si>
   <si>
-    <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 24 VOLTS; CORRENTE: 7,0 AH; REFERENCIA: 4-070523-SP; EQUIPAMENTO: VENTILADOR PULMONAR NELLCOR PURITAN BENNETT/840;</t>
+    <t>BATERIA PARA EQUIPAMENTO MEDICO/HOSPITALAR - TENSAO: 24 VOLTS; CORRENTE: 7,0 AH; REFERENCIA: 4-070523-SP; COMPATIBILIDADE: VENTILADOR PULMONAR NELLCOR PURITAN BENNETT/840;</t>
   </si>
   <si>
     <t>CABO EQUIPAMENTO/INSTRUMENTO MEDICO-HOSPITALAR - IDENTIFICACAO: CABO DO LCD (FLAT CABLE); EQUIPAMENTO: VENTILADOR PULMONAR; MARCA/MODELO: NELLCOR PURITAN BENNETT/840; REFERENCIA: 4-076856-SP;</t>
@@ -3373,7 +3373,7 @@
     <t>05.439.635/0004-56</t>
   </si>
   <si>
-    <t>Antibióticos do Brasil Ltda</t>
+    <t>ANTIBIOTICOS DO BRASIL LTDA.</t>
   </si>
   <si>
     <t>MEROPENEM - PRINCIPIO ATIVO: MEROPENEM, TRI-HIDRATADO; CONCENTRACAO/DOSAGEM: 500 MG; FORMA FARMACEUTICA: PO PARA SOLUCAO INJETAVEL; APRESENTACAO: FRASCO-AMPOLA; COMPONENTE: .;</t>
@@ -3431,6 +3431,99 @@
   </si>
   <si>
     <t>FILTRO ABRANDADOR - MATERIA-PRIMA: ACO INOX E TERMOPLASTICO; VAZAO: 200 LITROS/HORA; CICLO: 200 LITROS/HORA; TEMPERATURA: NOMINAL FORNECIDA; VOLUME: 200 LITROS/HORA; DIMENSOES: APROXIMADAMENTE 120CM(ALT)X 50CM(LARG)X 30CM(PROF);</t>
+  </si>
+  <si>
+    <t>2311076 000741/2020</t>
+  </si>
+  <si>
+    <t>INSUMOS HEMODIÁLISE</t>
+  </si>
+  <si>
+    <t>EQUIPO - APLICACAO: INTERLIGAR BOLSA DIALISANTE AO CATETER ; TIPO: TRANSFERENCIA DE 6 POLEGADAS P/ LONGA PERMANENCIA; MATERIA-PRIMA: PVC;</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA DIALISE PERITONEAL - PRINCIPIO ATIVO: GLICOSE+CALCIO+SODIO+MAGNESIO+CLORETO+LACTATO; CONCENTRACAO/DOSAGEM: 1,5%+3,5 MEQ/L+132MEQ/L+0,5 MEQ/L+96MEQ/L+40 MEQ/L; FORMA FARMACEUTICA: SOLUCAO PARA DIALISE  ; APRESENTACAO: BOLSA 2 LITROS; COMPONENTE: SISTEMA FECHADO;</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA DIALISE PERITONEAL - PRINCIPIO ATIVO: GLICOSE + CALCIO + SODIO +MAGNESIO+CLORETO+LACTATO; CONCENTRACAO/DOSAGEM: 2,5%+3,5 MEQ/L+132MEQ/L+0,5 MEQ/L+96MEQ/L+40 MEQ/L; FORMA FARMACEUTICA: SOLUCAO PARA DIALISE  ; APRESENTACAO: BOLSA 2 LITROS ; COMPONENTE: SISTEMA FECHADO;</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA DIALISE PERITONEAL - PRINCIPIO ATIVO: GLICOSE + CALCIO + SODIO +MAGNESIO+CLORETO+LACTATO; CONCENTRACAO/DOSAGEM: 4,25%+3,5MEQ/L+132MEQ/L+0,5MEQ/L+96MEQ/L+40 MEQ/L; FORMA FARMACEUTICA: SOLUCAO PARA DIALISE  ; APRESENTACAO: BOLSA 2 LITROS; COMPONENTE: SISTEMA FECHADO;</t>
+  </si>
+  <si>
+    <t>SISTEMA DE DESCONEXAO PARA CAPD - IDENTIFICACAO: TAMPA P/ DESCONEXAO DESCARTAVEL COM SOLUCAO PVPI;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166452</t>
+  </si>
+  <si>
+    <t>22.355.622/0001-75</t>
+  </si>
+  <si>
+    <t>BIOMIG MATERIAIS MEDICO-HOSPITALARES LTDA</t>
+  </si>
+  <si>
+    <t>KIT PARA MAQUINA DE HEMODIALISE COMPONENTES DO KIT (1): HEMOFILTRO/DIALISADOR, LINHA ARTERIAL,LINHA VENOSA; COMPONENTES DO KIT (2): LINHA DE REPOSICAO, LINHA DE DIALISANTE; COMPONENTES DO KIT (3): LINHA DE INFUSAO, LINHA DE EFLUENTE; COMPONENTES DO KIT (4): CAMARA DE AR (CATABOLHAS), BOLSA DE COLETA ;</t>
+  </si>
+  <si>
+    <t>BOLSA COLETORA DE FLUIDOS - MATERIA-PRIMA: MATERIAL RESISTENTE ESTERIL ; DIAMETRO: VOLUME: 5 LITROS ; ADESIVO: SEM ADESIVO; FINALIDADE: COLETA DE SOLUCAO DE DIALISE E ULTRAFILTRACAO ;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166456</t>
+  </si>
+  <si>
+    <t>36.325.157/0001-34</t>
+  </si>
+  <si>
+    <t>COSTA CAMARGO COM. DE PRODUTOS HOSPITALARES LTDA</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA HEMODIALISE - IDENTIFICACAO: SOLUCAO HEMOLENTA ESTERIL; PRINCIPIO ATIVO: NACL0,6140%+SOLUCAO DE(MG)HEPTAHIDRATADO 0,018596%; FORMA FARMACEUTICA: SOLUCAO PARA TERAPIA DE REPOSICAO RENAL CONTINUA ; APRESENTACAO: BOLSA PLASTICA 5L;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166457</t>
+  </si>
+  <si>
+    <t>05.852.138/0001-32</t>
+  </si>
+  <si>
+    <t>L.F. WOLF ARIAS HOSPITALARES LTDA</t>
+  </si>
+  <si>
+    <t>SOLUCAO ESTERILIZANTE - BASE: DE AC.PERACETICO/PEROXIDO HIDROG. E ESTABILIZANTE; CONCENTRACAO: COM CONCENTRACAO ADEQUADA PARA DESINFECCAO; FINALIDADE: DE MAQUINAS DE HEMODIALISE;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166430</t>
+  </si>
+  <si>
+    <t>16.733.299/0001-23</t>
+  </si>
+  <si>
+    <t>LIFE - LABORATORIO DE INSUMOS FARMACEUTICOS ESTEREIS LTDA</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA HEMODIALISE - IDENTIFICACAO: SOLUCAO ANTICOAGULANTE DE CITRATO TRISSODICO; PRINCIPIO ATIVO: CITRATO TRISSODICO A 40 MG/ML (4%); FORMA FARMACEUTICA: SOLUCAO ANTICOAGULANTE ESTERIL ; APRESENTACAO: BOLSA PLASTICA 3000 ML;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166431</t>
+  </si>
+  <si>
+    <t>SOLUCAO PARA HEMODIALISE - IDENTIFICACAO: FRACAO ACIDA;</t>
+  </si>
+  <si>
+    <t>https://www1.compras.mg.gov.br/contrato/gestaocontratos/arquivosContrato.html?idContrato=166465</t>
+  </si>
+  <si>
+    <t>02.937.303/0001-60</t>
+  </si>
+  <si>
+    <t>INTENSIVEMED IMPORTACAO E COMERCIO LTDA -EPP</t>
+  </si>
+  <si>
+    <t>CATETER - IDENTIFICACAO: DIALISE PERITONEAL PEDIATRICO, TENCKHOFF 2 CUFFS; TAMANHO/NUMERO: 30 CM DE COMP. X DIAM 2,6 MM(INT.) X 4,9MM(EXT.); MATERIA-PRIMA: SILICONE TRANSPARENTE;</t>
+  </si>
+  <si>
+    <t>CATETER - IDENTIFICACAO: DIALISE PERITONEAL NEONATAL,TIPO TENCKHOFF 2 CUFFS; TAMANHO/NUMERO: 31 CM DE COMP. X  DIAM 2,6MM(INT.) X  4,9MM(EXT.); MATERIA-PRIMA: SILICONE TRANSPARENTE;</t>
   </si>
   <si>
     <t>2320310 000127/2020</t>
@@ -3726,7 +3819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF465"/>
+  <dimension ref="A1:AF478"/>
   <cols>
     <col min="1" max="1" width="27.8093" customWidth="1"/>
     <col min="2" max="2" width="23.8165" customWidth="1"/>
@@ -43957,19 +44050,19 @@
         <v>33</v>
       </c>
       <c r="C448" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D448" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D448" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E448" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F448" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G448" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H448" s="3" t="s">
         <v>36</v>
@@ -43988,10 +44081,10 @@
       <c r="P448" s="9"/>
       <c r="Q448" s="8"/>
       <c r="R448" s="5" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="S448" s="5" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="T448" s="3" t="s">
         <v>33</v>
@@ -44000,37 +44093,37 @@
         <v>33</v>
       </c>
       <c r="V448" s="7">
-        <v>1.692143e6</v>
+        <v>1.770624e6</v>
       </c>
       <c r="W448" s="5" t="s">
-        <v>629</v>
+        <v>1138</v>
       </c>
       <c r="X448" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y448" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z448" s="5" t="s">
-        <v>347</v>
+        <v>142</v>
       </c>
       <c r="AA448" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB448" s="10">
-        <v>3000</v>
+        <v>10</v>
       </c>
       <c r="AC448" s="11">
-        <v>8.2</v>
+        <v>193.26</v>
       </c>
       <c r="AD448" s="11">
-        <v>8.2</v>
+        <v>193.26</v>
       </c>
       <c r="AE448" s="12">
-        <v>24600</v>
+        <v>1932.6</v>
       </c>
       <c r="AF448" s="12">
-        <v>24600</v>
+        <v>1932.6</v>
       </c>
     </row>
     <row r="449" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44041,19 +44134,19 @@
         <v>33</v>
       </c>
       <c r="C449" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D449" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D449" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E449" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F449" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G449" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H449" s="13" t="s">
         <v>36</v>
@@ -44072,10 +44165,10 @@
       <c r="P449" s="19"/>
       <c r="Q449" s="18"/>
       <c r="R449" s="15" t="s">
-        <v>1142</v>
+        <v>1127</v>
       </c>
       <c r="S449" s="15" t="s">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="T449" s="13" t="s">
         <v>33</v>
@@ -44084,37 +44177,37 @@
         <v>33</v>
       </c>
       <c r="V449" s="17">
-        <v>1.143883e6</v>
-      </c>
-      <c r="W449" s="15" t="s">
-        <v>1144</v>
+        <v>1.770837e6</v>
+      </c>
+      <c r="W449" s="20" t="s">
+        <v>1139</v>
       </c>
       <c r="X449" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y449" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z449" s="15" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA449" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB449" s="21">
-        <v>200000</v>
+        <v>32</v>
       </c>
       <c r="AC449" s="22">
-        <v>600000e-6</v>
+        <v>14.16</v>
       </c>
       <c r="AD449" s="22">
-        <v>600000e-6</v>
+        <v>14.16</v>
       </c>
       <c r="AE449" s="23">
-        <v>120000</v>
+        <v>453.12</v>
       </c>
       <c r="AF449" s="23">
-        <v>120000</v>
+        <v>453.12</v>
       </c>
     </row>
     <row r="450" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44125,19 +44218,19 @@
         <v>33</v>
       </c>
       <c r="C450" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D450" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D450" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E450" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F450" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G450" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H450" s="3" t="s">
         <v>36</v>
@@ -44156,10 +44249,10 @@
       <c r="P450" s="9"/>
       <c r="Q450" s="8"/>
       <c r="R450" s="5" t="s">
-        <v>991</v>
+        <v>1127</v>
       </c>
       <c r="S450" s="5" t="s">
-        <v>992</v>
+        <v>1128</v>
       </c>
       <c r="T450" s="3" t="s">
         <v>33</v>
@@ -44168,37 +44261,37 @@
         <v>33</v>
       </c>
       <c r="V450" s="7">
-        <v>1.244515e6</v>
-      </c>
-      <c r="W450" s="5" t="s">
-        <v>1145</v>
+        <v>1.770845e6</v>
+      </c>
+      <c r="W450" s="24" t="s">
+        <v>1140</v>
       </c>
       <c r="X450" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y450" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z450" s="5" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA450" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB450" s="10">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AC450" s="11">
-        <v>20.1</v>
+        <v>12.14</v>
       </c>
       <c r="AD450" s="11">
-        <v>20.1</v>
+        <v>12.14</v>
       </c>
       <c r="AE450" s="12">
-        <v>1005</v>
+        <v>388.48</v>
       </c>
       <c r="AF450" s="12">
-        <v>1005</v>
+        <v>388.48</v>
       </c>
     </row>
     <row r="451" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44209,19 +44302,19 @@
         <v>33</v>
       </c>
       <c r="C451" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D451" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D451" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E451" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F451" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G451" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H451" s="13" t="s">
         <v>36</v>
@@ -44240,10 +44333,10 @@
       <c r="P451" s="19"/>
       <c r="Q451" s="18"/>
       <c r="R451" s="15" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="S451" s="15" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="T451" s="13" t="s">
         <v>33</v>
@@ -44252,37 +44345,37 @@
         <v>33</v>
       </c>
       <c r="V451" s="17">
-        <v>1.244108e6</v>
-      </c>
-      <c r="W451" s="15" t="s">
-        <v>1148</v>
+        <v>1.77095e6</v>
+      </c>
+      <c r="W451" s="20" t="s">
+        <v>1141</v>
       </c>
       <c r="X451" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y451" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z451" s="15" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA451" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB451" s="21">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="AC451" s="22">
-        <v>358.24</v>
+        <v>13.86</v>
       </c>
       <c r="AD451" s="22">
-        <v>358.24</v>
+        <v>13.86</v>
       </c>
       <c r="AE451" s="23">
-        <v>32241.6</v>
+        <v>221.76</v>
       </c>
       <c r="AF451" s="23">
-        <v>32241.6</v>
+        <v>221.76</v>
       </c>
     </row>
     <row r="452" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44293,19 +44386,19 @@
         <v>33</v>
       </c>
       <c r="C452" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D452" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D452" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E452" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F452" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G452" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H452" s="3" t="s">
         <v>36</v>
@@ -44324,10 +44417,10 @@
       <c r="P452" s="9"/>
       <c r="Q452" s="8"/>
       <c r="R452" s="5" t="s">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="S452" s="5" t="s">
-        <v>1147</v>
+        <v>1128</v>
       </c>
       <c r="T452" s="3" t="s">
         <v>33</v>
@@ -44336,37 +44429,37 @@
         <v>33</v>
       </c>
       <c r="V452" s="7">
-        <v>1.244507e6</v>
+        <v>1.776088e6</v>
       </c>
       <c r="W452" s="5" t="s">
-        <v>1149</v>
+        <v>1142</v>
       </c>
       <c r="X452" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y452" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z452" s="5" t="s">
-        <v>650</v>
+        <v>464</v>
       </c>
       <c r="AA452" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB452" s="10">
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="AC452" s="11">
-        <v>34.9</v>
+        <v>1.88</v>
       </c>
       <c r="AD452" s="11">
-        <v>34.9</v>
+        <v>1.88</v>
       </c>
       <c r="AE452" s="12">
-        <v>1745</v>
+        <v>225.6</v>
       </c>
       <c r="AF452" s="12">
-        <v>1745</v>
+        <v>225.6</v>
       </c>
     </row>
     <row r="453" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44377,19 +44470,19 @@
         <v>33</v>
       </c>
       <c r="C453" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D453" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D453" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E453" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F453" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G453" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H453" s="13" t="s">
         <v>36</v>
@@ -44398,59 +44491,73 @@
         <v>37</v>
       </c>
       <c r="J453" s="17">
-        <v>0</v>
-      </c>
-      <c r="K453" s="15"/>
-      <c r="L453" s="17"/>
-      <c r="M453" s="15"/>
-      <c r="N453" s="18"/>
-      <c r="O453" s="18"/>
-      <c r="P453" s="19"/>
-      <c r="Q453" s="18"/>
+        <v>9.27007e6</v>
+      </c>
+      <c r="K453" s="15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L453" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M453" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N453" s="18">
+        <v>44201</v>
+      </c>
+      <c r="O453" s="18">
+        <v>44201</v>
+      </c>
+      <c r="P453" s="19">
+        <v>44746</v>
+      </c>
+      <c r="Q453" s="18">
+        <v>44381</v>
+      </c>
       <c r="R453" s="15" t="s">
+        <v>1144</v>
+      </c>
+      <c r="S453" s="15" t="s">
+        <v>1145</v>
+      </c>
+      <c r="T453" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U453" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V453" s="17">
+        <v>1.770861e6</v>
+      </c>
+      <c r="W453" s="20" t="s">
         <v>1146</v>
       </c>
-      <c r="S453" s="15" t="s">
-        <v>1147</v>
-      </c>
-      <c r="T453" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="U453" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V453" s="17">
-        <v>1.257587e6</v>
-      </c>
-      <c r="W453" s="15" t="s">
-        <v>1150</v>
-      </c>
       <c r="X453" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y453" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z453" s="15" t="s">
-        <v>650</v>
+        <v>142</v>
       </c>
       <c r="AA453" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB453" s="21">
-        <v>80000</v>
+        <v>50</v>
       </c>
       <c r="AC453" s="22">
-        <v>390000e-6</v>
+        <v>1146</v>
       </c>
       <c r="AD453" s="22">
-        <v>390000e-6</v>
+        <v>1146</v>
       </c>
       <c r="AE453" s="23">
-        <v>31200</v>
+        <v>57300</v>
       </c>
       <c r="AF453" s="23">
-        <v>31200</v>
+        <v>57300</v>
       </c>
     </row>
     <row r="454" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44461,19 +44568,19 @@
         <v>33</v>
       </c>
       <c r="C454" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D454" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D454" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E454" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F454" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G454" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H454" s="3" t="s">
         <v>36</v>
@@ -44482,59 +44589,73 @@
         <v>37</v>
       </c>
       <c r="J454" s="7">
-        <v>0</v>
-      </c>
-      <c r="K454" s="5"/>
-      <c r="L454" s="7"/>
-      <c r="M454" s="5"/>
-      <c r="N454" s="8"/>
-      <c r="O454" s="8"/>
-      <c r="P454" s="9"/>
-      <c r="Q454" s="8"/>
+        <v>9.27007e6</v>
+      </c>
+      <c r="K454" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L454" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M454" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N454" s="8">
+        <v>44201</v>
+      </c>
+      <c r="O454" s="8">
+        <v>44201</v>
+      </c>
+      <c r="P454" s="9">
+        <v>44746</v>
+      </c>
+      <c r="Q454" s="8">
+        <v>44381</v>
+      </c>
       <c r="R454" s="5" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="S454" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="T454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U454" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V454" s="7">
+        <v>1.774158e6</v>
+      </c>
+      <c r="W454" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="T454" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="U454" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="V454" s="7">
-        <v>1.257625e6</v>
-      </c>
-      <c r="W454" s="5" t="s">
-        <v>1151</v>
-      </c>
       <c r="X454" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y454" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z454" s="5" t="s">
-        <v>429</v>
+        <v>142</v>
       </c>
       <c r="AA454" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB454" s="10">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AC454" s="11">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="AD454" s="11">
-        <v>351</v>
+        <v>69</v>
       </c>
       <c r="AE454" s="12">
-        <v>31590</v>
+        <v>3450</v>
       </c>
       <c r="AF454" s="12">
-        <v>31590</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="455" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44545,19 +44666,19 @@
         <v>33</v>
       </c>
       <c r="C455" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D455" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D455" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E455" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F455" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G455" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H455" s="13" t="s">
         <v>36</v>
@@ -44566,20 +44687,34 @@
         <v>37</v>
       </c>
       <c r="J455" s="17">
-        <v>0</v>
-      </c>
-      <c r="K455" s="15"/>
-      <c r="L455" s="17"/>
-      <c r="M455" s="15"/>
-      <c r="N455" s="18"/>
-      <c r="O455" s="18"/>
-      <c r="P455" s="19"/>
-      <c r="Q455" s="18"/>
+        <v>9.270074e6</v>
+      </c>
+      <c r="K455" s="15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L455" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M455" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N455" s="18">
+        <v>44207</v>
+      </c>
+      <c r="O455" s="18">
+        <v>44205</v>
+      </c>
+      <c r="P455" s="19">
+        <v>44750</v>
+      </c>
+      <c r="Q455" s="18">
+        <v>44385</v>
+      </c>
       <c r="R455" s="15" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="S455" s="15" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="T455" s="13" t="s">
         <v>33</v>
@@ -44588,37 +44723,37 @@
         <v>33</v>
       </c>
       <c r="V455" s="17">
-        <v>1.258699e6</v>
+        <v>1.773615e6</v>
       </c>
       <c r="W455" s="15" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="X455" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y455" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z455" s="15" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA455" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB455" s="21">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="AC455" s="22">
-        <v>1.39</v>
+        <v>39</v>
       </c>
       <c r="AD455" s="22">
-        <v>1.39</v>
+        <v>39</v>
       </c>
       <c r="AE455" s="23">
-        <v>2780</v>
+        <v>58500</v>
       </c>
       <c r="AF455" s="23">
-        <v>2780</v>
+        <v>58500</v>
       </c>
     </row>
     <row r="456" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44629,19 +44764,19 @@
         <v>33</v>
       </c>
       <c r="C456" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D456" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D456" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E456" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F456" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G456" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H456" s="3" t="s">
         <v>36</v>
@@ -44650,20 +44785,34 @@
         <v>37</v>
       </c>
       <c r="J456" s="7">
-        <v>0</v>
-      </c>
-      <c r="K456" s="5"/>
-      <c r="L456" s="7"/>
-      <c r="M456" s="5"/>
-      <c r="N456" s="8"/>
-      <c r="O456" s="8"/>
-      <c r="P456" s="9"/>
-      <c r="Q456" s="8"/>
+        <v>9.270075e6</v>
+      </c>
+      <c r="K456" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="L456" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M456" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N456" s="8">
+        <v>44204</v>
+      </c>
+      <c r="O456" s="8">
+        <v>44204</v>
+      </c>
+      <c r="P456" s="9">
+        <v>44749</v>
+      </c>
+      <c r="Q456" s="8">
+        <v>44384</v>
+      </c>
       <c r="R456" s="5" t="s">
-        <v>1146</v>
+        <v>1153</v>
       </c>
       <c r="S456" s="5" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="T456" s="3" t="s">
         <v>33</v>
@@ -44672,37 +44821,37 @@
         <v>33</v>
       </c>
       <c r="V456" s="7">
-        <v>1.259784e6</v>
+        <v>820210</v>
       </c>
       <c r="W456" s="5" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="X456" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y456" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z456" s="5" t="s">
-        <v>650</v>
+        <v>429</v>
       </c>
       <c r="AA456" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB456" s="10">
-        <v>3000</v>
+        <v>40</v>
       </c>
       <c r="AC456" s="11">
-        <v>600000e-6</v>
+        <v>80</v>
       </c>
       <c r="AD456" s="11">
-        <v>600000e-6</v>
+        <v>80</v>
       </c>
       <c r="AE456" s="12">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="AF456" s="12">
-        <v>1800</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="457" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44713,19 +44862,19 @@
         <v>33</v>
       </c>
       <c r="C457" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D457" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D457" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E457" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F457" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G457" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H457" s="13" t="s">
         <v>36</v>
@@ -44734,20 +44883,34 @@
         <v>37</v>
       </c>
       <c r="J457" s="17">
-        <v>0</v>
-      </c>
-      <c r="K457" s="15"/>
-      <c r="L457" s="17"/>
-      <c r="M457" s="15"/>
-      <c r="N457" s="18"/>
-      <c r="O457" s="18"/>
-      <c r="P457" s="19"/>
-      <c r="Q457" s="18"/>
+        <v>9.270076e6</v>
+      </c>
+      <c r="K457" s="15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L457" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M457" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N457" s="18">
+        <v>44202</v>
+      </c>
+      <c r="O457" s="18">
+        <v>44202</v>
+      </c>
+      <c r="P457" s="19">
+        <v>44567</v>
+      </c>
+      <c r="Q457" s="18">
+        <v>44382</v>
+      </c>
       <c r="R457" s="15" t="s">
-        <v>1146</v>
+        <v>1157</v>
       </c>
       <c r="S457" s="15" t="s">
-        <v>1147</v>
+        <v>1158</v>
       </c>
       <c r="T457" s="13" t="s">
         <v>33</v>
@@ -44756,37 +44919,37 @@
         <v>33</v>
       </c>
       <c r="V457" s="17">
-        <v>1.259792e6</v>
+        <v>1.77517e6</v>
       </c>
       <c r="W457" s="15" t="s">
-        <v>1154</v>
+        <v>1159</v>
       </c>
       <c r="X457" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y457" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z457" s="15" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA457" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB457" s="21">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="AC457" s="22">
-        <v>15.35</v>
+        <v>275</v>
       </c>
       <c r="AD457" s="22">
-        <v>15.35</v>
+        <v>275</v>
       </c>
       <c r="AE457" s="23">
-        <v>1228</v>
+        <v>13200</v>
       </c>
       <c r="AF457" s="23">
-        <v>1228</v>
+        <v>13200</v>
       </c>
     </row>
     <row r="458" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44797,19 +44960,19 @@
         <v>33</v>
       </c>
       <c r="C458" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D458" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D458" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E458" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F458" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G458" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H458" s="3" t="s">
         <v>36</v>
@@ -44818,20 +44981,34 @@
         <v>37</v>
       </c>
       <c r="J458" s="7">
-        <v>0</v>
-      </c>
-      <c r="K458" s="5"/>
-      <c r="L458" s="7"/>
-      <c r="M458" s="5"/>
-      <c r="N458" s="8"/>
-      <c r="O458" s="8"/>
-      <c r="P458" s="9"/>
-      <c r="Q458" s="8"/>
+        <v>9.270077e6</v>
+      </c>
+      <c r="K458" s="5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="L458" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M458" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N458" s="8">
+        <v>44201</v>
+      </c>
+      <c r="O458" s="8">
+        <v>44201</v>
+      </c>
+      <c r="P458" s="9">
+        <v>44565</v>
+      </c>
+      <c r="Q458" s="8">
+        <v>44381</v>
+      </c>
       <c r="R458" s="5" t="s">
-        <v>1146</v>
+        <v>1087</v>
       </c>
       <c r="S458" s="5" t="s">
-        <v>1147</v>
+        <v>1088</v>
       </c>
       <c r="T458" s="3" t="s">
         <v>33</v>
@@ -44840,37 +45017,37 @@
         <v>33</v>
       </c>
       <c r="V458" s="7">
-        <v>1.260669e6</v>
+        <v>1538</v>
       </c>
       <c r="W458" s="5" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="X458" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y458" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z458" s="5" t="s">
-        <v>650</v>
+        <v>341</v>
       </c>
       <c r="AA458" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB458" s="10">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AC458" s="11">
-        <v>1.49</v>
+        <v>13.9</v>
       </c>
       <c r="AD458" s="11">
-        <v>1.49</v>
+        <v>13.9</v>
       </c>
       <c r="AE458" s="12">
-        <v>1490</v>
+        <v>4865</v>
       </c>
       <c r="AF458" s="12">
-        <v>1490</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="459" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44881,19 +45058,19 @@
         <v>33</v>
       </c>
       <c r="C459" s="14">
-        <v>43944</v>
-      </c>
-      <c r="D459" s="26" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D459" s="15" t="s">
         <v>1137</v>
       </c>
       <c r="E459" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F459" s="16">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G459" s="13" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H459" s="13" t="s">
         <v>36</v>
@@ -44902,20 +45079,34 @@
         <v>37</v>
       </c>
       <c r="J459" s="17">
-        <v>0</v>
-      </c>
-      <c r="K459" s="15"/>
-      <c r="L459" s="17"/>
-      <c r="M459" s="15"/>
-      <c r="N459" s="18"/>
-      <c r="O459" s="18"/>
-      <c r="P459" s="19"/>
-      <c r="Q459" s="18"/>
+        <v>9.270084e6</v>
+      </c>
+      <c r="K459" s="15" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L459" s="17">
+        <v>2310</v>
+      </c>
+      <c r="M459" s="15" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N459" s="18">
+        <v>44235</v>
+      </c>
+      <c r="O459" s="18">
+        <v>44233</v>
+      </c>
+      <c r="P459" s="19">
+        <v>44590</v>
+      </c>
+      <c r="Q459" s="18">
+        <v>44413</v>
+      </c>
       <c r="R459" s="15" t="s">
-        <v>1146</v>
+        <v>1163</v>
       </c>
       <c r="S459" s="15" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="T459" s="13" t="s">
         <v>33</v>
@@ -44924,37 +45115,37 @@
         <v>33</v>
       </c>
       <c r="V459" s="17">
-        <v>1.260677e6</v>
+        <v>1.770527e6</v>
       </c>
       <c r="W459" s="15" t="s">
-        <v>1156</v>
+        <v>1165</v>
       </c>
       <c r="X459" s="17">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y459" s="15" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z459" s="15" t="s">
-        <v>650</v>
+        <v>142</v>
       </c>
       <c r="AA459" s="13" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB459" s="21">
-        <v>3000</v>
+        <v>7</v>
       </c>
       <c r="AC459" s="22">
-        <v>1.59</v>
+        <v>280</v>
       </c>
       <c r="AD459" s="22">
-        <v>1.59</v>
+        <v>280</v>
       </c>
       <c r="AE459" s="23">
-        <v>4770</v>
+        <v>1960</v>
       </c>
       <c r="AF459" s="23">
-        <v>4770</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="460" s="1" customFormat="1" ht="18.1322" customHeight="1">
@@ -44965,19 +45156,19 @@
         <v>33</v>
       </c>
       <c r="C460" s="4">
-        <v>43944</v>
-      </c>
-      <c r="D460" s="25" t="s">
+        <v>44167</v>
+      </c>
+      <c r="D460" s="5" t="s">
         <v>1137</v>
       </c>
       <c r="E460" s="5" t="s">
         <v>33</v>
       </c>
       <c r="F460" s="6">
-        <v>2320</v>
+        <v>2310</v>
       </c>
       <c r="G460" s="3" t="s">
-        <v>1138</v>
+        <v>1056</v>
       </c>
       <c r="H460" s="3" t="s">
         <v>36</v>
@@ -44986,20 +45177,34 @@
         <v>37</v>
       </c>
       <c r="J460" s="7">
-        <v>0</v>
-      </c>
-      <c r="K460" s="5"/>
-      <c r="L460" s="7"/>
-      <c r="M460" s="5"/>
-      <c r="N460" s="8"/>
-      <c r="O460" s="8"/>
-      <c r="P460" s="9"/>
-      <c r="Q460" s="8"/>
+        <v>9.270084e6</v>
+      </c>
+      <c r="K460" s="5" t="s">
+        <v>1162</v>
+      </c>
+      <c r="L460" s="7">
+        <v>2310</v>
+      </c>
+      <c r="M460" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="N460" s="8">
+        <v>44235</v>
+      </c>
+      <c r="O460" s="8">
+        <v>44233</v>
+      </c>
+      <c r="P460" s="9">
+        <v>44590</v>
+      </c>
+      <c r="Q460" s="8">
+        <v>44413</v>
+      </c>
       <c r="R460" s="5" t="s">
-        <v>1146</v>
+        <v>1163</v>
       </c>
       <c r="S460" s="5" t="s">
-        <v>1147</v>
+        <v>1164</v>
       </c>
       <c r="T460" s="3" t="s">
         <v>33</v>
@@ -45008,42 +45213,42 @@
         <v>33</v>
       </c>
       <c r="V460" s="7">
-        <v>1.260731e6</v>
-      </c>
-      <c r="W460" s="24" t="s">
-        <v>1157</v>
+        <v>1.770616e6</v>
+      </c>
+      <c r="W460" s="5" t="s">
+        <v>1166</v>
       </c>
       <c r="X460" s="7">
-        <v>2321</v>
+        <v>2311</v>
       </c>
       <c r="Y460" s="5" t="s">
-        <v>1141</v>
+        <v>1056</v>
       </c>
       <c r="Z460" s="5" t="s">
-        <v>650</v>
+        <v>142</v>
       </c>
       <c r="AA460" s="3" t="s">
-        <v>627</v>
+        <v>1059</v>
       </c>
       <c r="AB460" s="10">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="AC460" s="11">
-        <v>271.97</v>
+        <v>280</v>
       </c>
       <c r="AD460" s="11">
-        <v>271.97</v>
+        <v>280</v>
       </c>
       <c r="AE460" s="12">
-        <v>16318.2</v>
+        <v>840</v>
       </c>
       <c r="AF460" s="12">
-        <v>16318.2</v>
+        <v>840</v>
       </c>
     </row>
     <row r="461" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A461" s="13" t="s">
-        <v>1136</v>
+        <v>1167</v>
       </c>
       <c r="B461" s="13" t="s">
         <v>33</v>
@@ -45052,7 +45257,7 @@
         <v>43944</v>
       </c>
       <c r="D461" s="26" t="s">
-        <v>1137</v>
+        <v>1168</v>
       </c>
       <c r="E461" s="15" t="s">
         <v>33</v>
@@ -45061,7 +45266,7 @@
         <v>2320</v>
       </c>
       <c r="G461" s="13" t="s">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="H461" s="13" t="s">
         <v>36</v>
@@ -45080,10 +45285,10 @@
       <c r="P461" s="19"/>
       <c r="Q461" s="18"/>
       <c r="R461" s="15" t="s">
-        <v>1146</v>
+        <v>1170</v>
       </c>
       <c r="S461" s="15" t="s">
-        <v>1147</v>
+        <v>1171</v>
       </c>
       <c r="T461" s="13" t="s">
         <v>33</v>
@@ -45092,42 +45297,42 @@
         <v>33</v>
       </c>
       <c r="V461" s="17">
-        <v>1.687115e6</v>
+        <v>1.692143e6</v>
       </c>
       <c r="W461" s="15" t="s">
-        <v>1158</v>
+        <v>629</v>
       </c>
       <c r="X461" s="17">
         <v>2321</v>
       </c>
       <c r="Y461" s="15" t="s">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="Z461" s="15" t="s">
-        <v>650</v>
+        <v>347</v>
       </c>
       <c r="AA461" s="13" t="s">
         <v>627</v>
       </c>
       <c r="AB461" s="21">
-        <v>60</v>
+        <v>3000</v>
       </c>
       <c r="AC461" s="22">
-        <v>16.65</v>
+        <v>8.2</v>
       </c>
       <c r="AD461" s="22">
-        <v>16.65</v>
+        <v>8.2</v>
       </c>
       <c r="AE461" s="23">
-        <v>999</v>
+        <v>24600</v>
       </c>
       <c r="AF461" s="23">
-        <v>999</v>
+        <v>24600</v>
       </c>
     </row>
     <row r="462" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A462" s="3" t="s">
-        <v>1136</v>
+        <v>1167</v>
       </c>
       <c r="B462" s="3" t="s">
         <v>33</v>
@@ -45136,7 +45341,7 @@
         <v>43944</v>
       </c>
       <c r="D462" s="25" t="s">
-        <v>1137</v>
+        <v>1168</v>
       </c>
       <c r="E462" s="5" t="s">
         <v>33</v>
@@ -45145,7 +45350,7 @@
         <v>2320</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="H462" s="3" t="s">
         <v>36</v>
@@ -45164,10 +45369,10 @@
       <c r="P462" s="9"/>
       <c r="Q462" s="8"/>
       <c r="R462" s="5" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="S462" s="5" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="T462" s="3" t="s">
         <v>33</v>
@@ -45176,16 +45381,16 @@
         <v>33</v>
       </c>
       <c r="V462" s="7">
-        <v>1.257463e6</v>
+        <v>1.143883e6</v>
       </c>
       <c r="W462" s="5" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
       <c r="X462" s="7">
         <v>2321</v>
       </c>
       <c r="Y462" s="5" t="s">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="Z462" s="5" t="s">
         <v>650</v>
@@ -45194,33 +45399,33 @@
         <v>627</v>
       </c>
       <c r="AB462" s="10">
-        <v>200</v>
+        <v>200000</v>
       </c>
       <c r="AC462" s="11">
-        <v>34.2</v>
+        <v>600000e-6</v>
       </c>
       <c r="AD462" s="11">
-        <v>34.2</v>
+        <v>600000e-6</v>
       </c>
       <c r="AE462" s="12">
-        <v>6840</v>
+        <v>120000</v>
       </c>
       <c r="AF462" s="12">
-        <v>6840</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="463" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A463" s="13" t="s">
-        <v>1162</v>
+        <v>1167</v>
       </c>
       <c r="B463" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C463" s="14">
-        <v>44012</v>
-      </c>
-      <c r="D463" s="15" t="s">
-        <v>1163</v>
+        <v>43944</v>
+      </c>
+      <c r="D463" s="26" t="s">
+        <v>1168</v>
       </c>
       <c r="E463" s="15" t="s">
         <v>33</v>
@@ -45229,7 +45434,7 @@
         <v>2320</v>
       </c>
       <c r="G463" s="13" t="s">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="H463" s="13" t="s">
         <v>36</v>
@@ -45248,10 +45453,10 @@
       <c r="P463" s="19"/>
       <c r="Q463" s="18"/>
       <c r="R463" s="15" t="s">
-        <v>610</v>
+        <v>991</v>
       </c>
       <c r="S463" s="15" t="s">
-        <v>611</v>
+        <v>992</v>
       </c>
       <c r="T463" s="13" t="s">
         <v>33</v>
@@ -45260,51 +45465,51 @@
         <v>33</v>
       </c>
       <c r="V463" s="17">
-        <v>1.408623e6</v>
+        <v>1.244515e6</v>
       </c>
       <c r="W463" s="15" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
       <c r="X463" s="17">
         <v>2321</v>
       </c>
       <c r="Y463" s="15" t="s">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="Z463" s="15" t="s">
-        <v>436</v>
+        <v>650</v>
       </c>
       <c r="AA463" s="13" t="s">
         <v>627</v>
       </c>
       <c r="AB463" s="21">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="AC463" s="22">
-        <v>18.69</v>
+        <v>20.1</v>
       </c>
       <c r="AD463" s="22">
-        <v>14.95</v>
+        <v>20.1</v>
       </c>
       <c r="AE463" s="23">
-        <v>37380</v>
+        <v>1005</v>
       </c>
       <c r="AF463" s="23">
-        <v>29900</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="464" s="1" customFormat="1" ht="18.1322" customHeight="1">
       <c r="A464" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B464" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C464" s="4">
-        <v>44034</v>
+        <v>43944</v>
       </c>
       <c r="D464" s="25" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E464" s="5" t="s">
         <v>33</v>
@@ -45313,43 +45518,29 @@
         <v>2320</v>
       </c>
       <c r="G464" s="3" t="s">
-        <v>1138</v>
+        <v>1169</v>
       </c>
       <c r="H464" s="3" t="s">
         <v>36</v>
       </c>
       <c r="I464" s="3" t="s">
-        <v>1167</v>
+        <v>37</v>
       </c>
       <c r="J464" s="7">
-        <v>9.260962e6</v>
-      </c>
-      <c r="K464" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L464" s="7">
-        <v>2320</v>
-      </c>
-      <c r="M464" s="5" t="s">
-        <v>1138</v>
-      </c>
-      <c r="N464" s="8">
-        <v>44056</v>
-      </c>
-      <c r="O464" s="8">
-        <v>44056</v>
-      </c>
-      <c r="P464" s="9">
-        <v>44240</v>
-      </c>
-      <c r="Q464" s="8">
-        <v>44240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K464" s="5"/>
+      <c r="L464" s="7"/>
+      <c r="M464" s="5"/>
+      <c r="N464" s="8"/>
+      <c r="O464" s="8"/>
+      <c r="P464" s="9"/>
+      <c r="Q464" s="8"/>
       <c r="R464" s="5" t="s">
-        <v>908</v>
+        <v>1177</v>
       </c>
       <c r="S464" s="5" t="s">
-        <v>909</v>
+        <v>1178</v>
       </c>
       <c r="T464" s="3" t="s">
         <v>33</v>
@@ -45358,40 +45549,1146 @@
         <v>33</v>
       </c>
       <c r="V464" s="7">
-        <v>1.758276e6</v>
+        <v>1.244108e6</v>
       </c>
       <c r="W464" s="5" t="s">
-        <v>910</v>
+        <v>1179</v>
       </c>
       <c r="X464" s="7">
         <v>2321</v>
       </c>
       <c r="Y464" s="5" t="s">
-        <v>1141</v>
+        <v>1172</v>
       </c>
       <c r="Z464" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA464" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB464" s="10">
+        <v>90</v>
+      </c>
+      <c r="AC464" s="11">
+        <v>358.24</v>
+      </c>
+      <c r="AD464" s="11">
+        <v>358.24</v>
+      </c>
+      <c r="AE464" s="12">
+        <v>32241.6</v>
+      </c>
+      <c r="AF464" s="12">
+        <v>32241.6</v>
+      </c>
+    </row>
+    <row r="465" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A465" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B465" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C465" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D465" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E465" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F465" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G465" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H465" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I465" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J465" s="17">
+        <v>0</v>
+      </c>
+      <c r="K465" s="15"/>
+      <c r="L465" s="17"/>
+      <c r="M465" s="15"/>
+      <c r="N465" s="18"/>
+      <c r="O465" s="18"/>
+      <c r="P465" s="19"/>
+      <c r="Q465" s="18"/>
+      <c r="R465" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S465" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T465" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U465" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V465" s="17">
+        <v>1.244507e6</v>
+      </c>
+      <c r="W465" s="15" t="s">
+        <v>1180</v>
+      </c>
+      <c r="X465" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y465" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z465" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA465" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB465" s="21">
+        <v>50</v>
+      </c>
+      <c r="AC465" s="22">
+        <v>34.9</v>
+      </c>
+      <c r="AD465" s="22">
+        <v>34.9</v>
+      </c>
+      <c r="AE465" s="23">
+        <v>1745</v>
+      </c>
+      <c r="AF465" s="23">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="466" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A466" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C466" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D466" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E466" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F466" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J466" s="7">
+        <v>0</v>
+      </c>
+      <c r="K466" s="5"/>
+      <c r="L466" s="7"/>
+      <c r="M466" s="5"/>
+      <c r="N466" s="8"/>
+      <c r="O466" s="8"/>
+      <c r="P466" s="9"/>
+      <c r="Q466" s="8"/>
+      <c r="R466" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S466" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T466" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U466" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V466" s="7">
+        <v>1.257587e6</v>
+      </c>
+      <c r="W466" s="5" t="s">
+        <v>1181</v>
+      </c>
+      <c r="X466" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y466" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z466" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA466" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB466" s="10">
+        <v>80000</v>
+      </c>
+      <c r="AC466" s="11">
+        <v>390000e-6</v>
+      </c>
+      <c r="AD466" s="11">
+        <v>390000e-6</v>
+      </c>
+      <c r="AE466" s="12">
+        <v>31200</v>
+      </c>
+      <c r="AF466" s="12">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="467" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A467" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B467" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C467" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D467" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E467" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F467" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G467" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H467" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I467" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J467" s="17">
+        <v>0</v>
+      </c>
+      <c r="K467" s="15"/>
+      <c r="L467" s="17"/>
+      <c r="M467" s="15"/>
+      <c r="N467" s="18"/>
+      <c r="O467" s="18"/>
+      <c r="P467" s="19"/>
+      <c r="Q467" s="18"/>
+      <c r="R467" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S467" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T467" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U467" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V467" s="17">
+        <v>1.257625e6</v>
+      </c>
+      <c r="W467" s="15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="X467" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y467" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z467" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AA464" s="3" t="s">
+      <c r="AA467" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB467" s="21">
+        <v>90</v>
+      </c>
+      <c r="AC467" s="22">
+        <v>351</v>
+      </c>
+      <c r="AD467" s="22">
+        <v>351</v>
+      </c>
+      <c r="AE467" s="23">
+        <v>31590</v>
+      </c>
+      <c r="AF467" s="23">
+        <v>31590</v>
+      </c>
+    </row>
+    <row r="468" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A468" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C468" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D468" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E468" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F468" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J468" s="7">
+        <v>0</v>
+      </c>
+      <c r="K468" s="5"/>
+      <c r="L468" s="7"/>
+      <c r="M468" s="5"/>
+      <c r="N468" s="8"/>
+      <c r="O468" s="8"/>
+      <c r="P468" s="9"/>
+      <c r="Q468" s="8"/>
+      <c r="R468" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S468" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U468" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V468" s="7">
+        <v>1.258699e6</v>
+      </c>
+      <c r="W468" s="5" t="s">
+        <v>1183</v>
+      </c>
+      <c r="X468" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y468" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z468" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA468" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB468" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AC468" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="AD468" s="11">
+        <v>1.39</v>
+      </c>
+      <c r="AE468" s="12">
+        <v>2780</v>
+      </c>
+      <c r="AF468" s="12">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="469" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A469" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B469" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C469" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D469" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E469" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F469" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G469" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H469" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I469" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J469" s="17">
+        <v>0</v>
+      </c>
+      <c r="K469" s="15"/>
+      <c r="L469" s="17"/>
+      <c r="M469" s="15"/>
+      <c r="N469" s="18"/>
+      <c r="O469" s="18"/>
+      <c r="P469" s="19"/>
+      <c r="Q469" s="18"/>
+      <c r="R469" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S469" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T469" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U469" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V469" s="17">
+        <v>1.259784e6</v>
+      </c>
+      <c r="W469" s="15" t="s">
+        <v>1184</v>
+      </c>
+      <c r="X469" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y469" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z469" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA469" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB469" s="21">
+        <v>3000</v>
+      </c>
+      <c r="AC469" s="22">
+        <v>600000e-6</v>
+      </c>
+      <c r="AD469" s="22">
+        <v>600000e-6</v>
+      </c>
+      <c r="AE469" s="23">
+        <v>1800</v>
+      </c>
+      <c r="AF469" s="23">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="470" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A470" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C470" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D470" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E470" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F470" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J470" s="7">
+        <v>0</v>
+      </c>
+      <c r="K470" s="5"/>
+      <c r="L470" s="7"/>
+      <c r="M470" s="5"/>
+      <c r="N470" s="8"/>
+      <c r="O470" s="8"/>
+      <c r="P470" s="9"/>
+      <c r="Q470" s="8"/>
+      <c r="R470" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S470" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T470" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U470" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V470" s="7">
+        <v>1.259792e6</v>
+      </c>
+      <c r="W470" s="5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="X470" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y470" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z470" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA470" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB470" s="10">
+        <v>80</v>
+      </c>
+      <c r="AC470" s="11">
+        <v>15.35</v>
+      </c>
+      <c r="AD470" s="11">
+        <v>15.35</v>
+      </c>
+      <c r="AE470" s="12">
+        <v>1228</v>
+      </c>
+      <c r="AF470" s="12">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="471" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A471" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B471" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C471" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D471" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E471" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F471" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G471" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H471" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I471" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J471" s="17">
+        <v>0</v>
+      </c>
+      <c r="K471" s="15"/>
+      <c r="L471" s="17"/>
+      <c r="M471" s="15"/>
+      <c r="N471" s="18"/>
+      <c r="O471" s="18"/>
+      <c r="P471" s="19"/>
+      <c r="Q471" s="18"/>
+      <c r="R471" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S471" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T471" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U471" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V471" s="17">
+        <v>1.260669e6</v>
+      </c>
+      <c r="W471" s="15" t="s">
+        <v>1186</v>
+      </c>
+      <c r="X471" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y471" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z471" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA471" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB471" s="21">
+        <v>1000</v>
+      </c>
+      <c r="AC471" s="22">
+        <v>1.49</v>
+      </c>
+      <c r="AD471" s="22">
+        <v>1.49</v>
+      </c>
+      <c r="AE471" s="23">
+        <v>1490</v>
+      </c>
+      <c r="AF471" s="23">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="472" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A472" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C472" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D472" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E472" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F472" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J472" s="7">
+        <v>0</v>
+      </c>
+      <c r="K472" s="5"/>
+      <c r="L472" s="7"/>
+      <c r="M472" s="5"/>
+      <c r="N472" s="8"/>
+      <c r="O472" s="8"/>
+      <c r="P472" s="9"/>
+      <c r="Q472" s="8"/>
+      <c r="R472" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S472" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U472" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V472" s="7">
+        <v>1.260677e6</v>
+      </c>
+      <c r="W472" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="X472" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y472" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z472" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA472" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB472" s="10">
+        <v>3000</v>
+      </c>
+      <c r="AC472" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="AD472" s="11">
+        <v>1.59</v>
+      </c>
+      <c r="AE472" s="12">
+        <v>4770</v>
+      </c>
+      <c r="AF472" s="12">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="473" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A473" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B473" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C473" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D473" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E473" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F473" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G473" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H473" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I473" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J473" s="17">
+        <v>0</v>
+      </c>
+      <c r="K473" s="15"/>
+      <c r="L473" s="17"/>
+      <c r="M473" s="15"/>
+      <c r="N473" s="18"/>
+      <c r="O473" s="18"/>
+      <c r="P473" s="19"/>
+      <c r="Q473" s="18"/>
+      <c r="R473" s="15" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S473" s="15" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T473" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U473" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V473" s="17">
+        <v>1.260731e6</v>
+      </c>
+      <c r="W473" s="20" t="s">
+        <v>1188</v>
+      </c>
+      <c r="X473" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y473" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z473" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA473" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB473" s="21">
+        <v>60</v>
+      </c>
+      <c r="AC473" s="22">
+        <v>271.97</v>
+      </c>
+      <c r="AD473" s="22">
+        <v>271.97</v>
+      </c>
+      <c r="AE473" s="23">
+        <v>16318.2</v>
+      </c>
+      <c r="AF473" s="23">
+        <v>16318.2</v>
+      </c>
+    </row>
+    <row r="474" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A474" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C474" s="4">
+        <v>43944</v>
+      </c>
+      <c r="D474" s="25" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E474" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F474" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J474" s="7">
+        <v>0</v>
+      </c>
+      <c r="K474" s="5"/>
+      <c r="L474" s="7"/>
+      <c r="M474" s="5"/>
+      <c r="N474" s="8"/>
+      <c r="O474" s="8"/>
+      <c r="P474" s="9"/>
+      <c r="Q474" s="8"/>
+      <c r="R474" s="5" t="s">
+        <v>1177</v>
+      </c>
+      <c r="S474" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T474" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U474" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V474" s="7">
+        <v>1.687115e6</v>
+      </c>
+      <c r="W474" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="X474" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y474" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z474" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA474" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB474" s="10">
+        <v>60</v>
+      </c>
+      <c r="AC474" s="11">
+        <v>16.65</v>
+      </c>
+      <c r="AD474" s="11">
+        <v>16.65</v>
+      </c>
+      <c r="AE474" s="12">
+        <v>999</v>
+      </c>
+      <c r="AF474" s="12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="475" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A475" s="13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B475" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C475" s="14">
+        <v>43944</v>
+      </c>
+      <c r="D475" s="26" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E475" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F475" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G475" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H475" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I475" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J475" s="17">
+        <v>0</v>
+      </c>
+      <c r="K475" s="15"/>
+      <c r="L475" s="17"/>
+      <c r="M475" s="15"/>
+      <c r="N475" s="18"/>
+      <c r="O475" s="18"/>
+      <c r="P475" s="19"/>
+      <c r="Q475" s="18"/>
+      <c r="R475" s="15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="S475" s="15" t="s">
+        <v>1191</v>
+      </c>
+      <c r="T475" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U475" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V475" s="17">
+        <v>1.257463e6</v>
+      </c>
+      <c r="W475" s="15" t="s">
+        <v>1192</v>
+      </c>
+      <c r="X475" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y475" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z475" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="AA475" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB475" s="21">
+        <v>200</v>
+      </c>
+      <c r="AC475" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AD475" s="22">
+        <v>34.2</v>
+      </c>
+      <c r="AE475" s="23">
+        <v>6840</v>
+      </c>
+      <c r="AF475" s="23">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="476" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A476" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C476" s="4">
+        <v>44012</v>
+      </c>
+      <c r="D476" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E476" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F476" s="6">
+        <v>2320</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J476" s="7">
+        <v>0</v>
+      </c>
+      <c r="K476" s="5"/>
+      <c r="L476" s="7"/>
+      <c r="M476" s="5"/>
+      <c r="N476" s="8"/>
+      <c r="O476" s="8"/>
+      <c r="P476" s="9"/>
+      <c r="Q476" s="8"/>
+      <c r="R476" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="S476" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="T476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U476" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="V476" s="7">
+        <v>1.408623e6</v>
+      </c>
+      <c r="W476" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="X476" s="7">
+        <v>2321</v>
+      </c>
+      <c r="Y476" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z476" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="AA476" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB476" s="10">
+        <v>2000</v>
+      </c>
+      <c r="AC476" s="11">
+        <v>18.69</v>
+      </c>
+      <c r="AD476" s="11">
+        <v>14.95</v>
+      </c>
+      <c r="AE476" s="12">
+        <v>37380</v>
+      </c>
+      <c r="AF476" s="12">
+        <v>29900</v>
+      </c>
+    </row>
+    <row r="477" s="1" customFormat="1" ht="18.1322" customHeight="1">
+      <c r="A477" s="13" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B477" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C477" s="14">
+        <v>44034</v>
+      </c>
+      <c r="D477" s="26" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E477" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F477" s="16">
+        <v>2320</v>
+      </c>
+      <c r="G477" s="13" t="s">
+        <v>1169</v>
+      </c>
+      <c r="H477" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I477" s="13" t="s">
+        <v>1198</v>
+      </c>
+      <c r="J477" s="17">
+        <v>9.260962e6</v>
+      </c>
+      <c r="K477" s="15" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L477" s="17">
+        <v>2320</v>
+      </c>
+      <c r="M477" s="15" t="s">
+        <v>1169</v>
+      </c>
+      <c r="N477" s="18">
+        <v>44056</v>
+      </c>
+      <c r="O477" s="18">
+        <v>44056</v>
+      </c>
+      <c r="P477" s="19">
+        <v>44240</v>
+      </c>
+      <c r="Q477" s="18">
+        <v>44240</v>
+      </c>
+      <c r="R477" s="15" t="s">
+        <v>908</v>
+      </c>
+      <c r="S477" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="T477" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U477" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V477" s="17">
+        <v>1.758276e6</v>
+      </c>
+      <c r="W477" s="15" t="s">
+        <v>910</v>
+      </c>
+      <c r="X477" s="17">
+        <v>2321</v>
+      </c>
+      <c r="Y477" s="15" t="s">
+        <v>1172</v>
+      </c>
+      <c r="Z477" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="AA477" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AB464" s="10">
+      <c r="AB477" s="21">
         <v>7000</v>
       </c>
-      <c r="AC464" s="11">
+      <c r="AC477" s="22">
         <v>34.54</v>
       </c>
-      <c r="AD464" s="11">
+      <c r="AD477" s="22">
         <v>34.536</v>
       </c>
-      <c r="AE464" s="12">
+      <c r="AE477" s="23">
         <v>241780</v>
       </c>
-      <c r="AF464" s="12">
+      <c r="AF477" s="23">
         <v>241752</v>
       </c>
     </row>
-    <row r="465" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
+    <row r="478" s="1" customFormat="1" ht="28.7982" customHeight="1"/>
   </sheetData>
   <pageSetup paperSize="9" scale="100" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
